--- a/doc/设计文档/数据库设计/数据库设计.xlsx
+++ b/doc/设计文档/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表清单" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4321" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4326" uniqueCount="1329">
   <si>
     <t>序号</t>
   </si>
@@ -5310,6 +5310,26 @@
   </si>
   <si>
     <t>标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAUTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 'NORMAL'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前任务的生产状态，NORMAL、START、PAUSE、FINISHED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5585,7 +5605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5686,14 +5706,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5704,14 +5718,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5721,6 +5735,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7375,25 +7398,25 @@
       <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="38" t="s">
         <v>574</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>581</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -7712,25 +7735,25 @@
       <c r="B26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="38" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="35" t="s">
         <v>625</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
@@ -8153,25 +8176,25 @@
       <c r="B56" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="38" t="s">
         <v>572</v>
       </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="36"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="40"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="35" t="s">
         <v>632</v>
       </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="39"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="37"/>
     </row>
     <row r="58" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">
@@ -8485,25 +8508,25 @@
       <c r="B3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -8902,25 +8925,25 @@
       <c r="B31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
@@ -9239,25 +9262,25 @@
       <c r="B54" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="36"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="40"/>
     </row>
     <row r="55" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="37" t="s">
+      <c r="C55" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="39"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="37"/>
     </row>
     <row r="56" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
@@ -9624,25 +9647,25 @@
       <c r="B80" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C80" s="34" t="s">
+      <c r="C80" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="36"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="40"/>
     </row>
     <row r="81" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B81" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C81" s="37" t="s">
+      <c r="C81" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="39"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="37"/>
     </row>
     <row r="82" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B82" s="4" t="s">
@@ -10145,25 +10168,25 @@
       <c r="B115" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C115" s="34" t="s">
+      <c r="C115" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="D115" s="35"/>
-      <c r="E115" s="35"/>
-      <c r="F115" s="35"/>
-      <c r="G115" s="36"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="39"/>
+      <c r="G115" s="40"/>
     </row>
     <row r="116" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C116" s="37" t="s">
+      <c r="C116" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="D116" s="38"/>
-      <c r="E116" s="38"/>
-      <c r="F116" s="38"/>
-      <c r="G116" s="39"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="37"/>
     </row>
     <row r="117" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B117" s="4" t="s">
@@ -10648,25 +10671,25 @@
       <c r="B151" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C151" s="34" t="s">
+      <c r="C151" s="38" t="s">
         <v>650</v>
       </c>
-      <c r="D151" s="35"/>
-      <c r="E151" s="35"/>
-      <c r="F151" s="35"/>
-      <c r="G151" s="36"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="39"/>
+      <c r="F151" s="39"/>
+      <c r="G151" s="40"/>
     </row>
     <row r="152" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B152" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C152" s="37" t="s">
+      <c r="C152" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="D152" s="38"/>
-      <c r="E152" s="38"/>
-      <c r="F152" s="38"/>
-      <c r="G152" s="39"/>
+      <c r="D152" s="36"/>
+      <c r="E152" s="36"/>
+      <c r="F152" s="36"/>
+      <c r="G152" s="37"/>
     </row>
     <row r="153" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B153" s="4" t="s">
@@ -10963,25 +10986,25 @@
       <c r="B173" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C173" s="34" t="s">
+      <c r="C173" s="38" t="s">
         <v>661</v>
       </c>
-      <c r="D173" s="35"/>
-      <c r="E173" s="35"/>
-      <c r="F173" s="35"/>
-      <c r="G173" s="36"/>
+      <c r="D173" s="39"/>
+      <c r="E173" s="39"/>
+      <c r="F173" s="39"/>
+      <c r="G173" s="40"/>
     </row>
     <row r="174" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B174" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C174" s="37" t="s">
+      <c r="C174" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="D174" s="38"/>
-      <c r="E174" s="38"/>
-      <c r="F174" s="38"/>
-      <c r="G174" s="39"/>
+      <c r="D174" s="36"/>
+      <c r="E174" s="36"/>
+      <c r="F174" s="36"/>
+      <c r="G174" s="37"/>
     </row>
     <row r="175" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B175" s="4" t="s">
@@ -11256,25 +11279,25 @@
       <c r="B193" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C193" s="34" t="s">
+      <c r="C193" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="D193" s="35"/>
-      <c r="E193" s="35"/>
-      <c r="F193" s="35"/>
-      <c r="G193" s="36"/>
+      <c r="D193" s="39"/>
+      <c r="E193" s="39"/>
+      <c r="F193" s="39"/>
+      <c r="G193" s="40"/>
     </row>
     <row r="194" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B194" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C194" s="37" t="s">
+      <c r="C194" s="35" t="s">
         <v>769</v>
       </c>
-      <c r="D194" s="38"/>
-      <c r="E194" s="38"/>
-      <c r="F194" s="38"/>
-      <c r="G194" s="39"/>
+      <c r="D194" s="36"/>
+      <c r="E194" s="36"/>
+      <c r="F194" s="36"/>
+      <c r="G194" s="37"/>
     </row>
     <row r="195" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B195" s="4" t="s">
@@ -11631,25 +11654,25 @@
       <c r="B218" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C218" s="34" t="s">
+      <c r="C218" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="D218" s="35"/>
-      <c r="E218" s="35"/>
-      <c r="F218" s="35"/>
-      <c r="G218" s="36"/>
+      <c r="D218" s="39"/>
+      <c r="E218" s="39"/>
+      <c r="F218" s="39"/>
+      <c r="G218" s="40"/>
     </row>
     <row r="219" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B219" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C219" s="37" t="s">
+      <c r="C219" s="35" t="s">
         <v>869</v>
       </c>
-      <c r="D219" s="38"/>
-      <c r="E219" s="38"/>
-      <c r="F219" s="38"/>
-      <c r="G219" s="39"/>
+      <c r="D219" s="36"/>
+      <c r="E219" s="36"/>
+      <c r="F219" s="36"/>
+      <c r="G219" s="37"/>
     </row>
     <row r="220" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B220" s="4" t="s">
@@ -11928,25 +11951,25 @@
       <c r="B239" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C239" s="34" t="s">
+      <c r="C239" s="38" t="s">
         <v>1187</v>
       </c>
-      <c r="D239" s="35"/>
-      <c r="E239" s="35"/>
-      <c r="F239" s="35"/>
-      <c r="G239" s="36"/>
+      <c r="D239" s="39"/>
+      <c r="E239" s="39"/>
+      <c r="F239" s="39"/>
+      <c r="G239" s="40"/>
     </row>
     <row r="240" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B240" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C240" s="37" t="s">
+      <c r="C240" s="35" t="s">
         <v>870</v>
       </c>
-      <c r="D240" s="38"/>
-      <c r="E240" s="38"/>
-      <c r="F240" s="38"/>
-      <c r="G240" s="39"/>
+      <c r="D240" s="36"/>
+      <c r="E240" s="36"/>
+      <c r="F240" s="36"/>
+      <c r="G240" s="37"/>
     </row>
     <row r="241" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B241" s="4" t="s">
@@ -12225,25 +12248,25 @@
       <c r="B259" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C259" s="34" t="s">
+      <c r="C259" s="38" t="s">
         <v>1191</v>
       </c>
-      <c r="D259" s="35"/>
-      <c r="E259" s="35"/>
-      <c r="F259" s="35"/>
-      <c r="G259" s="36"/>
+      <c r="D259" s="39"/>
+      <c r="E259" s="39"/>
+      <c r="F259" s="39"/>
+      <c r="G259" s="40"/>
     </row>
     <row r="260" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B260" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C260" s="37" t="s">
+      <c r="C260" s="35" t="s">
         <v>871</v>
       </c>
-      <c r="D260" s="38"/>
-      <c r="E260" s="38"/>
-      <c r="F260" s="38"/>
-      <c r="G260" s="39"/>
+      <c r="D260" s="36"/>
+      <c r="E260" s="36"/>
+      <c r="F260" s="36"/>
+      <c r="G260" s="37"/>
     </row>
     <row r="261" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B261" s="4" t="s">
@@ -12519,6 +12542,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C151:G151"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C54:G54"/>
     <mergeCell ref="C260:G260"/>
     <mergeCell ref="C173:G173"/>
     <mergeCell ref="C193:G193"/>
@@ -12529,18 +12564,6 @@
     <mergeCell ref="C219:G219"/>
     <mergeCell ref="C218:G218"/>
     <mergeCell ref="C174:G174"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C151:G151"/>
-    <mergeCell ref="C152:G152"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12549,10 +12572,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G345"/>
+  <dimension ref="B2:G346"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:G55"/>
+    <sheetView tabSelected="1" topLeftCell="B100" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12569,25 +12592,25 @@
       <c r="B3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -12799,7 +12822,7 @@
         <v>149</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="41" t="s">
         <v>354</v>
       </c>
     </row>
@@ -12817,7 +12840,7 @@
         <v>264</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="44"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="6">
@@ -12833,7 +12856,7 @@
         <v>150</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="45"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="6">
@@ -13056,25 +13079,25 @@
       <c r="B35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="38" t="s">
         <v>749</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="35" t="s">
         <v>764</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="39"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="37"/>
     </row>
     <row r="37" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
@@ -13401,25 +13424,25 @@
       <c r="B59" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="38" t="s">
         <v>754</v>
       </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="36"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="40"/>
     </row>
     <row r="60" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="35" t="s">
         <v>756</v>
       </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="39"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="37"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
@@ -13746,25 +13769,25 @@
       <c r="B85" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="34" t="s">
+      <c r="C85" s="38" t="s">
         <v>982</v>
       </c>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="36"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="40"/>
     </row>
     <row r="86" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C86" s="35" t="s">
         <v>965</v>
       </c>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="39"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="37"/>
     </row>
     <row r="87" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
@@ -14106,7 +14129,7 @@
       <c r="F105" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="G105" s="40" t="s">
+      <c r="G105" s="44" t="s">
         <v>373</v>
       </c>
     </row>
@@ -14124,7 +14147,7 @@
         <v>348</v>
       </c>
       <c r="F106" s="2"/>
-      <c r="G106" s="41"/>
+      <c r="G106" s="45"/>
     </row>
     <row r="107" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B107" s="6">
@@ -14140,7 +14163,7 @@
         <v>348</v>
       </c>
       <c r="F107" s="2"/>
-      <c r="G107" s="42"/>
+      <c r="G107" s="46"/>
     </row>
     <row r="108" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B108" s="6">
@@ -14283,78 +14306,80 @@
       <c r="G115" s="24"/>
     </row>
     <row r="116" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B116" s="6">
-        <v>29</v>
-      </c>
+      <c r="B116" s="6"/>
       <c r="C116" s="2" t="s">
-        <v>128</v>
+        <v>1324</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>129</v>
+        <v>1325</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F116" s="2"/>
-      <c r="G116" s="24"/>
+        <v>1326</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G116" s="34" t="s">
+        <v>1328</v>
+      </c>
     </row>
     <row r="117" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B117" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F117" s="2"/>
-      <c r="G117" s="7"/>
+      <c r="G117" s="24"/>
     </row>
     <row r="118" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B118" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="7"/>
     </row>
     <row r="119" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B119" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="7"/>
     </row>
     <row r="120" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B120" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>170</v>
@@ -14364,161 +14389,159 @@
     </row>
     <row r="121" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B121" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="7"/>
     </row>
     <row r="122" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B122" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="7"/>
     </row>
     <row r="123" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B123" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="7"/>
     </row>
-    <row r="124" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="8">
+    <row r="124" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B124" s="6">
+        <v>36</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" s="7"/>
+    </row>
+    <row r="125" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="8">
         <v>37</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C125" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D125" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E125" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F124" s="9"/>
-      <c r="G124" s="10"/>
-    </row>
-    <row r="126" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B127" s="3" t="s">
+      <c r="F125" s="9"/>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="127" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B128" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C127" s="34" t="s">
+      <c r="C128" s="38" t="s">
         <v>981</v>
       </c>
-      <c r="D127" s="35"/>
-      <c r="E127" s="35"/>
-      <c r="F127" s="35"/>
-      <c r="G127" s="36"/>
-    </row>
-    <row r="128" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B128" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C128" s="37" t="s">
-        <v>388</v>
-      </c>
-      <c r="D128" s="38"/>
-      <c r="E128" s="38"/>
-      <c r="F128" s="38"/>
-      <c r="G128" s="39"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="39"/>
+      <c r="F128" s="39"/>
+      <c r="G128" s="40"/>
     </row>
     <row r="129" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B129" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C129" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="D129" s="36"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="36"/>
+      <c r="G129" s="37"/>
+    </row>
+    <row r="130" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B130" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F130" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G129" s="5" t="s">
+      <c r="G130" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B130" s="6">
-        <v>1</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G130" s="7"/>
     </row>
     <row r="131" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B131" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>966</v>
+        <v>389</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G131" s="7"/>
     </row>
     <row r="132" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B132" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>362</v>
+        <v>149</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>157</v>
@@ -14527,125 +14550,127 @@
     </row>
     <row r="133" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B133" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F133" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G133" s="7"/>
     </row>
     <row r="134" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B134" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>371</v>
+        <v>983</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="7"/>
     </row>
     <row r="135" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B135" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>171</v>
+        <v>348</v>
       </c>
       <c r="F135" s="2"/>
-      <c r="G135" s="11"/>
+      <c r="G135" s="7"/>
     </row>
     <row r="136" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B136" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="11"/>
     </row>
     <row r="137" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B137" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>130</v>
+        <v>392</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>134</v>
+        <v>393</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F137" s="2"/>
-      <c r="G137" s="7"/>
+      <c r="G137" s="11"/>
     </row>
     <row r="138" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B138" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="7"/>
     </row>
     <row r="139" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B139" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="7"/>
     </row>
     <row r="140" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B140" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>170</v>
@@ -14655,276 +14680,276 @@
     </row>
     <row r="141" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B141" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="7"/>
     </row>
     <row r="142" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B142" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="7"/>
     </row>
     <row r="143" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B143" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="7"/>
     </row>
-    <row r="144" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="8">
+    <row r="144" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B144" s="6">
+        <v>14</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F144" s="2"/>
+      <c r="G144" s="7"/>
+    </row>
+    <row r="145" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="8">
         <v>15</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C145" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D145" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E144" s="9" t="s">
+      <c r="E145" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F144" s="9"/>
-      <c r="G144" s="10"/>
-    </row>
-    <row r="147" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="148" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B148" s="3" t="s">
+      <c r="F145" s="9"/>
+      <c r="G145" s="10"/>
+    </row>
+    <row r="148" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B149" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C148" s="34" t="s">
+      <c r="C149" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="D148" s="35"/>
-      <c r="E148" s="35"/>
-      <c r="F148" s="35"/>
-      <c r="G148" s="36"/>
-    </row>
-    <row r="149" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B149" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C149" s="37" t="s">
-        <v>398</v>
-      </c>
-      <c r="D149" s="38"/>
-      <c r="E149" s="38"/>
-      <c r="F149" s="38"/>
-      <c r="G149" s="39"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="39"/>
+      <c r="F149" s="39"/>
+      <c r="G149" s="40"/>
     </row>
     <row r="150" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B150" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C150" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="D150" s="36"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="37"/>
+    </row>
+    <row r="151" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B151" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F151" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G150" s="5" t="s">
+      <c r="G151" s="5" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B151" s="6">
-        <v>1</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G151" s="43" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="152" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B152" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>362</v>
+        <v>149</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G152" s="44"/>
+        <v>156</v>
+      </c>
+      <c r="G152" s="41" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="153" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B153" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G153" s="44"/>
+      <c r="G153" s="42"/>
     </row>
     <row r="154" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B154" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>115</v>
+        <v>405</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>151</v>
+        <v>363</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G154" s="45"/>
+        <v>157</v>
+      </c>
+      <c r="G154" s="42"/>
     </row>
     <row r="155" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B155" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>891</v>
+        <v>395</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>892</v>
+        <v>115</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="F155" s="2"/>
-      <c r="G155" s="23"/>
+        <v>151</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G155" s="43"/>
     </row>
     <row r="156" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B156" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>128</v>
+        <v>891</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>129</v>
+        <v>892</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>144</v>
+        <v>893</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="23"/>
     </row>
     <row r="157" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B157" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F157" s="2"/>
-      <c r="G157" s="7"/>
+      <c r="G157" s="23"/>
     </row>
     <row r="158" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B158" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="7"/>
     </row>
     <row r="159" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B159" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="7"/>
     </row>
     <row r="160" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B160" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>170</v>
@@ -14934,306 +14959,306 @@
     </row>
     <row r="161" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B161" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="7"/>
     </row>
     <row r="162" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B162" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="7"/>
     </row>
     <row r="163" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B163" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="7"/>
     </row>
-    <row r="164" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="8">
+    <row r="164" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B164" s="6">
+        <v>13</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F164" s="2"/>
+      <c r="G164" s="7"/>
+    </row>
+    <row r="165" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="8">
         <v>14</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C165" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D165" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E164" s="9" t="s">
+      <c r="E165" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F164" s="9"/>
-      <c r="G164" s="10"/>
-    </row>
-    <row r="166" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="167" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B167" s="3" t="s">
+      <c r="F165" s="9"/>
+      <c r="G165" s="10"/>
+    </row>
+    <row r="167" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="168" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B168" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C167" s="34" t="s">
+      <c r="C168" s="38" t="s">
         <v>858</v>
       </c>
-      <c r="D167" s="35"/>
-      <c r="E167" s="35"/>
-      <c r="F167" s="35"/>
-      <c r="G167" s="36"/>
-    </row>
-    <row r="168" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B168" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C168" s="37" t="s">
-        <v>894</v>
-      </c>
-      <c r="D168" s="38"/>
-      <c r="E168" s="38"/>
-      <c r="F168" s="38"/>
-      <c r="G168" s="39"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="39"/>
+      <c r="F168" s="39"/>
+      <c r="G168" s="40"/>
     </row>
     <row r="169" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B169" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C169" s="35" t="s">
+        <v>894</v>
+      </c>
+      <c r="D169" s="36"/>
+      <c r="E169" s="36"/>
+      <c r="F169" s="36"/>
+      <c r="G169" s="37"/>
+    </row>
+    <row r="170" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B170" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G169" s="5" t="s">
+      <c r="G170" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B170" s="6">
-        <v>1</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G170" s="7"/>
     </row>
     <row r="171" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B171" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>407</v>
+        <v>859</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G171" s="7"/>
     </row>
     <row r="172" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B172" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>860</v>
+        <v>407</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>889</v>
+        <v>409</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>412</v>
+        <v>149</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>413</v>
+        <v>157</v>
       </c>
       <c r="G172" s="7"/>
     </row>
     <row r="173" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B173" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F173" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="G173" s="7"/>
     </row>
     <row r="174" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B174" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>410</v>
+        <v>890</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="7"/>
     </row>
     <row r="175" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B175" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F175" s="2"/>
-      <c r="G175" s="14"/>
+      <c r="G175" s="7"/>
     </row>
     <row r="176" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B176" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F176" s="2"/>
-      <c r="G176" s="14" t="s">
-        <v>415</v>
-      </c>
+      <c r="G176" s="14"/>
     </row>
     <row r="177" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B177" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>128</v>
+        <v>864</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>129</v>
+        <v>414</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F177" s="2"/>
-      <c r="G177" s="11"/>
+      <c r="G177" s="14" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="178" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B178" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F178" s="2"/>
-      <c r="G178" s="7"/>
+      <c r="G178" s="11"/>
     </row>
     <row r="179" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B179" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="7"/>
     </row>
     <row r="180" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B180" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="7"/>
     </row>
     <row r="181" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B181" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>170</v>
@@ -15243,161 +15268,159 @@
     </row>
     <row r="182" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B182" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="7"/>
     </row>
     <row r="183" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B183" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="7"/>
     </row>
     <row r="184" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B184" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="7"/>
     </row>
-    <row r="185" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="8">
+    <row r="185" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B185" s="6">
+        <v>15</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F185" s="2"/>
+      <c r="G185" s="7"/>
+    </row>
+    <row r="186" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B186" s="8">
         <v>16</v>
       </c>
-      <c r="C185" s="9" t="s">
+      <c r="C186" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D185" s="9" t="s">
+      <c r="D186" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E185" s="9" t="s">
+      <c r="E186" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F185" s="9"/>
-      <c r="G185" s="10"/>
-    </row>
-    <row r="188" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B189" s="3" t="s">
+      <c r="F186" s="9"/>
+      <c r="G186" s="10"/>
+    </row>
+    <row r="189" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="190" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B190" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C189" s="34" t="s">
+      <c r="C190" s="38" t="s">
         <v>900</v>
       </c>
-      <c r="D189" s="35"/>
-      <c r="E189" s="35"/>
-      <c r="F189" s="35"/>
-      <c r="G189" s="36"/>
-    </row>
-    <row r="190" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B190" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C190" s="37" t="s">
-        <v>899</v>
-      </c>
-      <c r="D190" s="38"/>
-      <c r="E190" s="38"/>
-      <c r="F190" s="38"/>
-      <c r="G190" s="39"/>
+      <c r="D190" s="39"/>
+      <c r="E190" s="39"/>
+      <c r="F190" s="39"/>
+      <c r="G190" s="40"/>
     </row>
     <row r="191" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B191" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C191" s="35" t="s">
+        <v>899</v>
+      </c>
+      <c r="D191" s="36"/>
+      <c r="E191" s="36"/>
+      <c r="F191" s="36"/>
+      <c r="G191" s="37"/>
+    </row>
+    <row r="192" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B192" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F191" s="1" t="s">
+      <c r="F192" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G191" s="5" t="s">
+      <c r="G192" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B192" s="6">
-        <v>1</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G192" s="7"/>
     </row>
     <row r="193" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B193" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>362</v>
+        <v>149</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G193" s="7"/>
     </row>
     <row r="194" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B194" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>157</v>
@@ -15406,111 +15429,113 @@
     </row>
     <row r="195" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B195" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="F195" s="2"/>
-      <c r="G195" s="14"/>
+        <v>363</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G195" s="7"/>
     </row>
     <row r="196" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B196" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>395</v>
+        <v>907</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>115</v>
+        <v>908</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G196" s="23"/>
+        <v>909</v>
+      </c>
+      <c r="F196" s="2"/>
+      <c r="G196" s="14"/>
     </row>
     <row r="197" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B197" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>128</v>
+        <v>395</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F197" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="G197" s="23"/>
     </row>
     <row r="198" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B198" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F198" s="2"/>
-      <c r="G198" s="7"/>
+      <c r="G198" s="23"/>
     </row>
     <row r="199" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B199" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="7"/>
     </row>
     <row r="200" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B200" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="7"/>
     </row>
     <row r="201" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B201" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>170</v>
@@ -15520,158 +15545,156 @@
     </row>
     <row r="202" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B202" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="7"/>
     </row>
     <row r="203" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B203" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="7"/>
     </row>
     <row r="204" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B204" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="7"/>
     </row>
-    <row r="205" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="8">
+    <row r="205" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B205" s="6">
+        <v>13</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F205" s="2"/>
+      <c r="G205" s="7"/>
+    </row>
+    <row r="206" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B206" s="8">
         <v>14</v>
       </c>
-      <c r="C205" s="9" t="s">
+      <c r="C206" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D205" s="9" t="s">
+      <c r="D206" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E205" s="9" t="s">
+      <c r="E206" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F205" s="9"/>
-      <c r="G205" s="10"/>
-    </row>
-    <row r="207" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="208" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B208" s="3" t="s">
+      <c r="F206" s="9"/>
+      <c r="G206" s="10"/>
+    </row>
+    <row r="208" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="209" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B209" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C208" s="34" t="s">
+      <c r="C209" s="38" t="s">
         <v>910</v>
       </c>
-      <c r="D208" s="35"/>
-      <c r="E208" s="35"/>
-      <c r="F208" s="35"/>
-      <c r="G208" s="36"/>
-    </row>
-    <row r="209" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B209" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C209" s="37" t="s">
-        <v>943</v>
-      </c>
-      <c r="D209" s="38"/>
-      <c r="E209" s="38"/>
-      <c r="F209" s="38"/>
-      <c r="G209" s="39"/>
+      <c r="D209" s="39"/>
+      <c r="E209" s="39"/>
+      <c r="F209" s="39"/>
+      <c r="G209" s="40"/>
     </row>
     <row r="210" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B210" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C210" s="35" t="s">
+        <v>943</v>
+      </c>
+      <c r="D210" s="36"/>
+      <c r="E210" s="36"/>
+      <c r="F210" s="36"/>
+      <c r="G210" s="37"/>
+    </row>
+    <row r="211" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B211" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F210" s="1" t="s">
+      <c r="F211" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G210" s="5" t="s">
+      <c r="G211" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="211" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B211" s="6">
-        <v>1</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G211" s="7"/>
     </row>
     <row r="212" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B212" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>911</v>
+        <v>431</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>141</v>
+        <v>913</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G212" s="7"/>
     </row>
     <row r="213" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B213" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>141</v>
@@ -15683,265 +15706,267 @@
     </row>
     <row r="214" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B214" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>401</v>
+        <v>914</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>404</v>
+        <v>915</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G214" s="14"/>
+      <c r="G214" s="7"/>
     </row>
     <row r="215" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B215" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G215" s="24"/>
+      <c r="G215" s="14"/>
     </row>
     <row r="216" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B216" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>932</v>
+        <v>402</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>933</v>
+        <v>405</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>934</v>
+        <v>143</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="G216" s="24" t="s">
-        <v>936</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G216" s="24"/>
     </row>
     <row r="217" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B217" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>916</v>
+        <v>932</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>917</v>
+        <v>933</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>141</v>
+        <v>934</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>918</v>
+        <v>935</v>
       </c>
       <c r="G217" s="24" t="s">
-        <v>919</v>
+        <v>936</v>
       </c>
     </row>
     <row r="218" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B218" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F218" s="2"/>
-      <c r="G218" s="24"/>
+        <v>141</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="G218" s="24" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="219" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B219" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="24"/>
     </row>
-    <row r="220" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B220" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>921</v>
+        <v>931</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="G220" s="24" t="s">
-        <v>922</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="F220" s="2"/>
+      <c r="G220" s="24"/>
     </row>
     <row r="221" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="B221" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>945</v>
+        <v>920</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>947</v>
+        <v>921</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>924</v>
+        <v>944</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>510</v>
+        <v>927</v>
       </c>
       <c r="G221" s="24" t="s">
-        <v>941</v>
+        <v>922</v>
       </c>
     </row>
     <row r="222" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="B222" s="6">
+        <v>11</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="G222" s="24" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B223" s="6">
         <v>12</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C223" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="D222" s="2" t="s">
+      <c r="D223" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="E223" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="F222" s="2" t="s">
+      <c r="F223" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="G222" s="24" t="s">
+      <c r="G223" s="24" t="s">
         <v>942</v>
-      </c>
-    </row>
-    <row r="223" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B223" s="6">
-        <v>13</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="G223" s="24" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="224" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B224" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>128</v>
+        <v>937</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>129</v>
+        <v>938</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F224" s="2"/>
-      <c r="G224" s="24"/>
+        <v>949</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="G224" s="24" t="s">
+        <v>940</v>
+      </c>
     </row>
     <row r="225" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B225" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F225" s="2"/>
-      <c r="G225" s="7"/>
+      <c r="G225" s="24"/>
     </row>
     <row r="226" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B226" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F226" s="2"/>
       <c r="G226" s="7"/>
     </row>
     <row r="227" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B227" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" s="7"/>
     </row>
     <row r="228" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B228" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>153</v>
@@ -15951,161 +15976,159 @@
     </row>
     <row r="229" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B229" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F229" s="2"/>
       <c r="G229" s="7"/>
     </row>
     <row r="230" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B230" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" s="7"/>
     </row>
     <row r="231" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B231" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="F231" s="2"/>
       <c r="G231" s="7"/>
     </row>
-    <row r="232" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B232" s="6">
+        <v>21</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F232" s="2"/>
+      <c r="G232" s="7"/>
+    </row>
+    <row r="233" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B233" s="6">
         <v>22</v>
       </c>
-      <c r="C232" s="9" t="s">
+      <c r="C233" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D232" s="9" t="s">
+      <c r="D233" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E232" s="9" t="s">
+      <c r="E233" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F232" s="9"/>
-      <c r="G232" s="10"/>
-    </row>
-    <row r="235" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="236" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B236" s="3" t="s">
+      <c r="F233" s="9"/>
+      <c r="G233" s="10"/>
+    </row>
+    <row r="236" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="237" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B237" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C236" s="34" t="s">
+      <c r="C237" s="38" t="s">
         <v>962</v>
       </c>
-      <c r="D236" s="35"/>
-      <c r="E236" s="35"/>
-      <c r="F236" s="35"/>
-      <c r="G236" s="36"/>
-    </row>
-    <row r="237" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B237" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C237" s="37" t="s">
-        <v>990</v>
-      </c>
-      <c r="D237" s="38"/>
-      <c r="E237" s="38"/>
-      <c r="F237" s="38"/>
-      <c r="G237" s="39"/>
+      <c r="D237" s="39"/>
+      <c r="E237" s="39"/>
+      <c r="F237" s="39"/>
+      <c r="G237" s="40"/>
     </row>
     <row r="238" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B238" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C238" s="35" t="s">
+        <v>990</v>
+      </c>
+      <c r="D238" s="36"/>
+      <c r="E238" s="36"/>
+      <c r="F238" s="36"/>
+      <c r="G238" s="37"/>
+    </row>
+    <row r="239" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B239" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C239" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E238" s="1" t="s">
+      <c r="E239" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F238" s="1" t="s">
+      <c r="F239" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G238" s="5" t="s">
+      <c r="G239" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="239" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B239" s="6">
-        <v>1</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G239" s="7"/>
     </row>
     <row r="240" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B240" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>951</v>
+        <v>431</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>423</v>
+        <v>149</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G240" s="7"/>
     </row>
     <row r="241" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B241" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>102</v>
+        <v>951</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>157</v>
@@ -16114,16 +16137,16 @@
     </row>
     <row r="242" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B242" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>106</v>
+        <v>422</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>154</v>
+        <v>424</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>157</v>
@@ -16132,16 +16155,16 @@
     </row>
     <row r="243" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B243" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>157</v>
@@ -16150,68 +16173,68 @@
     </row>
     <row r="244" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B244" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F244" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G244" s="7"/>
     </row>
     <row r="245" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B245" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="F245" s="2"/>
       <c r="G245" s="7"/>
     </row>
     <row r="246" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B246" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>957</v>
+        <v>104</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>958</v>
+        <v>107</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>923</v>
+        <v>954</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="G246" s="14"/>
+        <v>157</v>
+      </c>
+      <c r="G246" s="7"/>
     </row>
     <row r="247" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B247" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>952</v>
+        <v>923</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>955</v>
@@ -16220,97 +16243,99 @@
     </row>
     <row r="248" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B248" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>939</v>
+        <v>952</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="G248" s="14" t="s">
-        <v>960</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G248" s="14"/>
     </row>
     <row r="249" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B249" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>128</v>
+        <v>959</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>129</v>
+        <v>953</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F249" s="2"/>
-      <c r="G249" s="24"/>
+        <v>939</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="G249" s="14" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="250" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B250" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F250" s="2"/>
-      <c r="G250" s="7"/>
+      <c r="G250" s="24"/>
     </row>
     <row r="251" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B251" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F251" s="2"/>
       <c r="G251" s="7"/>
     </row>
     <row r="252" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B252" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F252" s="2"/>
       <c r="G252" s="7"/>
     </row>
     <row r="253" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B253" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>170</v>
@@ -16320,161 +16345,159 @@
     </row>
     <row r="254" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B254" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" s="7"/>
     </row>
     <row r="255" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B255" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F255" s="2"/>
       <c r="G255" s="7"/>
     </row>
     <row r="256" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B256" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="F256" s="2"/>
       <c r="G256" s="7"/>
     </row>
-    <row r="257" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B257" s="8">
+    <row r="257" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B257" s="6">
+        <v>18</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F257" s="2"/>
+      <c r="G257" s="7"/>
+    </row>
+    <row r="258" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B258" s="8">
         <v>19</v>
       </c>
-      <c r="C257" s="9" t="s">
+      <c r="C258" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D257" s="9" t="s">
+      <c r="D258" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E257" s="9" t="s">
+      <c r="E258" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F257" s="9"/>
-      <c r="G257" s="10"/>
-    </row>
-    <row r="260" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="261" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B261" s="3" t="s">
+      <c r="F258" s="9"/>
+      <c r="G258" s="10"/>
+    </row>
+    <row r="261" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="262" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B262" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C261" s="34" t="s">
+      <c r="C262" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D261" s="35"/>
-      <c r="E261" s="35"/>
-      <c r="F261" s="35"/>
-      <c r="G261" s="36"/>
-    </row>
-    <row r="262" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B262" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C262" s="37" t="s">
-        <v>964</v>
-      </c>
-      <c r="D262" s="38"/>
-      <c r="E262" s="38"/>
-      <c r="F262" s="38"/>
-      <c r="G262" s="39"/>
+      <c r="D262" s="39"/>
+      <c r="E262" s="39"/>
+      <c r="F262" s="39"/>
+      <c r="G262" s="40"/>
     </row>
     <row r="263" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B263" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C263" s="35" t="s">
+        <v>964</v>
+      </c>
+      <c r="D263" s="36"/>
+      <c r="E263" s="36"/>
+      <c r="F263" s="36"/>
+      <c r="G263" s="37"/>
+    </row>
+    <row r="264" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B264" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C264" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E263" s="1" t="s">
+      <c r="E264" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F263" s="1" t="s">
+      <c r="F264" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G263" s="5" t="s">
+      <c r="G264" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="264" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B264" s="6">
-        <v>1</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G264" s="7"/>
     </row>
     <row r="265" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B265" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>436</v>
+        <v>141</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G265" s="7"/>
     </row>
     <row r="266" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B266" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>157</v>
@@ -16483,16 +16506,16 @@
     </row>
     <row r="267" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B267" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>102</v>
+        <v>432</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>157</v>
@@ -16501,113 +16524,115 @@
     </row>
     <row r="268" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B268" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>346</v>
+        <v>102</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>348</v>
+        <v>424</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>349</v>
+        <v>157</v>
       </c>
       <c r="G268" s="7"/>
     </row>
     <row r="269" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B269" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>425</v>
+        <v>346</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>427</v>
+        <v>348</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>428</v>
+        <v>349</v>
       </c>
       <c r="G269" s="7"/>
     </row>
     <row r="270" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B270" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>128</v>
+        <v>425</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>129</v>
+        <v>426</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F270" s="2"/>
-      <c r="G270" s="11"/>
+        <v>427</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G270" s="7"/>
     </row>
     <row r="271" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B271" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F271" s="2"/>
-      <c r="G271" s="7"/>
+      <c r="G271" s="11"/>
     </row>
     <row r="272" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B272" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" s="7"/>
     </row>
     <row r="273" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B273" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F273" s="2"/>
       <c r="G273" s="7"/>
     </row>
     <row r="274" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B274" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>153</v>
@@ -16617,161 +16642,159 @@
     </row>
     <row r="275" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B275" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" s="7"/>
     </row>
     <row r="276" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B276" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F276" s="2"/>
       <c r="G276" s="7"/>
     </row>
     <row r="277" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B277" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="F277" s="2"/>
       <c r="G277" s="7"/>
     </row>
-    <row r="278" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B278" s="8">
+    <row r="278" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B278" s="6">
+        <v>14</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F278" s="2"/>
+      <c r="G278" s="7"/>
+    </row>
+    <row r="279" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B279" s="8">
         <v>15</v>
       </c>
-      <c r="C278" s="9" t="s">
+      <c r="C279" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D278" s="9" t="s">
+      <c r="D279" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E278" s="9" t="s">
+      <c r="E279" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F278" s="9"/>
-      <c r="G278" s="10"/>
-    </row>
-    <row r="281" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="282" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B282" s="3" t="s">
+      <c r="F279" s="9"/>
+      <c r="G279" s="10"/>
+    </row>
+    <row r="282" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="283" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B283" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C282" s="34" t="s">
+      <c r="C283" s="38" t="s">
         <v>457</v>
       </c>
-      <c r="D282" s="35"/>
-      <c r="E282" s="35"/>
-      <c r="F282" s="35"/>
-      <c r="G282" s="36"/>
-    </row>
-    <row r="283" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B283" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C283" s="37" t="s">
-        <v>459</v>
-      </c>
-      <c r="D283" s="38"/>
-      <c r="E283" s="38"/>
-      <c r="F283" s="38"/>
-      <c r="G283" s="39"/>
+      <c r="D283" s="39"/>
+      <c r="E283" s="39"/>
+      <c r="F283" s="39"/>
+      <c r="G283" s="40"/>
     </row>
     <row r="284" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B284" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C284" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="D284" s="36"/>
+      <c r="E284" s="36"/>
+      <c r="F284" s="36"/>
+      <c r="G284" s="37"/>
+    </row>
+    <row r="285" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B285" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="C285" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="D285" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E284" s="1" t="s">
+      <c r="E285" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F284" s="1" t="s">
+      <c r="F285" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G284" s="5" t="s">
+      <c r="G285" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="285" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B285" s="6">
-        <v>1</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G285" s="7"/>
     </row>
     <row r="286" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B286" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>462</v>
+        <v>380</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G286" s="7"/>
     </row>
     <row r="287" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B287" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>171</v>
+        <v>461</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>157</v>
@@ -16780,16 +16803,16 @@
     </row>
     <row r="288" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B288" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>157</v>
@@ -16798,147 +16821,149 @@
     </row>
     <row r="289" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B289" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="F289" s="2"/>
-      <c r="G289" s="7" t="s">
-        <v>472</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G289" s="7"/>
     </row>
     <row r="290" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B290" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
       <c r="F290" s="2"/>
-      <c r="G290" s="7"/>
+      <c r="G290" s="7" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="291" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B291" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>477</v>
       </c>
       <c r="F291" s="2"/>
-      <c r="G291" s="14"/>
+      <c r="G291" s="7"/>
     </row>
     <row r="292" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B292" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="G292" s="14" t="s">
-        <v>483</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="F292" s="2"/>
+      <c r="G292" s="14"/>
     </row>
     <row r="293" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B293" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>128</v>
+        <v>478</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>129</v>
+        <v>479</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F293" s="2"/>
-      <c r="G293" s="11"/>
+        <v>481</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G293" s="14" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="294" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B294" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>480</v>
+        <v>144</v>
       </c>
       <c r="F294" s="2"/>
-      <c r="G294" s="7"/>
+      <c r="G294" s="11"/>
     </row>
     <row r="295" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B295" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="F295" s="2"/>
       <c r="G295" s="7"/>
     </row>
     <row r="296" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B296" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>153</v>
+        <v>468</v>
       </c>
       <c r="F296" s="2"/>
       <c r="G296" s="7"/>
     </row>
     <row r="297" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B297" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>153</v>
@@ -16948,161 +16973,159 @@
     </row>
     <row r="298" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B298" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F298" s="2"/>
       <c r="G298" s="7"/>
     </row>
     <row r="299" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B299" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>464</v>
+        <v>142</v>
       </c>
       <c r="F299" s="2"/>
       <c r="G299" s="7"/>
     </row>
     <row r="300" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B300" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>142</v>
+        <v>464</v>
       </c>
       <c r="F300" s="2"/>
       <c r="G300" s="7"/>
     </row>
-    <row r="301" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="8">
+    <row r="301" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B301" s="6">
+        <v>16</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F301" s="2"/>
+      <c r="G301" s="7"/>
+    </row>
+    <row r="302" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B302" s="8">
         <v>17</v>
       </c>
-      <c r="C301" s="9" t="s">
+      <c r="C302" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D301" s="9" t="s">
+      <c r="D302" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E301" s="9" t="s">
+      <c r="E302" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F301" s="9"/>
-      <c r="G301" s="10"/>
-    </row>
-    <row r="304" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="305" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B305" s="3" t="s">
+      <c r="F302" s="9"/>
+      <c r="G302" s="10"/>
+    </row>
+    <row r="305" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="306" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B306" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C305" s="34" t="s">
+      <c r="C306" s="38" t="s">
         <v>438</v>
       </c>
-      <c r="D305" s="35"/>
-      <c r="E305" s="35"/>
-      <c r="F305" s="35"/>
-      <c r="G305" s="36"/>
-    </row>
-    <row r="306" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B306" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C306" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="D306" s="38"/>
-      <c r="E306" s="38"/>
-      <c r="F306" s="38"/>
-      <c r="G306" s="39"/>
+      <c r="D306" s="39"/>
+      <c r="E306" s="39"/>
+      <c r="F306" s="39"/>
+      <c r="G306" s="40"/>
     </row>
     <row r="307" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B307" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C307" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="D307" s="36"/>
+      <c r="E307" s="36"/>
+      <c r="F307" s="36"/>
+      <c r="G307" s="37"/>
+    </row>
+    <row r="308" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B308" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C307" s="1" t="s">
+      <c r="C308" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D307" s="1" t="s">
+      <c r="D308" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E307" s="1" t="s">
+      <c r="E308" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F307" s="1" t="s">
+      <c r="F308" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G307" s="5" t="s">
+      <c r="G308" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="308" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B308" s="6">
-        <v>1</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G308" s="7"/>
     </row>
     <row r="309" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B309" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G309" s="7"/>
     </row>
     <row r="310" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B310" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>484</v>
+        <v>443</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>436</v>
+        <v>142</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>157</v>
@@ -17111,34 +17134,34 @@
     </row>
     <row r="311" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B311" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>447</v>
+        <v>157</v>
       </c>
       <c r="G311" s="7"/>
     </row>
     <row r="312" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B312" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>447</v>
@@ -17147,29 +17170,31 @@
     </row>
     <row r="313" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B313" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F313" s="2"/>
-      <c r="G313" s="14"/>
+        <v>427</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G313" s="7"/>
     </row>
     <row r="314" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B314" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>454</v>
@@ -17179,77 +17204,77 @@
     </row>
     <row r="315" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B315" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>128</v>
+        <v>451</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>129</v>
+        <v>453</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>144</v>
+        <v>454</v>
       </c>
       <c r="F315" s="2"/>
-      <c r="G315" s="11"/>
+      <c r="G315" s="14"/>
     </row>
     <row r="316" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B316" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F316" s="2"/>
-      <c r="G316" s="7"/>
+      <c r="G316" s="11"/>
     </row>
     <row r="317" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B317" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F317" s="2"/>
       <c r="G317" s="7"/>
     </row>
     <row r="318" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B318" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F318" s="2"/>
       <c r="G318" s="7"/>
     </row>
     <row r="319" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B319" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>153</v>
@@ -17259,181 +17284,179 @@
     </row>
     <row r="320" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B320" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F320" s="2"/>
       <c r="G320" s="7"/>
     </row>
     <row r="321" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B321" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F321" s="2"/>
       <c r="G321" s="7"/>
     </row>
     <row r="322" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B322" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="F322" s="2"/>
       <c r="G322" s="7"/>
     </row>
-    <row r="323" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B323" s="8">
+    <row r="323" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B323" s="6">
+        <v>15</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F323" s="2"/>
+      <c r="G323" s="7"/>
+    </row>
+    <row r="324" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B324" s="8">
         <v>16</v>
       </c>
-      <c r="C323" s="9" t="s">
+      <c r="C324" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D323" s="9" t="s">
+      <c r="D324" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E323" s="9" t="s">
+      <c r="E324" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F323" s="9"/>
-      <c r="G323" s="10"/>
-    </row>
-    <row r="326" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="327" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B327" s="3" t="s">
+      <c r="F324" s="9"/>
+      <c r="G324" s="10"/>
+    </row>
+    <row r="327" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="328" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B328" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C327" s="34" t="s">
+      <c r="C328" s="38" t="s">
         <v>486</v>
       </c>
-      <c r="D327" s="35"/>
-      <c r="E327" s="35"/>
-      <c r="F327" s="35"/>
-      <c r="G327" s="36"/>
-    </row>
-    <row r="328" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B328" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C328" s="37" t="s">
-        <v>488</v>
-      </c>
-      <c r="D328" s="38"/>
-      <c r="E328" s="38"/>
-      <c r="F328" s="38"/>
-      <c r="G328" s="39"/>
+      <c r="D328" s="39"/>
+      <c r="E328" s="39"/>
+      <c r="F328" s="39"/>
+      <c r="G328" s="40"/>
     </row>
     <row r="329" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B329" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C329" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="D329" s="36"/>
+      <c r="E329" s="36"/>
+      <c r="F329" s="36"/>
+      <c r="G329" s="37"/>
+    </row>
+    <row r="330" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B330" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="C330" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D329" s="1" t="s">
+      <c r="D330" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E329" s="1" t="s">
+      <c r="E330" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F329" s="1" t="s">
+      <c r="F330" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G329" s="5" t="s">
+      <c r="G330" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="330" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B330" s="6">
-        <v>1</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F330" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G330" s="7"/>
     </row>
     <row r="331" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B331" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>485</v>
+        <v>141</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G331" s="7" t="s">
-        <v>497</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G331" s="7"/>
     </row>
     <row r="332" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B332" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>141</v>
+        <v>485</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G332" s="7"/>
+      <c r="G332" s="7" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="333" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B333" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>157</v>
@@ -17442,16 +17465,16 @@
     </row>
     <row r="334" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B334" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>157</v>
@@ -17460,103 +17483,105 @@
     </row>
     <row r="335" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B335" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>104</v>
+        <v>493</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>107</v>
+        <v>496</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F335" s="2"/>
-      <c r="G335" s="14"/>
+        <v>143</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G335" s="7"/>
     </row>
     <row r="336" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B336" s="6">
-        <v>7</v>
-      </c>
-      <c r="C336" s="2"/>
-      <c r="D336" s="2"/>
-      <c r="E336" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="F336" s="2"/>
       <c r="G336" s="14"/>
     </row>
     <row r="337" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B337" s="6">
-        <v>8</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>144</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C337" s="2"/>
+      <c r="D337" s="2"/>
+      <c r="E337" s="2"/>
       <c r="F337" s="2"/>
-      <c r="G337" s="11"/>
+      <c r="G337" s="14"/>
     </row>
     <row r="338" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B338" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F338" s="2"/>
-      <c r="G338" s="7"/>
+      <c r="G338" s="11"/>
     </row>
     <row r="339" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B339" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F339" s="2"/>
       <c r="G339" s="7"/>
     </row>
     <row r="340" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B340" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F340" s="2"/>
       <c r="G340" s="7"/>
     </row>
     <row r="341" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B341" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>153</v>
@@ -17566,83 +17591,94 @@
     </row>
     <row r="342" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B342" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F342" s="2"/>
       <c r="G342" s="7"/>
     </row>
     <row r="343" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B343" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F343" s="2"/>
       <c r="G343" s="7"/>
     </row>
     <row r="344" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B344" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="F344" s="2"/>
       <c r="G344" s="7"/>
     </row>
-    <row r="345" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B345" s="8">
+    <row r="345" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B345" s="6">
+        <v>15</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F345" s="2"/>
+      <c r="G345" s="7"/>
+    </row>
+    <row r="346" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B346" s="8">
         <v>16</v>
       </c>
-      <c r="C345" s="9" t="s">
+      <c r="C346" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D345" s="9" t="s">
+      <c r="D346" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E345" s="9" t="s">
+      <c r="E346" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F345" s="9"/>
-      <c r="G345" s="10"/>
+      <c r="F346" s="9"/>
+      <c r="G346" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C237:G237"/>
-    <mergeCell ref="C127:G127"/>
-    <mergeCell ref="C128:G128"/>
-    <mergeCell ref="C189:G189"/>
-    <mergeCell ref="C190:G190"/>
-    <mergeCell ref="C148:G148"/>
-    <mergeCell ref="C149:G149"/>
-    <mergeCell ref="C167:G167"/>
-    <mergeCell ref="C168:G168"/>
-    <mergeCell ref="G151:G154"/>
-    <mergeCell ref="C236:G236"/>
-    <mergeCell ref="C208:G208"/>
-    <mergeCell ref="C209:G209"/>
+    <mergeCell ref="C328:G328"/>
+    <mergeCell ref="C329:G329"/>
+    <mergeCell ref="C262:G262"/>
+    <mergeCell ref="C263:G263"/>
+    <mergeCell ref="C306:G306"/>
+    <mergeCell ref="C307:G307"/>
+    <mergeCell ref="C283:G283"/>
+    <mergeCell ref="C284:G284"/>
     <mergeCell ref="G105:G107"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
@@ -17653,14 +17689,19 @@
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="C59:G59"/>
     <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C327:G327"/>
-    <mergeCell ref="C328:G328"/>
-    <mergeCell ref="C261:G261"/>
-    <mergeCell ref="C262:G262"/>
-    <mergeCell ref="C305:G305"/>
-    <mergeCell ref="C306:G306"/>
-    <mergeCell ref="C282:G282"/>
-    <mergeCell ref="C283:G283"/>
+    <mergeCell ref="C238:G238"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="C190:G190"/>
+    <mergeCell ref="C191:G191"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="C150:G150"/>
+    <mergeCell ref="C168:G168"/>
+    <mergeCell ref="C169:G169"/>
+    <mergeCell ref="G152:G155"/>
+    <mergeCell ref="C237:G237"/>
+    <mergeCell ref="C209:G209"/>
+    <mergeCell ref="C210:G210"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17689,25 +17730,25 @@
       <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="38" t="s">
         <v>1203</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>1202</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -17950,25 +17991,25 @@
       <c r="B20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="38" t="s">
         <v>1212</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="35" t="s">
         <v>1243</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
@@ -18241,25 +18282,25 @@
       <c r="B40" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="38" t="s">
         <v>1267</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="40"/>
     </row>
     <row r="41" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="35" t="s">
         <v>1238</v>
       </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="39"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="37"/>
     </row>
     <row r="42" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
@@ -18606,25 +18647,25 @@
       <c r="B64" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="38" t="s">
         <v>1222</v>
       </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="36"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="40"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="35" t="s">
         <v>1252</v>
       </c>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="39"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="37"/>
     </row>
     <row r="66" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
@@ -18903,25 +18944,25 @@
       <c r="B84" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="38" t="s">
         <v>1249</v>
       </c>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="36"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="40"/>
     </row>
     <row r="85" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B85" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="C85" s="35" t="s">
         <v>1250</v>
       </c>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="39"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="37"/>
     </row>
     <row r="86" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
@@ -19162,25 +19203,25 @@
       <c r="B102" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C102" s="34" t="s">
+      <c r="C102" s="38" t="s">
         <v>1253</v>
       </c>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="36"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="40"/>
     </row>
     <row r="103" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B103" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C103" s="37" t="s">
+      <c r="C103" s="35" t="s">
         <v>1254</v>
       </c>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="39"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="37"/>
     </row>
     <row r="104" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B104" s="4" t="s">
@@ -19437,25 +19478,25 @@
       <c r="B122" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C122" s="34" t="s">
+      <c r="C122" s="38" t="s">
         <v>1282</v>
       </c>
-      <c r="D122" s="35"/>
-      <c r="E122" s="35"/>
-      <c r="F122" s="35"/>
-      <c r="G122" s="36"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="39"/>
+      <c r="G122" s="40"/>
     </row>
     <row r="123" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B123" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C123" s="37" t="s">
+      <c r="C123" s="35" t="s">
         <v>1283</v>
       </c>
-      <c r="D123" s="38"/>
-      <c r="E123" s="38"/>
-      <c r="F123" s="38"/>
-      <c r="G123" s="39"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="37"/>
     </row>
     <row r="124" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B124" s="4" t="s">
@@ -19779,11 +19820,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C64:G64"/>
     <mergeCell ref="C122:G122"/>
     <mergeCell ref="C123:G123"/>
     <mergeCell ref="C102:G102"/>
@@ -19793,6 +19829,11 @@
     <mergeCell ref="C84:G84"/>
     <mergeCell ref="C85:G85"/>
     <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C64:G64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19821,25 +19862,25 @@
       <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="38" t="s">
         <v>671</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -20114,25 +20155,25 @@
       <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="38" t="s">
         <v>672</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
@@ -20413,25 +20454,25 @@
       <c r="B44" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="38" t="s">
         <v>673</v>
       </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="40"/>
     </row>
     <row r="45" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="39"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="37"/>
     </row>
     <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
@@ -20774,25 +20815,25 @@
       <c r="B69" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="38" t="s">
         <v>674</v>
       </c>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="36"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="40"/>
     </row>
     <row r="70" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B70" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C70" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="39"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="37"/>
     </row>
     <row r="71" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B71" s="4" t="s">
@@ -21355,25 +21396,25 @@
       <c r="B108" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C108" s="34" t="s">
+      <c r="C108" s="38" t="s">
         <v>1177</v>
       </c>
-      <c r="D108" s="35"/>
-      <c r="E108" s="35"/>
-      <c r="F108" s="35"/>
-      <c r="G108" s="36"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="40"/>
     </row>
     <row r="109" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B109" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C109" s="37" t="s">
+      <c r="C109" s="35" t="s">
         <v>1161</v>
       </c>
-      <c r="D109" s="38"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="39"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="37"/>
     </row>
     <row r="110" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B110" s="4" t="s">
@@ -21517,7 +21558,7 @@
       <c r="F117" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G117" s="46" t="s">
+      <c r="G117" s="47" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -21535,7 +21576,7 @@
         <v>264</v>
       </c>
       <c r="F118" s="2"/>
-      <c r="G118" s="47"/>
+      <c r="G118" s="48"/>
     </row>
     <row r="119" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B119" s="6">
@@ -21551,7 +21592,7 @@
         <v>143</v>
       </c>
       <c r="F119" s="2"/>
-      <c r="G119" s="47"/>
+      <c r="G119" s="48"/>
     </row>
     <row r="120" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B120" s="6">
@@ -21567,7 +21608,7 @@
         <v>150</v>
       </c>
       <c r="F120" s="2"/>
-      <c r="G120" s="48"/>
+      <c r="G120" s="49"/>
     </row>
     <row r="121" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B121" s="6">
@@ -21583,7 +21624,7 @@
         <v>511</v>
       </c>
       <c r="F121" s="2"/>
-      <c r="G121" s="46" t="s">
+      <c r="G121" s="47" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -21601,7 +21642,7 @@
         <v>213</v>
       </c>
       <c r="F122" s="2"/>
-      <c r="G122" s="47"/>
+      <c r="G122" s="48"/>
     </row>
     <row r="123" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B123" s="6">
@@ -21617,7 +21658,7 @@
         <v>143</v>
       </c>
       <c r="F123" s="2"/>
-      <c r="G123" s="48"/>
+      <c r="G123" s="49"/>
     </row>
     <row r="124" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B124" s="6">
@@ -21633,7 +21674,7 @@
         <v>141</v>
       </c>
       <c r="F124" s="2"/>
-      <c r="G124" s="46" t="s">
+      <c r="G124" s="47" t="s">
         <v>1166</v>
       </c>
     </row>
@@ -21651,7 +21692,7 @@
         <v>142</v>
       </c>
       <c r="F125" s="2"/>
-      <c r="G125" s="47"/>
+      <c r="G125" s="48"/>
     </row>
     <row r="126" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B126" s="6">
@@ -21667,7 +21708,7 @@
         <v>143</v>
       </c>
       <c r="F126" s="2"/>
-      <c r="G126" s="48"/>
+      <c r="G126" s="49"/>
     </row>
     <row r="127" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B127" s="6">
@@ -21683,7 +21724,7 @@
         <v>141</v>
       </c>
       <c r="F127" s="2"/>
-      <c r="G127" s="46" t="s">
+      <c r="G127" s="47" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -21701,7 +21742,7 @@
         <v>142</v>
       </c>
       <c r="F128" s="2"/>
-      <c r="G128" s="47"/>
+      <c r="G128" s="48"/>
     </row>
     <row r="129" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B129" s="6">
@@ -21717,7 +21758,7 @@
         <v>143</v>
       </c>
       <c r="F129" s="2"/>
-      <c r="G129" s="48"/>
+      <c r="G129" s="49"/>
     </row>
     <row r="130" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B130" s="6">
@@ -21902,25 +21943,25 @@
       <c r="B143" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C143" s="34" t="s">
+      <c r="C143" s="38" t="s">
         <v>1178</v>
       </c>
-      <c r="D143" s="35"/>
-      <c r="E143" s="35"/>
-      <c r="F143" s="35"/>
-      <c r="G143" s="36"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="39"/>
+      <c r="F143" s="39"/>
+      <c r="G143" s="40"/>
     </row>
     <row r="144" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B144" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C144" s="37" t="s">
+      <c r="C144" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D144" s="38"/>
-      <c r="E144" s="38"/>
-      <c r="F144" s="38"/>
-      <c r="G144" s="39"/>
+      <c r="D144" s="36"/>
+      <c r="E144" s="36"/>
+      <c r="F144" s="36"/>
+      <c r="G144" s="37"/>
     </row>
     <row r="145" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B145" s="4" t="s">
@@ -22110,7 +22151,7 @@
         <v>511</v>
       </c>
       <c r="F155" s="2"/>
-      <c r="G155" s="46" t="s">
+      <c r="G155" s="47" t="s">
         <v>1169</v>
       </c>
     </row>
@@ -22128,7 +22169,7 @@
         <v>213</v>
       </c>
       <c r="F156" s="2"/>
-      <c r="G156" s="47"/>
+      <c r="G156" s="48"/>
     </row>
     <row r="157" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B157" s="6">
@@ -22144,7 +22185,7 @@
         <v>143</v>
       </c>
       <c r="F157" s="2"/>
-      <c r="G157" s="48"/>
+      <c r="G157" s="49"/>
     </row>
     <row r="158" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B158" s="6">
@@ -22160,7 +22201,7 @@
         <v>141</v>
       </c>
       <c r="F158" s="2"/>
-      <c r="G158" s="46" t="s">
+      <c r="G158" s="47" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -22178,7 +22219,7 @@
         <v>142</v>
       </c>
       <c r="F159" s="2"/>
-      <c r="G159" s="47"/>
+      <c r="G159" s="48"/>
     </row>
     <row r="160" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B160" s="6">
@@ -22194,7 +22235,7 @@
         <v>143</v>
       </c>
       <c r="F160" s="2"/>
-      <c r="G160" s="48"/>
+      <c r="G160" s="49"/>
     </row>
     <row r="161" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B161" s="6">
@@ -22210,7 +22251,7 @@
         <v>141</v>
       </c>
       <c r="F161" s="2"/>
-      <c r="G161" s="46" t="s">
+      <c r="G161" s="47" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -22228,7 +22269,7 @@
         <v>142</v>
       </c>
       <c r="F162" s="2"/>
-      <c r="G162" s="47"/>
+      <c r="G162" s="48"/>
     </row>
     <row r="163" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B163" s="6">
@@ -22244,7 +22285,7 @@
         <v>143</v>
       </c>
       <c r="F163" s="2"/>
-      <c r="G163" s="48"/>
+      <c r="G163" s="49"/>
     </row>
     <row r="164" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B164" s="6">
@@ -22408,6 +22449,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C44:G44"/>
     <mergeCell ref="G155:G157"/>
     <mergeCell ref="G158:G160"/>
     <mergeCell ref="G161:G163"/>
@@ -22419,14 +22468,6 @@
     <mergeCell ref="G121:G123"/>
     <mergeCell ref="G124:G126"/>
     <mergeCell ref="G127:G129"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C44:G44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22438,8 +22479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22456,25 +22497,25 @@
       <c r="B3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="38" t="s">
         <v>713</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -22512,7 +22553,7 @@
       <c r="F6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="47" t="s">
         <v>374</v>
       </c>
     </row>
@@ -22532,7 +22573,7 @@
       <c r="F7" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="6">
@@ -22550,7 +22591,7 @@
       <c r="F8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="48"/>
+      <c r="G8" s="49"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
@@ -22851,25 +22892,25 @@
       <c r="B30" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="38" t="s">
         <v>714</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
     </row>
     <row r="31" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
@@ -23150,25 +23191,25 @@
       <c r="B51" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="38" t="s">
         <v>1314</v>
       </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="36"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="40"/>
     </row>
     <row r="52" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="37" t="s">
+      <c r="C52" s="35" t="s">
         <v>1307</v>
       </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="39"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="37"/>
     </row>
     <row r="53" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
@@ -23500,25 +23541,25 @@
       <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="38" t="s">
         <v>1076</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="35" t="s">
         <v>1075</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -23783,25 +23824,25 @@
       <c r="B25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="38" t="s">
         <v>992</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
     </row>
     <row r="26" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="35" t="s">
         <v>999</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
@@ -24060,25 +24101,25 @@
       <c r="B45" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="38" t="s">
         <v>1004</v>
       </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="40"/>
     </row>
     <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="35" t="s">
         <v>1005</v>
       </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="39"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="37"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
@@ -24341,25 +24382,25 @@
       <c r="B64" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="38" t="s">
         <v>1020</v>
       </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="36"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="40"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="35" t="s">
         <v>1021</v>
       </c>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="39"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="37"/>
     </row>
     <row r="66" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
@@ -24742,25 +24783,25 @@
       <c r="B91" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C91" s="34" t="s">
+      <c r="C91" s="38" t="s">
         <v>1037</v>
       </c>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="36"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="40"/>
     </row>
     <row r="92" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B92" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C92" s="37" t="s">
+      <c r="C92" s="35" t="s">
         <v>1038</v>
       </c>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="39"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="37"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B93" s="4" t="s">
@@ -25151,25 +25192,25 @@
       <c r="B117" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C117" s="34" t="s">
+      <c r="C117" s="38" t="s">
         <v>1069</v>
       </c>
-      <c r="D117" s="35"/>
-      <c r="E117" s="35"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="36"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="39"/>
+      <c r="G117" s="40"/>
     </row>
     <row r="118" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B118" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C118" s="37" t="s">
+      <c r="C118" s="35" t="s">
         <v>1080</v>
       </c>
-      <c r="D118" s="38"/>
-      <c r="E118" s="38"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="39"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="37"/>
     </row>
     <row r="119" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B119" s="4" t="s">
@@ -25365,7 +25406,7 @@
       <c r="F129" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G129" s="46" t="s">
+      <c r="G129" s="47" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -25385,7 +25426,7 @@
       <c r="F130" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G130" s="47"/>
+      <c r="G130" s="48"/>
     </row>
     <row r="131" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B131" s="6">
@@ -25403,7 +25444,7 @@
       <c r="F131" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G131" s="47"/>
+      <c r="G131" s="48"/>
     </row>
     <row r="132" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B132" s="6">
@@ -25419,7 +25460,7 @@
         <v>144</v>
       </c>
       <c r="F132" s="2"/>
-      <c r="G132" s="47"/>
+      <c r="G132" s="48"/>
     </row>
     <row r="133" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B133" s="6">
@@ -25437,7 +25478,7 @@
       <c r="F133" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G133" s="48"/>
+      <c r="G133" s="49"/>
     </row>
     <row r="134" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B134" s="6">
@@ -25870,25 +25911,25 @@
       <c r="B162" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C162" s="34" t="s">
+      <c r="C162" s="38" t="s">
         <v>1121</v>
       </c>
-      <c r="D162" s="35"/>
-      <c r="E162" s="35"/>
-      <c r="F162" s="35"/>
-      <c r="G162" s="36"/>
+      <c r="D162" s="39"/>
+      <c r="E162" s="39"/>
+      <c r="F162" s="39"/>
+      <c r="G162" s="40"/>
     </row>
     <row r="163" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B163" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C163" s="37" t="s">
+      <c r="C163" s="35" t="s">
         <v>1122</v>
       </c>
-      <c r="D163" s="38"/>
-      <c r="E163" s="38"/>
-      <c r="F163" s="38"/>
-      <c r="G163" s="39"/>
+      <c r="D163" s="36"/>
+      <c r="E163" s="36"/>
+      <c r="F163" s="36"/>
+      <c r="G163" s="37"/>
     </row>
     <row r="164" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B164" s="4" t="s">
@@ -26309,25 +26350,25 @@
       <c r="B191" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C191" s="34" t="s">
+      <c r="C191" s="38" t="s">
         <v>1134</v>
       </c>
-      <c r="D191" s="35"/>
-      <c r="E191" s="35"/>
-      <c r="F191" s="35"/>
-      <c r="G191" s="36"/>
+      <c r="D191" s="39"/>
+      <c r="E191" s="39"/>
+      <c r="F191" s="39"/>
+      <c r="G191" s="40"/>
     </row>
     <row r="192" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B192" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C192" s="37" t="s">
+      <c r="C192" s="35" t="s">
         <v>1135</v>
       </c>
-      <c r="D192" s="38"/>
-      <c r="E192" s="38"/>
-      <c r="F192" s="38"/>
-      <c r="G192" s="39"/>
+      <c r="D192" s="36"/>
+      <c r="E192" s="36"/>
+      <c r="F192" s="36"/>
+      <c r="G192" s="37"/>
     </row>
     <row r="193" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B193" s="4" t="s">
@@ -26607,6 +26648,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C162:G162"/>
+    <mergeCell ref="C163:G163"/>
+    <mergeCell ref="C191:G191"/>
+    <mergeCell ref="C192:G192"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="G129:G133"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C65:G65"/>
@@ -26617,13 +26665,6 @@
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C64:G64"/>
-    <mergeCell ref="C162:G162"/>
-    <mergeCell ref="C163:G163"/>
-    <mergeCell ref="C191:G191"/>
-    <mergeCell ref="C192:G192"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="G129:G133"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26652,25 +26693,25 @@
       <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="38" t="s">
         <v>796</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>819</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -26951,25 +26992,25 @@
       <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="38" t="s">
         <v>818</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="35" t="s">
         <v>820</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">

--- a/doc/设计文档/数据库设计/数据库设计.xlsx
+++ b/doc/设计文档/数据库设计/数据库设计.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4326" uniqueCount="1329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4422" uniqueCount="1360">
   <si>
     <t>序号</t>
   </si>
@@ -5330,6 +5330,130 @@
   </si>
   <si>
     <t>当前任务的生产状态，NORMAL、START、PAUSE、FINISHED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO_FEEDBACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产报工记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO_FEEDBACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产报工记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECORD_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产工单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产工单编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产工单名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TASK_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产任务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TASK_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产任务编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排产数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUANTITY_FEEDBACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报工人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEEDBACK_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报工时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUANTITY_QUALIFIED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUANTITY_UNQUALIFIED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合格数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次报工数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICK_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEEDBACK_CHANNEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报工途径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAD、MOBILE、PC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6057,8 +6181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6497,9 +6621,15 @@
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>1331</v>
+      </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -12572,10 +12702,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G346"/>
+  <dimension ref="B2:G378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B100" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="F364" sqref="F364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17669,8 +17799,481 @@
       <c r="F346" s="9"/>
       <c r="G346" s="10"/>
     </row>
+    <row r="349" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="350" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B350" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C350" s="38" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D350" s="39"/>
+      <c r="E350" s="39"/>
+      <c r="F350" s="39"/>
+      <c r="G350" s="40"/>
+    </row>
+    <row r="351" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B351" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C351" s="35" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D351" s="36"/>
+      <c r="E351" s="36"/>
+      <c r="F351" s="36"/>
+      <c r="G351" s="37"/>
+    </row>
+    <row r="352" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B352" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G352" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B353" s="6">
+        <v>1</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G353" s="7"/>
+    </row>
+    <row r="354" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B354" s="6">
+        <v>2</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G354" s="7"/>
+    </row>
+    <row r="355" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B355" s="6">
+        <v>3</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F355" s="2"/>
+      <c r="G355" s="7"/>
+    </row>
+    <row r="356" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B356" s="6">
+        <v>4</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F356" s="2"/>
+      <c r="G356" s="7"/>
+    </row>
+    <row r="357" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B357" s="6">
+        <v>5</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G357" s="7"/>
+    </row>
+    <row r="358" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B358" s="6">
+        <v>6</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F358" s="2"/>
+      <c r="G358" s="7"/>
+    </row>
+    <row r="359" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B359" s="6">
+        <v>7</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F359" s="2"/>
+      <c r="G359" s="7"/>
+    </row>
+    <row r="360" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B360" s="6">
+        <v>8</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F360" s="2"/>
+      <c r="G360" s="14"/>
+    </row>
+    <row r="361" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B361" s="6">
+        <v>9</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F361" s="2"/>
+      <c r="G361" s="14"/>
+    </row>
+    <row r="362" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B362" s="6">
+        <v>10</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F362" s="2"/>
+      <c r="G362" s="14"/>
+    </row>
+    <row r="363" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B363" s="6">
+        <v>11</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G363" s="14"/>
+    </row>
+    <row r="364" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B364" s="6">
+        <v>12</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F364" s="2"/>
+      <c r="G364" s="14"/>
+    </row>
+    <row r="365" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B365" s="6">
+        <v>13</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F365" s="2"/>
+      <c r="G365" s="14"/>
+    </row>
+    <row r="366" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B366" s="6">
+        <v>14</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F366" s="2"/>
+      <c r="G366" s="14"/>
+    </row>
+    <row r="367" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B367" s="6">
+        <v>15</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F367" s="2"/>
+      <c r="G367" s="14"/>
+    </row>
+    <row r="368" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B368" s="6">
+        <v>16</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F368" s="2"/>
+      <c r="G368" s="14" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="369" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B369" s="6">
+        <v>17</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F369" s="2"/>
+      <c r="G369" s="14"/>
+    </row>
+    <row r="370" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B370" s="6">
+        <v>18</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F370" s="2"/>
+      <c r="G370" s="34"/>
+    </row>
+    <row r="371" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B371" s="6">
+        <v>19</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F371" s="2"/>
+      <c r="G371" s="7"/>
+    </row>
+    <row r="372" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B372" s="6">
+        <v>20</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F372" s="2"/>
+      <c r="G372" s="7"/>
+    </row>
+    <row r="373" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B373" s="6">
+        <v>21</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F373" s="2"/>
+      <c r="G373" s="7"/>
+    </row>
+    <row r="374" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B374" s="6">
+        <v>22</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F374" s="2"/>
+      <c r="G374" s="7"/>
+    </row>
+    <row r="375" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B375" s="6">
+        <v>23</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F375" s="2"/>
+      <c r="G375" s="7"/>
+    </row>
+    <row r="376" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B376" s="6">
+        <v>24</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F376" s="2"/>
+      <c r="G376" s="7"/>
+    </row>
+    <row r="377" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B377" s="6">
+        <v>25</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F377" s="2"/>
+      <c r="G377" s="7"/>
+    </row>
+    <row r="378" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B378" s="6">
+        <v>26</v>
+      </c>
+      <c r="C378" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D378" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E378" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F378" s="9"/>
+      <c r="G378" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
+    <mergeCell ref="C350:G350"/>
+    <mergeCell ref="C351:G351"/>
     <mergeCell ref="C328:G328"/>
     <mergeCell ref="C329:G329"/>
     <mergeCell ref="C262:G262"/>

--- a/doc/设计文档/数据库设计/数据库设计.xlsx
+++ b/doc/设计文档/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表清单" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="MO模具管理" sheetId="9" r:id="rId9"/>
     <sheet name="SYS系统管理" sheetId="7" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4422" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4623" uniqueCount="1391">
   <si>
     <t>序号</t>
   </si>
@@ -5454,6 +5454,130 @@
   </si>
   <si>
     <t>PAD、MOBILE、PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WM_ISSUE_HEADER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产领料头表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领料单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领料单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领料单名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKSTATION_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKSTATION_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TASK_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TASK_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产任务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产任务编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKORDER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKORDER_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产工单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产工单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领料日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来记录领到哪里去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认的领出仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WM_ISSUE_LINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产领料单行表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUANTITY_ISSUED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领料数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5729,7 +5853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5833,14 +5957,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5851,14 +5969,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5868,6 +5986,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7528,25 +7655,25 @@
       <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>574</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="39" t="s">
         <v>581</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -7865,25 +7992,25 @@
       <c r="B26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="39" t="s">
         <v>625</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
@@ -8306,25 +8433,25 @@
       <c r="B56" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="36" t="s">
         <v>572</v>
       </c>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="40"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="38"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="39" t="s">
         <v>632</v>
       </c>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="37"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="41"/>
     </row>
     <row r="58" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">
@@ -8638,25 +8765,25 @@
       <c r="B3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -9055,25 +9182,25 @@
       <c r="B31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
@@ -9392,25 +9519,25 @@
       <c r="B54" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="40"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="38"/>
     </row>
     <row r="55" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="37"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="41"/>
     </row>
     <row r="56" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
@@ -9777,25 +9904,25 @@
       <c r="B80" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="40"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="38"/>
     </row>
     <row r="81" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B81" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="37"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="41"/>
     </row>
     <row r="82" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B82" s="4" t="s">
@@ -10298,25 +10425,25 @@
       <c r="B115" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C115" s="38" t="s">
+      <c r="C115" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="D115" s="39"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="39"/>
-      <c r="G115" s="40"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="38"/>
     </row>
     <row r="116" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C116" s="35" t="s">
+      <c r="C116" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="36"/>
-      <c r="G116" s="37"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="40"/>
+      <c r="F116" s="40"/>
+      <c r="G116" s="41"/>
     </row>
     <row r="117" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B117" s="4" t="s">
@@ -10801,25 +10928,25 @@
       <c r="B151" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C151" s="38" t="s">
+      <c r="C151" s="36" t="s">
         <v>650</v>
       </c>
-      <c r="D151" s="39"/>
-      <c r="E151" s="39"/>
-      <c r="F151" s="39"/>
-      <c r="G151" s="40"/>
+      <c r="D151" s="37"/>
+      <c r="E151" s="37"/>
+      <c r="F151" s="37"/>
+      <c r="G151" s="38"/>
     </row>
     <row r="152" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B152" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C152" s="35" t="s">
+      <c r="C152" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="D152" s="36"/>
-      <c r="E152" s="36"/>
-      <c r="F152" s="36"/>
-      <c r="G152" s="37"/>
+      <c r="D152" s="40"/>
+      <c r="E152" s="40"/>
+      <c r="F152" s="40"/>
+      <c r="G152" s="41"/>
     </row>
     <row r="153" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B153" s="4" t="s">
@@ -11116,25 +11243,25 @@
       <c r="B173" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C173" s="38" t="s">
+      <c r="C173" s="36" t="s">
         <v>661</v>
       </c>
-      <c r="D173" s="39"/>
-      <c r="E173" s="39"/>
-      <c r="F173" s="39"/>
-      <c r="G173" s="40"/>
+      <c r="D173" s="37"/>
+      <c r="E173" s="37"/>
+      <c r="F173" s="37"/>
+      <c r="G173" s="38"/>
     </row>
     <row r="174" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B174" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C174" s="35" t="s">
+      <c r="C174" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="D174" s="36"/>
-      <c r="E174" s="36"/>
-      <c r="F174" s="36"/>
-      <c r="G174" s="37"/>
+      <c r="D174" s="40"/>
+      <c r="E174" s="40"/>
+      <c r="F174" s="40"/>
+      <c r="G174" s="41"/>
     </row>
     <row r="175" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B175" s="4" t="s">
@@ -11409,25 +11536,25 @@
       <c r="B193" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C193" s="38" t="s">
+      <c r="C193" s="36" t="s">
         <v>375</v>
       </c>
-      <c r="D193" s="39"/>
-      <c r="E193" s="39"/>
-      <c r="F193" s="39"/>
-      <c r="G193" s="40"/>
+      <c r="D193" s="37"/>
+      <c r="E193" s="37"/>
+      <c r="F193" s="37"/>
+      <c r="G193" s="38"/>
     </row>
     <row r="194" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B194" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C194" s="35" t="s">
+      <c r="C194" s="39" t="s">
         <v>769</v>
       </c>
-      <c r="D194" s="36"/>
-      <c r="E194" s="36"/>
-      <c r="F194" s="36"/>
-      <c r="G194" s="37"/>
+      <c r="D194" s="40"/>
+      <c r="E194" s="40"/>
+      <c r="F194" s="40"/>
+      <c r="G194" s="41"/>
     </row>
     <row r="195" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B195" s="4" t="s">
@@ -11784,25 +11911,25 @@
       <c r="B218" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C218" s="38" t="s">
+      <c r="C218" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="D218" s="39"/>
-      <c r="E218" s="39"/>
-      <c r="F218" s="39"/>
-      <c r="G218" s="40"/>
+      <c r="D218" s="37"/>
+      <c r="E218" s="37"/>
+      <c r="F218" s="37"/>
+      <c r="G218" s="38"/>
     </row>
     <row r="219" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B219" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C219" s="35" t="s">
+      <c r="C219" s="39" t="s">
         <v>869</v>
       </c>
-      <c r="D219" s="36"/>
-      <c r="E219" s="36"/>
-      <c r="F219" s="36"/>
-      <c r="G219" s="37"/>
+      <c r="D219" s="40"/>
+      <c r="E219" s="40"/>
+      <c r="F219" s="40"/>
+      <c r="G219" s="41"/>
     </row>
     <row r="220" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B220" s="4" t="s">
@@ -12081,25 +12208,25 @@
       <c r="B239" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C239" s="38" t="s">
+      <c r="C239" s="36" t="s">
         <v>1187</v>
       </c>
-      <c r="D239" s="39"/>
-      <c r="E239" s="39"/>
-      <c r="F239" s="39"/>
-      <c r="G239" s="40"/>
+      <c r="D239" s="37"/>
+      <c r="E239" s="37"/>
+      <c r="F239" s="37"/>
+      <c r="G239" s="38"/>
     </row>
     <row r="240" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B240" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C240" s="35" t="s">
+      <c r="C240" s="39" t="s">
         <v>870</v>
       </c>
-      <c r="D240" s="36"/>
-      <c r="E240" s="36"/>
-      <c r="F240" s="36"/>
-      <c r="G240" s="37"/>
+      <c r="D240" s="40"/>
+      <c r="E240" s="40"/>
+      <c r="F240" s="40"/>
+      <c r="G240" s="41"/>
     </row>
     <row r="241" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B241" s="4" t="s">
@@ -12378,25 +12505,25 @@
       <c r="B259" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C259" s="38" t="s">
+      <c r="C259" s="36" t="s">
         <v>1191</v>
       </c>
-      <c r="D259" s="39"/>
-      <c r="E259" s="39"/>
-      <c r="F259" s="39"/>
-      <c r="G259" s="40"/>
+      <c r="D259" s="37"/>
+      <c r="E259" s="37"/>
+      <c r="F259" s="37"/>
+      <c r="G259" s="38"/>
     </row>
     <row r="260" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B260" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C260" s="35" t="s">
+      <c r="C260" s="39" t="s">
         <v>871</v>
       </c>
-      <c r="D260" s="36"/>
-      <c r="E260" s="36"/>
-      <c r="F260" s="36"/>
-      <c r="G260" s="37"/>
+      <c r="D260" s="40"/>
+      <c r="E260" s="40"/>
+      <c r="F260" s="40"/>
+      <c r="G260" s="41"/>
     </row>
     <row r="261" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B261" s="4" t="s">
@@ -12672,18 +12799,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C151:G151"/>
-    <mergeCell ref="C152:G152"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C54:G54"/>
     <mergeCell ref="C260:G260"/>
     <mergeCell ref="C173:G173"/>
     <mergeCell ref="C193:G193"/>
@@ -12694,6 +12809,18 @@
     <mergeCell ref="C219:G219"/>
     <mergeCell ref="C218:G218"/>
     <mergeCell ref="C174:G174"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C151:G151"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12704,8 +12831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="F364" sqref="F364"/>
+    <sheetView topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="F370" sqref="F370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12722,25 +12849,25 @@
       <c r="B3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -12952,7 +13079,7 @@
         <v>149</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="45" t="s">
         <v>354</v>
       </c>
     </row>
@@ -12970,7 +13097,7 @@
         <v>264</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="42"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="6">
@@ -12986,7 +13113,7 @@
         <v>150</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="43"/>
+      <c r="G18" s="47"/>
     </row>
     <row r="19" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="6">
@@ -13209,25 +13336,25 @@
       <c r="B35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="36" t="s">
         <v>749</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="40"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="38"/>
     </row>
     <row r="36" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="39" t="s">
         <v>764</v>
       </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="37"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
     </row>
     <row r="37" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
@@ -13554,25 +13681,25 @@
       <c r="B59" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="36" t="s">
         <v>754</v>
       </c>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="40"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="38"/>
     </row>
     <row r="60" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="39" t="s">
         <v>756</v>
       </c>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="37"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="41"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
@@ -13899,25 +14026,25 @@
       <c r="B85" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="36" t="s">
         <v>982</v>
       </c>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="40"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="38"/>
     </row>
     <row r="86" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="C86" s="39" t="s">
         <v>965</v>
       </c>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="37"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="41"/>
     </row>
     <row r="87" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
@@ -14259,7 +14386,7 @@
       <c r="F105" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="G105" s="44" t="s">
+      <c r="G105" s="42" t="s">
         <v>373</v>
       </c>
     </row>
@@ -14277,7 +14404,7 @@
         <v>348</v>
       </c>
       <c r="F106" s="2"/>
-      <c r="G106" s="45"/>
+      <c r="G106" s="43"/>
     </row>
     <row r="107" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B107" s="6">
@@ -14293,7 +14420,7 @@
         <v>348</v>
       </c>
       <c r="F107" s="2"/>
-      <c r="G107" s="46"/>
+      <c r="G107" s="44"/>
     </row>
     <row r="108" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B108" s="6">
@@ -14602,25 +14729,25 @@
       <c r="B128" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C128" s="38" t="s">
+      <c r="C128" s="36" t="s">
         <v>981</v>
       </c>
-      <c r="D128" s="39"/>
-      <c r="E128" s="39"/>
-      <c r="F128" s="39"/>
-      <c r="G128" s="40"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="38"/>
     </row>
     <row r="129" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B129" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C129" s="35" t="s">
+      <c r="C129" s="39" t="s">
         <v>388</v>
       </c>
-      <c r="D129" s="36"/>
-      <c r="E129" s="36"/>
-      <c r="F129" s="36"/>
-      <c r="G129" s="37"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="40"/>
+      <c r="F129" s="40"/>
+      <c r="G129" s="41"/>
     </row>
     <row r="130" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B130" s="4" t="s">
@@ -14893,25 +15020,25 @@
       <c r="B149" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C149" s="38" t="s">
+      <c r="C149" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="D149" s="39"/>
-      <c r="E149" s="39"/>
-      <c r="F149" s="39"/>
-      <c r="G149" s="40"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="37"/>
+      <c r="F149" s="37"/>
+      <c r="G149" s="38"/>
     </row>
     <row r="150" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B150" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C150" s="35" t="s">
+      <c r="C150" s="39" t="s">
         <v>398</v>
       </c>
-      <c r="D150" s="36"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="37"/>
+      <c r="D150" s="40"/>
+      <c r="E150" s="40"/>
+      <c r="F150" s="40"/>
+      <c r="G150" s="41"/>
     </row>
     <row r="151" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B151" s="4" t="s">
@@ -14949,7 +15076,7 @@
       <c r="F152" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G152" s="41" t="s">
+      <c r="G152" s="45" t="s">
         <v>419</v>
       </c>
     </row>
@@ -14969,7 +15096,7 @@
       <c r="F153" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G153" s="42"/>
+      <c r="G153" s="46"/>
     </row>
     <row r="154" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B154" s="6">
@@ -14987,7 +15114,7 @@
       <c r="F154" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G154" s="42"/>
+      <c r="G154" s="46"/>
     </row>
     <row r="155" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B155" s="6">
@@ -15005,7 +15132,7 @@
       <c r="F155" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="G155" s="43"/>
+      <c r="G155" s="47"/>
     </row>
     <row r="156" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B156" s="6">
@@ -15172,25 +15299,25 @@
       <c r="B168" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C168" s="38" t="s">
+      <c r="C168" s="36" t="s">
         <v>858</v>
       </c>
-      <c r="D168" s="39"/>
-      <c r="E168" s="39"/>
-      <c r="F168" s="39"/>
-      <c r="G168" s="40"/>
+      <c r="D168" s="37"/>
+      <c r="E168" s="37"/>
+      <c r="F168" s="37"/>
+      <c r="G168" s="38"/>
     </row>
     <row r="169" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B169" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C169" s="35" t="s">
+      <c r="C169" s="39" t="s">
         <v>894</v>
       </c>
-      <c r="D169" s="36"/>
-      <c r="E169" s="36"/>
-      <c r="F169" s="36"/>
-      <c r="G169" s="37"/>
+      <c r="D169" s="40"/>
+      <c r="E169" s="40"/>
+      <c r="F169" s="40"/>
+      <c r="G169" s="41"/>
     </row>
     <row r="170" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B170" s="4" t="s">
@@ -15481,25 +15608,25 @@
       <c r="B190" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C190" s="38" t="s">
+      <c r="C190" s="36" t="s">
         <v>900</v>
       </c>
-      <c r="D190" s="39"/>
-      <c r="E190" s="39"/>
-      <c r="F190" s="39"/>
-      <c r="G190" s="40"/>
+      <c r="D190" s="37"/>
+      <c r="E190" s="37"/>
+      <c r="F190" s="37"/>
+      <c r="G190" s="38"/>
     </row>
     <row r="191" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B191" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C191" s="35" t="s">
+      <c r="C191" s="39" t="s">
         <v>899</v>
       </c>
-      <c r="D191" s="36"/>
-      <c r="E191" s="36"/>
-      <c r="F191" s="36"/>
-      <c r="G191" s="37"/>
+      <c r="D191" s="40"/>
+      <c r="E191" s="40"/>
+      <c r="F191" s="40"/>
+      <c r="G191" s="41"/>
     </row>
     <row r="192" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B192" s="4" t="s">
@@ -15758,25 +15885,25 @@
       <c r="B209" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C209" s="38" t="s">
+      <c r="C209" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="D209" s="39"/>
-      <c r="E209" s="39"/>
-      <c r="F209" s="39"/>
-      <c r="G209" s="40"/>
+      <c r="D209" s="37"/>
+      <c r="E209" s="37"/>
+      <c r="F209" s="37"/>
+      <c r="G209" s="38"/>
     </row>
     <row r="210" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B210" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C210" s="35" t="s">
+      <c r="C210" s="39" t="s">
         <v>943</v>
       </c>
-      <c r="D210" s="36"/>
-      <c r="E210" s="36"/>
-      <c r="F210" s="36"/>
-      <c r="G210" s="37"/>
+      <c r="D210" s="40"/>
+      <c r="E210" s="40"/>
+      <c r="F210" s="40"/>
+      <c r="G210" s="41"/>
     </row>
     <row r="211" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B211" s="4" t="s">
@@ -16189,25 +16316,25 @@
       <c r="B237" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C237" s="38" t="s">
+      <c r="C237" s="36" t="s">
         <v>962</v>
       </c>
-      <c r="D237" s="39"/>
-      <c r="E237" s="39"/>
-      <c r="F237" s="39"/>
-      <c r="G237" s="40"/>
+      <c r="D237" s="37"/>
+      <c r="E237" s="37"/>
+      <c r="F237" s="37"/>
+      <c r="G237" s="38"/>
     </row>
     <row r="238" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B238" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C238" s="35" t="s">
+      <c r="C238" s="39" t="s">
         <v>990</v>
       </c>
-      <c r="D238" s="36"/>
-      <c r="E238" s="36"/>
-      <c r="F238" s="36"/>
-      <c r="G238" s="37"/>
+      <c r="D238" s="40"/>
+      <c r="E238" s="40"/>
+      <c r="F238" s="40"/>
+      <c r="G238" s="41"/>
     </row>
     <row r="239" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B239" s="4" t="s">
@@ -16558,25 +16685,25 @@
       <c r="B262" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C262" s="38" t="s">
+      <c r="C262" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D262" s="39"/>
-      <c r="E262" s="39"/>
-      <c r="F262" s="39"/>
-      <c r="G262" s="40"/>
+      <c r="D262" s="37"/>
+      <c r="E262" s="37"/>
+      <c r="F262" s="37"/>
+      <c r="G262" s="38"/>
     </row>
     <row r="263" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B263" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C263" s="35" t="s">
+      <c r="C263" s="39" t="s">
         <v>964</v>
       </c>
-      <c r="D263" s="36"/>
-      <c r="E263" s="36"/>
-      <c r="F263" s="36"/>
-      <c r="G263" s="37"/>
+      <c r="D263" s="40"/>
+      <c r="E263" s="40"/>
+      <c r="F263" s="40"/>
+      <c r="G263" s="41"/>
     </row>
     <row r="264" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B264" s="4" t="s">
@@ -16855,25 +16982,25 @@
       <c r="B283" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C283" s="38" t="s">
+      <c r="C283" s="36" t="s">
         <v>457</v>
       </c>
-      <c r="D283" s="39"/>
-      <c r="E283" s="39"/>
-      <c r="F283" s="39"/>
-      <c r="G283" s="40"/>
+      <c r="D283" s="37"/>
+      <c r="E283" s="37"/>
+      <c r="F283" s="37"/>
+      <c r="G283" s="38"/>
     </row>
     <row r="284" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B284" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C284" s="35" t="s">
+      <c r="C284" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="D284" s="36"/>
-      <c r="E284" s="36"/>
-      <c r="F284" s="36"/>
-      <c r="G284" s="37"/>
+      <c r="D284" s="40"/>
+      <c r="E284" s="40"/>
+      <c r="F284" s="40"/>
+      <c r="G284" s="41"/>
     </row>
     <row r="285" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B285" s="4" t="s">
@@ -17186,25 +17313,25 @@
       <c r="B306" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C306" s="38" t="s">
+      <c r="C306" s="36" t="s">
         <v>438</v>
       </c>
-      <c r="D306" s="39"/>
-      <c r="E306" s="39"/>
-      <c r="F306" s="39"/>
-      <c r="G306" s="40"/>
+      <c r="D306" s="37"/>
+      <c r="E306" s="37"/>
+      <c r="F306" s="37"/>
+      <c r="G306" s="38"/>
     </row>
     <row r="307" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B307" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C307" s="35" t="s">
+      <c r="C307" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="D307" s="36"/>
-      <c r="E307" s="36"/>
-      <c r="F307" s="36"/>
-      <c r="G307" s="37"/>
+      <c r="D307" s="40"/>
+      <c r="E307" s="40"/>
+      <c r="F307" s="40"/>
+      <c r="G307" s="41"/>
     </row>
     <row r="308" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B308" s="4" t="s">
@@ -17497,25 +17624,25 @@
       <c r="B328" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C328" s="38" t="s">
+      <c r="C328" s="36" t="s">
         <v>486</v>
       </c>
-      <c r="D328" s="39"/>
-      <c r="E328" s="39"/>
-      <c r="F328" s="39"/>
-      <c r="G328" s="40"/>
+      <c r="D328" s="37"/>
+      <c r="E328" s="37"/>
+      <c r="F328" s="37"/>
+      <c r="G328" s="38"/>
     </row>
     <row r="329" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B329" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C329" s="35" t="s">
+      <c r="C329" s="39" t="s">
         <v>488</v>
       </c>
-      <c r="D329" s="36"/>
-      <c r="E329" s="36"/>
-      <c r="F329" s="36"/>
-      <c r="G329" s="37"/>
+      <c r="D329" s="40"/>
+      <c r="E329" s="40"/>
+      <c r="F329" s="40"/>
+      <c r="G329" s="41"/>
     </row>
     <row r="330" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B330" s="4" t="s">
@@ -17804,25 +17931,25 @@
       <c r="B350" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C350" s="38" t="s">
+      <c r="C350" s="36" t="s">
         <v>1332</v>
       </c>
-      <c r="D350" s="39"/>
-      <c r="E350" s="39"/>
-      <c r="F350" s="39"/>
-      <c r="G350" s="40"/>
+      <c r="D350" s="37"/>
+      <c r="E350" s="37"/>
+      <c r="F350" s="37"/>
+      <c r="G350" s="38"/>
     </row>
     <row r="351" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B351" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C351" s="35" t="s">
+      <c r="C351" s="39" t="s">
         <v>1333</v>
       </c>
-      <c r="D351" s="36"/>
-      <c r="E351" s="36"/>
-      <c r="F351" s="36"/>
-      <c r="G351" s="37"/>
+      <c r="D351" s="40"/>
+      <c r="E351" s="40"/>
+      <c r="F351" s="40"/>
+      <c r="G351" s="41"/>
     </row>
     <row r="352" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B352" s="4" t="s">
@@ -18272,26 +18399,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C350:G350"/>
-    <mergeCell ref="C351:G351"/>
-    <mergeCell ref="C328:G328"/>
-    <mergeCell ref="C329:G329"/>
-    <mergeCell ref="C262:G262"/>
-    <mergeCell ref="C263:G263"/>
-    <mergeCell ref="C306:G306"/>
-    <mergeCell ref="C307:G307"/>
-    <mergeCell ref="C283:G283"/>
-    <mergeCell ref="C284:G284"/>
-    <mergeCell ref="G105:G107"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
     <mergeCell ref="C238:G238"/>
     <mergeCell ref="C128:G128"/>
     <mergeCell ref="C129:G129"/>
@@ -18305,6 +18412,26 @@
     <mergeCell ref="C237:G237"/>
     <mergeCell ref="C209:G209"/>
     <mergeCell ref="C210:G210"/>
+    <mergeCell ref="G105:G107"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C350:G350"/>
+    <mergeCell ref="C351:G351"/>
+    <mergeCell ref="C328:G328"/>
+    <mergeCell ref="C329:G329"/>
+    <mergeCell ref="C262:G262"/>
+    <mergeCell ref="C263:G263"/>
+    <mergeCell ref="C306:G306"/>
+    <mergeCell ref="C307:G307"/>
+    <mergeCell ref="C283:G283"/>
+    <mergeCell ref="C284:G284"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18333,25 +18460,25 @@
       <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>1203</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="39" t="s">
         <v>1202</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -18594,25 +18721,25 @@
       <c r="B20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="36" t="s">
         <v>1212</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="39" t="s">
         <v>1243</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
@@ -18885,25 +19012,25 @@
       <c r="B40" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="36" t="s">
         <v>1267</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="40"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="38"/>
     </row>
     <row r="41" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="39" t="s">
         <v>1238</v>
       </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="37"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41"/>
     </row>
     <row r="42" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
@@ -19250,25 +19377,25 @@
       <c r="B64" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="36" t="s">
         <v>1222</v>
       </c>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="40"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="38"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="39" t="s">
         <v>1252</v>
       </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="37"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="41"/>
     </row>
     <row r="66" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
@@ -19547,25 +19674,25 @@
       <c r="B84" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="36" t="s">
         <v>1249</v>
       </c>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="40"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="38"/>
     </row>
     <row r="85" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B85" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="39" t="s">
         <v>1250</v>
       </c>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="37"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="41"/>
     </row>
     <row r="86" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
@@ -19806,25 +19933,25 @@
       <c r="B102" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C102" s="38" t="s">
+      <c r="C102" s="36" t="s">
         <v>1253</v>
       </c>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="40"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="38"/>
     </row>
     <row r="103" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B103" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="C103" s="39" t="s">
         <v>1254</v>
       </c>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="37"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="41"/>
     </row>
     <row r="104" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B104" s="4" t="s">
@@ -20081,25 +20208,25 @@
       <c r="B122" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C122" s="38" t="s">
+      <c r="C122" s="36" t="s">
         <v>1282</v>
       </c>
-      <c r="D122" s="39"/>
-      <c r="E122" s="39"/>
-      <c r="F122" s="39"/>
-      <c r="G122" s="40"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="37"/>
+      <c r="G122" s="38"/>
     </row>
     <row r="123" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B123" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C123" s="35" t="s">
+      <c r="C123" s="39" t="s">
         <v>1283</v>
       </c>
-      <c r="D123" s="36"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="36"/>
-      <c r="G123" s="37"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="40"/>
+      <c r="F123" s="40"/>
+      <c r="G123" s="41"/>
     </row>
     <row r="124" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B124" s="4" t="s">
@@ -20423,6 +20550,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C64:G64"/>
     <mergeCell ref="C122:G122"/>
     <mergeCell ref="C123:G123"/>
     <mergeCell ref="C102:G102"/>
@@ -20432,11 +20564,6 @@
     <mergeCell ref="C84:G84"/>
     <mergeCell ref="C85:G85"/>
     <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C64:G64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20445,10 +20572,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G173"/>
+  <dimension ref="B1:G240"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20465,25 +20592,25 @@
       <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>671</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -20758,25 +20885,25 @@
       <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="36" t="s">
         <v>672</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
@@ -21057,25 +21184,25 @@
       <c r="B44" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="36" t="s">
         <v>673</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="40"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="38"/>
     </row>
     <row r="45" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="37"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="41"/>
     </row>
     <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
@@ -21418,25 +21545,25 @@
       <c r="B69" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="36" t="s">
         <v>674</v>
       </c>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="40"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="38"/>
     </row>
     <row r="70" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B70" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="37"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="41"/>
     </row>
     <row r="71" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B71" s="4" t="s">
@@ -21999,25 +22126,25 @@
       <c r="B108" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C108" s="38" t="s">
+      <c r="C108" s="36" t="s">
         <v>1177</v>
       </c>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
-      <c r="F108" s="39"/>
-      <c r="G108" s="40"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="38"/>
     </row>
     <row r="109" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B109" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="39" t="s">
         <v>1161</v>
       </c>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="37"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="40"/>
+      <c r="G109" s="41"/>
     </row>
     <row r="110" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B110" s="4" t="s">
@@ -22161,7 +22288,7 @@
       <c r="F117" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G117" s="47" t="s">
+      <c r="G117" s="48" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -22179,7 +22306,7 @@
         <v>264</v>
       </c>
       <c r="F118" s="2"/>
-      <c r="G118" s="48"/>
+      <c r="G118" s="49"/>
     </row>
     <row r="119" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B119" s="6">
@@ -22195,7 +22322,7 @@
         <v>143</v>
       </c>
       <c r="F119" s="2"/>
-      <c r="G119" s="48"/>
+      <c r="G119" s="49"/>
     </row>
     <row r="120" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B120" s="6">
@@ -22211,7 +22338,7 @@
         <v>150</v>
       </c>
       <c r="F120" s="2"/>
-      <c r="G120" s="49"/>
+      <c r="G120" s="50"/>
     </row>
     <row r="121" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B121" s="6">
@@ -22227,7 +22354,7 @@
         <v>511</v>
       </c>
       <c r="F121" s="2"/>
-      <c r="G121" s="47" t="s">
+      <c r="G121" s="48" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -22245,7 +22372,7 @@
         <v>213</v>
       </c>
       <c r="F122" s="2"/>
-      <c r="G122" s="48"/>
+      <c r="G122" s="49"/>
     </row>
     <row r="123" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B123" s="6">
@@ -22261,7 +22388,7 @@
         <v>143</v>
       </c>
       <c r="F123" s="2"/>
-      <c r="G123" s="49"/>
+      <c r="G123" s="50"/>
     </row>
     <row r="124" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B124" s="6">
@@ -22277,7 +22404,7 @@
         <v>141</v>
       </c>
       <c r="F124" s="2"/>
-      <c r="G124" s="47" t="s">
+      <c r="G124" s="48" t="s">
         <v>1166</v>
       </c>
     </row>
@@ -22295,7 +22422,7 @@
         <v>142</v>
       </c>
       <c r="F125" s="2"/>
-      <c r="G125" s="48"/>
+      <c r="G125" s="49"/>
     </row>
     <row r="126" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B126" s="6">
@@ -22311,7 +22438,7 @@
         <v>143</v>
       </c>
       <c r="F126" s="2"/>
-      <c r="G126" s="49"/>
+      <c r="G126" s="50"/>
     </row>
     <row r="127" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B127" s="6">
@@ -22327,7 +22454,7 @@
         <v>141</v>
       </c>
       <c r="F127" s="2"/>
-      <c r="G127" s="47" t="s">
+      <c r="G127" s="48" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -22345,7 +22472,7 @@
         <v>142</v>
       </c>
       <c r="F128" s="2"/>
-      <c r="G128" s="48"/>
+      <c r="G128" s="49"/>
     </row>
     <row r="129" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B129" s="6">
@@ -22361,7 +22488,7 @@
         <v>143</v>
       </c>
       <c r="F129" s="2"/>
-      <c r="G129" s="49"/>
+      <c r="G129" s="50"/>
     </row>
     <row r="130" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B130" s="6">
@@ -22546,25 +22673,25 @@
       <c r="B143" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C143" s="38" t="s">
+      <c r="C143" s="36" t="s">
         <v>1178</v>
       </c>
-      <c r="D143" s="39"/>
-      <c r="E143" s="39"/>
-      <c r="F143" s="39"/>
-      <c r="G143" s="40"/>
+      <c r="D143" s="37"/>
+      <c r="E143" s="37"/>
+      <c r="F143" s="37"/>
+      <c r="G143" s="38"/>
     </row>
     <row r="144" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B144" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C144" s="35" t="s">
+      <c r="C144" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D144" s="36"/>
-      <c r="E144" s="36"/>
-      <c r="F144" s="36"/>
-      <c r="G144" s="37"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="40"/>
+      <c r="F144" s="40"/>
+      <c r="G144" s="41"/>
     </row>
     <row r="145" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B145" s="4" t="s">
@@ -22754,7 +22881,7 @@
         <v>511</v>
       </c>
       <c r="F155" s="2"/>
-      <c r="G155" s="47" t="s">
+      <c r="G155" s="48" t="s">
         <v>1169</v>
       </c>
     </row>
@@ -22772,7 +22899,7 @@
         <v>213</v>
       </c>
       <c r="F156" s="2"/>
-      <c r="G156" s="48"/>
+      <c r="G156" s="49"/>
     </row>
     <row r="157" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B157" s="6">
@@ -22788,7 +22915,7 @@
         <v>143</v>
       </c>
       <c r="F157" s="2"/>
-      <c r="G157" s="49"/>
+      <c r="G157" s="50"/>
     </row>
     <row r="158" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B158" s="6">
@@ -22804,7 +22931,7 @@
         <v>141</v>
       </c>
       <c r="F158" s="2"/>
-      <c r="G158" s="47" t="s">
+      <c r="G158" s="48" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -22822,7 +22949,7 @@
         <v>142</v>
       </c>
       <c r="F159" s="2"/>
-      <c r="G159" s="48"/>
+      <c r="G159" s="49"/>
     </row>
     <row r="160" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B160" s="6">
@@ -22838,7 +22965,7 @@
         <v>143</v>
       </c>
       <c r="F160" s="2"/>
-      <c r="G160" s="49"/>
+      <c r="G160" s="50"/>
     </row>
     <row r="161" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B161" s="6">
@@ -22854,7 +22981,7 @@
         <v>141</v>
       </c>
       <c r="F161" s="2"/>
-      <c r="G161" s="47" t="s">
+      <c r="G161" s="48" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -22872,7 +22999,7 @@
         <v>142</v>
       </c>
       <c r="F162" s="2"/>
-      <c r="G162" s="48"/>
+      <c r="G162" s="49"/>
     </row>
     <row r="163" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B163" s="6">
@@ -22888,7 +23015,7 @@
         <v>143</v>
       </c>
       <c r="F163" s="2"/>
-      <c r="G163" s="49"/>
+      <c r="G163" s="50"/>
     </row>
     <row r="164" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B164" s="6">
@@ -23050,16 +23177,1029 @@
       <c r="F173" s="9"/>
       <c r="G173" s="10"/>
     </row>
+    <row r="176" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="177" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B177" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C177" s="36" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D177" s="37"/>
+      <c r="E177" s="37"/>
+      <c r="F177" s="37"/>
+      <c r="G177" s="38"/>
+    </row>
+    <row r="178" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B178" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C178" s="39" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D178" s="40"/>
+      <c r="E178" s="40"/>
+      <c r="F178" s="40"/>
+      <c r="G178" s="41"/>
+    </row>
+    <row r="179" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B179" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B180" s="6">
+        <v>1</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G180" s="7"/>
+    </row>
+    <row r="181" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B181" s="6">
+        <v>2</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G181" s="7"/>
+    </row>
+    <row r="182" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B182" s="6">
+        <v>3</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G182" s="7"/>
+    </row>
+    <row r="183" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B183" s="6">
+        <v>4</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F183" s="2"/>
+      <c r="G183" s="48" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B184" s="6">
+        <v>5</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F184" s="2"/>
+      <c r="G184" s="49"/>
+    </row>
+    <row r="185" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B185" s="6">
+        <v>6</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F185" s="2"/>
+      <c r="G185" s="49"/>
+    </row>
+    <row r="186" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B186" s="6">
+        <v>7</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F186" s="2"/>
+      <c r="G186" s="49"/>
+    </row>
+    <row r="187" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B187" s="6">
+        <v>8</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F187" s="2"/>
+      <c r="G187" s="49"/>
+    </row>
+    <row r="188" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B188" s="6">
+        <v>9</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F188" s="2"/>
+      <c r="G188" s="50"/>
+    </row>
+    <row r="189" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B189" s="6">
+        <v>11</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F189" s="2"/>
+      <c r="G189" s="48" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B190" s="6">
+        <v>12</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F190" s="2"/>
+      <c r="G190" s="49"/>
+    </row>
+    <row r="191" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B191" s="6">
+        <v>13</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F191" s="2"/>
+      <c r="G191" s="49"/>
+    </row>
+    <row r="192" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B192" s="6">
+        <v>14</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F192" s="2"/>
+      <c r="G192" s="49"/>
+    </row>
+    <row r="193" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B193" s="6">
+        <v>15</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F193" s="2"/>
+      <c r="G193" s="49"/>
+    </row>
+    <row r="194" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B194" s="6">
+        <v>16</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F194" s="2"/>
+      <c r="G194" s="49"/>
+    </row>
+    <row r="195" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B195" s="6">
+        <v>17</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F195" s="2"/>
+      <c r="G195" s="49"/>
+    </row>
+    <row r="196" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B196" s="6">
+        <v>18</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F196" s="2"/>
+      <c r="G196" s="49"/>
+    </row>
+    <row r="197" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B197" s="6">
+        <v>19</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F197" s="2"/>
+      <c r="G197" s="50"/>
+    </row>
+    <row r="198" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B198" s="6">
+        <v>20</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F198" s="2"/>
+      <c r="G198" s="7"/>
+    </row>
+    <row r="199" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B199" s="6">
+        <v>21</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G199" s="7"/>
+    </row>
+    <row r="200" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B200" s="6">
+        <v>22</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F200" s="2"/>
+      <c r="G200" s="35"/>
+    </row>
+    <row r="201" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B201" s="6">
+        <v>23</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F201" s="2"/>
+      <c r="G201" s="7"/>
+    </row>
+    <row r="202" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B202" s="6">
+        <v>24</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F202" s="2"/>
+      <c r="G202" s="7"/>
+    </row>
+    <row r="203" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B203" s="6">
+        <v>25</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F203" s="2"/>
+      <c r="G203" s="7"/>
+    </row>
+    <row r="204" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B204" s="6">
+        <v>26</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F204" s="2"/>
+      <c r="G204" s="7"/>
+    </row>
+    <row r="205" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B205" s="6">
+        <v>27</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F205" s="2"/>
+      <c r="G205" s="7"/>
+    </row>
+    <row r="206" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B206" s="6">
+        <v>28</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F206" s="2"/>
+      <c r="G206" s="7"/>
+    </row>
+    <row r="207" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B207" s="6">
+        <v>29</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F207" s="2"/>
+      <c r="G207" s="7"/>
+    </row>
+    <row r="208" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B208" s="8">
+        <v>30</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E208" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F208" s="9"/>
+      <c r="G208" s="10"/>
+    </row>
+    <row r="210" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="211" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B211" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C211" s="36" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D211" s="37"/>
+      <c r="E211" s="37"/>
+      <c r="F211" s="37"/>
+      <c r="G211" s="38"/>
+    </row>
+    <row r="212" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B212" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C212" s="39" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D212" s="40"/>
+      <c r="E212" s="40"/>
+      <c r="F212" s="40"/>
+      <c r="G212" s="41"/>
+    </row>
+    <row r="213" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B213" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B214" s="6">
+        <v>1</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G214" s="7"/>
+    </row>
+    <row r="215" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B215" s="6">
+        <v>2</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G215" s="7"/>
+    </row>
+    <row r="216" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B216" s="6">
+        <v>3</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G216" s="7"/>
+    </row>
+    <row r="217" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B217" s="6">
+        <v>4</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F217" s="2"/>
+      <c r="G217" s="7"/>
+    </row>
+    <row r="218" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B218" s="6">
+        <v>5</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F218" s="2"/>
+      <c r="G218" s="7"/>
+    </row>
+    <row r="219" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B219" s="6">
+        <v>6</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F219" s="2"/>
+      <c r="G219" s="7"/>
+    </row>
+    <row r="220" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B220" s="6">
+        <v>7</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F220" s="2"/>
+      <c r="G220" s="7"/>
+    </row>
+    <row r="221" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B221" s="6">
+        <v>8</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G221" s="7"/>
+    </row>
+    <row r="222" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B222" s="6">
+        <v>9</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F222" s="2"/>
+      <c r="G222" s="26"/>
+    </row>
+    <row r="223" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B223" s="6">
+        <v>10</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F223" s="2"/>
+      <c r="G223" s="48" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B224" s="6">
+        <v>11</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F224" s="2"/>
+      <c r="G224" s="49"/>
+    </row>
+    <row r="225" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B225" s="6">
+        <v>12</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F225" s="2"/>
+      <c r="G225" s="50"/>
+    </row>
+    <row r="226" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B226" s="6">
+        <v>13</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F226" s="2"/>
+      <c r="G226" s="48" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B227" s="6">
+        <v>14</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F227" s="2"/>
+      <c r="G227" s="49"/>
+    </row>
+    <row r="228" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B228" s="6">
+        <v>15</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F228" s="2"/>
+      <c r="G228" s="50"/>
+    </row>
+    <row r="229" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B229" s="6">
+        <v>16</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F229" s="2"/>
+      <c r="G229" s="48" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B230" s="6">
+        <v>17</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F230" s="2"/>
+      <c r="G230" s="49"/>
+    </row>
+    <row r="231" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B231" s="6">
+        <v>18</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F231" s="2"/>
+      <c r="G231" s="50"/>
+    </row>
+    <row r="232" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B232" s="6">
+        <v>20</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F232" s="2"/>
+      <c r="G232" s="35"/>
+    </row>
+    <row r="233" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B233" s="6">
+        <v>21</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F233" s="2"/>
+      <c r="G233" s="7"/>
+    </row>
+    <row r="234" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B234" s="6">
+        <v>22</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F234" s="2"/>
+      <c r="G234" s="7"/>
+    </row>
+    <row r="235" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B235" s="6">
+        <v>23</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F235" s="2"/>
+      <c r="G235" s="7"/>
+    </row>
+    <row r="236" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B236" s="6">
+        <v>24</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F236" s="2"/>
+      <c r="G236" s="7"/>
+    </row>
+    <row r="237" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B237" s="6">
+        <v>25</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F237" s="2"/>
+      <c r="G237" s="7"/>
+    </row>
+    <row r="238" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B238" s="6">
+        <v>26</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F238" s="2"/>
+      <c r="G238" s="7"/>
+    </row>
+    <row r="239" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B239" s="6">
+        <v>27</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F239" s="2"/>
+      <c r="G239" s="7"/>
+    </row>
+    <row r="240" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B240" s="8">
+        <v>28</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E240" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F240" s="9"/>
+      <c r="G240" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C44:G44"/>
+  <mergeCells count="28">
+    <mergeCell ref="G223:G225"/>
+    <mergeCell ref="G226:G228"/>
+    <mergeCell ref="G229:G231"/>
+    <mergeCell ref="G183:G188"/>
+    <mergeCell ref="G189:G197"/>
+    <mergeCell ref="C211:G211"/>
+    <mergeCell ref="C212:G212"/>
+    <mergeCell ref="C177:G177"/>
+    <mergeCell ref="C178:G178"/>
     <mergeCell ref="G155:G157"/>
     <mergeCell ref="G158:G160"/>
     <mergeCell ref="G161:G163"/>
@@ -23071,6 +24211,14 @@
     <mergeCell ref="G121:G123"/>
     <mergeCell ref="G124:G126"/>
     <mergeCell ref="G127:G129"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C44:G44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23100,25 +24248,25 @@
       <c r="B3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="36" t="s">
         <v>713</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -23156,7 +24304,7 @@
       <c r="F6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="48" t="s">
         <v>374</v>
       </c>
     </row>
@@ -23176,7 +24324,7 @@
       <c r="F7" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="48"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="6">
@@ -23194,7 +24342,7 @@
       <c r="F8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="49"/>
+      <c r="G8" s="50"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
@@ -23495,25 +24643,25 @@
       <c r="B30" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="36" t="s">
         <v>714</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
     </row>
     <row r="31" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
@@ -23794,25 +24942,25 @@
       <c r="B51" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="36" t="s">
         <v>1314</v>
       </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="40"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="38"/>
     </row>
     <row r="52" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="39" t="s">
         <v>1307</v>
       </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="37"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="41"/>
     </row>
     <row r="53" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
@@ -24144,25 +25292,25 @@
       <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="36" t="s">
         <v>1076</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="39" t="s">
         <v>1075</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -24427,25 +25575,25 @@
       <c r="B25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="36" t="s">
         <v>992</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="39" t="s">
         <v>999</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
@@ -24704,25 +25852,25 @@
       <c r="B45" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="36" t="s">
         <v>1004</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="40"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="38"/>
     </row>
     <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="39" t="s">
         <v>1005</v>
       </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="37"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="41"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
@@ -24985,25 +26133,25 @@
       <c r="B64" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="36" t="s">
         <v>1020</v>
       </c>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="40"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="38"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="39" t="s">
         <v>1021</v>
       </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="37"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="41"/>
     </row>
     <row r="66" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
@@ -25386,25 +26534,25 @@
       <c r="B91" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="36" t="s">
         <v>1037</v>
       </c>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="40"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="38"/>
     </row>
     <row r="92" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B92" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C92" s="35" t="s">
+      <c r="C92" s="39" t="s">
         <v>1038</v>
       </c>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="37"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="41"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B93" s="4" t="s">
@@ -25795,25 +26943,25 @@
       <c r="B117" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C117" s="38" t="s">
+      <c r="C117" s="36" t="s">
         <v>1069</v>
       </c>
-      <c r="D117" s="39"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="39"/>
-      <c r="G117" s="40"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="38"/>
     </row>
     <row r="118" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B118" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C118" s="35" t="s">
+      <c r="C118" s="39" t="s">
         <v>1080</v>
       </c>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="36"/>
-      <c r="G118" s="37"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="40"/>
+      <c r="F118" s="40"/>
+      <c r="G118" s="41"/>
     </row>
     <row r="119" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B119" s="4" t="s">
@@ -26009,7 +27157,7 @@
       <c r="F129" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G129" s="47" t="s">
+      <c r="G129" s="48" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -26029,7 +27177,7 @@
       <c r="F130" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G130" s="48"/>
+      <c r="G130" s="49"/>
     </row>
     <row r="131" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B131" s="6">
@@ -26047,7 +27195,7 @@
       <c r="F131" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G131" s="48"/>
+      <c r="G131" s="49"/>
     </row>
     <row r="132" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B132" s="6">
@@ -26063,7 +27211,7 @@
         <v>144</v>
       </c>
       <c r="F132" s="2"/>
-      <c r="G132" s="48"/>
+      <c r="G132" s="49"/>
     </row>
     <row r="133" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B133" s="6">
@@ -26081,7 +27229,7 @@
       <c r="F133" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G133" s="49"/>
+      <c r="G133" s="50"/>
     </row>
     <row r="134" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B134" s="6">
@@ -26514,25 +27662,25 @@
       <c r="B162" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C162" s="38" t="s">
+      <c r="C162" s="36" t="s">
         <v>1121</v>
       </c>
-      <c r="D162" s="39"/>
-      <c r="E162" s="39"/>
-      <c r="F162" s="39"/>
-      <c r="G162" s="40"/>
+      <c r="D162" s="37"/>
+      <c r="E162" s="37"/>
+      <c r="F162" s="37"/>
+      <c r="G162" s="38"/>
     </row>
     <row r="163" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B163" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C163" s="35" t="s">
+      <c r="C163" s="39" t="s">
         <v>1122</v>
       </c>
-      <c r="D163" s="36"/>
-      <c r="E163" s="36"/>
-      <c r="F163" s="36"/>
-      <c r="G163" s="37"/>
+      <c r="D163" s="40"/>
+      <c r="E163" s="40"/>
+      <c r="F163" s="40"/>
+      <c r="G163" s="41"/>
     </row>
     <row r="164" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B164" s="4" t="s">
@@ -26953,25 +28101,25 @@
       <c r="B191" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C191" s="38" t="s">
+      <c r="C191" s="36" t="s">
         <v>1134</v>
       </c>
-      <c r="D191" s="39"/>
-      <c r="E191" s="39"/>
-      <c r="F191" s="39"/>
-      <c r="G191" s="40"/>
+      <c r="D191" s="37"/>
+      <c r="E191" s="37"/>
+      <c r="F191" s="37"/>
+      <c r="G191" s="38"/>
     </row>
     <row r="192" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B192" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C192" s="35" t="s">
+      <c r="C192" s="39" t="s">
         <v>1135</v>
       </c>
-      <c r="D192" s="36"/>
-      <c r="E192" s="36"/>
-      <c r="F192" s="36"/>
-      <c r="G192" s="37"/>
+      <c r="D192" s="40"/>
+      <c r="E192" s="40"/>
+      <c r="F192" s="40"/>
+      <c r="G192" s="41"/>
     </row>
     <row r="193" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B193" s="4" t="s">
@@ -27251,13 +28399,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C162:G162"/>
-    <mergeCell ref="C163:G163"/>
-    <mergeCell ref="C191:G191"/>
-    <mergeCell ref="C192:G192"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="G129:G133"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C65:G65"/>
@@ -27268,6 +28409,13 @@
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C162:G162"/>
+    <mergeCell ref="C163:G163"/>
+    <mergeCell ref="C191:G191"/>
+    <mergeCell ref="C192:G192"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="G129:G133"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27296,25 +28444,25 @@
       <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>796</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="39" t="s">
         <v>819</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -27595,25 +28743,25 @@
       <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="36" t="s">
         <v>818</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="39" t="s">
         <v>820</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">

--- a/doc/设计文档/数据库设计/数据库设计.xlsx
+++ b/doc/设计文档/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表清单" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4623" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4736" uniqueCount="1429">
   <si>
     <t>序号</t>
   </si>
@@ -5578,6 +5578,158 @@
   </si>
   <si>
     <t>ISSUE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO_TASK_ISSUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录当前每个生产任务的投料情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产任务投料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO_TRANS_ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流转单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO_TRANS_CONSUME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料消耗记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录每个流转单的物料消耗记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO_TASK_ISSUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产任务投料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TASK_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKSTATION_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOURCE_DOC_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOURCE_DOC_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOURCE_DOC_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产任务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE：生产领料单；TRANS：流转单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产领料单ID或者流转单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATCH_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料的批次号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOURCE_LINE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据行ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领料单的行ID/流转单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUANTITY_ISSUED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投料数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUANTITY_AVAILABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余可用数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUANTITY_USED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前消耗数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据上的总数量；一个单据可能由多个工作站使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这块如果有必要则使用websocket来刷新数据；或者不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前工作站消耗的数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5853,7 +6005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5960,6 +6112,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5969,14 +6133,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5988,15 +6152,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6005,6 +6160,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6306,10 +6462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6761,828 +6917,856 @@
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>1200</v>
+        <v>1395</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1197</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1198</v>
+        <v>1396</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>1201</v>
+        <v>1397</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1197</v>
+        <v>1393</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E37" s="2"/>
+        <v>1398</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>1399</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>1269</v>
-      </c>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>1198</v>
+      </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>1199</v>
+      </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>1077</v>
+        <v>1268</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>30</v>
+        <v>1197</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>1079</v>
-      </c>
+        <v>1269</v>
+      </c>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>991</v>
-      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>1063</v>
+        <v>1077</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>34</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>1064</v>
+        <v>31</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>1067</v>
-      </c>
+        <v>991</v>
+      </c>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>1068</v>
+        <v>1004</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E46" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>1067</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>1080</v>
+      </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
-      <c r="B50" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
-      <c r="B51" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
-      <c r="B52" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>528</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>47</v>
+        <v>527</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>50</v>
+        <v>528</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E63" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E67" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E69" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>1303</v>
+        <v>696</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>712</v>
+        <v>37</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
-      <c r="B76" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
-      <c r="B77" s="2" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>1306</v>
-      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>1303</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>712</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
-        <v>1312</v>
+        <v>711</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>712</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>1304</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>712</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E80" s="2"/>
+        <v>1305</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>1306</v>
+      </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>712</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>1312</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>712</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>712</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>712</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E84" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>712</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="B86" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="B87" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B88" s="2" t="s">
-        <v>795</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>789</v>
+        <v>712</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>791</v>
+        <v>83</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>794</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B89" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>792</v>
-      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B90" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>815</v>
-      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B91" s="2" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>789</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="E91" s="2"/>
+        <v>791</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B92" s="2" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>789</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>816</v>
+        <v>792</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="B93" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>815</v>
+      </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="B94" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>793</v>
+      </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B95" s="2" t="s">
-        <v>416</v>
+        <v>813</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>417</v>
+        <v>789</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>418</v>
+        <v>816</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B96" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>556</v>
-      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B97" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>557</v>
-      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B98" s="2" t="s">
-        <v>573</v>
+        <v>416</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>417</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>568</v>
+        <v>418</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B99" s="2" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>417</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B100" s="2" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>417</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B101" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B102" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B103" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -7620,6 +7804,24 @@
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7655,25 +7857,25 @@
       <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="40" t="s">
         <v>574</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -7992,25 +8194,25 @@
       <c r="B26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="40" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="37" t="s">
         <v>625</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
     </row>
     <row r="28" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
@@ -8433,25 +8635,25 @@
       <c r="B56" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="40" t="s">
         <v>572</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="38"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="42"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="37" t="s">
         <v>632</v>
       </c>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="41"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="39"/>
     </row>
     <row r="58" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">
@@ -8765,25 +8967,25 @@
       <c r="B3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -9182,25 +9384,25 @@
       <c r="B31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
@@ -9519,25 +9721,25 @@
       <c r="B54" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="38"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="42"/>
     </row>
     <row r="55" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="41"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="39"/>
     </row>
     <row r="56" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
@@ -9904,25 +10106,25 @@
       <c r="B80" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="38"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="42"/>
     </row>
     <row r="81" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B81" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C81" s="39" t="s">
+      <c r="C81" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="D81" s="40"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="40"/>
-      <c r="G81" s="41"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="39"/>
     </row>
     <row r="82" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B82" s="4" t="s">
@@ -10425,25 +10627,25 @@
       <c r="B115" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C115" s="36" t="s">
+      <c r="C115" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="D115" s="37"/>
-      <c r="E115" s="37"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="38"/>
+      <c r="D115" s="41"/>
+      <c r="E115" s="41"/>
+      <c r="F115" s="41"/>
+      <c r="G115" s="42"/>
     </row>
     <row r="116" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C116" s="39" t="s">
+      <c r="C116" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="D116" s="40"/>
-      <c r="E116" s="40"/>
-      <c r="F116" s="40"/>
-      <c r="G116" s="41"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="39"/>
     </row>
     <row r="117" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B117" s="4" t="s">
@@ -10928,25 +11130,25 @@
       <c r="B151" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C151" s="36" t="s">
+      <c r="C151" s="40" t="s">
         <v>650</v>
       </c>
-      <c r="D151" s="37"/>
-      <c r="E151" s="37"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="38"/>
+      <c r="D151" s="41"/>
+      <c r="E151" s="41"/>
+      <c r="F151" s="41"/>
+      <c r="G151" s="42"/>
     </row>
     <row r="152" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B152" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C152" s="39" t="s">
+      <c r="C152" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="D152" s="40"/>
-      <c r="E152" s="40"/>
-      <c r="F152" s="40"/>
-      <c r="G152" s="41"/>
+      <c r="D152" s="38"/>
+      <c r="E152" s="38"/>
+      <c r="F152" s="38"/>
+      <c r="G152" s="39"/>
     </row>
     <row r="153" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B153" s="4" t="s">
@@ -11243,25 +11445,25 @@
       <c r="B173" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C173" s="36" t="s">
+      <c r="C173" s="40" t="s">
         <v>661</v>
       </c>
-      <c r="D173" s="37"/>
-      <c r="E173" s="37"/>
-      <c r="F173" s="37"/>
-      <c r="G173" s="38"/>
+      <c r="D173" s="41"/>
+      <c r="E173" s="41"/>
+      <c r="F173" s="41"/>
+      <c r="G173" s="42"/>
     </row>
     <row r="174" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B174" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C174" s="39" t="s">
+      <c r="C174" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="D174" s="40"/>
-      <c r="E174" s="40"/>
-      <c r="F174" s="40"/>
-      <c r="G174" s="41"/>
+      <c r="D174" s="38"/>
+      <c r="E174" s="38"/>
+      <c r="F174" s="38"/>
+      <c r="G174" s="39"/>
     </row>
     <row r="175" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B175" s="4" t="s">
@@ -11536,25 +11738,25 @@
       <c r="B193" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C193" s="36" t="s">
+      <c r="C193" s="40" t="s">
         <v>375</v>
       </c>
-      <c r="D193" s="37"/>
-      <c r="E193" s="37"/>
-      <c r="F193" s="37"/>
-      <c r="G193" s="38"/>
+      <c r="D193" s="41"/>
+      <c r="E193" s="41"/>
+      <c r="F193" s="41"/>
+      <c r="G193" s="42"/>
     </row>
     <row r="194" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B194" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C194" s="39" t="s">
+      <c r="C194" s="37" t="s">
         <v>769</v>
       </c>
-      <c r="D194" s="40"/>
-      <c r="E194" s="40"/>
-      <c r="F194" s="40"/>
-      <c r="G194" s="41"/>
+      <c r="D194" s="38"/>
+      <c r="E194" s="38"/>
+      <c r="F194" s="38"/>
+      <c r="G194" s="39"/>
     </row>
     <row r="195" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B195" s="4" t="s">
@@ -11911,25 +12113,25 @@
       <c r="B218" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C218" s="36" t="s">
+      <c r="C218" s="40" t="s">
         <v>386</v>
       </c>
-      <c r="D218" s="37"/>
-      <c r="E218" s="37"/>
-      <c r="F218" s="37"/>
-      <c r="G218" s="38"/>
+      <c r="D218" s="41"/>
+      <c r="E218" s="41"/>
+      <c r="F218" s="41"/>
+      <c r="G218" s="42"/>
     </row>
     <row r="219" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B219" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C219" s="39" t="s">
+      <c r="C219" s="37" t="s">
         <v>869</v>
       </c>
-      <c r="D219" s="40"/>
-      <c r="E219" s="40"/>
-      <c r="F219" s="40"/>
-      <c r="G219" s="41"/>
+      <c r="D219" s="38"/>
+      <c r="E219" s="38"/>
+      <c r="F219" s="38"/>
+      <c r="G219" s="39"/>
     </row>
     <row r="220" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B220" s="4" t="s">
@@ -12208,25 +12410,25 @@
       <c r="B239" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C239" s="36" t="s">
+      <c r="C239" s="40" t="s">
         <v>1187</v>
       </c>
-      <c r="D239" s="37"/>
-      <c r="E239" s="37"/>
-      <c r="F239" s="37"/>
-      <c r="G239" s="38"/>
+      <c r="D239" s="41"/>
+      <c r="E239" s="41"/>
+      <c r="F239" s="41"/>
+      <c r="G239" s="42"/>
     </row>
     <row r="240" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B240" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C240" s="39" t="s">
+      <c r="C240" s="37" t="s">
         <v>870</v>
       </c>
-      <c r="D240" s="40"/>
-      <c r="E240" s="40"/>
-      <c r="F240" s="40"/>
-      <c r="G240" s="41"/>
+      <c r="D240" s="38"/>
+      <c r="E240" s="38"/>
+      <c r="F240" s="38"/>
+      <c r="G240" s="39"/>
     </row>
     <row r="241" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B241" s="4" t="s">
@@ -12505,25 +12707,25 @@
       <c r="B259" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C259" s="36" t="s">
+      <c r="C259" s="40" t="s">
         <v>1191</v>
       </c>
-      <c r="D259" s="37"/>
-      <c r="E259" s="37"/>
-      <c r="F259" s="37"/>
-      <c r="G259" s="38"/>
+      <c r="D259" s="41"/>
+      <c r="E259" s="41"/>
+      <c r="F259" s="41"/>
+      <c r="G259" s="42"/>
     </row>
     <row r="260" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B260" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C260" s="39" t="s">
+      <c r="C260" s="37" t="s">
         <v>871</v>
       </c>
-      <c r="D260" s="40"/>
-      <c r="E260" s="40"/>
-      <c r="F260" s="40"/>
-      <c r="G260" s="41"/>
+      <c r="D260" s="38"/>
+      <c r="E260" s="38"/>
+      <c r="F260" s="38"/>
+      <c r="G260" s="39"/>
     </row>
     <row r="261" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B261" s="4" t="s">
@@ -12799,6 +13001,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C151:G151"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C54:G54"/>
     <mergeCell ref="C260:G260"/>
     <mergeCell ref="C173:G173"/>
     <mergeCell ref="C193:G193"/>
@@ -12809,18 +13023,6 @@
     <mergeCell ref="C219:G219"/>
     <mergeCell ref="C218:G218"/>
     <mergeCell ref="C174:G174"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C151:G151"/>
-    <mergeCell ref="C152:G152"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12829,10 +13031,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G378"/>
+  <dimension ref="B2:G410"/>
   <sheetViews>
-    <sheetView topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="F370" sqref="F370"/>
+    <sheetView tabSelected="1" topLeftCell="B388" workbookViewId="0">
+      <selection activeCell="G402" sqref="G402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12849,25 +13051,25 @@
       <c r="B3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -13079,7 +13281,7 @@
         <v>149</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="43" t="s">
         <v>354</v>
       </c>
     </row>
@@ -13097,7 +13299,7 @@
         <v>264</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="46"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="6">
@@ -13113,7 +13315,7 @@
         <v>150</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="47"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="6">
@@ -13336,25 +13538,25 @@
       <c r="B35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="40" t="s">
         <v>749</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
     </row>
     <row r="36" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="37" t="s">
         <v>764</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="39"/>
     </row>
     <row r="37" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
@@ -13681,25 +13883,25 @@
       <c r="B59" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="40" t="s">
         <v>754</v>
       </c>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="38"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="42"/>
     </row>
     <row r="60" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="37" t="s">
         <v>756</v>
       </c>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="41"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="39"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
@@ -14026,25 +14228,25 @@
       <c r="B85" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="40" t="s">
         <v>982</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="38"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="42"/>
     </row>
     <row r="86" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="37" t="s">
         <v>965</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="41"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="39"/>
     </row>
     <row r="87" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
@@ -14386,7 +14588,7 @@
       <c r="F105" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="G105" s="42" t="s">
+      <c r="G105" s="46" t="s">
         <v>373</v>
       </c>
     </row>
@@ -14404,7 +14606,7 @@
         <v>348</v>
       </c>
       <c r="F106" s="2"/>
-      <c r="G106" s="43"/>
+      <c r="G106" s="47"/>
     </row>
     <row r="107" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B107" s="6">
@@ -14420,7 +14622,7 @@
         <v>348</v>
       </c>
       <c r="F107" s="2"/>
-      <c r="G107" s="44"/>
+      <c r="G107" s="48"/>
     </row>
     <row r="108" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B108" s="6">
@@ -14729,25 +14931,25 @@
       <c r="B128" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C128" s="36" t="s">
+      <c r="C128" s="40" t="s">
         <v>981</v>
       </c>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="38"/>
+      <c r="D128" s="41"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="41"/>
+      <c r="G128" s="42"/>
     </row>
     <row r="129" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B129" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C129" s="39" t="s">
+      <c r="C129" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="D129" s="40"/>
-      <c r="E129" s="40"/>
-      <c r="F129" s="40"/>
-      <c r="G129" s="41"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="38"/>
+      <c r="G129" s="39"/>
     </row>
     <row r="130" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B130" s="4" t="s">
@@ -15020,25 +15222,25 @@
       <c r="B149" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C149" s="36" t="s">
+      <c r="C149" s="40" t="s">
         <v>399</v>
       </c>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
-      <c r="F149" s="37"/>
-      <c r="G149" s="38"/>
+      <c r="D149" s="41"/>
+      <c r="E149" s="41"/>
+      <c r="F149" s="41"/>
+      <c r="G149" s="42"/>
     </row>
     <row r="150" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B150" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C150" s="39" t="s">
+      <c r="C150" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="D150" s="40"/>
-      <c r="E150" s="40"/>
-      <c r="F150" s="40"/>
-      <c r="G150" s="41"/>
+      <c r="D150" s="38"/>
+      <c r="E150" s="38"/>
+      <c r="F150" s="38"/>
+      <c r="G150" s="39"/>
     </row>
     <row r="151" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B151" s="4" t="s">
@@ -15076,7 +15278,7 @@
       <c r="F152" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G152" s="45" t="s">
+      <c r="G152" s="43" t="s">
         <v>419</v>
       </c>
     </row>
@@ -15096,7 +15298,7 @@
       <c r="F153" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G153" s="46"/>
+      <c r="G153" s="44"/>
     </row>
     <row r="154" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B154" s="6">
@@ -15114,7 +15316,7 @@
       <c r="F154" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G154" s="46"/>
+      <c r="G154" s="44"/>
     </row>
     <row r="155" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B155" s="6">
@@ -15132,7 +15334,7 @@
       <c r="F155" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="G155" s="47"/>
+      <c r="G155" s="45"/>
     </row>
     <row r="156" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B156" s="6">
@@ -15299,25 +15501,25 @@
       <c r="B168" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C168" s="36" t="s">
+      <c r="C168" s="40" t="s">
         <v>858</v>
       </c>
-      <c r="D168" s="37"/>
-      <c r="E168" s="37"/>
-      <c r="F168" s="37"/>
-      <c r="G168" s="38"/>
+      <c r="D168" s="41"/>
+      <c r="E168" s="41"/>
+      <c r="F168" s="41"/>
+      <c r="G168" s="42"/>
     </row>
     <row r="169" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B169" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C169" s="39" t="s">
+      <c r="C169" s="37" t="s">
         <v>894</v>
       </c>
-      <c r="D169" s="40"/>
-      <c r="E169" s="40"/>
-      <c r="F169" s="40"/>
-      <c r="G169" s="41"/>
+      <c r="D169" s="38"/>
+      <c r="E169" s="38"/>
+      <c r="F169" s="38"/>
+      <c r="G169" s="39"/>
     </row>
     <row r="170" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B170" s="4" t="s">
@@ -15608,25 +15810,25 @@
       <c r="B190" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C190" s="36" t="s">
+      <c r="C190" s="40" t="s">
         <v>900</v>
       </c>
-      <c r="D190" s="37"/>
-      <c r="E190" s="37"/>
-      <c r="F190" s="37"/>
-      <c r="G190" s="38"/>
+      <c r="D190" s="41"/>
+      <c r="E190" s="41"/>
+      <c r="F190" s="41"/>
+      <c r="G190" s="42"/>
     </row>
     <row r="191" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B191" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C191" s="39" t="s">
+      <c r="C191" s="37" t="s">
         <v>899</v>
       </c>
-      <c r="D191" s="40"/>
-      <c r="E191" s="40"/>
-      <c r="F191" s="40"/>
-      <c r="G191" s="41"/>
+      <c r="D191" s="38"/>
+      <c r="E191" s="38"/>
+      <c r="F191" s="38"/>
+      <c r="G191" s="39"/>
     </row>
     <row r="192" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B192" s="4" t="s">
@@ -15885,25 +16087,25 @@
       <c r="B209" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C209" s="36" t="s">
+      <c r="C209" s="40" t="s">
         <v>910</v>
       </c>
-      <c r="D209" s="37"/>
-      <c r="E209" s="37"/>
-      <c r="F209" s="37"/>
-      <c r="G209" s="38"/>
+      <c r="D209" s="41"/>
+      <c r="E209" s="41"/>
+      <c r="F209" s="41"/>
+      <c r="G209" s="42"/>
     </row>
     <row r="210" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B210" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C210" s="39" t="s">
+      <c r="C210" s="37" t="s">
         <v>943</v>
       </c>
-      <c r="D210" s="40"/>
-      <c r="E210" s="40"/>
-      <c r="F210" s="40"/>
-      <c r="G210" s="41"/>
+      <c r="D210" s="38"/>
+      <c r="E210" s="38"/>
+      <c r="F210" s="38"/>
+      <c r="G210" s="39"/>
     </row>
     <row r="211" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B211" s="4" t="s">
@@ -16316,25 +16518,25 @@
       <c r="B237" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C237" s="36" t="s">
+      <c r="C237" s="40" t="s">
         <v>962</v>
       </c>
-      <c r="D237" s="37"/>
-      <c r="E237" s="37"/>
-      <c r="F237" s="37"/>
-      <c r="G237" s="38"/>
+      <c r="D237" s="41"/>
+      <c r="E237" s="41"/>
+      <c r="F237" s="41"/>
+      <c r="G237" s="42"/>
     </row>
     <row r="238" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B238" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C238" s="39" t="s">
+      <c r="C238" s="37" t="s">
         <v>990</v>
       </c>
-      <c r="D238" s="40"/>
-      <c r="E238" s="40"/>
-      <c r="F238" s="40"/>
-      <c r="G238" s="41"/>
+      <c r="D238" s="38"/>
+      <c r="E238" s="38"/>
+      <c r="F238" s="38"/>
+      <c r="G238" s="39"/>
     </row>
     <row r="239" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B239" s="4" t="s">
@@ -16685,25 +16887,25 @@
       <c r="B262" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C262" s="36" t="s">
+      <c r="C262" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D262" s="37"/>
-      <c r="E262" s="37"/>
-      <c r="F262" s="37"/>
-      <c r="G262" s="38"/>
+      <c r="D262" s="41"/>
+      <c r="E262" s="41"/>
+      <c r="F262" s="41"/>
+      <c r="G262" s="42"/>
     </row>
     <row r="263" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B263" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C263" s="39" t="s">
+      <c r="C263" s="37" t="s">
         <v>964</v>
       </c>
-      <c r="D263" s="40"/>
-      <c r="E263" s="40"/>
-      <c r="F263" s="40"/>
-      <c r="G263" s="41"/>
+      <c r="D263" s="38"/>
+      <c r="E263" s="38"/>
+      <c r="F263" s="38"/>
+      <c r="G263" s="39"/>
     </row>
     <row r="264" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B264" s="4" t="s">
@@ -16982,25 +17184,25 @@
       <c r="B283" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C283" s="36" t="s">
+      <c r="C283" s="40" t="s">
         <v>457</v>
       </c>
-      <c r="D283" s="37"/>
-      <c r="E283" s="37"/>
-      <c r="F283" s="37"/>
-      <c r="G283" s="38"/>
+      <c r="D283" s="41"/>
+      <c r="E283" s="41"/>
+      <c r="F283" s="41"/>
+      <c r="G283" s="42"/>
     </row>
     <row r="284" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B284" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C284" s="39" t="s">
+      <c r="C284" s="37" t="s">
         <v>459</v>
       </c>
-      <c r="D284" s="40"/>
-      <c r="E284" s="40"/>
-      <c r="F284" s="40"/>
-      <c r="G284" s="41"/>
+      <c r="D284" s="38"/>
+      <c r="E284" s="38"/>
+      <c r="F284" s="38"/>
+      <c r="G284" s="39"/>
     </row>
     <row r="285" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B285" s="4" t="s">
@@ -17313,25 +17515,25 @@
       <c r="B306" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C306" s="36" t="s">
+      <c r="C306" s="40" t="s">
         <v>438</v>
       </c>
-      <c r="D306" s="37"/>
-      <c r="E306" s="37"/>
-      <c r="F306" s="37"/>
-      <c r="G306" s="38"/>
+      <c r="D306" s="41"/>
+      <c r="E306" s="41"/>
+      <c r="F306" s="41"/>
+      <c r="G306" s="42"/>
     </row>
     <row r="307" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B307" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C307" s="39" t="s">
+      <c r="C307" s="37" t="s">
         <v>439</v>
       </c>
-      <c r="D307" s="40"/>
-      <c r="E307" s="40"/>
-      <c r="F307" s="40"/>
-      <c r="G307" s="41"/>
+      <c r="D307" s="38"/>
+      <c r="E307" s="38"/>
+      <c r="F307" s="38"/>
+      <c r="G307" s="39"/>
     </row>
     <row r="308" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B308" s="4" t="s">
@@ -17624,25 +17826,25 @@
       <c r="B328" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C328" s="36" t="s">
+      <c r="C328" s="40" t="s">
         <v>486</v>
       </c>
-      <c r="D328" s="37"/>
-      <c r="E328" s="37"/>
-      <c r="F328" s="37"/>
-      <c r="G328" s="38"/>
+      <c r="D328" s="41"/>
+      <c r="E328" s="41"/>
+      <c r="F328" s="41"/>
+      <c r="G328" s="42"/>
     </row>
     <row r="329" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B329" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C329" s="39" t="s">
+      <c r="C329" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="D329" s="40"/>
-      <c r="E329" s="40"/>
-      <c r="F329" s="40"/>
-      <c r="G329" s="41"/>
+      <c r="D329" s="38"/>
+      <c r="E329" s="38"/>
+      <c r="F329" s="38"/>
+      <c r="G329" s="39"/>
     </row>
     <row r="330" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B330" s="4" t="s">
@@ -17931,25 +18133,25 @@
       <c r="B350" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C350" s="36" t="s">
+      <c r="C350" s="40" t="s">
         <v>1332</v>
       </c>
-      <c r="D350" s="37"/>
-      <c r="E350" s="37"/>
-      <c r="F350" s="37"/>
-      <c r="G350" s="38"/>
+      <c r="D350" s="41"/>
+      <c r="E350" s="41"/>
+      <c r="F350" s="41"/>
+      <c r="G350" s="42"/>
     </row>
     <row r="351" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B351" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C351" s="39" t="s">
+      <c r="C351" s="37" t="s">
         <v>1333</v>
       </c>
-      <c r="D351" s="40"/>
-      <c r="E351" s="40"/>
-      <c r="F351" s="40"/>
-      <c r="G351" s="41"/>
+      <c r="D351" s="38"/>
+      <c r="E351" s="38"/>
+      <c r="F351" s="38"/>
+      <c r="G351" s="39"/>
     </row>
     <row r="352" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B352" s="4" t="s">
@@ -18397,8 +18599,515 @@
       <c r="F378" s="9"/>
       <c r="G378" s="10"/>
     </row>
+    <row r="381" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="382" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B382" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C382" s="40" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D382" s="41"/>
+      <c r="E382" s="41"/>
+      <c r="F382" s="41"/>
+      <c r="G382" s="42"/>
+    </row>
+    <row r="383" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B383" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C383" s="37" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D383" s="38"/>
+      <c r="E383" s="38"/>
+      <c r="F383" s="38"/>
+      <c r="G383" s="39"/>
+    </row>
+    <row r="384" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B384" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G384" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B385" s="6">
+        <v>1</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G385" s="7"/>
+    </row>
+    <row r="386" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B386" s="6">
+        <v>2</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G386" s="7"/>
+    </row>
+    <row r="387" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B387" s="6">
+        <v>5</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G387" s="7"/>
+    </row>
+    <row r="388" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B388" s="6">
+        <v>6</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F388" s="2"/>
+      <c r="G388" s="7"/>
+    </row>
+    <row r="389" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B389" s="6">
+        <v>7</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F389" s="2"/>
+      <c r="G389" s="7" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="390" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B390" s="6">
+        <v>8</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F390" s="2"/>
+      <c r="G390" s="14"/>
+    </row>
+    <row r="391" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B391" s="6">
+        <v>9</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F391" s="2"/>
+      <c r="G391" s="14" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="392" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B392" s="6">
+        <v>10</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F392" s="2"/>
+      <c r="G392" s="14" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="393" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B393" s="6">
+        <v>11</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F393" s="2"/>
+      <c r="G393" s="14" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="394" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B394" s="6">
+        <v>12</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G394" s="14"/>
+    </row>
+    <row r="395" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B395" s="6">
+        <v>13</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G395" s="14"/>
+    </row>
+    <row r="396" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B396" s="6">
+        <v>14</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F396" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G396" s="14"/>
+    </row>
+    <row r="397" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B397" s="6">
+        <v>15</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F397" s="2"/>
+      <c r="G397" s="14"/>
+    </row>
+    <row r="398" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B398" s="6">
+        <v>16</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G398" s="14"/>
+    </row>
+    <row r="399" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B399" s="6">
+        <v>17</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F399" s="2"/>
+      <c r="G399" s="14" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="400" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B400" s="6"/>
+      <c r="C400" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F400" s="2"/>
+      <c r="G400" s="14" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="401" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B401" s="6"/>
+      <c r="C401" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F401" s="2"/>
+      <c r="G401" s="14" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="402" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B402" s="6">
+        <v>18</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F402" s="2"/>
+      <c r="G402" s="36"/>
+    </row>
+    <row r="403" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B403" s="6">
+        <v>19</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F403" s="2"/>
+      <c r="G403" s="7"/>
+    </row>
+    <row r="404" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B404" s="6">
+        <v>20</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F404" s="2"/>
+      <c r="G404" s="7"/>
+    </row>
+    <row r="405" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B405" s="6">
+        <v>21</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F405" s="2"/>
+      <c r="G405" s="7"/>
+    </row>
+    <row r="406" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B406" s="6">
+        <v>22</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F406" s="2"/>
+      <c r="G406" s="7"/>
+    </row>
+    <row r="407" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B407" s="6">
+        <v>23</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F407" s="2"/>
+      <c r="G407" s="7"/>
+    </row>
+    <row r="408" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B408" s="6">
+        <v>24</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F408" s="2"/>
+      <c r="G408" s="7"/>
+    </row>
+    <row r="409" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B409" s="6">
+        <v>25</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F409" s="2"/>
+      <c r="G409" s="7"/>
+    </row>
+    <row r="410" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B410" s="6">
+        <v>26</v>
+      </c>
+      <c r="C410" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D410" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E410" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F410" s="9"/>
+      <c r="G410" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="35">
+    <mergeCell ref="C382:G382"/>
+    <mergeCell ref="C383:G383"/>
+    <mergeCell ref="C350:G350"/>
+    <mergeCell ref="C351:G351"/>
+    <mergeCell ref="C328:G328"/>
+    <mergeCell ref="C329:G329"/>
+    <mergeCell ref="C262:G262"/>
+    <mergeCell ref="C263:G263"/>
+    <mergeCell ref="C306:G306"/>
+    <mergeCell ref="C307:G307"/>
+    <mergeCell ref="C283:G283"/>
+    <mergeCell ref="C284:G284"/>
+    <mergeCell ref="G105:G107"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
     <mergeCell ref="C238:G238"/>
     <mergeCell ref="C128:G128"/>
     <mergeCell ref="C129:G129"/>
@@ -18412,26 +19121,6 @@
     <mergeCell ref="C237:G237"/>
     <mergeCell ref="C209:G209"/>
     <mergeCell ref="C210:G210"/>
-    <mergeCell ref="G105:G107"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C350:G350"/>
-    <mergeCell ref="C351:G351"/>
-    <mergeCell ref="C328:G328"/>
-    <mergeCell ref="C329:G329"/>
-    <mergeCell ref="C262:G262"/>
-    <mergeCell ref="C263:G263"/>
-    <mergeCell ref="C306:G306"/>
-    <mergeCell ref="C307:G307"/>
-    <mergeCell ref="C283:G283"/>
-    <mergeCell ref="C284:G284"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18460,25 +19149,25 @@
       <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="40" t="s">
         <v>1203</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>1202</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -18721,25 +19410,25 @@
       <c r="B20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="40" t="s">
         <v>1212</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="38"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="37" t="s">
         <v>1243</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
@@ -19012,25 +19701,25 @@
       <c r="B40" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="40" t="s">
         <v>1267</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
     </row>
     <row r="41" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="37" t="s">
         <v>1238</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="41"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="39"/>
     </row>
     <row r="42" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
@@ -19377,25 +20066,25 @@
       <c r="B64" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="40" t="s">
         <v>1222</v>
       </c>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="38"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="42"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="37" t="s">
         <v>1252</v>
       </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="41"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="39"/>
     </row>
     <row r="66" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
@@ -19674,25 +20363,25 @@
       <c r="B84" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="40" t="s">
         <v>1249</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="38"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="42"/>
     </row>
     <row r="85" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B85" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="37" t="s">
         <v>1250</v>
       </c>
-      <c r="D85" s="40"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
-      <c r="G85" s="41"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="39"/>
     </row>
     <row r="86" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
@@ -19933,25 +20622,25 @@
       <c r="B102" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C102" s="36" t="s">
+      <c r="C102" s="40" t="s">
         <v>1253</v>
       </c>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="38"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="42"/>
     </row>
     <row r="103" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B103" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C103" s="39" t="s">
+      <c r="C103" s="37" t="s">
         <v>1254</v>
       </c>
-      <c r="D103" s="40"/>
-      <c r="E103" s="40"/>
-      <c r="F103" s="40"/>
-      <c r="G103" s="41"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="38"/>
+      <c r="G103" s="39"/>
     </row>
     <row r="104" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B104" s="4" t="s">
@@ -20208,25 +20897,25 @@
       <c r="B122" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C122" s="36" t="s">
+      <c r="C122" s="40" t="s">
         <v>1282</v>
       </c>
-      <c r="D122" s="37"/>
-      <c r="E122" s="37"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="38"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="41"/>
+      <c r="G122" s="42"/>
     </row>
     <row r="123" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B123" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C123" s="39" t="s">
+      <c r="C123" s="37" t="s">
         <v>1283</v>
       </c>
-      <c r="D123" s="40"/>
-      <c r="E123" s="40"/>
-      <c r="F123" s="40"/>
-      <c r="G123" s="41"/>
+      <c r="D123" s="38"/>
+      <c r="E123" s="38"/>
+      <c r="F123" s="38"/>
+      <c r="G123" s="39"/>
     </row>
     <row r="124" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B124" s="4" t="s">
@@ -20550,11 +21239,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C64:G64"/>
     <mergeCell ref="C122:G122"/>
     <mergeCell ref="C123:G123"/>
     <mergeCell ref="C102:G102"/>
@@ -20564,6 +21248,11 @@
     <mergeCell ref="C84:G84"/>
     <mergeCell ref="C85:G85"/>
     <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C64:G64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20574,8 +21263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="D180" sqref="D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20592,25 +21281,25 @@
       <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="40" t="s">
         <v>671</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -20885,25 +21574,25 @@
       <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="40" t="s">
         <v>672</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
@@ -21184,25 +21873,25 @@
       <c r="B44" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="38"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="42"/>
     </row>
     <row r="45" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="41"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="39"/>
     </row>
     <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
@@ -21545,25 +22234,25 @@
       <c r="B69" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="40" t="s">
         <v>674</v>
       </c>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="38"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="42"/>
     </row>
     <row r="70" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B70" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="39" t="s">
+      <c r="C70" s="37" t="s">
         <v>527</v>
       </c>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="41"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="39"/>
     </row>
     <row r="71" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B71" s="4" t="s">
@@ -22126,25 +22815,25 @@
       <c r="B108" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C108" s="36" t="s">
+      <c r="C108" s="40" t="s">
         <v>1177</v>
       </c>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="38"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="42"/>
     </row>
     <row r="109" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B109" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C109" s="39" t="s">
+      <c r="C109" s="37" t="s">
         <v>1161</v>
       </c>
-      <c r="D109" s="40"/>
-      <c r="E109" s="40"/>
-      <c r="F109" s="40"/>
-      <c r="G109" s="41"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="38"/>
+      <c r="G109" s="39"/>
     </row>
     <row r="110" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B110" s="4" t="s">
@@ -22288,7 +22977,7 @@
       <c r="F117" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G117" s="48" t="s">
+      <c r="G117" s="49" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -22306,7 +22995,7 @@
         <v>264</v>
       </c>
       <c r="F118" s="2"/>
-      <c r="G118" s="49"/>
+      <c r="G118" s="50"/>
     </row>
     <row r="119" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B119" s="6">
@@ -22322,7 +23011,7 @@
         <v>143</v>
       </c>
       <c r="F119" s="2"/>
-      <c r="G119" s="49"/>
+      <c r="G119" s="50"/>
     </row>
     <row r="120" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B120" s="6">
@@ -22338,7 +23027,7 @@
         <v>150</v>
       </c>
       <c r="F120" s="2"/>
-      <c r="G120" s="50"/>
+      <c r="G120" s="51"/>
     </row>
     <row r="121" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B121" s="6">
@@ -22354,7 +23043,7 @@
         <v>511</v>
       </c>
       <c r="F121" s="2"/>
-      <c r="G121" s="48" t="s">
+      <c r="G121" s="49" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -22372,7 +23061,7 @@
         <v>213</v>
       </c>
       <c r="F122" s="2"/>
-      <c r="G122" s="49"/>
+      <c r="G122" s="50"/>
     </row>
     <row r="123" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B123" s="6">
@@ -22388,7 +23077,7 @@
         <v>143</v>
       </c>
       <c r="F123" s="2"/>
-      <c r="G123" s="50"/>
+      <c r="G123" s="51"/>
     </row>
     <row r="124" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B124" s="6">
@@ -22404,7 +23093,7 @@
         <v>141</v>
       </c>
       <c r="F124" s="2"/>
-      <c r="G124" s="48" t="s">
+      <c r="G124" s="49" t="s">
         <v>1166</v>
       </c>
     </row>
@@ -22422,7 +23111,7 @@
         <v>142</v>
       </c>
       <c r="F125" s="2"/>
-      <c r="G125" s="49"/>
+      <c r="G125" s="50"/>
     </row>
     <row r="126" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B126" s="6">
@@ -22438,7 +23127,7 @@
         <v>143</v>
       </c>
       <c r="F126" s="2"/>
-      <c r="G126" s="50"/>
+      <c r="G126" s="51"/>
     </row>
     <row r="127" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B127" s="6">
@@ -22454,7 +23143,7 @@
         <v>141</v>
       </c>
       <c r="F127" s="2"/>
-      <c r="G127" s="48" t="s">
+      <c r="G127" s="49" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -22472,7 +23161,7 @@
         <v>142</v>
       </c>
       <c r="F128" s="2"/>
-      <c r="G128" s="49"/>
+      <c r="G128" s="50"/>
     </row>
     <row r="129" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B129" s="6">
@@ -22488,7 +23177,7 @@
         <v>143</v>
       </c>
       <c r="F129" s="2"/>
-      <c r="G129" s="50"/>
+      <c r="G129" s="51"/>
     </row>
     <row r="130" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B130" s="6">
@@ -22673,25 +23362,25 @@
       <c r="B143" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C143" s="36" t="s">
+      <c r="C143" s="40" t="s">
         <v>1178</v>
       </c>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="38"/>
+      <c r="D143" s="41"/>
+      <c r="E143" s="41"/>
+      <c r="F143" s="41"/>
+      <c r="G143" s="42"/>
     </row>
     <row r="144" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B144" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C144" s="39" t="s">
+      <c r="C144" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D144" s="40"/>
-      <c r="E144" s="40"/>
-      <c r="F144" s="40"/>
-      <c r="G144" s="41"/>
+      <c r="D144" s="38"/>
+      <c r="E144" s="38"/>
+      <c r="F144" s="38"/>
+      <c r="G144" s="39"/>
     </row>
     <row r="145" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B145" s="4" t="s">
@@ -22881,7 +23570,7 @@
         <v>511</v>
       </c>
       <c r="F155" s="2"/>
-      <c r="G155" s="48" t="s">
+      <c r="G155" s="49" t="s">
         <v>1169</v>
       </c>
     </row>
@@ -22899,7 +23588,7 @@
         <v>213</v>
       </c>
       <c r="F156" s="2"/>
-      <c r="G156" s="49"/>
+      <c r="G156" s="50"/>
     </row>
     <row r="157" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B157" s="6">
@@ -22915,7 +23604,7 @@
         <v>143</v>
       </c>
       <c r="F157" s="2"/>
-      <c r="G157" s="50"/>
+      <c r="G157" s="51"/>
     </row>
     <row r="158" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B158" s="6">
@@ -22931,7 +23620,7 @@
         <v>141</v>
       </c>
       <c r="F158" s="2"/>
-      <c r="G158" s="48" t="s">
+      <c r="G158" s="49" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -22949,7 +23638,7 @@
         <v>142</v>
       </c>
       <c r="F159" s="2"/>
-      <c r="G159" s="49"/>
+      <c r="G159" s="50"/>
     </row>
     <row r="160" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B160" s="6">
@@ -22965,7 +23654,7 @@
         <v>143</v>
       </c>
       <c r="F160" s="2"/>
-      <c r="G160" s="50"/>
+      <c r="G160" s="51"/>
     </row>
     <row r="161" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B161" s="6">
@@ -22981,7 +23670,7 @@
         <v>141</v>
       </c>
       <c r="F161" s="2"/>
-      <c r="G161" s="48" t="s">
+      <c r="G161" s="49" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -22999,7 +23688,7 @@
         <v>142</v>
       </c>
       <c r="F162" s="2"/>
-      <c r="G162" s="49"/>
+      <c r="G162" s="50"/>
     </row>
     <row r="163" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B163" s="6">
@@ -23015,7 +23704,7 @@
         <v>143</v>
       </c>
       <c r="F163" s="2"/>
-      <c r="G163" s="50"/>
+      <c r="G163" s="51"/>
     </row>
     <row r="164" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B164" s="6">
@@ -23182,25 +23871,25 @@
       <c r="B177" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C177" s="36" t="s">
+      <c r="C177" s="40" t="s">
         <v>1360</v>
       </c>
-      <c r="D177" s="37"/>
-      <c r="E177" s="37"/>
-      <c r="F177" s="37"/>
-      <c r="G177" s="38"/>
+      <c r="D177" s="41"/>
+      <c r="E177" s="41"/>
+      <c r="F177" s="41"/>
+      <c r="G177" s="42"/>
     </row>
     <row r="178" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B178" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C178" s="39" t="s">
+      <c r="C178" s="37" t="s">
         <v>1361</v>
       </c>
-      <c r="D178" s="40"/>
-      <c r="E178" s="40"/>
-      <c r="F178" s="40"/>
-      <c r="G178" s="41"/>
+      <c r="D178" s="38"/>
+      <c r="E178" s="38"/>
+      <c r="F178" s="38"/>
+      <c r="G178" s="39"/>
     </row>
     <row r="179" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B179" s="4" t="s">
@@ -23290,7 +23979,7 @@
         <v>141</v>
       </c>
       <c r="F183" s="2"/>
-      <c r="G183" s="48" t="s">
+      <c r="G183" s="49" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -23308,7 +23997,7 @@
         <v>142</v>
       </c>
       <c r="F184" s="2"/>
-      <c r="G184" s="49"/>
+      <c r="G184" s="50"/>
     </row>
     <row r="185" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B185" s="6">
@@ -23324,7 +24013,7 @@
         <v>141</v>
       </c>
       <c r="F185" s="2"/>
-      <c r="G185" s="49"/>
+      <c r="G185" s="50"/>
     </row>
     <row r="186" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B186" s="6">
@@ -23340,7 +24029,7 @@
         <v>142</v>
       </c>
       <c r="F186" s="2"/>
-      <c r="G186" s="49"/>
+      <c r="G186" s="50"/>
     </row>
     <row r="187" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B187" s="6">
@@ -23356,7 +24045,7 @@
         <v>141</v>
       </c>
       <c r="F187" s="2"/>
-      <c r="G187" s="49"/>
+      <c r="G187" s="50"/>
     </row>
     <row r="188" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B188" s="6">
@@ -23372,7 +24061,7 @@
         <v>142</v>
       </c>
       <c r="F188" s="2"/>
-      <c r="G188" s="50"/>
+      <c r="G188" s="51"/>
     </row>
     <row r="189" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B189" s="6">
@@ -23388,7 +24077,7 @@
         <v>141</v>
       </c>
       <c r="F189" s="2"/>
-      <c r="G189" s="48" t="s">
+      <c r="G189" s="49" t="s">
         <v>1381</v>
       </c>
     </row>
@@ -23406,7 +24095,7 @@
         <v>142</v>
       </c>
       <c r="F190" s="2"/>
-      <c r="G190" s="49"/>
+      <c r="G190" s="50"/>
     </row>
     <row r="191" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B191" s="6">
@@ -23422,7 +24111,7 @@
         <v>143</v>
       </c>
       <c r="F191" s="2"/>
-      <c r="G191" s="49"/>
+      <c r="G191" s="50"/>
     </row>
     <row r="192" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B192" s="6">
@@ -23438,7 +24127,7 @@
         <v>141</v>
       </c>
       <c r="F192" s="2"/>
-      <c r="G192" s="49"/>
+      <c r="G192" s="50"/>
     </row>
     <row r="193" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B193" s="6">
@@ -23454,7 +24143,7 @@
         <v>142</v>
       </c>
       <c r="F193" s="2"/>
-      <c r="G193" s="49"/>
+      <c r="G193" s="50"/>
     </row>
     <row r="194" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B194" s="6">
@@ -23470,7 +24159,7 @@
         <v>143</v>
       </c>
       <c r="F194" s="2"/>
-      <c r="G194" s="49"/>
+      <c r="G194" s="50"/>
     </row>
     <row r="195" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B195" s="6">
@@ -23486,7 +24175,7 @@
         <v>141</v>
       </c>
       <c r="F195" s="2"/>
-      <c r="G195" s="49"/>
+      <c r="G195" s="50"/>
     </row>
     <row r="196" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B196" s="6">
@@ -23502,7 +24191,7 @@
         <v>142</v>
       </c>
       <c r="F196" s="2"/>
-      <c r="G196" s="49"/>
+      <c r="G196" s="50"/>
     </row>
     <row r="197" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B197" s="6">
@@ -23518,7 +24207,7 @@
         <v>143</v>
       </c>
       <c r="F197" s="2"/>
-      <c r="G197" s="50"/>
+      <c r="G197" s="51"/>
     </row>
     <row r="198" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B198" s="6">
@@ -23703,25 +24392,25 @@
       <c r="B211" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C211" s="36" t="s">
+      <c r="C211" s="40" t="s">
         <v>1382</v>
       </c>
-      <c r="D211" s="37"/>
-      <c r="E211" s="37"/>
-      <c r="F211" s="37"/>
-      <c r="G211" s="38"/>
+      <c r="D211" s="41"/>
+      <c r="E211" s="41"/>
+      <c r="F211" s="41"/>
+      <c r="G211" s="42"/>
     </row>
     <row r="212" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B212" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C212" s="39" t="s">
+      <c r="C212" s="37" t="s">
         <v>1383</v>
       </c>
-      <c r="D212" s="40"/>
-      <c r="E212" s="40"/>
-      <c r="F212" s="40"/>
-      <c r="G212" s="41"/>
+      <c r="D212" s="38"/>
+      <c r="E212" s="38"/>
+      <c r="F212" s="38"/>
+      <c r="G212" s="39"/>
     </row>
     <row r="213" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B213" s="4" t="s">
@@ -23909,7 +24598,7 @@
         <v>141</v>
       </c>
       <c r="F223" s="2"/>
-      <c r="G223" s="48" t="s">
+      <c r="G223" s="49" t="s">
         <v>1387</v>
       </c>
     </row>
@@ -23927,7 +24616,7 @@
         <v>142</v>
       </c>
       <c r="F224" s="2"/>
-      <c r="G224" s="49"/>
+      <c r="G224" s="50"/>
     </row>
     <row r="225" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B225" s="6">
@@ -23943,7 +24632,7 @@
         <v>143</v>
       </c>
       <c r="F225" s="2"/>
-      <c r="G225" s="50"/>
+      <c r="G225" s="51"/>
     </row>
     <row r="226" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B226" s="6">
@@ -23959,7 +24648,7 @@
         <v>141</v>
       </c>
       <c r="F226" s="2"/>
-      <c r="G226" s="48" t="s">
+      <c r="G226" s="49" t="s">
         <v>1388</v>
       </c>
     </row>
@@ -23977,7 +24666,7 @@
         <v>142</v>
       </c>
       <c r="F227" s="2"/>
-      <c r="G227" s="49"/>
+      <c r="G227" s="50"/>
     </row>
     <row r="228" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B228" s="6">
@@ -23993,7 +24682,7 @@
         <v>143</v>
       </c>
       <c r="F228" s="2"/>
-      <c r="G228" s="50"/>
+      <c r="G228" s="51"/>
     </row>
     <row r="229" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B229" s="6">
@@ -24009,7 +24698,7 @@
         <v>141</v>
       </c>
       <c r="F229" s="2"/>
-      <c r="G229" s="48" t="s">
+      <c r="G229" s="49" t="s">
         <v>1389</v>
       </c>
     </row>
@@ -24027,7 +24716,7 @@
         <v>142</v>
       </c>
       <c r="F230" s="2"/>
-      <c r="G230" s="49"/>
+      <c r="G230" s="50"/>
     </row>
     <row r="231" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B231" s="6">
@@ -24043,7 +24732,7 @@
         <v>143</v>
       </c>
       <c r="F231" s="2"/>
-      <c r="G231" s="50"/>
+      <c r="G231" s="51"/>
     </row>
     <row r="232" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B232" s="6">
@@ -24191,18 +24880,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G223:G225"/>
-    <mergeCell ref="G226:G228"/>
-    <mergeCell ref="G229:G231"/>
-    <mergeCell ref="G183:G188"/>
-    <mergeCell ref="G189:G197"/>
-    <mergeCell ref="C211:G211"/>
-    <mergeCell ref="C212:G212"/>
-    <mergeCell ref="C177:G177"/>
-    <mergeCell ref="C178:G178"/>
-    <mergeCell ref="G155:G157"/>
-    <mergeCell ref="G158:G160"/>
-    <mergeCell ref="G161:G163"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C44:G44"/>
     <mergeCell ref="G117:G120"/>
     <mergeCell ref="C108:G108"/>
     <mergeCell ref="C109:G109"/>
@@ -24211,14 +24896,18 @@
     <mergeCell ref="G121:G123"/>
     <mergeCell ref="G124:G126"/>
     <mergeCell ref="G127:G129"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C177:G177"/>
+    <mergeCell ref="C178:G178"/>
+    <mergeCell ref="G155:G157"/>
+    <mergeCell ref="G158:G160"/>
+    <mergeCell ref="G161:G163"/>
+    <mergeCell ref="G223:G225"/>
+    <mergeCell ref="G226:G228"/>
+    <mergeCell ref="G229:G231"/>
+    <mergeCell ref="G183:G188"/>
+    <mergeCell ref="G189:G197"/>
+    <mergeCell ref="C211:G211"/>
+    <mergeCell ref="C212:G212"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24248,25 +24937,25 @@
       <c r="B3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="40" t="s">
         <v>713</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -24304,7 +24993,7 @@
       <c r="F6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="49" t="s">
         <v>374</v>
       </c>
     </row>
@@ -24324,7 +25013,7 @@
       <c r="F7" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="49"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="6">
@@ -24342,7 +25031,7 @@
       <c r="F8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="50"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
@@ -24643,25 +25332,25 @@
       <c r="B30" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="40" t="s">
         <v>714</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
@@ -24942,25 +25631,25 @@
       <c r="B51" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="40" t="s">
         <v>1314</v>
       </c>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="38"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="42"/>
     </row>
     <row r="52" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="37" t="s">
         <v>1307</v>
       </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="41"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="39"/>
     </row>
     <row r="53" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
@@ -25292,25 +25981,25 @@
       <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="40" t="s">
         <v>1076</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="37" t="s">
         <v>1075</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -25575,25 +26264,25 @@
       <c r="B25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="40" t="s">
         <v>992</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="37" t="s">
         <v>999</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
@@ -25852,25 +26541,25 @@
       <c r="B45" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="40" t="s">
         <v>1004</v>
       </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="42"/>
     </row>
     <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="37" t="s">
         <v>1005</v>
       </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="41"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="39"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
@@ -26133,25 +26822,25 @@
       <c r="B64" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="40" t="s">
         <v>1020</v>
       </c>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="38"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="42"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="37" t="s">
         <v>1021</v>
       </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="41"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="39"/>
     </row>
     <row r="66" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
@@ -26534,25 +27223,25 @@
       <c r="B91" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C91" s="36" t="s">
+      <c r="C91" s="40" t="s">
         <v>1037</v>
       </c>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="38"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="42"/>
     </row>
     <row r="92" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B92" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C92" s="39" t="s">
+      <c r="C92" s="37" t="s">
         <v>1038</v>
       </c>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="40"/>
-      <c r="G92" s="41"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="39"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B93" s="4" t="s">
@@ -26943,25 +27632,25 @@
       <c r="B117" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C117" s="36" t="s">
+      <c r="C117" s="40" t="s">
         <v>1069</v>
       </c>
-      <c r="D117" s="37"/>
-      <c r="E117" s="37"/>
-      <c r="F117" s="37"/>
-      <c r="G117" s="38"/>
+      <c r="D117" s="41"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="41"/>
+      <c r="G117" s="42"/>
     </row>
     <row r="118" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B118" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C118" s="39" t="s">
+      <c r="C118" s="37" t="s">
         <v>1080</v>
       </c>
-      <c r="D118" s="40"/>
-      <c r="E118" s="40"/>
-      <c r="F118" s="40"/>
-      <c r="G118" s="41"/>
+      <c r="D118" s="38"/>
+      <c r="E118" s="38"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="39"/>
     </row>
     <row r="119" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B119" s="4" t="s">
@@ -27157,7 +27846,7 @@
       <c r="F129" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G129" s="48" t="s">
+      <c r="G129" s="49" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -27177,7 +27866,7 @@
       <c r="F130" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G130" s="49"/>
+      <c r="G130" s="50"/>
     </row>
     <row r="131" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B131" s="6">
@@ -27195,7 +27884,7 @@
       <c r="F131" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G131" s="49"/>
+      <c r="G131" s="50"/>
     </row>
     <row r="132" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B132" s="6">
@@ -27211,7 +27900,7 @@
         <v>144</v>
       </c>
       <c r="F132" s="2"/>
-      <c r="G132" s="49"/>
+      <c r="G132" s="50"/>
     </row>
     <row r="133" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B133" s="6">
@@ -27229,7 +27918,7 @@
       <c r="F133" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G133" s="50"/>
+      <c r="G133" s="51"/>
     </row>
     <row r="134" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B134" s="6">
@@ -27662,25 +28351,25 @@
       <c r="B162" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C162" s="36" t="s">
+      <c r="C162" s="40" t="s">
         <v>1121</v>
       </c>
-      <c r="D162" s="37"/>
-      <c r="E162" s="37"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="38"/>
+      <c r="D162" s="41"/>
+      <c r="E162" s="41"/>
+      <c r="F162" s="41"/>
+      <c r="G162" s="42"/>
     </row>
     <row r="163" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B163" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C163" s="39" t="s">
+      <c r="C163" s="37" t="s">
         <v>1122</v>
       </c>
-      <c r="D163" s="40"/>
-      <c r="E163" s="40"/>
-      <c r="F163" s="40"/>
-      <c r="G163" s="41"/>
+      <c r="D163" s="38"/>
+      <c r="E163" s="38"/>
+      <c r="F163" s="38"/>
+      <c r="G163" s="39"/>
     </row>
     <row r="164" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B164" s="4" t="s">
@@ -28101,25 +28790,25 @@
       <c r="B191" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C191" s="36" t="s">
+      <c r="C191" s="40" t="s">
         <v>1134</v>
       </c>
-      <c r="D191" s="37"/>
-      <c r="E191" s="37"/>
-      <c r="F191" s="37"/>
-      <c r="G191" s="38"/>
+      <c r="D191" s="41"/>
+      <c r="E191" s="41"/>
+      <c r="F191" s="41"/>
+      <c r="G191" s="42"/>
     </row>
     <row r="192" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B192" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C192" s="39" t="s">
+      <c r="C192" s="37" t="s">
         <v>1135</v>
       </c>
-      <c r="D192" s="40"/>
-      <c r="E192" s="40"/>
-      <c r="F192" s="40"/>
-      <c r="G192" s="41"/>
+      <c r="D192" s="38"/>
+      <c r="E192" s="38"/>
+      <c r="F192" s="38"/>
+      <c r="G192" s="39"/>
     </row>
     <row r="193" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B193" s="4" t="s">
@@ -28399,6 +29088,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C162:G162"/>
+    <mergeCell ref="C163:G163"/>
+    <mergeCell ref="C191:G191"/>
+    <mergeCell ref="C192:G192"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="G129:G133"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C65:G65"/>
@@ -28409,13 +29105,6 @@
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C64:G64"/>
-    <mergeCell ref="C162:G162"/>
-    <mergeCell ref="C163:G163"/>
-    <mergeCell ref="C191:G191"/>
-    <mergeCell ref="C192:G192"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="G129:G133"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28444,25 +29133,25 @@
       <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="40" t="s">
         <v>796</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>819</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -28743,25 +29432,25 @@
       <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="40" t="s">
         <v>818</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="37" t="s">
         <v>820</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">

--- a/doc/设计文档/数据库设计/数据库设计.xlsx
+++ b/doc/设计文档/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表清单" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4736" uniqueCount="1429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4803" uniqueCount="1455">
   <si>
     <t>序号</t>
   </si>
@@ -5730,6 +5730,109 @@
   </si>
   <si>
     <t>当前工作站消耗的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WM_BARCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WM_BARCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BARCODE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAN码、UPC码、39码、93码、库德巴码、128码、PDF417二维码、QR CODE二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BARCODE_FORMART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BARCODE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BARCODE_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码的内容，可以是URL地址或者业务单据的主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码具体关联的业务类型，数据字典BARCODE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码图片的存储路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(256)</t>
+  </si>
+  <si>
+    <t>如果条码已经生成过，则缓存对应的图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENABLE_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 'Y'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6005,7 +6108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6115,6 +6218,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6160,7 +6267,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6462,10 +6568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6960,9 +7066,9 @@
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -7450,9 +7556,15 @@
     </row>
     <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="B76" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>1430</v>
+      </c>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -7464,321 +7576,323 @@
     </row>
     <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
-      <c r="B78" s="2" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
-      <c r="B79" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>712</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>1306</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>711</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>712</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>712</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E82" s="2"/>
+        <v>1305</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>1306</v>
+      </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>712</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E83" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>1312</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>712</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>712</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>712</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B87" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>712</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>712</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B89" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B90" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-    </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B91" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>794</v>
-      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B92" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>792</v>
-      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B93" s="2" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>789</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="E93" s="2"/>
+        <v>791</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B94" s="2" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>789</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B95" s="2" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>789</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B96" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B97" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B98" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>418</v>
-      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B99" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>556</v>
-      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B100" s="2" t="s">
-        <v>555</v>
+        <v>416</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>417</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>557</v>
+        <v>418</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B101" s="2" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>417</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B102" s="2" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>417</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B103" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>417</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B104" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B105" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -7822,6 +7936,18 @@
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7857,25 +7983,25 @@
       <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="42" t="s">
         <v>574</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>581</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -8194,25 +8320,25 @@
       <c r="B26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="42" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="39" t="s">
         <v>625</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
@@ -8635,25 +8761,25 @@
       <c r="B56" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="42" t="s">
         <v>572</v>
       </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="42"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="44"/>
     </row>
     <row r="57" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="39" t="s">
         <v>632</v>
       </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="39"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="41"/>
     </row>
     <row r="58" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">
@@ -8967,25 +9093,25 @@
       <c r="B3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -9384,25 +9510,25 @@
       <c r="B31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
@@ -9721,25 +9847,25 @@
       <c r="B54" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="42"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="44"/>
     </row>
     <row r="55" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="37" t="s">
+      <c r="C55" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="39"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="41"/>
     </row>
     <row r="56" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
@@ -10106,25 +10232,25 @@
       <c r="B80" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C80" s="40" t="s">
+      <c r="C80" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="42"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="44"/>
     </row>
     <row r="81" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B81" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C81" s="37" t="s">
+      <c r="C81" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="39"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="41"/>
     </row>
     <row r="82" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B82" s="4" t="s">
@@ -10627,25 +10753,25 @@
       <c r="B115" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C115" s="40" t="s">
+      <c r="C115" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="D115" s="41"/>
-      <c r="E115" s="41"/>
-      <c r="F115" s="41"/>
-      <c r="G115" s="42"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="43"/>
+      <c r="G115" s="44"/>
     </row>
     <row r="116" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C116" s="37" t="s">
+      <c r="C116" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="D116" s="38"/>
-      <c r="E116" s="38"/>
-      <c r="F116" s="38"/>
-      <c r="G116" s="39"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="40"/>
+      <c r="F116" s="40"/>
+      <c r="G116" s="41"/>
     </row>
     <row r="117" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B117" s="4" t="s">
@@ -11130,25 +11256,25 @@
       <c r="B151" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C151" s="40" t="s">
+      <c r="C151" s="42" t="s">
         <v>650</v>
       </c>
-      <c r="D151" s="41"/>
-      <c r="E151" s="41"/>
-      <c r="F151" s="41"/>
-      <c r="G151" s="42"/>
+      <c r="D151" s="43"/>
+      <c r="E151" s="43"/>
+      <c r="F151" s="43"/>
+      <c r="G151" s="44"/>
     </row>
     <row r="152" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B152" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C152" s="37" t="s">
+      <c r="C152" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="D152" s="38"/>
-      <c r="E152" s="38"/>
-      <c r="F152" s="38"/>
-      <c r="G152" s="39"/>
+      <c r="D152" s="40"/>
+      <c r="E152" s="40"/>
+      <c r="F152" s="40"/>
+      <c r="G152" s="41"/>
     </row>
     <row r="153" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B153" s="4" t="s">
@@ -11445,25 +11571,25 @@
       <c r="B173" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C173" s="40" t="s">
+      <c r="C173" s="42" t="s">
         <v>661</v>
       </c>
-      <c r="D173" s="41"/>
-      <c r="E173" s="41"/>
-      <c r="F173" s="41"/>
-      <c r="G173" s="42"/>
+      <c r="D173" s="43"/>
+      <c r="E173" s="43"/>
+      <c r="F173" s="43"/>
+      <c r="G173" s="44"/>
     </row>
     <row r="174" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B174" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C174" s="37" t="s">
+      <c r="C174" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="D174" s="38"/>
-      <c r="E174" s="38"/>
-      <c r="F174" s="38"/>
-      <c r="G174" s="39"/>
+      <c r="D174" s="40"/>
+      <c r="E174" s="40"/>
+      <c r="F174" s="40"/>
+      <c r="G174" s="41"/>
     </row>
     <row r="175" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B175" s="4" t="s">
@@ -11738,25 +11864,25 @@
       <c r="B193" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C193" s="40" t="s">
+      <c r="C193" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="D193" s="41"/>
-      <c r="E193" s="41"/>
-      <c r="F193" s="41"/>
-      <c r="G193" s="42"/>
+      <c r="D193" s="43"/>
+      <c r="E193" s="43"/>
+      <c r="F193" s="43"/>
+      <c r="G193" s="44"/>
     </row>
     <row r="194" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B194" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C194" s="37" t="s">
+      <c r="C194" s="39" t="s">
         <v>769</v>
       </c>
-      <c r="D194" s="38"/>
-      <c r="E194" s="38"/>
-      <c r="F194" s="38"/>
-      <c r="G194" s="39"/>
+      <c r="D194" s="40"/>
+      <c r="E194" s="40"/>
+      <c r="F194" s="40"/>
+      <c r="G194" s="41"/>
     </row>
     <row r="195" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B195" s="4" t="s">
@@ -12113,25 +12239,25 @@
       <c r="B218" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C218" s="40" t="s">
+      <c r="C218" s="42" t="s">
         <v>386</v>
       </c>
-      <c r="D218" s="41"/>
-      <c r="E218" s="41"/>
-      <c r="F218" s="41"/>
-      <c r="G218" s="42"/>
+      <c r="D218" s="43"/>
+      <c r="E218" s="43"/>
+      <c r="F218" s="43"/>
+      <c r="G218" s="44"/>
     </row>
     <row r="219" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B219" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C219" s="37" t="s">
+      <c r="C219" s="39" t="s">
         <v>869</v>
       </c>
-      <c r="D219" s="38"/>
-      <c r="E219" s="38"/>
-      <c r="F219" s="38"/>
-      <c r="G219" s="39"/>
+      <c r="D219" s="40"/>
+      <c r="E219" s="40"/>
+      <c r="F219" s="40"/>
+      <c r="G219" s="41"/>
     </row>
     <row r="220" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B220" s="4" t="s">
@@ -12410,25 +12536,25 @@
       <c r="B239" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C239" s="40" t="s">
+      <c r="C239" s="42" t="s">
         <v>1187</v>
       </c>
-      <c r="D239" s="41"/>
-      <c r="E239" s="41"/>
-      <c r="F239" s="41"/>
-      <c r="G239" s="42"/>
+      <c r="D239" s="43"/>
+      <c r="E239" s="43"/>
+      <c r="F239" s="43"/>
+      <c r="G239" s="44"/>
     </row>
     <row r="240" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B240" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C240" s="37" t="s">
+      <c r="C240" s="39" t="s">
         <v>870</v>
       </c>
-      <c r="D240" s="38"/>
-      <c r="E240" s="38"/>
-      <c r="F240" s="38"/>
-      <c r="G240" s="39"/>
+      <c r="D240" s="40"/>
+      <c r="E240" s="40"/>
+      <c r="F240" s="40"/>
+      <c r="G240" s="41"/>
     </row>
     <row r="241" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B241" s="4" t="s">
@@ -12707,25 +12833,25 @@
       <c r="B259" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C259" s="40" t="s">
+      <c r="C259" s="42" t="s">
         <v>1191</v>
       </c>
-      <c r="D259" s="41"/>
-      <c r="E259" s="41"/>
-      <c r="F259" s="41"/>
-      <c r="G259" s="42"/>
+      <c r="D259" s="43"/>
+      <c r="E259" s="43"/>
+      <c r="F259" s="43"/>
+      <c r="G259" s="44"/>
     </row>
     <row r="260" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B260" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C260" s="37" t="s">
+      <c r="C260" s="39" t="s">
         <v>871</v>
       </c>
-      <c r="D260" s="38"/>
-      <c r="E260" s="38"/>
-      <c r="F260" s="38"/>
-      <c r="G260" s="39"/>
+      <c r="D260" s="40"/>
+      <c r="E260" s="40"/>
+      <c r="F260" s="40"/>
+      <c r="G260" s="41"/>
     </row>
     <row r="261" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B261" s="4" t="s">
@@ -13033,7 +13159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B388" workbookViewId="0">
+    <sheetView topLeftCell="B388" workbookViewId="0">
       <selection activeCell="G402" sqref="G402"/>
     </sheetView>
   </sheetViews>
@@ -13051,25 +13177,25 @@
       <c r="B3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="42" t="s">
         <v>376</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -13281,7 +13407,7 @@
         <v>149</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="45" t="s">
         <v>354</v>
       </c>
     </row>
@@ -13299,7 +13425,7 @@
         <v>264</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="44"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="6">
@@ -13315,7 +13441,7 @@
         <v>150</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="45"/>
+      <c r="G18" s="47"/>
     </row>
     <row r="19" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="6">
@@ -13538,25 +13664,25 @@
       <c r="B35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
     </row>
     <row r="36" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="39" t="s">
         <v>764</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="39"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
     </row>
     <row r="37" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
@@ -13883,25 +14009,25 @@
       <c r="B59" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="42" t="s">
         <v>754</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="42"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="44"/>
     </row>
     <row r="60" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="39" t="s">
         <v>756</v>
       </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="39"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="41"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
@@ -14228,25 +14354,25 @@
       <c r="B85" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="40" t="s">
+      <c r="C85" s="42" t="s">
         <v>982</v>
       </c>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="42"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="44"/>
     </row>
     <row r="86" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C86" s="39" t="s">
         <v>965</v>
       </c>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="39"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="41"/>
     </row>
     <row r="87" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
@@ -14588,7 +14714,7 @@
       <c r="F105" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="G105" s="46" t="s">
+      <c r="G105" s="48" t="s">
         <v>373</v>
       </c>
     </row>
@@ -14606,7 +14732,7 @@
         <v>348</v>
       </c>
       <c r="F106" s="2"/>
-      <c r="G106" s="47"/>
+      <c r="G106" s="49"/>
     </row>
     <row r="107" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B107" s="6">
@@ -14622,7 +14748,7 @@
         <v>348</v>
       </c>
       <c r="F107" s="2"/>
-      <c r="G107" s="48"/>
+      <c r="G107" s="50"/>
     </row>
     <row r="108" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B108" s="6">
@@ -14931,25 +15057,25 @@
       <c r="B128" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C128" s="40" t="s">
+      <c r="C128" s="42" t="s">
         <v>981</v>
       </c>
-      <c r="D128" s="41"/>
-      <c r="E128" s="41"/>
-      <c r="F128" s="41"/>
-      <c r="G128" s="42"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="43"/>
+      <c r="G128" s="44"/>
     </row>
     <row r="129" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B129" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C129" s="37" t="s">
+      <c r="C129" s="39" t="s">
         <v>388</v>
       </c>
-      <c r="D129" s="38"/>
-      <c r="E129" s="38"/>
-      <c r="F129" s="38"/>
-      <c r="G129" s="39"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="40"/>
+      <c r="F129" s="40"/>
+      <c r="G129" s="41"/>
     </row>
     <row r="130" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B130" s="4" t="s">
@@ -15222,25 +15348,25 @@
       <c r="B149" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C149" s="40" t="s">
+      <c r="C149" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="D149" s="41"/>
-      <c r="E149" s="41"/>
-      <c r="F149" s="41"/>
-      <c r="G149" s="42"/>
+      <c r="D149" s="43"/>
+      <c r="E149" s="43"/>
+      <c r="F149" s="43"/>
+      <c r="G149" s="44"/>
     </row>
     <row r="150" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B150" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C150" s="37" t="s">
+      <c r="C150" s="39" t="s">
         <v>398</v>
       </c>
-      <c r="D150" s="38"/>
-      <c r="E150" s="38"/>
-      <c r="F150" s="38"/>
-      <c r="G150" s="39"/>
+      <c r="D150" s="40"/>
+      <c r="E150" s="40"/>
+      <c r="F150" s="40"/>
+      <c r="G150" s="41"/>
     </row>
     <row r="151" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B151" s="4" t="s">
@@ -15278,7 +15404,7 @@
       <c r="F152" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G152" s="43" t="s">
+      <c r="G152" s="45" t="s">
         <v>419</v>
       </c>
     </row>
@@ -15298,7 +15424,7 @@
       <c r="F153" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G153" s="44"/>
+      <c r="G153" s="46"/>
     </row>
     <row r="154" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B154" s="6">
@@ -15316,7 +15442,7 @@
       <c r="F154" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G154" s="44"/>
+      <c r="G154" s="46"/>
     </row>
     <row r="155" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B155" s="6">
@@ -15334,7 +15460,7 @@
       <c r="F155" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="G155" s="45"/>
+      <c r="G155" s="47"/>
     </row>
     <row r="156" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B156" s="6">
@@ -15501,25 +15627,25 @@
       <c r="B168" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C168" s="40" t="s">
+      <c r="C168" s="42" t="s">
         <v>858</v>
       </c>
-      <c r="D168" s="41"/>
-      <c r="E168" s="41"/>
-      <c r="F168" s="41"/>
-      <c r="G168" s="42"/>
+      <c r="D168" s="43"/>
+      <c r="E168" s="43"/>
+      <c r="F168" s="43"/>
+      <c r="G168" s="44"/>
     </row>
     <row r="169" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B169" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C169" s="37" t="s">
+      <c r="C169" s="39" t="s">
         <v>894</v>
       </c>
-      <c r="D169" s="38"/>
-      <c r="E169" s="38"/>
-      <c r="F169" s="38"/>
-      <c r="G169" s="39"/>
+      <c r="D169" s="40"/>
+      <c r="E169" s="40"/>
+      <c r="F169" s="40"/>
+      <c r="G169" s="41"/>
     </row>
     <row r="170" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B170" s="4" t="s">
@@ -15810,25 +15936,25 @@
       <c r="B190" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C190" s="40" t="s">
+      <c r="C190" s="42" t="s">
         <v>900</v>
       </c>
-      <c r="D190" s="41"/>
-      <c r="E190" s="41"/>
-      <c r="F190" s="41"/>
-      <c r="G190" s="42"/>
+      <c r="D190" s="43"/>
+      <c r="E190" s="43"/>
+      <c r="F190" s="43"/>
+      <c r="G190" s="44"/>
     </row>
     <row r="191" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B191" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C191" s="37" t="s">
+      <c r="C191" s="39" t="s">
         <v>899</v>
       </c>
-      <c r="D191" s="38"/>
-      <c r="E191" s="38"/>
-      <c r="F191" s="38"/>
-      <c r="G191" s="39"/>
+      <c r="D191" s="40"/>
+      <c r="E191" s="40"/>
+      <c r="F191" s="40"/>
+      <c r="G191" s="41"/>
     </row>
     <row r="192" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B192" s="4" t="s">
@@ -16087,25 +16213,25 @@
       <c r="B209" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C209" s="40" t="s">
+      <c r="C209" s="42" t="s">
         <v>910</v>
       </c>
-      <c r="D209" s="41"/>
-      <c r="E209" s="41"/>
-      <c r="F209" s="41"/>
-      <c r="G209" s="42"/>
+      <c r="D209" s="43"/>
+      <c r="E209" s="43"/>
+      <c r="F209" s="43"/>
+      <c r="G209" s="44"/>
     </row>
     <row r="210" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B210" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C210" s="37" t="s">
+      <c r="C210" s="39" t="s">
         <v>943</v>
       </c>
-      <c r="D210" s="38"/>
-      <c r="E210" s="38"/>
-      <c r="F210" s="38"/>
-      <c r="G210" s="39"/>
+      <c r="D210" s="40"/>
+      <c r="E210" s="40"/>
+      <c r="F210" s="40"/>
+      <c r="G210" s="41"/>
     </row>
     <row r="211" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B211" s="4" t="s">
@@ -16518,25 +16644,25 @@
       <c r="B237" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C237" s="40" t="s">
+      <c r="C237" s="42" t="s">
         <v>962</v>
       </c>
-      <c r="D237" s="41"/>
-      <c r="E237" s="41"/>
-      <c r="F237" s="41"/>
-      <c r="G237" s="42"/>
+      <c r="D237" s="43"/>
+      <c r="E237" s="43"/>
+      <c r="F237" s="43"/>
+      <c r="G237" s="44"/>
     </row>
     <row r="238" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B238" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C238" s="37" t="s">
+      <c r="C238" s="39" t="s">
         <v>990</v>
       </c>
-      <c r="D238" s="38"/>
-      <c r="E238" s="38"/>
-      <c r="F238" s="38"/>
-      <c r="G238" s="39"/>
+      <c r="D238" s="40"/>
+      <c r="E238" s="40"/>
+      <c r="F238" s="40"/>
+      <c r="G238" s="41"/>
     </row>
     <row r="239" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B239" s="4" t="s">
@@ -16887,25 +17013,25 @@
       <c r="B262" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C262" s="40" t="s">
+      <c r="C262" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D262" s="41"/>
-      <c r="E262" s="41"/>
-      <c r="F262" s="41"/>
-      <c r="G262" s="42"/>
+      <c r="D262" s="43"/>
+      <c r="E262" s="43"/>
+      <c r="F262" s="43"/>
+      <c r="G262" s="44"/>
     </row>
     <row r="263" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B263" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C263" s="37" t="s">
+      <c r="C263" s="39" t="s">
         <v>964</v>
       </c>
-      <c r="D263" s="38"/>
-      <c r="E263" s="38"/>
-      <c r="F263" s="38"/>
-      <c r="G263" s="39"/>
+      <c r="D263" s="40"/>
+      <c r="E263" s="40"/>
+      <c r="F263" s="40"/>
+      <c r="G263" s="41"/>
     </row>
     <row r="264" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B264" s="4" t="s">
@@ -17184,25 +17310,25 @@
       <c r="B283" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C283" s="40" t="s">
+      <c r="C283" s="42" t="s">
         <v>457</v>
       </c>
-      <c r="D283" s="41"/>
-      <c r="E283" s="41"/>
-      <c r="F283" s="41"/>
-      <c r="G283" s="42"/>
+      <c r="D283" s="43"/>
+      <c r="E283" s="43"/>
+      <c r="F283" s="43"/>
+      <c r="G283" s="44"/>
     </row>
     <row r="284" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B284" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C284" s="37" t="s">
+      <c r="C284" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="D284" s="38"/>
-      <c r="E284" s="38"/>
-      <c r="F284" s="38"/>
-      <c r="G284" s="39"/>
+      <c r="D284" s="40"/>
+      <c r="E284" s="40"/>
+      <c r="F284" s="40"/>
+      <c r="G284" s="41"/>
     </row>
     <row r="285" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B285" s="4" t="s">
@@ -17515,25 +17641,25 @@
       <c r="B306" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C306" s="40" t="s">
+      <c r="C306" s="42" t="s">
         <v>438</v>
       </c>
-      <c r="D306" s="41"/>
-      <c r="E306" s="41"/>
-      <c r="F306" s="41"/>
-      <c r="G306" s="42"/>
+      <c r="D306" s="43"/>
+      <c r="E306" s="43"/>
+      <c r="F306" s="43"/>
+      <c r="G306" s="44"/>
     </row>
     <row r="307" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B307" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C307" s="37" t="s">
+      <c r="C307" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="D307" s="38"/>
-      <c r="E307" s="38"/>
-      <c r="F307" s="38"/>
-      <c r="G307" s="39"/>
+      <c r="D307" s="40"/>
+      <c r="E307" s="40"/>
+      <c r="F307" s="40"/>
+      <c r="G307" s="41"/>
     </row>
     <row r="308" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B308" s="4" t="s">
@@ -17826,25 +17952,25 @@
       <c r="B328" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C328" s="40" t="s">
+      <c r="C328" s="42" t="s">
         <v>486</v>
       </c>
-      <c r="D328" s="41"/>
-      <c r="E328" s="41"/>
-      <c r="F328" s="41"/>
-      <c r="G328" s="42"/>
+      <c r="D328" s="43"/>
+      <c r="E328" s="43"/>
+      <c r="F328" s="43"/>
+      <c r="G328" s="44"/>
     </row>
     <row r="329" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B329" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C329" s="37" t="s">
+      <c r="C329" s="39" t="s">
         <v>488</v>
       </c>
-      <c r="D329" s="38"/>
-      <c r="E329" s="38"/>
-      <c r="F329" s="38"/>
-      <c r="G329" s="39"/>
+      <c r="D329" s="40"/>
+      <c r="E329" s="40"/>
+      <c r="F329" s="40"/>
+      <c r="G329" s="41"/>
     </row>
     <row r="330" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B330" s="4" t="s">
@@ -18133,25 +18259,25 @@
       <c r="B350" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C350" s="40" t="s">
+      <c r="C350" s="42" t="s">
         <v>1332</v>
       </c>
-      <c r="D350" s="41"/>
-      <c r="E350" s="41"/>
-      <c r="F350" s="41"/>
-      <c r="G350" s="42"/>
+      <c r="D350" s="43"/>
+      <c r="E350" s="43"/>
+      <c r="F350" s="43"/>
+      <c r="G350" s="44"/>
     </row>
     <row r="351" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B351" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C351" s="37" t="s">
+      <c r="C351" s="39" t="s">
         <v>1333</v>
       </c>
-      <c r="D351" s="38"/>
-      <c r="E351" s="38"/>
-      <c r="F351" s="38"/>
-      <c r="G351" s="39"/>
+      <c r="D351" s="40"/>
+      <c r="E351" s="40"/>
+      <c r="F351" s="40"/>
+      <c r="G351" s="41"/>
     </row>
     <row r="352" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B352" s="4" t="s">
@@ -18604,25 +18730,25 @@
       <c r="B382" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C382" s="40" t="s">
+      <c r="C382" s="42" t="s">
         <v>1400</v>
       </c>
-      <c r="D382" s="41"/>
-      <c r="E382" s="41"/>
-      <c r="F382" s="41"/>
-      <c r="G382" s="42"/>
+      <c r="D382" s="43"/>
+      <c r="E382" s="43"/>
+      <c r="F382" s="43"/>
+      <c r="G382" s="44"/>
     </row>
     <row r="383" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B383" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C383" s="37" t="s">
+      <c r="C383" s="39" t="s">
         <v>1401</v>
       </c>
-      <c r="D383" s="38"/>
-      <c r="E383" s="38"/>
-      <c r="F383" s="38"/>
-      <c r="G383" s="39"/>
+      <c r="D383" s="40"/>
+      <c r="E383" s="40"/>
+      <c r="F383" s="40"/>
+      <c r="G383" s="41"/>
     </row>
     <row r="384" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B384" s="4" t="s">
@@ -19149,25 +19275,25 @@
       <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="42" t="s">
         <v>1203</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>1202</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -19410,25 +19536,25 @@
       <c r="B20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="42" t="s">
         <v>1212</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="39" t="s">
         <v>1243</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
@@ -19701,25 +19827,25 @@
       <c r="B40" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="42" t="s">
         <v>1267</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="39" t="s">
         <v>1238</v>
       </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="39"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41"/>
     </row>
     <row r="42" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
@@ -20066,25 +20192,25 @@
       <c r="B64" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="42" t="s">
         <v>1222</v>
       </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="42"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="44"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="39" t="s">
         <v>1252</v>
       </c>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="39"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="41"/>
     </row>
     <row r="66" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
@@ -20363,25 +20489,25 @@
       <c r="B84" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="40" t="s">
+      <c r="C84" s="42" t="s">
         <v>1249</v>
       </c>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="42"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="44"/>
     </row>
     <row r="85" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B85" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="C85" s="39" t="s">
         <v>1250</v>
       </c>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="39"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="41"/>
     </row>
     <row r="86" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
@@ -20622,25 +20748,25 @@
       <c r="B102" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C102" s="40" t="s">
+      <c r="C102" s="42" t="s">
         <v>1253</v>
       </c>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="42"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="44"/>
     </row>
     <row r="103" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B103" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C103" s="37" t="s">
+      <c r="C103" s="39" t="s">
         <v>1254</v>
       </c>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="39"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="41"/>
     </row>
     <row r="104" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B104" s="4" t="s">
@@ -20897,25 +21023,25 @@
       <c r="B122" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C122" s="40" t="s">
+      <c r="C122" s="42" t="s">
         <v>1282</v>
       </c>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="42"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="43"/>
+      <c r="G122" s="44"/>
     </row>
     <row r="123" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B123" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C123" s="37" t="s">
+      <c r="C123" s="39" t="s">
         <v>1283</v>
       </c>
-      <c r="D123" s="38"/>
-      <c r="E123" s="38"/>
-      <c r="F123" s="38"/>
-      <c r="G123" s="39"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="40"/>
+      <c r="F123" s="40"/>
+      <c r="G123" s="41"/>
     </row>
     <row r="124" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B124" s="4" t="s">
@@ -21261,10 +21387,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G240"/>
+  <dimension ref="B1:G262"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="D180" sqref="D180"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="D269" sqref="D269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21281,25 +21407,25 @@
       <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="42" t="s">
         <v>671</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -21574,25 +21700,25 @@
       <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="42" t="s">
         <v>672</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
@@ -21873,25 +21999,25 @@
       <c r="B44" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="42"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="44"/>
     </row>
     <row r="45" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="39"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="41"/>
     </row>
     <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
@@ -22234,25 +22360,25 @@
       <c r="B69" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="40" t="s">
+      <c r="C69" s="42" t="s">
         <v>674</v>
       </c>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="42"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="44"/>
     </row>
     <row r="70" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B70" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C70" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="39"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="41"/>
     </row>
     <row r="71" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B71" s="4" t="s">
@@ -22815,25 +22941,25 @@
       <c r="B108" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C108" s="40" t="s">
+      <c r="C108" s="42" t="s">
         <v>1177</v>
       </c>
-      <c r="D108" s="41"/>
-      <c r="E108" s="41"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="42"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="43"/>
+      <c r="G108" s="44"/>
     </row>
     <row r="109" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B109" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C109" s="37" t="s">
+      <c r="C109" s="39" t="s">
         <v>1161</v>
       </c>
-      <c r="D109" s="38"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="39"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="40"/>
+      <c r="G109" s="41"/>
     </row>
     <row r="110" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B110" s="4" t="s">
@@ -22977,7 +23103,7 @@
       <c r="F117" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G117" s="49" t="s">
+      <c r="G117" s="51" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -22995,7 +23121,7 @@
         <v>264</v>
       </c>
       <c r="F118" s="2"/>
-      <c r="G118" s="50"/>
+      <c r="G118" s="52"/>
     </row>
     <row r="119" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B119" s="6">
@@ -23011,7 +23137,7 @@
         <v>143</v>
       </c>
       <c r="F119" s="2"/>
-      <c r="G119" s="50"/>
+      <c r="G119" s="52"/>
     </row>
     <row r="120" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B120" s="6">
@@ -23027,7 +23153,7 @@
         <v>150</v>
       </c>
       <c r="F120" s="2"/>
-      <c r="G120" s="51"/>
+      <c r="G120" s="53"/>
     </row>
     <row r="121" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B121" s="6">
@@ -23043,7 +23169,7 @@
         <v>511</v>
       </c>
       <c r="F121" s="2"/>
-      <c r="G121" s="49" t="s">
+      <c r="G121" s="51" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -23061,7 +23187,7 @@
         <v>213</v>
       </c>
       <c r="F122" s="2"/>
-      <c r="G122" s="50"/>
+      <c r="G122" s="52"/>
     </row>
     <row r="123" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B123" s="6">
@@ -23077,7 +23203,7 @@
         <v>143</v>
       </c>
       <c r="F123" s="2"/>
-      <c r="G123" s="51"/>
+      <c r="G123" s="53"/>
     </row>
     <row r="124" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B124" s="6">
@@ -23093,7 +23219,7 @@
         <v>141</v>
       </c>
       <c r="F124" s="2"/>
-      <c r="G124" s="49" t="s">
+      <c r="G124" s="51" t="s">
         <v>1166</v>
       </c>
     </row>
@@ -23111,7 +23237,7 @@
         <v>142</v>
       </c>
       <c r="F125" s="2"/>
-      <c r="G125" s="50"/>
+      <c r="G125" s="52"/>
     </row>
     <row r="126" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B126" s="6">
@@ -23127,7 +23253,7 @@
         <v>143</v>
       </c>
       <c r="F126" s="2"/>
-      <c r="G126" s="51"/>
+      <c r="G126" s="53"/>
     </row>
     <row r="127" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B127" s="6">
@@ -23143,7 +23269,7 @@
         <v>141</v>
       </c>
       <c r="F127" s="2"/>
-      <c r="G127" s="49" t="s">
+      <c r="G127" s="51" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -23161,7 +23287,7 @@
         <v>142</v>
       </c>
       <c r="F128" s="2"/>
-      <c r="G128" s="50"/>
+      <c r="G128" s="52"/>
     </row>
     <row r="129" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B129" s="6">
@@ -23177,7 +23303,7 @@
         <v>143</v>
       </c>
       <c r="F129" s="2"/>
-      <c r="G129" s="51"/>
+      <c r="G129" s="53"/>
     </row>
     <row r="130" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B130" s="6">
@@ -23362,25 +23488,25 @@
       <c r="B143" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C143" s="40" t="s">
+      <c r="C143" s="42" t="s">
         <v>1178</v>
       </c>
-      <c r="D143" s="41"/>
-      <c r="E143" s="41"/>
-      <c r="F143" s="41"/>
-      <c r="G143" s="42"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="43"/>
+      <c r="F143" s="43"/>
+      <c r="G143" s="44"/>
     </row>
     <row r="144" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B144" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C144" s="37" t="s">
+      <c r="C144" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D144" s="38"/>
-      <c r="E144" s="38"/>
-      <c r="F144" s="38"/>
-      <c r="G144" s="39"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="40"/>
+      <c r="F144" s="40"/>
+      <c r="G144" s="41"/>
     </row>
     <row r="145" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B145" s="4" t="s">
@@ -23570,7 +23696,7 @@
         <v>511</v>
       </c>
       <c r="F155" s="2"/>
-      <c r="G155" s="49" t="s">
+      <c r="G155" s="51" t="s">
         <v>1169</v>
       </c>
     </row>
@@ -23588,7 +23714,7 @@
         <v>213</v>
       </c>
       <c r="F156" s="2"/>
-      <c r="G156" s="50"/>
+      <c r="G156" s="52"/>
     </row>
     <row r="157" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B157" s="6">
@@ -23604,7 +23730,7 @@
         <v>143</v>
       </c>
       <c r="F157" s="2"/>
-      <c r="G157" s="51"/>
+      <c r="G157" s="53"/>
     </row>
     <row r="158" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B158" s="6">
@@ -23620,7 +23746,7 @@
         <v>141</v>
       </c>
       <c r="F158" s="2"/>
-      <c r="G158" s="49" t="s">
+      <c r="G158" s="51" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -23638,7 +23764,7 @@
         <v>142</v>
       </c>
       <c r="F159" s="2"/>
-      <c r="G159" s="50"/>
+      <c r="G159" s="52"/>
     </row>
     <row r="160" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B160" s="6">
@@ -23654,7 +23780,7 @@
         <v>143</v>
       </c>
       <c r="F160" s="2"/>
-      <c r="G160" s="51"/>
+      <c r="G160" s="53"/>
     </row>
     <row r="161" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B161" s="6">
@@ -23670,7 +23796,7 @@
         <v>141</v>
       </c>
       <c r="F161" s="2"/>
-      <c r="G161" s="49" t="s">
+      <c r="G161" s="51" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -23688,7 +23814,7 @@
         <v>142</v>
       </c>
       <c r="F162" s="2"/>
-      <c r="G162" s="50"/>
+      <c r="G162" s="52"/>
     </row>
     <row r="163" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B163" s="6">
@@ -23704,7 +23830,7 @@
         <v>143</v>
       </c>
       <c r="F163" s="2"/>
-      <c r="G163" s="51"/>
+      <c r="G163" s="53"/>
     </row>
     <row r="164" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B164" s="6">
@@ -23871,25 +23997,25 @@
       <c r="B177" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C177" s="40" t="s">
+      <c r="C177" s="42" t="s">
         <v>1360</v>
       </c>
-      <c r="D177" s="41"/>
-      <c r="E177" s="41"/>
-      <c r="F177" s="41"/>
-      <c r="G177" s="42"/>
+      <c r="D177" s="43"/>
+      <c r="E177" s="43"/>
+      <c r="F177" s="43"/>
+      <c r="G177" s="44"/>
     </row>
     <row r="178" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B178" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C178" s="37" t="s">
+      <c r="C178" s="39" t="s">
         <v>1361</v>
       </c>
-      <c r="D178" s="38"/>
-      <c r="E178" s="38"/>
-      <c r="F178" s="38"/>
-      <c r="G178" s="39"/>
+      <c r="D178" s="40"/>
+      <c r="E178" s="40"/>
+      <c r="F178" s="40"/>
+      <c r="G178" s="41"/>
     </row>
     <row r="179" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B179" s="4" t="s">
@@ -23979,7 +24105,7 @@
         <v>141</v>
       </c>
       <c r="F183" s="2"/>
-      <c r="G183" s="49" t="s">
+      <c r="G183" s="51" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -23997,7 +24123,7 @@
         <v>142</v>
       </c>
       <c r="F184" s="2"/>
-      <c r="G184" s="50"/>
+      <c r="G184" s="52"/>
     </row>
     <row r="185" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B185" s="6">
@@ -24013,7 +24139,7 @@
         <v>141</v>
       </c>
       <c r="F185" s="2"/>
-      <c r="G185" s="50"/>
+      <c r="G185" s="52"/>
     </row>
     <row r="186" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B186" s="6">
@@ -24029,7 +24155,7 @@
         <v>142</v>
       </c>
       <c r="F186" s="2"/>
-      <c r="G186" s="50"/>
+      <c r="G186" s="52"/>
     </row>
     <row r="187" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B187" s="6">
@@ -24045,7 +24171,7 @@
         <v>141</v>
       </c>
       <c r="F187" s="2"/>
-      <c r="G187" s="50"/>
+      <c r="G187" s="52"/>
     </row>
     <row r="188" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B188" s="6">
@@ -24061,7 +24187,7 @@
         <v>142</v>
       </c>
       <c r="F188" s="2"/>
-      <c r="G188" s="51"/>
+      <c r="G188" s="53"/>
     </row>
     <row r="189" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B189" s="6">
@@ -24077,7 +24203,7 @@
         <v>141</v>
       </c>
       <c r="F189" s="2"/>
-      <c r="G189" s="49" t="s">
+      <c r="G189" s="51" t="s">
         <v>1381</v>
       </c>
     </row>
@@ -24095,7 +24221,7 @@
         <v>142</v>
       </c>
       <c r="F190" s="2"/>
-      <c r="G190" s="50"/>
+      <c r="G190" s="52"/>
     </row>
     <row r="191" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B191" s="6">
@@ -24111,7 +24237,7 @@
         <v>143</v>
       </c>
       <c r="F191" s="2"/>
-      <c r="G191" s="50"/>
+      <c r="G191" s="52"/>
     </row>
     <row r="192" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B192" s="6">
@@ -24127,7 +24253,7 @@
         <v>141</v>
       </c>
       <c r="F192" s="2"/>
-      <c r="G192" s="50"/>
+      <c r="G192" s="52"/>
     </row>
     <row r="193" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B193" s="6">
@@ -24143,7 +24269,7 @@
         <v>142</v>
       </c>
       <c r="F193" s="2"/>
-      <c r="G193" s="50"/>
+      <c r="G193" s="52"/>
     </row>
     <row r="194" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B194" s="6">
@@ -24159,7 +24285,7 @@
         <v>143</v>
       </c>
       <c r="F194" s="2"/>
-      <c r="G194" s="50"/>
+      <c r="G194" s="52"/>
     </row>
     <row r="195" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B195" s="6">
@@ -24175,7 +24301,7 @@
         <v>141</v>
       </c>
       <c r="F195" s="2"/>
-      <c r="G195" s="50"/>
+      <c r="G195" s="52"/>
     </row>
     <row r="196" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B196" s="6">
@@ -24191,7 +24317,7 @@
         <v>142</v>
       </c>
       <c r="F196" s="2"/>
-      <c r="G196" s="50"/>
+      <c r="G196" s="52"/>
     </row>
     <row r="197" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B197" s="6">
@@ -24207,7 +24333,7 @@
         <v>143</v>
       </c>
       <c r="F197" s="2"/>
-      <c r="G197" s="51"/>
+      <c r="G197" s="53"/>
     </row>
     <row r="198" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B198" s="6">
@@ -24392,25 +24518,25 @@
       <c r="B211" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C211" s="40" t="s">
+      <c r="C211" s="42" t="s">
         <v>1382</v>
       </c>
-      <c r="D211" s="41"/>
-      <c r="E211" s="41"/>
-      <c r="F211" s="41"/>
-      <c r="G211" s="42"/>
+      <c r="D211" s="43"/>
+      <c r="E211" s="43"/>
+      <c r="F211" s="43"/>
+      <c r="G211" s="44"/>
     </row>
     <row r="212" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B212" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C212" s="37" t="s">
+      <c r="C212" s="39" t="s">
         <v>1383</v>
       </c>
-      <c r="D212" s="38"/>
-      <c r="E212" s="38"/>
-      <c r="F212" s="38"/>
-      <c r="G212" s="39"/>
+      <c r="D212" s="40"/>
+      <c r="E212" s="40"/>
+      <c r="F212" s="40"/>
+      <c r="G212" s="41"/>
     </row>
     <row r="213" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B213" s="4" t="s">
@@ -24598,7 +24724,7 @@
         <v>141</v>
       </c>
       <c r="F223" s="2"/>
-      <c r="G223" s="49" t="s">
+      <c r="G223" s="51" t="s">
         <v>1387</v>
       </c>
     </row>
@@ -24616,7 +24742,7 @@
         <v>142</v>
       </c>
       <c r="F224" s="2"/>
-      <c r="G224" s="50"/>
+      <c r="G224" s="52"/>
     </row>
     <row r="225" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B225" s="6">
@@ -24632,7 +24758,7 @@
         <v>143</v>
       </c>
       <c r="F225" s="2"/>
-      <c r="G225" s="51"/>
+      <c r="G225" s="53"/>
     </row>
     <row r="226" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B226" s="6">
@@ -24648,7 +24774,7 @@
         <v>141</v>
       </c>
       <c r="F226" s="2"/>
-      <c r="G226" s="49" t="s">
+      <c r="G226" s="51" t="s">
         <v>1388</v>
       </c>
     </row>
@@ -24666,7 +24792,7 @@
         <v>142</v>
       </c>
       <c r="F227" s="2"/>
-      <c r="G227" s="50"/>
+      <c r="G227" s="52"/>
     </row>
     <row r="228" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B228" s="6">
@@ -24682,7 +24808,7 @@
         <v>143</v>
       </c>
       <c r="F228" s="2"/>
-      <c r="G228" s="51"/>
+      <c r="G228" s="53"/>
     </row>
     <row r="229" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B229" s="6">
@@ -24698,7 +24824,7 @@
         <v>141</v>
       </c>
       <c r="F229" s="2"/>
-      <c r="G229" s="49" t="s">
+      <c r="G229" s="51" t="s">
         <v>1389</v>
       </c>
     </row>
@@ -24716,7 +24842,7 @@
         <v>142</v>
       </c>
       <c r="F230" s="2"/>
-      <c r="G230" s="50"/>
+      <c r="G230" s="52"/>
     </row>
     <row r="231" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B231" s="6">
@@ -24732,7 +24858,7 @@
         <v>143</v>
       </c>
       <c r="F231" s="2"/>
-      <c r="G231" s="51"/>
+      <c r="G231" s="53"/>
     </row>
     <row r="232" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B232" s="6">
@@ -24878,8 +25004,311 @@
       <c r="F240" s="9"/>
       <c r="G240" s="10"/>
     </row>
+    <row r="244" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="245" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B245" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C245" s="42" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D245" s="43"/>
+      <c r="E245" s="43"/>
+      <c r="F245" s="43"/>
+      <c r="G245" s="44"/>
+    </row>
+    <row r="246" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B246" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C246" s="39" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D246" s="40"/>
+      <c r="E246" s="40"/>
+      <c r="F246" s="40"/>
+      <c r="G246" s="41"/>
+    </row>
+    <row r="247" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B247" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G247" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B248" s="6">
+        <v>1</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G248" s="7"/>
+    </row>
+    <row r="249" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B249" s="6">
+        <v>2</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G249" s="13" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B250" s="6">
+        <v>3</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G250" s="7" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B251" s="6">
+        <v>4</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G251" s="7" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B252" s="6">
+        <v>5</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F252" s="2"/>
+      <c r="G252" s="7" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B253" s="6">
+        <v>6</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G253" s="7"/>
+    </row>
+    <row r="254" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B254" s="6">
+        <v>20</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F254" s="2"/>
+      <c r="G254" s="37"/>
+    </row>
+    <row r="255" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B255" s="6">
+        <v>21</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F255" s="2"/>
+      <c r="G255" s="7"/>
+    </row>
+    <row r="256" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B256" s="6">
+        <v>22</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F256" s="2"/>
+      <c r="G256" s="7"/>
+    </row>
+    <row r="257" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B257" s="6">
+        <v>23</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F257" s="2"/>
+      <c r="G257" s="7"/>
+    </row>
+    <row r="258" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B258" s="6">
+        <v>24</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F258" s="2"/>
+      <c r="G258" s="7"/>
+    </row>
+    <row r="259" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B259" s="6">
+        <v>25</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F259" s="2"/>
+      <c r="G259" s="7"/>
+    </row>
+    <row r="260" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B260" s="6">
+        <v>26</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F260" s="2"/>
+      <c r="G260" s="7"/>
+    </row>
+    <row r="261" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B261" s="6">
+        <v>27</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F261" s="2"/>
+      <c r="G261" s="7"/>
+    </row>
+    <row r="262" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B262" s="8">
+        <v>28</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E262" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F262" s="9"/>
+      <c r="G262" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="C69:G69"/>
     <mergeCell ref="C70:G70"/>
@@ -24908,6 +25337,8 @@
     <mergeCell ref="G189:G197"/>
     <mergeCell ref="C211:G211"/>
     <mergeCell ref="C212:G212"/>
+    <mergeCell ref="C245:G245"/>
+    <mergeCell ref="C246:G246"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24937,25 +25368,25 @@
       <c r="B3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="42" t="s">
         <v>713</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -24993,7 +25424,7 @@
       <c r="F6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="51" t="s">
         <v>374</v>
       </c>
     </row>
@@ -25013,7 +25444,7 @@
       <c r="F7" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="50"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="6">
@@ -25031,7 +25462,7 @@
       <c r="F8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="51"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
@@ -25332,25 +25763,25 @@
       <c r="B30" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="42" t="s">
         <v>714</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
@@ -25631,25 +26062,25 @@
       <c r="B51" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="42" t="s">
         <v>1314</v>
       </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="42"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="44"/>
     </row>
     <row r="52" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="37" t="s">
+      <c r="C52" s="39" t="s">
         <v>1307</v>
       </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="39"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="41"/>
     </row>
     <row r="53" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
@@ -25981,25 +26412,25 @@
       <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>1076</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="39" t="s">
         <v>1075</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -26264,25 +26695,25 @@
       <c r="B25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="42" t="s">
         <v>992</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="39" t="s">
         <v>999</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
@@ -26541,25 +26972,25 @@
       <c r="B45" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="42" t="s">
         <v>1004</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="42"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="44"/>
     </row>
     <row r="46" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="39" t="s">
         <v>1005</v>
       </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="39"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="41"/>
     </row>
     <row r="47" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
@@ -26822,25 +27253,25 @@
       <c r="B64" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="42" t="s">
         <v>1020</v>
       </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="42"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="44"/>
     </row>
     <row r="65" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="39" t="s">
         <v>1021</v>
       </c>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="39"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="41"/>
     </row>
     <row r="66" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
@@ -27223,25 +27654,25 @@
       <c r="B91" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C91" s="40" t="s">
+      <c r="C91" s="42" t="s">
         <v>1037</v>
       </c>
-      <c r="D91" s="41"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="42"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="44"/>
     </row>
     <row r="92" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B92" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C92" s="37" t="s">
+      <c r="C92" s="39" t="s">
         <v>1038</v>
       </c>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="39"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="41"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B93" s="4" t="s">
@@ -27632,25 +28063,25 @@
       <c r="B117" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C117" s="40" t="s">
+      <c r="C117" s="42" t="s">
         <v>1069</v>
       </c>
-      <c r="D117" s="41"/>
-      <c r="E117" s="41"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="42"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="43"/>
+      <c r="G117" s="44"/>
     </row>
     <row r="118" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B118" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C118" s="37" t="s">
+      <c r="C118" s="39" t="s">
         <v>1080</v>
       </c>
-      <c r="D118" s="38"/>
-      <c r="E118" s="38"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="39"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="40"/>
+      <c r="F118" s="40"/>
+      <c r="G118" s="41"/>
     </row>
     <row r="119" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B119" s="4" t="s">
@@ -27846,7 +28277,7 @@
       <c r="F129" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G129" s="49" t="s">
+      <c r="G129" s="51" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -27866,7 +28297,7 @@
       <c r="F130" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G130" s="50"/>
+      <c r="G130" s="52"/>
     </row>
     <row r="131" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B131" s="6">
@@ -27884,7 +28315,7 @@
       <c r="F131" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G131" s="50"/>
+      <c r="G131" s="52"/>
     </row>
     <row r="132" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B132" s="6">
@@ -27900,7 +28331,7 @@
         <v>144</v>
       </c>
       <c r="F132" s="2"/>
-      <c r="G132" s="50"/>
+      <c r="G132" s="52"/>
     </row>
     <row r="133" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B133" s="6">
@@ -27918,7 +28349,7 @@
       <c r="F133" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G133" s="51"/>
+      <c r="G133" s="53"/>
     </row>
     <row r="134" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B134" s="6">
@@ -28351,25 +28782,25 @@
       <c r="B162" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C162" s="40" t="s">
+      <c r="C162" s="42" t="s">
         <v>1121</v>
       </c>
-      <c r="D162" s="41"/>
-      <c r="E162" s="41"/>
-      <c r="F162" s="41"/>
-      <c r="G162" s="42"/>
+      <c r="D162" s="43"/>
+      <c r="E162" s="43"/>
+      <c r="F162" s="43"/>
+      <c r="G162" s="44"/>
     </row>
     <row r="163" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B163" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C163" s="37" t="s">
+      <c r="C163" s="39" t="s">
         <v>1122</v>
       </c>
-      <c r="D163" s="38"/>
-      <c r="E163" s="38"/>
-      <c r="F163" s="38"/>
-      <c r="G163" s="39"/>
+      <c r="D163" s="40"/>
+      <c r="E163" s="40"/>
+      <c r="F163" s="40"/>
+      <c r="G163" s="41"/>
     </row>
     <row r="164" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B164" s="4" t="s">
@@ -28790,25 +29221,25 @@
       <c r="B191" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C191" s="40" t="s">
+      <c r="C191" s="42" t="s">
         <v>1134</v>
       </c>
-      <c r="D191" s="41"/>
-      <c r="E191" s="41"/>
-      <c r="F191" s="41"/>
-      <c r="G191" s="42"/>
+      <c r="D191" s="43"/>
+      <c r="E191" s="43"/>
+      <c r="F191" s="43"/>
+      <c r="G191" s="44"/>
     </row>
     <row r="192" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B192" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C192" s="37" t="s">
+      <c r="C192" s="39" t="s">
         <v>1135</v>
       </c>
-      <c r="D192" s="38"/>
-      <c r="E192" s="38"/>
-      <c r="F192" s="38"/>
-      <c r="G192" s="39"/>
+      <c r="D192" s="40"/>
+      <c r="E192" s="40"/>
+      <c r="F192" s="40"/>
+      <c r="G192" s="41"/>
     </row>
     <row r="193" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B193" s="4" t="s">
@@ -29133,25 +29564,25 @@
       <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="42" t="s">
         <v>796</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>819</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -29432,25 +29863,25 @@
       <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="42" t="s">
         <v>818</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="39" t="s">
         <v>820</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">

--- a/doc/设计文档/数据库设计/数据库设计.xlsx
+++ b/doc/设计文档/数据库设计/数据库设计.xlsx
@@ -5984,10 +5984,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REPAIR_DESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(500)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6005,6 +6001,10 @@
   </si>
   <si>
     <t>图片、视频、声音的URL地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPAIR_DES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -25522,8 +25522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27197,7 +27197,7 @@
         <v>1491</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="7"/>
@@ -27207,17 +27207,17 @@
         <v>10</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>1495</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>1496</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="7" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -27225,13 +27225,13 @@
         <v>11</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>1492</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>1494</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>1493</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="7"/>

--- a/doc/设计文档/数据库设计/数据库设计.xlsx
+++ b/doc/设计文档/数据库设计/数据库设计.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="1386">
   <si>
     <t>序号</t>
   </si>
@@ -2923,6 +2923,189 @@
   </si>
   <si>
     <t>退货数量</t>
+  </si>
+  <si>
+    <t>WM_TRANSFER</t>
+  </si>
+  <si>
+    <t>调拨转移表</t>
+  </si>
+  <si>
+    <t>TRANSFER_ID</t>
+  </si>
+  <si>
+    <t>转移单ID</t>
+  </si>
+  <si>
+    <t>TRANSFER_CODE</t>
+  </si>
+  <si>
+    <t>转移单编号</t>
+  </si>
+  <si>
+    <t>TRANSFER_NAME</t>
+  </si>
+  <si>
+    <t>转移单名称</t>
+  </si>
+  <si>
+    <t>TRANSFER_DATE</t>
+  </si>
+  <si>
+    <t>转移日期</t>
+  </si>
+  <si>
+    <t>TRANSFER_TYPE</t>
+  </si>
+  <si>
+    <t>转移类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default 'INNER'</t>
+  </si>
+  <si>
+    <t>转移类型：INNER内部转移，OUTER外部转移</t>
+  </si>
+  <si>
+    <t>DESTINATION</t>
+  </si>
+  <si>
+    <t>目的地</t>
+  </si>
+  <si>
+    <t>CARRIER</t>
+  </si>
+  <si>
+    <t>承运商</t>
+  </si>
+  <si>
+    <t>varcahr(255)</t>
+  </si>
+  <si>
+    <t>BOOKING_NOTE</t>
+  </si>
+  <si>
+    <t>托运单号</t>
+  </si>
+  <si>
+    <t>FROM_WAREHOUSE_ID</t>
+  </si>
+  <si>
+    <t>移出仓库ID</t>
+  </si>
+  <si>
+    <t>FROM_WAREHOUSE_CODE</t>
+  </si>
+  <si>
+    <t>移出仓库编号</t>
+  </si>
+  <si>
+    <t>FROM_WAREHOUSE_NAME</t>
+  </si>
+  <si>
+    <t>移出仓库名称</t>
+  </si>
+  <si>
+    <t>TO_WAREHOUSE_ID</t>
+  </si>
+  <si>
+    <t>移入仓库ID</t>
+  </si>
+  <si>
+    <t>TO_WAREHOUSE_CODE</t>
+  </si>
+  <si>
+    <t>移入仓库编号</t>
+  </si>
+  <si>
+    <t>TO_WAREHOUSE_NAME</t>
+  </si>
+  <si>
+    <t>移入仓库名称</t>
+  </si>
+  <si>
+    <t>WM_TRANSFER_LINE</t>
+  </si>
+  <si>
+    <t>调拨转移单行表</t>
+  </si>
+  <si>
+    <t>QUANTITY_TRANSFER</t>
+  </si>
+  <si>
+    <t>转移数量</t>
+  </si>
+  <si>
+    <t>FROM_LOCATION_ID</t>
+  </si>
+  <si>
+    <t>移出库区ID</t>
+  </si>
+  <si>
+    <t>FROM_LOCATION_CODE</t>
+  </si>
+  <si>
+    <t>移出库区编号</t>
+  </si>
+  <si>
+    <t>FROM_LOCATION_NAME</t>
+  </si>
+  <si>
+    <t>移出库区名称</t>
+  </si>
+  <si>
+    <t>FROM_AREA_ID</t>
+  </si>
+  <si>
+    <t>移出库位ID</t>
+  </si>
+  <si>
+    <t>FROM_AREA_CODE</t>
+  </si>
+  <si>
+    <t>移出库位编号</t>
+  </si>
+  <si>
+    <t>FROM_AREA_NAME</t>
+  </si>
+  <si>
+    <t>移出库位名称</t>
+  </si>
+  <si>
+    <t>TO_LOCATION_ID</t>
+  </si>
+  <si>
+    <t>移入库区ID</t>
+  </si>
+  <si>
+    <t>TO_LOCATION_CODE</t>
+  </si>
+  <si>
+    <t>移入库区编号</t>
+  </si>
+  <si>
+    <t>TO_LOCATION_NAME</t>
+  </si>
+  <si>
+    <t>移入库区名称</t>
+  </si>
+  <si>
+    <t>TO_AREA_ID</t>
+  </si>
+  <si>
+    <t>移入库位ID</t>
+  </si>
+  <si>
+    <t>TO_AREA_CODE</t>
+  </si>
+  <si>
+    <t>移入库位编号</t>
+  </si>
+  <si>
+    <t>TO_AREA_NAME</t>
+  </si>
+  <si>
+    <t>移入库位名称</t>
   </si>
   <si>
     <t>BARCODE_ID</t>
@@ -4525,13 +4708,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4854,7 +5041,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6976,7 +7163,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00DB005E-0032-4383-B19B-006000BF003A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00BA0064-00E6-4137-BAB5-009200C000D2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>"系统管理（SYS）,业务设置（BS）,预算管理（BUD）,项目管理（PROJ）,采购管理（PUR）,库存管理（INV）,合同管理（CONT）,报表管理（RPT）,接口管理（ITF）"</xm:f>
           </x14:formula1>
@@ -7102,10 +7289,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1265</v>
+        <v>1326</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1266</v>
+        <v>1327</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>270</v>
@@ -7118,10 +7305,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1267</v>
+        <v>1328</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1268</v>
+        <v>1329</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>304</v>
@@ -7134,10 +7321,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1269</v>
+        <v>1330</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1270</v>
+        <v>1331</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>287</v>
@@ -7150,10 +7337,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1271</v>
+        <v>1332</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1272</v>
+        <v>1333</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>277</v>
@@ -7166,17 +7353,17 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1273</v>
+        <v>1334</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1274</v>
+        <v>1335</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>287</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="14" t="s">
-        <v>1275</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="13" ht="15">
@@ -7359,7 +7546,7 @@
         <v>251</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1276</v>
+        <v>1337</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -7391,10 +7578,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1277</v>
+        <v>1338</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>259</v>
@@ -7410,7 +7597,7 @@
         <v>671</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1279</v>
+        <v>1340</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>259</v>
@@ -7423,10 +7610,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1280</v>
+        <v>1341</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1281</v>
+        <v>1342</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>304</v>
@@ -7439,17 +7626,17 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1282</v>
+        <v>1343</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1283</v>
+        <v>1344</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>277</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="14" t="s">
-        <v>1284</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="33" ht="15">
@@ -7457,10 +7644,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1285</v>
+        <v>1346</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1286</v>
+        <v>1347</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>273</v>
@@ -7473,10 +7660,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1287</v>
+        <v>1348</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1288</v>
+        <v>1349</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>267</v>
@@ -7489,10 +7676,10 @@
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1289</v>
+        <v>1350</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1290</v>
+        <v>1351</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>304</v>
@@ -7505,17 +7692,17 @@
         <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1291</v>
+        <v>1352</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1292</v>
+        <v>1353</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>277</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="14" t="s">
-        <v>1293</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="37" ht="15">
@@ -7523,17 +7710,17 @@
         <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1294</v>
+        <v>1355</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1295</v>
+        <v>1356</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>273</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="14" t="s">
-        <v>1296</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="38" ht="15">
@@ -7541,17 +7728,17 @@
         <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1297</v>
+        <v>1358</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1298</v>
+        <v>1359</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>273</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="14" t="s">
-        <v>1299</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="39" ht="15">
@@ -7559,10 +7746,10 @@
         <v>11</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1300</v>
+        <v>1361</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1301</v>
+        <v>1362</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>304</v>
@@ -7575,10 +7762,10 @@
         <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1302</v>
+        <v>1363</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>1303</v>
+        <v>1364</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>304</v>
@@ -7591,10 +7778,10 @@
         <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1304</v>
+        <v>1365</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>1305</v>
+        <v>1366</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>304</v>
@@ -7607,17 +7794,17 @@
         <v>14</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1306</v>
+        <v>1367</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1307</v>
+        <v>1368</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>287</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="77" t="s">
-        <v>1308</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="43" ht="15">
@@ -7625,17 +7812,17 @@
         <v>15</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1309</v>
+        <v>1370</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1310</v>
+        <v>1371</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>277</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="14" t="s">
-        <v>1311</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="44" ht="15">
@@ -7800,7 +7987,7 @@
         <v>251</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>1312</v>
+        <v>1373</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
@@ -7832,7 +8019,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1313</v>
+        <v>1374</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>628</v>
@@ -7864,17 +8051,17 @@
         <v>3</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1314</v>
+        <v>1375</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1315</v>
+        <v>1376</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>277</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="14" t="s">
-        <v>1316</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="62" ht="15">
@@ -7882,10 +8069,10 @@
         <v>4</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1317</v>
+        <v>1378</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1318</v>
+        <v>1379</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>304</v>
@@ -7896,10 +8083,10 @@
     <row r="63" ht="15">
       <c r="B63" s="13"/>
       <c r="C63" s="2" t="s">
-        <v>1319</v>
+        <v>1380</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1320</v>
+        <v>1381</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>273</v>
@@ -7912,10 +8099,10 @@
         <v>5</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1321</v>
+        <v>1382</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1322</v>
+        <v>1383</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>304</v>
@@ -7928,10 +8115,10 @@
         <v>6</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1323</v>
+        <v>1384</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1324</v>
+        <v>1385</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>273</v>
@@ -21468,13 +21655,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A686" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A617" zoomScale="100" workbookViewId="0">
       <selection activeCell="E493" activeCellId="0" sqref="E493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="22.875"/>
+    <col customWidth="1" min="3" max="3" width="27.7109375"/>
     <col customWidth="1" min="4" max="4" width="16.75"/>
     <col customWidth="1" min="5" max="5" width="18"/>
     <col customWidth="1" min="6" max="6" width="25"/>
@@ -31077,1409 +31264,1470 @@
       <c r="G637" s="30"/>
     </row>
     <row r="638" ht="15">
-      <c r="B638" s="61"/>
-      <c r="C638" s="60"/>
-      <c r="D638" s="30"/>
-      <c r="E638" s="30"/>
-      <c r="F638" s="30"/>
-      <c r="G638" s="30"/>
+      <c r="B638" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C638" s="37" t="s">
+        <v>967</v>
+      </c>
+      <c r="D638" s="38"/>
+      <c r="E638" s="38"/>
+      <c r="F638" s="38"/>
+      <c r="G638" s="39"/>
     </row>
     <row r="639" ht="15">
-      <c r="B639" s="59"/>
-      <c r="C639" s="60"/>
-      <c r="D639" s="30"/>
-      <c r="E639" s="30"/>
-      <c r="F639" s="30"/>
-      <c r="G639" s="30"/>
+      <c r="B639" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="C639" s="9" t="s">
+        <v>968</v>
+      </c>
+      <c r="D639" s="10"/>
+      <c r="E639" s="10"/>
+      <c r="F639" s="10"/>
+      <c r="G639" s="41"/>
     </row>
     <row r="640" ht="15">
-      <c r="B640" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="C640" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="D640" s="38"/>
-      <c r="E640" s="38"/>
-      <c r="F640" s="38"/>
-      <c r="G640" s="39"/>
+      <c r="B640" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F640" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G640" s="42" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="641" ht="15">
-      <c r="B641" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="C641" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D641" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E641" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F641" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G641" s="42" t="s">
-        <v>4</v>
-      </c>
+      <c r="B641" s="43">
+        <v>1</v>
+      </c>
+      <c r="C641" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="D641" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="E641" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F641" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G641" s="44"/>
     </row>
     <row r="642" ht="15">
       <c r="B642" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="E642" s="2" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F642" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G642" s="44"/>
     </row>
-    <row r="643" ht="30">
+    <row r="643" ht="15">
       <c r="B643" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="E643" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F643" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G643" s="62" t="s">
-        <v>971</v>
-      </c>
+      <c r="G643" s="61"/>
     </row>
     <row r="644" ht="15">
       <c r="B644" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="E644" s="2" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="F644" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G644" s="44" t="s">
-        <v>974</v>
-      </c>
+      <c r="G644" s="44"/>
     </row>
     <row r="645" ht="15">
       <c r="B645" s="43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E645" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F645" s="2" t="s">
-        <v>264</v>
+        <v>979</v>
       </c>
       <c r="G645" s="44" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
     <row r="646" ht="15">
       <c r="B646" s="43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="E646" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F646" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G646" s="44" t="s">
-        <v>980</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="F646" s="2"/>
+      <c r="G646" s="44"/>
     </row>
     <row r="647" ht="15">
       <c r="B647" s="43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E647" s="2" t="s">
-        <v>273</v>
+        <v>985</v>
       </c>
       <c r="F647" s="2"/>
-      <c r="G647" s="44" t="s">
-        <v>983</v>
-      </c>
+      <c r="G647" s="44"/>
     </row>
     <row r="648" ht="15">
       <c r="B648" s="43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E648" s="2" t="s">
         <v>267</v>
       </c>
       <c r="F648" s="2"/>
-      <c r="G648" s="44" t="s">
-        <v>986</v>
-      </c>
+      <c r="G648" s="44"/>
     </row>
     <row r="649" ht="15">
       <c r="B649" s="43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E649" s="2" t="s">
-        <v>989</v>
+        <v>259</v>
       </c>
       <c r="F649" s="2"/>
-      <c r="G649" s="44" t="s">
-        <v>990</v>
-      </c>
+      <c r="G649" s="44"/>
     </row>
     <row r="650" ht="15">
       <c r="B650" s="43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>285</v>
+        <v>990</v>
       </c>
       <c r="D650" s="2" t="s">
-        <v>838</v>
+        <v>991</v>
       </c>
       <c r="E650" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F650" s="2" t="s">
-        <v>839</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F650" s="2"/>
       <c r="G650" s="44"/>
     </row>
     <row r="651" ht="15">
       <c r="B651" s="43">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>297</v>
+        <v>992</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>4</v>
+        <v>993</v>
       </c>
       <c r="E651" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F651" s="2"/>
-      <c r="G651" s="63"/>
+      <c r="G651" s="44"/>
     </row>
     <row r="652" ht="15">
       <c r="B652" s="43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>298</v>
+        <v>994</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>299</v>
+        <v>995</v>
       </c>
       <c r="E652" s="2" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="F652" s="2"/>
       <c r="G652" s="44"/>
     </row>
     <row r="653" ht="15">
       <c r="B653" s="43">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>300</v>
+        <v>996</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>301</v>
+        <v>997</v>
       </c>
       <c r="E653" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F653" s="2"/>
       <c r="G653" s="44"/>
     </row>
     <row r="654" ht="15">
       <c r="B654" s="43">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C654" s="2" t="s">
-        <v>302</v>
+        <v>998</v>
       </c>
       <c r="D654" s="2" t="s">
-        <v>303</v>
+        <v>999</v>
       </c>
       <c r="E654" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="F654" s="2"/>
       <c r="G654" s="44"/>
     </row>
     <row r="655" ht="15">
       <c r="B655" s="43">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>305</v>
+        <v>516</v>
       </c>
       <c r="D655" s="2" t="s">
-        <v>306</v>
+        <v>517</v>
       </c>
       <c r="E655" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F655" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="F655" s="2" t="s">
+        <v>872</v>
+      </c>
       <c r="G655" s="44"/>
     </row>
     <row r="656" ht="15">
       <c r="B656" s="43">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>308</v>
+        <v>4</v>
       </c>
       <c r="E656" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F656" s="2"/>
-      <c r="G656" s="44"/>
+      <c r="G656" s="52"/>
     </row>
     <row r="657" ht="15">
       <c r="B657" s="43">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E657" s="2" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="F657" s="2"/>
       <c r="G657" s="44"/>
     </row>
     <row r="658" ht="15">
       <c r="B658" s="43">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E658" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F658" s="2"/>
       <c r="G658" s="44"/>
     </row>
     <row r="659" ht="15">
-      <c r="B659" s="53">
-        <v>18</v>
-      </c>
-      <c r="C659" s="54" t="s">
+      <c r="B659" s="43">
+        <v>19</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E659" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F659" s="2"/>
+      <c r="G659" s="44"/>
+    </row>
+    <row r="660" ht="15">
+      <c r="B660" s="43">
+        <v>20</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D660" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E660" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F660" s="2"/>
+      <c r="G660" s="44"/>
+    </row>
+    <row r="661" ht="15">
+      <c r="B661" s="43">
+        <v>21</v>
+      </c>
+      <c r="C661" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E661" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F661" s="2"/>
+      <c r="G661" s="44"/>
+    </row>
+    <row r="662" ht="15">
+      <c r="B662" s="43">
+        <v>22</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D662" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E662" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F662" s="2"/>
+      <c r="G662" s="44"/>
+    </row>
+    <row r="663" ht="15">
+      <c r="B663" s="43">
+        <v>23</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D663" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E663" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F663" s="2"/>
+      <c r="G663" s="44"/>
+    </row>
+    <row r="664" ht="15">
+      <c r="B664" s="43">
+        <v>24</v>
+      </c>
+      <c r="C664" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="D659" s="54" t="s">
+      <c r="D664" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="E659" s="54" t="s">
+      <c r="E664" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="F659" s="54"/>
-      <c r="G659" s="55"/>
-    </row>
-    <row r="661" ht="14.25"/>
-    <row r="662" ht="15">
-      <c r="B662" s="4" t="s">
+      <c r="F664" s="54"/>
+      <c r="G664" s="55"/>
+    </row>
+    <row r="665" ht="15">
+      <c r="B665" s="59"/>
+      <c r="C665" s="60"/>
+      <c r="D665" s="30"/>
+      <c r="E665" s="30"/>
+      <c r="F665" s="30"/>
+      <c r="G665" s="30"/>
+    </row>
+    <row r="666" ht="15">
+      <c r="B666" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="C662" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D662" s="6"/>
-      <c r="E662" s="6"/>
-      <c r="F662" s="6"/>
-      <c r="G662" s="7"/>
-    </row>
-    <row r="663" ht="15">
-      <c r="B663" s="8" t="s">
+      <c r="C666" s="37" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D666" s="38"/>
+      <c r="E666" s="38"/>
+      <c r="F666" s="38"/>
+      <c r="G666" s="39"/>
+    </row>
+    <row r="667" ht="15">
+      <c r="B667" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="C663" s="9" t="s">
-        <v>991</v>
-      </c>
-      <c r="D663" s="10"/>
-      <c r="E663" s="10"/>
-      <c r="F663" s="10"/>
-      <c r="G663" s="11"/>
-    </row>
-    <row r="664" ht="15">
-      <c r="B664" s="8" t="s">
+      <c r="C667" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D667" s="10"/>
+      <c r="E667" s="10"/>
+      <c r="F667" s="10"/>
+      <c r="G667" s="41"/>
+    </row>
+    <row r="668" ht="15">
+      <c r="B668" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="C664" s="1" t="s">
+      <c r="C668" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D664" s="1" t="s">
+      <c r="D668" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E664" s="1" t="s">
+      <c r="E668" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F664" s="1" t="s">
+      <c r="F668" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G664" s="12" t="s">
+      <c r="G668" s="42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="665" ht="15">
-      <c r="B665" s="13">
+    <row r="669" ht="15">
+      <c r="B669" s="43">
         <v>1</v>
       </c>
-      <c r="C665" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="D665" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="E665" s="2" t="s">
+      <c r="C669" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D669" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E669" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F665" s="2" t="s">
+      <c r="F669" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G665" s="14"/>
-    </row>
-    <row r="666" ht="30">
-      <c r="B666" s="13">
+      <c r="G669" s="44"/>
+    </row>
+    <row r="670" ht="15">
+      <c r="B670" s="43">
         <v>2</v>
       </c>
-      <c r="C666" s="2" t="s">
+      <c r="C670" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="D666" s="2" t="s">
+      <c r="D670" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="E666" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F666" s="2" t="s">
+      <c r="E670" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F670" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G666" s="28" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="667" ht="15">
-      <c r="B667" s="13">
+      <c r="G670" s="44"/>
+    </row>
+    <row r="671" ht="15">
+      <c r="B671" s="43">
         <v>3</v>
       </c>
-      <c r="C667" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="D667" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="E667" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F667" s="2" t="s">
+      <c r="C671" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="D671" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="E671" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F671" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G667" s="14" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="668" ht="15">
-      <c r="B668" s="13">
+      <c r="G671" s="44"/>
+    </row>
+    <row r="672" ht="15">
+      <c r="B672" s="43">
         <v>4</v>
       </c>
-      <c r="C668" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="D668" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="E668" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F668" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="G668" s="14" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="669" ht="15">
-      <c r="B669" s="13">
+      <c r="C672" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D672" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E672" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F672" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G672" s="44"/>
+    </row>
+    <row r="673" ht="15">
+      <c r="B673" s="43">
         <v>5</v>
       </c>
-      <c r="C669" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="D669" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="E669" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F669" s="2"/>
-      <c r="G669" s="14" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="670" ht="15">
-      <c r="B670" s="13">
+      <c r="C673" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D673" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E673" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F673" s="2"/>
+      <c r="G673" s="44"/>
+    </row>
+    <row r="674" ht="15">
+      <c r="B674" s="43">
         <v>6</v>
       </c>
-      <c r="C670" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D670" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E670" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F670" s="2"/>
-      <c r="G670" s="14" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="671" ht="15">
-      <c r="B671" s="13">
-        <v>7</v>
-      </c>
-      <c r="C671" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D671" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E671" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F671" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="G671" s="14"/>
-    </row>
-    <row r="672" ht="15">
-      <c r="B672" s="13">
-        <v>8</v>
-      </c>
-      <c r="C672" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D672" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E672" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F672" s="2"/>
-      <c r="G672" s="20"/>
-    </row>
-    <row r="673" ht="15">
-      <c r="B673" s="13">
-        <v>9</v>
-      </c>
-      <c r="C673" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D673" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E673" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F673" s="2"/>
-      <c r="G673" s="14"/>
-    </row>
-    <row r="674" ht="15">
-      <c r="B674" s="13">
-        <v>10</v>
-      </c>
       <c r="C674" s="2" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>301</v>
+        <v>504</v>
       </c>
       <c r="E674" s="2" t="s">
         <v>267</v>
       </c>
       <c r="F674" s="2"/>
-      <c r="G674" s="14"/>
+      <c r="G674" s="44"/>
     </row>
     <row r="675" ht="15">
-      <c r="B675" s="13">
+      <c r="B675" s="43">
+        <v>7</v>
+      </c>
+      <c r="C675" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D675" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E675" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F675" s="2"/>
+      <c r="G675" s="44"/>
+    </row>
+    <row r="676" ht="15">
+      <c r="B676" s="43">
+        <v>8</v>
+      </c>
+      <c r="C676" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D676" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E676" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F676" s="2"/>
+      <c r="G676" s="44"/>
+    </row>
+    <row r="677" ht="15">
+      <c r="B677" s="43">
+        <v>9</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D677" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E677" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F677" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G677" s="44"/>
+    </row>
+    <row r="678" ht="15">
+      <c r="B678" s="43">
+        <v>10</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D678" s="2"/>
+      <c r="E678" s="2"/>
+      <c r="F678" s="2"/>
+      <c r="G678" s="44"/>
+    </row>
+    <row r="679" ht="15">
+      <c r="B679" s="43">
         <v>11</v>
       </c>
-      <c r="C675" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D675" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E675" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F675" s="2"/>
-      <c r="G675" s="14"/>
-    </row>
-    <row r="676" ht="15">
-      <c r="B676" s="13">
+      <c r="C679" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D679" s="2"/>
+      <c r="E679" s="2"/>
+      <c r="F679" s="2"/>
+      <c r="G679" s="44"/>
+    </row>
+    <row r="680" ht="15">
+      <c r="B680" s="43">
         <v>12</v>
       </c>
-      <c r="C676" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D676" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E676" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F676" s="2"/>
-      <c r="G676" s="14"/>
-    </row>
-    <row r="677" ht="15">
-      <c r="B677" s="13">
+      <c r="C680" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D680" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E680" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F680" s="2"/>
+      <c r="G680" s="44"/>
+    </row>
+    <row r="681" ht="15">
+      <c r="B681" s="43">
         <v>13</v>
       </c>
-      <c r="C677" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D677" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E677" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F677" s="2"/>
-      <c r="G677" s="14"/>
-    </row>
-    <row r="678" ht="15">
-      <c r="B678" s="13">
+      <c r="C681" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="D681" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="E681" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F681" s="2"/>
+      <c r="G681" s="51" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="682" ht="15">
+      <c r="B682" s="43">
         <v>14</v>
       </c>
-      <c r="C678" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D678" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E678" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F678" s="2"/>
-      <c r="G678" s="14"/>
-    </row>
-    <row r="679" ht="15">
-      <c r="B679" s="13">
+      <c r="C682" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="D682" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="E682" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F682" s="2"/>
+      <c r="G682" s="49"/>
+    </row>
+    <row r="683" ht="15">
+      <c r="B683" s="43">
         <v>15</v>
       </c>
-      <c r="C679" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D679" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E679" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F679" s="2"/>
-      <c r="G679" s="14"/>
-    </row>
-    <row r="680" ht="15">
-      <c r="B680" s="15">
+      <c r="C683" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="D683" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="E683" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F683" s="2"/>
+      <c r="G683" s="50"/>
+    </row>
+    <row r="684" ht="15">
+      <c r="B684" s="43">
         <v>16</v>
       </c>
-      <c r="C680" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D680" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="E680" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="F680" s="16"/>
-      <c r="G680" s="17"/>
-    </row>
-    <row r="682" ht="14.25">
-      <c r="B682"/>
-    </row>
-    <row r="683" ht="15">
-      <c r="B683" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="C683" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D683" s="38"/>
-      <c r="E683" s="38"/>
-      <c r="F683" s="38"/>
-      <c r="G683" s="39"/>
-    </row>
-    <row r="684" ht="15">
-      <c r="B684" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="C684" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D684" s="10"/>
-      <c r="E684" s="10"/>
-      <c r="F684" s="10"/>
-      <c r="G684" s="41"/>
+      <c r="C684" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D684" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E684" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F684" s="2"/>
+      <c r="G684" s="51" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="685" ht="15">
-      <c r="B685" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="C685" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D685" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E685" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F685" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G685" s="42" t="s">
-        <v>4</v>
-      </c>
+      <c r="B685" s="43">
+        <v>17</v>
+      </c>
+      <c r="C685" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E685" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F685" s="2"/>
+      <c r="G685" s="49"/>
     </row>
     <row r="686" ht="15">
       <c r="B686" s="43">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C686" s="2" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F686" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G686" s="44"/>
+        <v>267</v>
+      </c>
+      <c r="F686" s="2"/>
+      <c r="G686" s="50"/>
     </row>
     <row r="687" ht="15">
       <c r="B687" s="43">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C687" s="2" t="s">
-        <v>513</v>
+        <v>1010</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="E687" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F687" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="G687" s="44"/>
+      <c r="F687" s="2"/>
+      <c r="G687" s="51" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="688" ht="15">
       <c r="B688" s="43">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C688" s="2" t="s">
-        <v>320</v>
+        <v>1012</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="E688" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F688" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G688" s="44" t="s">
-        <v>322</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F688" s="2"/>
+      <c r="G688" s="49"/>
     </row>
     <row r="689" ht="15">
       <c r="B689" s="43">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C689" s="2" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="E689" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F689" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G689" s="62"/>
+        <v>267</v>
+      </c>
+      <c r="F689" s="2"/>
+      <c r="G689" s="50"/>
     </row>
     <row r="690" ht="15">
       <c r="B690" s="43">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C690" s="2" t="s">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>968</v>
+        <v>995</v>
       </c>
       <c r="E690" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F690" s="2"/>
-      <c r="G690" s="44"/>
+      <c r="G690" s="50"/>
     </row>
     <row r="691" ht="15">
       <c r="B691" s="43">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C691" s="2" t="s">
-        <v>975</v>
+        <v>996</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>976</v>
+        <v>997</v>
       </c>
       <c r="E691" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F691" s="2"/>
-      <c r="G691" s="49" t="s">
-        <v>1009</v>
-      </c>
+      <c r="G691" s="50"/>
     </row>
     <row r="692" ht="15">
       <c r="B692" s="43">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C692" s="2" t="s">
-        <v>987</v>
+        <v>998</v>
       </c>
       <c r="D692" s="2" t="s">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="E692" s="2" t="s">
-        <v>989</v>
+        <v>267</v>
       </c>
       <c r="F692" s="2"/>
       <c r="G692" s="50"/>
     </row>
     <row r="693" ht="15">
       <c r="B693" s="43">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C693" s="2" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="D693" s="2" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="E693" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F693" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G693" s="49"/>
+        <v>259</v>
+      </c>
+      <c r="F693" s="2"/>
+      <c r="G693" s="50"/>
     </row>
     <row r="694" ht="15">
       <c r="B694" s="43">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C694" s="2" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="E694" s="2" t="s">
         <v>273</v>
       </c>
       <c r="F694" s="2"/>
-      <c r="G694" s="51" t="s">
-        <v>1014</v>
-      </c>
+      <c r="G694" s="50"/>
     </row>
     <row r="695" ht="15">
       <c r="B695" s="43">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C695" s="2" t="s">
-        <v>947</v>
+        <v>1020</v>
       </c>
       <c r="D695" s="2" t="s">
-        <v>948</v>
+        <v>1021</v>
       </c>
       <c r="E695" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F695" s="2"/>
-      <c r="G695" s="49"/>
+      <c r="G695" s="50"/>
     </row>
     <row r="696" ht="15">
       <c r="B696" s="43">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C696" s="2" t="s">
-        <v>387</v>
+        <v>1022</v>
       </c>
       <c r="D696" s="2" t="s">
-        <v>388</v>
+        <v>1023</v>
       </c>
       <c r="E696" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F696" s="57"/>
-      <c r="G696" s="49"/>
+      <c r="F696" s="2"/>
+      <c r="G696" s="50"/>
     </row>
     <row r="697" ht="15">
       <c r="B697" s="43">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C697" s="2" t="s">
-        <v>389</v>
+        <v>1024</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>949</v>
+        <v>1025</v>
       </c>
       <c r="E697" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F697" s="57"/>
-      <c r="G697" s="49"/>
+      <c r="F697" s="2"/>
+      <c r="G697" s="50"/>
     </row>
     <row r="698" ht="15">
       <c r="B698" s="43">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C698" s="2" t="s">
-        <v>391</v>
+        <v>1026</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>392</v>
+        <v>1027</v>
       </c>
       <c r="E698" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F698" s="57"/>
-      <c r="G698" s="49"/>
+      <c r="F698" s="2"/>
+      <c r="G698" s="50"/>
     </row>
     <row r="699" ht="15">
       <c r="B699" s="43">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C699" s="2" t="s">
-        <v>1015</v>
+        <v>879</v>
       </c>
       <c r="D699" s="2" t="s">
-        <v>1016</v>
+        <v>880</v>
       </c>
       <c r="E699" s="2" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="F699" s="2"/>
-      <c r="G699" s="51" t="s">
-        <v>1017</v>
-      </c>
+      <c r="G699" s="56"/>
     </row>
     <row r="700" ht="15">
       <c r="B700" s="43">
-        <v>15</v>
-      </c>
-      <c r="C700" s="64" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D700" s="64" t="s">
-        <v>1019</v>
+        <v>32</v>
+      </c>
+      <c r="C700" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D700" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="E700" s="2" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="F700" s="2"/>
-      <c r="G700" s="49"/>
+      <c r="G700" s="56"/>
     </row>
     <row r="701" ht="15">
       <c r="B701" s="43">
-        <v>16</v>
-      </c>
-      <c r="C701" s="65" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D701" s="65" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E701" s="66" t="s">
-        <v>294</v>
+        <v>33</v>
+      </c>
+      <c r="C701" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D701" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E701" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="F701" s="2"/>
-      <c r="G701" s="49"/>
+      <c r="G701" s="56"/>
     </row>
     <row r="702" ht="15">
       <c r="B702" s="43">
-        <v>17</v>
-      </c>
-      <c r="C702" s="65" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D702" s="65" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E702" s="66" t="s">
-        <v>273</v>
+        <v>34</v>
+      </c>
+      <c r="C702" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D702" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E702" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="F702" s="2"/>
-      <c r="G702" s="50"/>
+      <c r="G702" s="56"/>
     </row>
     <row r="703" ht="15">
       <c r="B703" s="43">
-        <v>18</v>
-      </c>
-      <c r="C703" s="65" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D703" s="65" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E703" s="66" t="s">
-        <v>294</v>
+        <v>35</v>
+      </c>
+      <c r="C703" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D703" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E703" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="F703" s="2"/>
-      <c r="G703" s="51" t="s">
-        <v>1026</v>
-      </c>
+      <c r="G703" s="56"/>
     </row>
     <row r="704" ht="15">
       <c r="B704" s="43">
-        <v>19</v>
-      </c>
-      <c r="C704" s="65" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D704" s="65" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E704" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="F704" s="64"/>
-      <c r="G704" s="49"/>
+        <v>36</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D704" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E704" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F704" s="2"/>
+      <c r="G704" s="52"/>
     </row>
     <row r="705" ht="15">
       <c r="B705" s="43">
-        <v>20</v>
-      </c>
-      <c r="C705" s="65" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D705" s="65" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E705" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="F705" s="65"/>
-      <c r="G705" s="68"/>
+        <v>37</v>
+      </c>
+      <c r="C705" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D705" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E705" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F705" s="2"/>
+      <c r="G705" s="44"/>
     </row>
     <row r="706" ht="15">
       <c r="B706" s="43">
-        <v>21</v>
-      </c>
-      <c r="C706" s="65" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D706" s="65" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E706" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="F706" s="65"/>
-      <c r="G706" s="68"/>
+        <v>38</v>
+      </c>
+      <c r="C706" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D706" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E706" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F706" s="2"/>
+      <c r="G706" s="44"/>
     </row>
     <row r="707" ht="15">
       <c r="B707" s="43">
-        <v>22</v>
-      </c>
-      <c r="C707" s="65" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D707" s="65" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E707" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="F707" s="65"/>
-      <c r="G707" s="68"/>
+        <v>39</v>
+      </c>
+      <c r="C707" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D707" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E707" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F707" s="2"/>
+      <c r="G707" s="44"/>
     </row>
     <row r="708" ht="15">
       <c r="B708" s="43">
-        <v>23</v>
-      </c>
-      <c r="C708" s="65" t="s">
-        <v>285</v>
-      </c>
-      <c r="D708" s="65" t="s">
-        <v>286</v>
-      </c>
-      <c r="E708" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="F708" s="65" t="s">
-        <v>839</v>
-      </c>
-      <c r="G708" s="69"/>
+        <v>40</v>
+      </c>
+      <c r="C708" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D708" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E708" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F708" s="2"/>
+      <c r="G708" s="44"/>
     </row>
     <row r="709" ht="15">
       <c r="B709" s="43">
-        <v>24</v>
-      </c>
-      <c r="C709" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="D709" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E709" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="F709" s="65"/>
-      <c r="G709" s="70"/>
+        <v>41</v>
+      </c>
+      <c r="C709" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D709" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E709" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F709" s="2"/>
+      <c r="G709" s="44"/>
     </row>
     <row r="710" ht="15">
       <c r="B710" s="43">
-        <v>25</v>
-      </c>
-      <c r="C710" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="D710" s="65" t="s">
-        <v>299</v>
-      </c>
-      <c r="E710" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="F710" s="65"/>
-      <c r="G710" s="69"/>
+        <v>42</v>
+      </c>
+      <c r="C710" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D710" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E710" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F710" s="2"/>
+      <c r="G710" s="44"/>
     </row>
     <row r="711" ht="15">
       <c r="B711" s="43">
-        <v>26</v>
-      </c>
-      <c r="C711" s="65" t="s">
-        <v>300</v>
-      </c>
-      <c r="D711" s="65" t="s">
-        <v>301</v>
-      </c>
-      <c r="E711" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="F711" s="65"/>
-      <c r="G711" s="69"/>
+        <v>43</v>
+      </c>
+      <c r="C711" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D711" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E711" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F711" s="2"/>
+      <c r="G711" s="44"/>
     </row>
     <row r="712" ht="15">
-      <c r="B712" s="43">
-        <v>27</v>
-      </c>
-      <c r="C712" s="65" t="s">
-        <v>302</v>
-      </c>
-      <c r="D712" s="65" t="s">
-        <v>303</v>
-      </c>
-      <c r="E712" s="65" t="s">
-        <v>304</v>
-      </c>
-      <c r="F712" s="65"/>
-      <c r="G712" s="69"/>
+      <c r="B712" s="53">
+        <v>44</v>
+      </c>
+      <c r="C712" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="D712" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="E712" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="F712" s="54"/>
+      <c r="G712" s="55"/>
     </row>
     <row r="713" ht="15">
-      <c r="B713" s="43">
-        <v>28</v>
-      </c>
-      <c r="C713" s="65" t="s">
-        <v>305</v>
-      </c>
-      <c r="D713" s="65" t="s">
-        <v>306</v>
-      </c>
-      <c r="E713" s="65" t="s">
-        <v>304</v>
-      </c>
-      <c r="F713" s="65"/>
-      <c r="G713" s="69"/>
+      <c r="B713" s="59"/>
+      <c r="C713" s="60"/>
+      <c r="D713" s="30"/>
+      <c r="E713" s="30"/>
+      <c r="F713" s="30"/>
+      <c r="G713" s="30"/>
     </row>
     <row r="714" ht="15">
-      <c r="B714" s="43">
-        <v>29</v>
-      </c>
-      <c r="C714" s="65" t="s">
-        <v>307</v>
-      </c>
-      <c r="D714" s="65" t="s">
-        <v>308</v>
-      </c>
-      <c r="E714" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="F714" s="65"/>
-      <c r="G714" s="69"/>
+      <c r="B714" s="59"/>
+      <c r="C714" s="60"/>
+      <c r="D714" s="30"/>
+      <c r="E714" s="30"/>
+      <c r="F714" s="30"/>
+      <c r="G714" s="30"/>
     </row>
     <row r="715" ht="15">
-      <c r="B715" s="43">
-        <v>30</v>
-      </c>
-      <c r="C715" s="65" t="s">
-        <v>309</v>
-      </c>
-      <c r="D715" s="65" t="s">
-        <v>310</v>
-      </c>
-      <c r="E715" s="65" t="s">
-        <v>311</v>
-      </c>
-      <c r="F715" s="65"/>
-      <c r="G715" s="69"/>
+      <c r="B715" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C715" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D715" s="38"/>
+      <c r="E715" s="38"/>
+      <c r="F715" s="38"/>
+      <c r="G715" s="39"/>
     </row>
     <row r="716" ht="15">
-      <c r="B716" s="43">
-        <v>31</v>
-      </c>
-      <c r="C716" s="71" t="s">
-        <v>312</v>
-      </c>
-      <c r="D716" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="E716" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="F716" s="71"/>
-      <c r="G716" s="44"/>
+      <c r="B716" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D716" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F716" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G716" s="42" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="717" ht="15">
       <c r="B717" s="43">
-        <v>32</v>
-      </c>
-      <c r="C717" s="54" t="s">
-        <v>314</v>
-      </c>
-      <c r="D717" s="54" t="s">
-        <v>315</v>
-      </c>
-      <c r="E717" s="54" t="s">
-        <v>311</v>
-      </c>
-      <c r="F717" s="54"/>
-      <c r="G717" s="55"/>
-    </row>
-    <row r="719" ht="14.25"/>
-    <row r="720" ht="14.25">
-      <c r="B720" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="C720" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="D720" s="38"/>
-      <c r="E720" s="38"/>
-      <c r="F720" s="38"/>
-      <c r="G720" s="39"/>
-    </row>
-    <row r="721" ht="14.25">
-      <c r="B721" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="C721" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D721" s="10"/>
-      <c r="E721" s="10"/>
-      <c r="F721" s="10"/>
-      <c r="G721" s="41"/>
-    </row>
-    <row r="722" ht="14.25">
-      <c r="B722" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="C722" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D722" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E722" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F722" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G722" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C717" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D717" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E717" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F717" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G717" s="44"/>
+    </row>
+    <row r="718" ht="30">
+      <c r="B718" s="43">
+        <v>2</v>
+      </c>
+      <c r="C718" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D718" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E718" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F718" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G718" s="62" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="719" ht="15">
+      <c r="B719" s="43">
+        <v>3</v>
+      </c>
+      <c r="C719" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D719" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E719" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F719" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G719" s="44" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="720" ht="15">
+      <c r="B720" s="43">
         <v>4</v>
       </c>
-    </row>
-    <row r="723" ht="14.25">
+      <c r="C720" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D720" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E720" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F720" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G720" s="44" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="721" ht="15">
+      <c r="B721" s="43">
+        <v>5</v>
+      </c>
+      <c r="C721" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D721" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E721" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F721" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G721" s="44" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="722" ht="15">
+      <c r="B722" s="43">
+        <v>6</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D722" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E722" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F722" s="2"/>
+      <c r="G722" s="44" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="723" ht="15">
       <c r="B723" s="43">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C723" s="2" t="s">
-        <v>519</v>
+        <v>1045</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>1035</v>
+        <v>1046</v>
       </c>
       <c r="E723" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F723" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G723" s="44"/>
-    </row>
-    <row r="724" ht="14.25">
+        <v>267</v>
+      </c>
+      <c r="F723" s="2"/>
+      <c r="G723" s="44" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="724" ht="15">
       <c r="B724" s="43">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C724" s="2" t="s">
-        <v>1003</v>
+        <v>1048</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>1004</v>
+        <v>1049</v>
       </c>
       <c r="E724" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F724" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G724" s="44"/>
-    </row>
-    <row r="725" ht="14.25">
+        <v>1050</v>
+      </c>
+      <c r="F724" s="2"/>
+      <c r="G724" s="44" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="725" ht="15">
       <c r="B725" s="43">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C725" s="2" t="s">
-        <v>907</v>
+        <v>285</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>934</v>
+        <v>838</v>
       </c>
       <c r="E725" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F725" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="F725" s="2" t="s">
+        <v>839</v>
+      </c>
       <c r="G725" s="44"/>
     </row>
-    <row r="726" ht="14.25">
+    <row r="726" ht="15">
       <c r="B726" s="43">
+        <v>10</v>
+      </c>
+      <c r="C726" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D726" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C726" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D726" s="2" t="s">
-        <v>500</v>
-      </c>
       <c r="E726" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F726" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G726" s="62"/>
-    </row>
-    <row r="727" ht="14.25">
+        <v>270</v>
+      </c>
+      <c r="F726" s="2"/>
+      <c r="G726" s="63"/>
+    </row>
+    <row r="727" ht="15">
       <c r="B727" s="43">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C727" s="2" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>502</v>
+        <v>299</v>
       </c>
       <c r="E727" s="2" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F727" s="2"/>
       <c r="G727" s="44"/>
     </row>
-    <row r="728" ht="14.25">
+    <row r="728" ht="15">
       <c r="B728" s="43">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C728" s="2" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>504</v>
+        <v>301</v>
       </c>
       <c r="E728" s="2" t="s">
         <v>267</v>
@@ -32487,416 +32735,1559 @@
       <c r="F728" s="2"/>
       <c r="G728" s="44"/>
     </row>
-    <row r="729" ht="14.25">
+    <row r="729" ht="15">
       <c r="B729" s="43">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C729" s="2" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="D729" s="2" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="E729" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="F729" s="2"/>
       <c r="G729" s="44"/>
     </row>
-    <row r="730" ht="14.25">
+    <row r="730" ht="15">
       <c r="B730" s="43">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C730" s="2" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="E730" s="2" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="F730" s="2"/>
       <c r="G730" s="44"/>
     </row>
-    <row r="731" ht="14.25">
+    <row r="731" ht="15">
       <c r="B731" s="43">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C731" s="2" t="s">
-        <v>1036</v>
+        <v>307</v>
       </c>
       <c r="D731" s="2" t="s">
-        <v>1037</v>
+        <v>308</v>
       </c>
       <c r="E731" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F731" s="2" t="s">
-        <v>264</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F731" s="2"/>
       <c r="G731" s="44"/>
     </row>
-    <row r="732" ht="14.25">
+    <row r="732" ht="15">
       <c r="B732" s="43">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C732" s="2" t="s">
-        <v>508</v>
+        <v>309</v>
       </c>
       <c r="D732" s="2" t="s">
-        <v>685</v>
+        <v>310</v>
       </c>
       <c r="E732" s="2" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="F732" s="2"/>
       <c r="G732" s="44"/>
     </row>
-    <row r="733" ht="14.25">
+    <row r="733" ht="15">
       <c r="B733" s="43">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C733" s="2" t="s">
-        <v>487</v>
+        <v>312</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>555</v>
+        <v>313</v>
       </c>
       <c r="E733" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F733" s="2"/>
+      <c r="G733" s="44"/>
+    </row>
+    <row r="734" ht="15">
+      <c r="B734" s="53">
+        <v>18</v>
+      </c>
+      <c r="C734" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="D734" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="E734" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="F734" s="54"/>
+      <c r="G734" s="55"/>
+    </row>
+    <row r="736" ht="14.25"/>
+    <row r="737" ht="15">
+      <c r="B737" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C737" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D737" s="6"/>
+      <c r="E737" s="6"/>
+      <c r="F737" s="6"/>
+      <c r="G737" s="7"/>
+    </row>
+    <row r="738" ht="15">
+      <c r="B738" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C738" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D738" s="10"/>
+      <c r="E738" s="10"/>
+      <c r="F738" s="10"/>
+      <c r="G738" s="11"/>
+    </row>
+    <row r="739" ht="15">
+      <c r="B739" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E739" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F739" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G739" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="740" ht="15">
+      <c r="B740" s="13">
+        <v>1</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D740" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E740" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F733" s="2"/>
-      <c r="G733" s="45"/>
-    </row>
-    <row r="734" ht="14.25">
-      <c r="B734" s="43">
-        <v>12</v>
-      </c>
-      <c r="C734" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="D734" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E734" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F734" s="2"/>
-      <c r="G734" s="45"/>
-    </row>
-    <row r="735" ht="14.25">
-      <c r="B735" s="43">
-        <v>13</v>
-      </c>
-      <c r="C735" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="D735" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="E735" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F735" s="2"/>
-      <c r="G735" s="51" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="736" ht="14.25">
-      <c r="B736" s="43">
-        <v>14</v>
-      </c>
-      <c r="C736" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="D736" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E736" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F736" s="2"/>
-      <c r="G736" s="49"/>
-    </row>
-    <row r="737" ht="14.25">
-      <c r="B737" s="43">
-        <v>15</v>
-      </c>
-      <c r="C737" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="D737" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="E737" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F737" s="2"/>
-      <c r="G737" s="50"/>
-    </row>
-    <row r="738" ht="14.25">
-      <c r="B738" s="43">
-        <v>16</v>
-      </c>
-      <c r="C738" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="D738" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="E738" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F738" s="2"/>
-      <c r="G738" s="51" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="739" ht="14.25">
-      <c r="B739" s="43">
-        <v>17</v>
-      </c>
-      <c r="C739" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="D739" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="E739" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F739" s="2"/>
-      <c r="G739" s="49"/>
-    </row>
-    <row r="740" ht="14.25">
-      <c r="B740" s="43">
-        <v>18</v>
-      </c>
-      <c r="C740" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="D740" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="E740" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F740" s="2"/>
-      <c r="G740" s="50"/>
-    </row>
-    <row r="741" ht="14.25">
-      <c r="B741" s="43">
-        <v>19</v>
+      <c r="F740" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G740" s="14"/>
+    </row>
+    <row r="741" ht="30">
+      <c r="B741" s="13">
+        <v>2</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>822</v>
+        <v>1030</v>
       </c>
       <c r="D741" s="2" t="s">
-        <v>823</v>
+        <v>1031</v>
       </c>
       <c r="E741" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F741" s="2"/>
-      <c r="G741" s="51" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="742" ht="14.25">
-      <c r="B742" s="43">
-        <v>20</v>
+        <v>273</v>
+      </c>
+      <c r="F741" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G741" s="28" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="742" ht="15">
+      <c r="B742" s="13">
+        <v>3</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>824</v>
+        <v>1033</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>825</v>
+        <v>1034</v>
       </c>
       <c r="E742" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F742" s="2"/>
-      <c r="G742" s="49"/>
-    </row>
-    <row r="743" ht="14.25">
-      <c r="B743" s="43">
-        <v>21</v>
+      <c r="F742" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G742" s="14" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="743" ht="15">
+      <c r="B743" s="13">
+        <v>4</v>
       </c>
       <c r="C743" s="2" t="s">
-        <v>826</v>
+        <v>1055</v>
       </c>
       <c r="D743" s="2" t="s">
-        <v>827</v>
+        <v>1056</v>
       </c>
       <c r="E743" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F743" s="2"/>
-      <c r="G743" s="50"/>
-    </row>
-    <row r="744" ht="14.25">
-      <c r="B744" s="43">
+      <c r="F743" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="G743" s="14" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="744" ht="15">
+      <c r="B744" s="13">
+        <v>5</v>
+      </c>
+      <c r="C744" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D744" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E744" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F744" s="2"/>
+      <c r="G744" s="14" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="745" ht="15">
+      <c r="B745" s="13">
+        <v>6</v>
+      </c>
+      <c r="C745" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D745" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E745" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F745" s="2"/>
+      <c r="G745" s="14" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="746" ht="15">
+      <c r="B746" s="13">
+        <v>7</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D746" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E746" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F746" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="G746" s="14"/>
+    </row>
+    <row r="747" ht="15">
+      <c r="B747" s="13">
+        <v>8</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D747" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E747" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F747" s="2"/>
+      <c r="G747" s="20"/>
+    </row>
+    <row r="748" ht="15">
+      <c r="B748" s="13">
+        <v>9</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D748" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E748" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F748" s="2"/>
+      <c r="G748" s="14"/>
+    </row>
+    <row r="749" ht="15">
+      <c r="B749" s="13">
+        <v>10</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D749" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E749" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F749" s="2"/>
+      <c r="G749" s="14"/>
+    </row>
+    <row r="750" ht="15">
+      <c r="B750" s="13">
+        <v>11</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D750" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E750" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F750" s="2"/>
+      <c r="G750" s="14"/>
+    </row>
+    <row r="751" ht="15">
+      <c r="B751" s="13">
+        <v>12</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D751" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E751" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F751" s="2"/>
+      <c r="G751" s="14"/>
+    </row>
+    <row r="752" ht="15">
+      <c r="B752" s="13">
+        <v>13</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D752" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E752" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F752" s="2"/>
+      <c r="G752" s="14"/>
+    </row>
+    <row r="753" ht="15">
+      <c r="B753" s="13">
+        <v>14</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D753" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E753" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F753" s="2"/>
+      <c r="G753" s="14"/>
+    </row>
+    <row r="754" ht="15">
+      <c r="B754" s="13">
+        <v>15</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D754" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E754" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F754" s="2"/>
+      <c r="G754" s="14"/>
+    </row>
+    <row r="755" ht="15">
+      <c r="B755" s="15">
+        <v>16</v>
+      </c>
+      <c r="C755" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D755" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="E755" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="F755" s="16"/>
+      <c r="G755" s="17"/>
+    </row>
+    <row r="757" ht="14.25"/>
+    <row r="758" ht="15">
+      <c r="B758" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C758" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D758" s="38"/>
+      <c r="E758" s="38"/>
+      <c r="F758" s="38"/>
+      <c r="G758" s="39"/>
+    </row>
+    <row r="759" ht="15">
+      <c r="B759" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="C759" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D759" s="10"/>
+      <c r="E759" s="10"/>
+      <c r="F759" s="10"/>
+      <c r="G759" s="41"/>
+    </row>
+    <row r="760" ht="15">
+      <c r="B760" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E760" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F760" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G760" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="761" ht="15">
+      <c r="B761" s="43">
+        <v>1</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D761" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E761" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F761" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G761" s="44"/>
+    </row>
+    <row r="762" ht="15">
+      <c r="B762" s="43">
+        <v>2</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D762" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E762" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F762" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G762" s="44"/>
+    </row>
+    <row r="763" ht="15">
+      <c r="B763" s="43">
+        <v>3</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D763" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E763" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F763" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G763" s="44" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="764" ht="15">
+      <c r="B764" s="43">
+        <v>4</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D764" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E764" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F764" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G764" s="62"/>
+    </row>
+    <row r="765" ht="15">
+      <c r="B765" s="43">
+        <v>5</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D765" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E765" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F765" s="2"/>
+      <c r="G765" s="44"/>
+    </row>
+    <row r="766" ht="15">
+      <c r="B766" s="43">
+        <v>6</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D766" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E766" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F766" s="2"/>
+      <c r="G766" s="49" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="767" ht="15">
+      <c r="B767" s="43">
+        <v>7</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D767" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E767" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F767" s="2"/>
+      <c r="G767" s="50"/>
+    </row>
+    <row r="768" ht="15">
+      <c r="B768" s="43">
+        <v>8</v>
+      </c>
+      <c r="C768" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D768" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E768" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F768" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G768" s="49"/>
+    </row>
+    <row r="769" ht="15">
+      <c r="B769" s="43">
+        <v>9</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D769" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E769" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F769" s="2"/>
+      <c r="G769" s="51" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="770" ht="15">
+      <c r="B770" s="43">
+        <v>10</v>
+      </c>
+      <c r="C770" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="D770" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="E770" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F770" s="2"/>
+      <c r="G770" s="49"/>
+    </row>
+    <row r="771" ht="15">
+      <c r="B771" s="43">
+        <v>11</v>
+      </c>
+      <c r="C771" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D771" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E771" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F771" s="57"/>
+      <c r="G771" s="49"/>
+    </row>
+    <row r="772" ht="15">
+      <c r="B772" s="43">
+        <v>12</v>
+      </c>
+      <c r="C772" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D772" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="E772" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F772" s="57"/>
+      <c r="G772" s="49"/>
+    </row>
+    <row r="773" ht="15">
+      <c r="B773" s="43">
+        <v>13</v>
+      </c>
+      <c r="C773" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D773" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E773" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F773" s="57"/>
+      <c r="G773" s="49"/>
+    </row>
+    <row r="774" ht="15">
+      <c r="B774" s="43">
+        <v>14</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D774" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E774" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F774" s="2"/>
+      <c r="G774" s="51" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="775" ht="15">
+      <c r="B775" s="43">
+        <v>15</v>
+      </c>
+      <c r="C775" s="64" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D775" s="64" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E775" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F775" s="2"/>
+      <c r="G775" s="49"/>
+    </row>
+    <row r="776" ht="15">
+      <c r="B776" s="43">
+        <v>16</v>
+      </c>
+      <c r="C776" s="65" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D776" s="65" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E776" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="F776" s="2"/>
+      <c r="G776" s="49"/>
+    </row>
+    <row r="777" ht="15">
+      <c r="B777" s="43">
+        <v>17</v>
+      </c>
+      <c r="C777" s="65" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D777" s="65" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E777" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="F777" s="2"/>
+      <c r="G777" s="50"/>
+    </row>
+    <row r="778" ht="15">
+      <c r="B778" s="43">
+        <v>18</v>
+      </c>
+      <c r="C778" s="65" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D778" s="65" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E778" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="F778" s="2"/>
+      <c r="G778" s="51" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="779" ht="15">
+      <c r="B779" s="43">
+        <v>19</v>
+      </c>
+      <c r="C779" s="65" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D779" s="65" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E779" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="F779" s="64"/>
+      <c r="G779" s="49"/>
+    </row>
+    <row r="780" ht="15">
+      <c r="B780" s="43">
+        <v>20</v>
+      </c>
+      <c r="C780" s="65" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D780" s="65" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E780" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="F780" s="65"/>
+      <c r="G780" s="68"/>
+    </row>
+    <row r="781" ht="15">
+      <c r="B781" s="43">
+        <v>21</v>
+      </c>
+      <c r="C781" s="65" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D781" s="65" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E781" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="F781" s="65"/>
+      <c r="G781" s="68"/>
+    </row>
+    <row r="782" ht="15">
+      <c r="B782" s="43">
         <v>22</v>
       </c>
-      <c r="C744" s="2" t="s">
+      <c r="C782" s="65" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D782" s="65" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E782" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="F782" s="65"/>
+      <c r="G782" s="68"/>
+    </row>
+    <row r="783" ht="15">
+      <c r="B783" s="43">
+        <v>23</v>
+      </c>
+      <c r="C783" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="D783" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="E783" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="F783" s="65" t="s">
+        <v>839</v>
+      </c>
+      <c r="G783" s="69"/>
+    </row>
+    <row r="784" ht="15">
+      <c r="B784" s="43">
+        <v>24</v>
+      </c>
+      <c r="C784" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="D784" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E784" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="F784" s="65"/>
+      <c r="G784" s="70"/>
+    </row>
+    <row r="785" ht="15">
+      <c r="B785" s="43">
+        <v>25</v>
+      </c>
+      <c r="C785" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="D785" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="E785" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="F785" s="65"/>
+      <c r="G785" s="69"/>
+    </row>
+    <row r="786" ht="15">
+      <c r="B786" s="43">
+        <v>26</v>
+      </c>
+      <c r="C786" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="D786" s="65" t="s">
+        <v>301</v>
+      </c>
+      <c r="E786" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="F786" s="65"/>
+      <c r="G786" s="69"/>
+    </row>
+    <row r="787" ht="15">
+      <c r="B787" s="43">
+        <v>27</v>
+      </c>
+      <c r="C787" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="D787" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="E787" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="F787" s="65"/>
+      <c r="G787" s="69"/>
+    </row>
+    <row r="788" ht="15">
+      <c r="B788" s="43">
+        <v>28</v>
+      </c>
+      <c r="C788" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="D788" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="E788" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="F788" s="65"/>
+      <c r="G788" s="69"/>
+    </row>
+    <row r="789" ht="15">
+      <c r="B789" s="43">
+        <v>29</v>
+      </c>
+      <c r="C789" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="D789" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="E789" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="F789" s="65"/>
+      <c r="G789" s="69"/>
+    </row>
+    <row r="790" ht="15">
+      <c r="B790" s="43">
+        <v>30</v>
+      </c>
+      <c r="C790" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="D790" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="E790" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="F790" s="65"/>
+      <c r="G790" s="69"/>
+    </row>
+    <row r="791" ht="15">
+      <c r="B791" s="43">
+        <v>31</v>
+      </c>
+      <c r="C791" s="71" t="s">
+        <v>312</v>
+      </c>
+      <c r="D791" s="71" t="s">
+        <v>313</v>
+      </c>
+      <c r="E791" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="F791" s="71"/>
+      <c r="G791" s="44"/>
+    </row>
+    <row r="792" ht="15">
+      <c r="B792" s="43">
+        <v>32</v>
+      </c>
+      <c r="C792" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="D792" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="E792" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="F792" s="54"/>
+      <c r="G792" s="55"/>
+    </row>
+    <row r="794" ht="14.25"/>
+    <row r="795" ht="14.25">
+      <c r="B795" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C795" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="D795" s="38"/>
+      <c r="E795" s="38"/>
+      <c r="F795" s="38"/>
+      <c r="G795" s="39"/>
+    </row>
+    <row r="796" ht="14.25">
+      <c r="B796" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="C796" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D796" s="10"/>
+      <c r="E796" s="10"/>
+      <c r="F796" s="10"/>
+      <c r="G796" s="41"/>
+    </row>
+    <row r="797" ht="14.25">
+      <c r="B797" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C797" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D797" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E797" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F797" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G797" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="798" ht="14.25">
+      <c r="B798" s="43">
+        <v>1</v>
+      </c>
+      <c r="C798" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D798" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E798" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F798" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G798" s="44"/>
+    </row>
+    <row r="799" ht="14.25">
+      <c r="B799" s="43">
+        <v>2</v>
+      </c>
+      <c r="C799" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D799" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E799" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F799" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G799" s="44"/>
+    </row>
+    <row r="800" ht="14.25">
+      <c r="B800" s="43">
+        <v>3</v>
+      </c>
+      <c r="C800" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="D800" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="E800" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F800" s="2"/>
+      <c r="G800" s="44"/>
+    </row>
+    <row r="801" ht="14.25">
+      <c r="B801" s="43">
+        <v>4</v>
+      </c>
+      <c r="C801" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D801" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E801" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F801" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G801" s="62"/>
+    </row>
+    <row r="802" ht="14.25">
+      <c r="B802" s="43">
+        <v>5</v>
+      </c>
+      <c r="C802" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D802" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E802" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F802" s="2"/>
+      <c r="G802" s="44"/>
+    </row>
+    <row r="803" ht="14.25">
+      <c r="B803" s="43">
+        <v>6</v>
+      </c>
+      <c r="C803" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D803" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E803" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F803" s="2"/>
+      <c r="G803" s="44"/>
+    </row>
+    <row r="804" ht="14.25">
+      <c r="B804" s="43">
+        <v>7</v>
+      </c>
+      <c r="C804" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D804" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E804" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F804" s="2"/>
+      <c r="G804" s="44"/>
+    </row>
+    <row r="805" ht="14.25">
+      <c r="B805" s="43">
+        <v>8</v>
+      </c>
+      <c r="C805" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D805" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E805" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F805" s="2"/>
+      <c r="G805" s="44"/>
+    </row>
+    <row r="806" ht="14.25">
+      <c r="B806" s="43">
+        <v>9</v>
+      </c>
+      <c r="C806" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D806" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E806" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F806" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G806" s="44"/>
+    </row>
+    <row r="807" ht="14.25">
+      <c r="B807" s="43">
+        <v>10</v>
+      </c>
+      <c r="C807" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D807" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E807" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F807" s="2"/>
+      <c r="G807" s="44"/>
+    </row>
+    <row r="808" ht="14.25">
+      <c r="B808" s="43">
+        <v>11</v>
+      </c>
+      <c r="C808" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D808" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E808" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F808" s="2"/>
+      <c r="G808" s="45"/>
+    </row>
+    <row r="809" ht="14.25">
+      <c r="B809" s="43">
+        <v>12</v>
+      </c>
+      <c r="C809" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D809" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E809" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F809" s="2"/>
+      <c r="G809" s="45"/>
+    </row>
+    <row r="810" ht="14.25">
+      <c r="B810" s="43">
+        <v>13</v>
+      </c>
+      <c r="C810" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D810" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="E810" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F810" s="2"/>
+      <c r="G810" s="51" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="811" ht="14.25">
+      <c r="B811" s="43">
+        <v>14</v>
+      </c>
+      <c r="C811" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D811" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="E811" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F811" s="2"/>
+      <c r="G811" s="49"/>
+    </row>
+    <row r="812" ht="14.25">
+      <c r="B812" s="43">
+        <v>15</v>
+      </c>
+      <c r="C812" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="D812" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="E812" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F812" s="2"/>
+      <c r="G812" s="50"/>
+    </row>
+    <row r="813" ht="14.25">
+      <c r="B813" s="43">
+        <v>16</v>
+      </c>
+      <c r="C813" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D813" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="E813" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F813" s="2"/>
+      <c r="G813" s="51" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="814" ht="14.25">
+      <c r="B814" s="43">
+        <v>17</v>
+      </c>
+      <c r="C814" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D814" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="E814" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F814" s="2"/>
+      <c r="G814" s="49"/>
+    </row>
+    <row r="815" ht="14.25">
+      <c r="B815" s="43">
+        <v>18</v>
+      </c>
+      <c r="C815" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D815" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="E815" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F815" s="2"/>
+      <c r="G815" s="50"/>
+    </row>
+    <row r="816" ht="14.25">
+      <c r="B816" s="43">
+        <v>19</v>
+      </c>
+      <c r="C816" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="D816" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="E816" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F816" s="2"/>
+      <c r="G816" s="51" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="817" ht="14.25">
+      <c r="B817" s="43">
+        <v>20</v>
+      </c>
+      <c r="C817" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D817" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="E817" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F817" s="2"/>
+      <c r="G817" s="49"/>
+    </row>
+    <row r="818" ht="14.25">
+      <c r="B818" s="43">
+        <v>21</v>
+      </c>
+      <c r="C818" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="D818" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="E818" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F818" s="2"/>
+      <c r="G818" s="50"/>
+    </row>
+    <row r="819" ht="14.25">
+      <c r="B819" s="43">
+        <v>22</v>
+      </c>
+      <c r="C819" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="D744" s="2" t="s">
+      <c r="D819" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="E744" s="2" t="s">
+      <c r="E819" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="F744" s="2"/>
-      <c r="G744" s="56"/>
-    </row>
-    <row r="745" ht="14.25">
-      <c r="B745" s="43">
+      <c r="F819" s="2"/>
+      <c r="G819" s="56"/>
+    </row>
+    <row r="820" ht="14.25">
+      <c r="B820" s="43">
         <v>25</v>
       </c>
-      <c r="C745" s="65" t="s">
+      <c r="C820" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="D745" s="65" t="s">
+      <c r="D820" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E745" s="65" t="s">
+      <c r="E820" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="F745" s="65"/>
-      <c r="G745" s="72"/>
-    </row>
-    <row r="746" ht="14.25">
-      <c r="B746" s="43">
+      <c r="F820" s="65"/>
+      <c r="G820" s="72"/>
+    </row>
+    <row r="821" ht="14.25">
+      <c r="B821" s="43">
         <v>26</v>
       </c>
-      <c r="C746" s="65" t="s">
+      <c r="C821" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="D746" s="65" t="s">
+      <c r="D821" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="E746" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="F746" s="65"/>
-      <c r="G746" s="73"/>
-    </row>
-    <row r="747" ht="14.25">
-      <c r="B747" s="43">
+      <c r="E821" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="F821" s="65"/>
+      <c r="G821" s="73"/>
+    </row>
+    <row r="822" ht="14.25">
+      <c r="B822" s="43">
         <v>27</v>
       </c>
-      <c r="C747" s="65" t="s">
+      <c r="C822" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="D747" s="65" t="s">
+      <c r="D822" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="E747" s="65" t="s">
+      <c r="E822" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="F747" s="65"/>
-      <c r="G747" s="73"/>
-    </row>
-    <row r="748" ht="14.25">
-      <c r="B748" s="43">
+      <c r="F822" s="65"/>
+      <c r="G822" s="73"/>
+    </row>
+    <row r="823" ht="14.25">
+      <c r="B823" s="43">
         <v>28</v>
       </c>
-      <c r="C748" s="65" t="s">
+      <c r="C823" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="D748" s="65" t="s">
+      <c r="D823" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="E748" s="65" t="s">
+      <c r="E823" s="65" t="s">
         <v>304</v>
       </c>
-      <c r="F748" s="65"/>
-      <c r="G748" s="73"/>
-    </row>
-    <row r="749" ht="14.25">
-      <c r="B749" s="43">
+      <c r="F823" s="65"/>
+      <c r="G823" s="73"/>
+    </row>
+    <row r="824" ht="14.25">
+      <c r="B824" s="43">
         <v>29</v>
       </c>
-      <c r="C749" s="65" t="s">
+      <c r="C824" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="D749" s="65" t="s">
+      <c r="D824" s="65" t="s">
         <v>306</v>
       </c>
-      <c r="E749" s="65" t="s">
+      <c r="E824" s="65" t="s">
         <v>304</v>
       </c>
-      <c r="F749" s="65"/>
-      <c r="G749" s="73"/>
-    </row>
-    <row r="750" ht="14.25">
-      <c r="B750" s="43">
+      <c r="F824" s="65"/>
+      <c r="G824" s="73"/>
+    </row>
+    <row r="825" ht="14.25">
+      <c r="B825" s="43">
         <v>30</v>
       </c>
-      <c r="C750" s="65" t="s">
+      <c r="C825" s="65" t="s">
         <v>307</v>
       </c>
-      <c r="D750" s="65" t="s">
+      <c r="D825" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="E750" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="F750" s="65"/>
-      <c r="G750" s="73"/>
-    </row>
-    <row r="751" ht="14.25">
-      <c r="B751" s="74">
+      <c r="E825" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="F825" s="65"/>
+      <c r="G825" s="73"/>
+    </row>
+    <row r="826" ht="14.25">
+      <c r="B826" s="74">
         <v>29</v>
       </c>
-      <c r="C751" s="65" t="s">
+      <c r="C826" s="65" t="s">
         <v>309</v>
       </c>
-      <c r="D751" s="65" t="s">
+      <c r="D826" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="E751" s="65" t="s">
+      <c r="E826" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="F751" s="65"/>
-      <c r="G751" s="73"/>
-    </row>
-    <row r="752" ht="14.25">
-      <c r="B752" s="43">
+      <c r="F826" s="65"/>
+      <c r="G826" s="73"/>
+    </row>
+    <row r="827" ht="14.25">
+      <c r="B827" s="43">
         <v>30</v>
       </c>
-      <c r="C752" s="75" t="s">
+      <c r="C827" s="75" t="s">
         <v>312</v>
       </c>
-      <c r="D752" s="75" t="s">
+      <c r="D827" s="75" t="s">
         <v>313</v>
       </c>
-      <c r="E752" s="75" t="s">
-        <v>273</v>
-      </c>
-      <c r="F752" s="75"/>
-      <c r="G752" s="44"/>
-    </row>
-    <row r="753" ht="14.25">
-      <c r="B753" s="53">
+      <c r="E827" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="F827" s="75"/>
+      <c r="G827" s="44"/>
+    </row>
+    <row r="828" ht="14.25">
+      <c r="B828" s="53">
         <v>31</v>
       </c>
-      <c r="C753" s="54" t="s">
+      <c r="C828" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="D753" s="54" t="s">
+      <c r="D828" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="E753" s="54" t="s">
+      <c r="E828" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="F753" s="54"/>
-      <c r="G753" s="55"/>
+      <c r="F828" s="54"/>
+      <c r="G828" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="103">
+  <mergeCells count="110">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C23:G23"/>
@@ -32986,20 +34377,27 @@
     <mergeCell ref="G617:G619"/>
     <mergeCell ref="G620:G622"/>
     <mergeCell ref="G623:G625"/>
-    <mergeCell ref="C640:G640"/>
-    <mergeCell ref="C662:G662"/>
-    <mergeCell ref="C663:G663"/>
-    <mergeCell ref="C683:G683"/>
-    <mergeCell ref="C684:G684"/>
-    <mergeCell ref="G691:G692"/>
-    <mergeCell ref="G694:G698"/>
-    <mergeCell ref="G699:G702"/>
-    <mergeCell ref="G703:G705"/>
-    <mergeCell ref="C720:G720"/>
-    <mergeCell ref="C721:G721"/>
-    <mergeCell ref="G735:G737"/>
-    <mergeCell ref="G738:G740"/>
-    <mergeCell ref="G741:G743"/>
+    <mergeCell ref="C638:G638"/>
+    <mergeCell ref="C639:G639"/>
+    <mergeCell ref="C666:G666"/>
+    <mergeCell ref="C667:G667"/>
+    <mergeCell ref="G681:G683"/>
+    <mergeCell ref="G684:G686"/>
+    <mergeCell ref="G687:G689"/>
+    <mergeCell ref="C715:G715"/>
+    <mergeCell ref="C737:G737"/>
+    <mergeCell ref="C738:G738"/>
+    <mergeCell ref="C758:G758"/>
+    <mergeCell ref="C759:G759"/>
+    <mergeCell ref="G766:G767"/>
+    <mergeCell ref="G769:G773"/>
+    <mergeCell ref="G774:G777"/>
+    <mergeCell ref="G778:G780"/>
+    <mergeCell ref="C795:G795"/>
+    <mergeCell ref="C796:G796"/>
+    <mergeCell ref="G810:G812"/>
+    <mergeCell ref="G813:G815"/>
+    <mergeCell ref="G816:G818"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -33042,7 +34440,7 @@
         <v>251</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1038</v>
+        <v>1099</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -33086,7 +34484,7 @@
         <v>260</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>1039</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="7" ht="16.5">
@@ -33130,10 +34528,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1040</v>
+        <v>1101</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1041</v>
+        <v>1102</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>267</v>
@@ -33146,7 +34544,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1042</v>
+        <v>1103</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>269</v>
@@ -33162,10 +34560,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1043</v>
+        <v>1104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1044</v>
+        <v>1105</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>259</v>
@@ -33180,10 +34578,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1045</v>
+        <v>1106</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1046</v>
+        <v>1107</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>273</v>
@@ -33196,10 +34594,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1047</v>
+        <v>1108</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1048</v>
+        <v>1109</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>267</v>
@@ -33212,7 +34610,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1049</v>
+        <v>1110</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>446</v>
@@ -33228,7 +34626,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1050</v>
+        <v>1111</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>447</v>
@@ -33244,7 +34642,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1051</v>
+        <v>1112</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>448</v>
@@ -33263,16 +34661,16 @@
         <v>516</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1052</v>
+        <v>1113</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>273</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1053</v>
+        <v>1114</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>1054</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="18" ht="16.5">
@@ -33437,7 +34835,7 @@
         <v>251</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1055</v>
+        <v>1116</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -33469,10 +34867,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1056</v>
+        <v>1117</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1044</v>
+        <v>1105</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>259</v>
@@ -33487,10 +34885,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1057</v>
+        <v>1118</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1046</v>
+        <v>1107</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>263</v>
@@ -33505,10 +34903,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1058</v>
+        <v>1119</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1048</v>
+        <v>1109</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>267</v>
@@ -33724,7 +35122,7 @@
         <v>250</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1059</v>
+        <v>1120</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -33768,10 +35166,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1060</v>
+        <v>1121</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>1061</v>
+        <v>1122</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>259</v>
@@ -33786,10 +35184,10 @@
         <v>2</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1062</v>
+        <v>1123</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1063</v>
+        <v>1124</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>263</v>
@@ -33804,10 +35202,10 @@
         <v>3</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1064</v>
+        <v>1125</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1065</v>
+        <v>1126</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>267</v>
@@ -33822,10 +35220,10 @@
         <v>4</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1066</v>
+        <v>1127</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1067</v>
+        <v>1128</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>273</v>
@@ -33834,7 +35232,7 @@
         <v>264</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>1068</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="58" ht="16.5">
@@ -33842,17 +35240,17 @@
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1069</v>
+        <v>1130</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1070</v>
+        <v>1131</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>270</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="14" t="s">
-        <v>1071</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="59" ht="16.5">
@@ -33860,17 +35258,17 @@
         <v>6</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1072</v>
+        <v>1133</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>1073</v>
+        <v>1134</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>267</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="14" t="s">
-        <v>1073</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="60" ht="16.5">
@@ -34041,7 +35439,7 @@
         <v>250</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>1074</v>
+        <v>1135</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -34053,7 +35451,7 @@
         <v>251</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1075</v>
+        <v>1136</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
@@ -34085,10 +35483,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1076</v>
+        <v>1137</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1077</v>
+        <v>1138</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>259</v>
@@ -34103,10 +35501,10 @@
         <v>2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1078</v>
+        <v>1139</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>1079</v>
+        <v>1140</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>263</v>
@@ -34121,10 +35519,10 @@
         <v>3</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1080</v>
+        <v>1141</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>1081</v>
+        <v>1142</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>267</v>
@@ -34189,10 +35587,10 @@
         <v>7</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1040</v>
+        <v>1101</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>1041</v>
+        <v>1102</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>267</v>
@@ -34205,7 +35603,7 @@
         <v>8</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1042</v>
+        <v>1103</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>269</v>
@@ -34221,10 +35619,10 @@
         <v>9</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1043</v>
+        <v>1104</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1044</v>
+        <v>1105</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>259</v>
@@ -34237,10 +35635,10 @@
         <v>10</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1082</v>
+        <v>1143</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1083</v>
+        <v>1144</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>311</v>
@@ -34253,10 +35651,10 @@
         <v>11</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1084</v>
+        <v>1145</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1085</v>
+        <v>1146</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>311</v>
@@ -34269,10 +35667,10 @@
         <v>12</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1086</v>
+        <v>1147</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>1087</v>
+        <v>1148</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>311</v>
@@ -34285,17 +35683,17 @@
         <v>13</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1088</v>
+        <v>1149</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1089</v>
+        <v>1150</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>273</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="14" t="s">
-        <v>1090</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="88" ht="15">
@@ -34303,10 +35701,10 @@
         <v>14</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1091</v>
+        <v>1152</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1092</v>
+        <v>1153</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>273</v>
@@ -34319,10 +35717,10 @@
         <v>15</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1093</v>
+        <v>1154</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>1094</v>
+        <v>1155</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>273</v>
@@ -34345,7 +35743,7 @@
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="14" t="s">
-        <v>1095</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="91" ht="15">
@@ -34498,7 +35896,7 @@
         <v>250</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>1096</v>
+        <v>1157</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -34510,7 +35908,7 @@
         <v>251</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>1097</v>
+        <v>1158</v>
       </c>
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
@@ -34560,10 +35958,10 @@
         <v>2</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1076</v>
+        <v>1137</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1077</v>
+        <v>1138</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>259</v>
@@ -34576,17 +35974,17 @@
         <v>3</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1060</v>
+        <v>1121</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1061</v>
+        <v>1122</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="14" t="s">
-        <v>1098</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="108" ht="15">
@@ -34594,10 +35992,10 @@
         <v>4</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1062</v>
+        <v>1123</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1063</v>
+        <v>1124</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>263</v>
@@ -34612,10 +36010,10 @@
         <v>5</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1064</v>
+        <v>1125</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1065</v>
+        <v>1126</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>267</v>
@@ -34630,17 +36028,17 @@
         <v>6</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1066</v>
+        <v>1127</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1067</v>
+        <v>1128</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>273</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="14" t="s">
-        <v>1099</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="111" ht="15">
@@ -34648,10 +36046,10 @@
         <v>7</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1069</v>
+        <v>1130</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1070</v>
+        <v>1131</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>270</v>
@@ -34664,10 +36062,10 @@
         <v>8</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1072</v>
+        <v>1133</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1073</v>
+        <v>1134</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>267</v>
@@ -34680,10 +36078,10 @@
         <v>9</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1100</v>
+        <v>1161</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1101</v>
+        <v>1162</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>270</v>
@@ -34696,17 +36094,17 @@
         <v>10</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1102</v>
+        <v>1163</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1103</v>
+        <v>1164</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>267</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="14" t="s">
-        <v>1104</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="115" ht="15">
@@ -34714,10 +36112,10 @@
         <v>11</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>1105</v>
+        <v>1166</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1106</v>
+        <v>1167</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>270</v>
@@ -34924,7 +36322,7 @@
         <v>251</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1107</v>
+        <v>1168</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -34956,10 +36354,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1108</v>
+        <v>1169</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1109</v>
+        <v>1170</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>259</v>
@@ -34974,10 +36372,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1110</v>
+        <v>1171</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1111</v>
+        <v>1172</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>263</v>
@@ -34992,10 +36390,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1112</v>
+        <v>1173</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1113</v>
+        <v>1174</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>270</v>
@@ -35010,10 +36408,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1114</v>
+        <v>1175</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1115</v>
+        <v>1176</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>273</v>
@@ -35022,7 +36420,7 @@
         <v>264</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>1116</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="11" ht="16.5">
@@ -35030,10 +36428,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1117</v>
+        <v>1178</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1118</v>
+        <v>1179</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>273</v>
@@ -35042,7 +36440,7 @@
         <v>264</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>1119</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="12" ht="16.5">
@@ -35207,7 +36605,7 @@
         <v>251</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1120</v>
+        <v>1181</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -35239,10 +36637,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1121</v>
+        <v>1182</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1109</v>
+        <v>1170</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>259</v>
@@ -35257,10 +36655,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1122</v>
+        <v>1183</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1111</v>
+        <v>1172</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>263</v>
@@ -35275,10 +36673,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1123</v>
+        <v>1184</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1124</v>
+        <v>1185</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>267</v>
@@ -35293,10 +36691,10 @@
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1114</v>
+        <v>1175</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1115</v>
+        <v>1176</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>273</v>
@@ -35305,7 +36703,7 @@
         <v>264</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>1116</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="32" ht="16.5">
@@ -35313,10 +36711,10 @@
         <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1125</v>
+        <v>1186</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1126</v>
+        <v>1187</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -35484,7 +36882,7 @@
         <v>251</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>1127</v>
+        <v>1188</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -35516,10 +36914,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1128</v>
+        <v>1189</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1129</v>
+        <v>1190</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>259</v>
@@ -35534,10 +36932,10 @@
         <v>2</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1130</v>
+        <v>1191</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1131</v>
+        <v>1192</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>263</v>
@@ -35552,10 +36950,10 @@
         <v>3</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1132</v>
+        <v>1193</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1133</v>
+        <v>1194</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>267</v>
@@ -35570,10 +36968,10 @@
         <v>4</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1134</v>
+        <v>1195</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1135</v>
+        <v>1196</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>267</v>
@@ -35582,7 +36980,7 @@
         <v>264</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>1136</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="52" ht="16.5">
@@ -35765,7 +37163,7 @@
         <v>251</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>1137</v>
+        <v>1198</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
@@ -35800,7 +37198,7 @@
         <v>457</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1129</v>
+        <v>1190</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>259</v>
@@ -35815,10 +37213,10 @@
         <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>1128</v>
+        <v>1189</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1129</v>
+        <v>1190</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>259</v>
@@ -35833,10 +37231,10 @@
         <v>3</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1121</v>
+        <v>1182</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1109</v>
+        <v>1170</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>259</v>
@@ -35851,10 +37249,10 @@
         <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1122</v>
+        <v>1183</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1111</v>
+        <v>1172</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>263</v>
@@ -35867,10 +37265,10 @@
         <v>5</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1123</v>
+        <v>1184</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1124</v>
+        <v>1185</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>267</v>
@@ -35883,10 +37281,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>1114</v>
+        <v>1175</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1115</v>
+        <v>1176</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>273</v>
@@ -35897,10 +37295,10 @@
     <row r="73" ht="15">
       <c r="B73" s="13"/>
       <c r="C73" s="2" t="s">
-        <v>1125</v>
+        <v>1186</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1126</v>
+        <v>1187</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -35911,10 +37309,10 @@
         <v>7</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1138</v>
+        <v>1199</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1139</v>
+        <v>1200</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>270</v>
@@ -35927,10 +37325,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1140</v>
+        <v>1201</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1141</v>
+        <v>1202</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>294</v>
@@ -35959,10 +37357,10 @@
         <v>10</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1142</v>
+        <v>1203</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>1143</v>
+        <v>1204</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>294</v>
@@ -35975,10 +37373,10 @@
         <v>11</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1144</v>
+        <v>1205</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1145</v>
+        <v>1206</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>294</v>
@@ -35994,14 +37392,14 @@
         <v>613</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1146</v>
+        <v>1207</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>267</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="28" t="s">
-        <v>1147</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="80" ht="15">
@@ -36166,7 +37564,7 @@
         <v>251</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>1148</v>
+        <v>1209</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
@@ -36201,7 +37599,7 @@
         <v>457</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>1129</v>
+        <v>1190</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>259</v>
@@ -36216,10 +37614,10 @@
         <v>2</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1128</v>
+        <v>1189</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>1129</v>
+        <v>1190</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>259</v>
@@ -36322,10 +37720,10 @@
         <v>8</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1149</v>
+        <v>1210</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>1150</v>
+        <v>1211</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>304</v>
@@ -36343,7 +37741,7 @@
         <v>708</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>1151</v>
+        <v>1212</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>304</v>
@@ -36358,10 +37756,10 @@
         <v>10</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1152</v>
+        <v>1213</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>1153</v>
+        <v>1214</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>434</v>
@@ -36370,7 +37768,7 @@
         <v>644</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>1154</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="104" ht="15">
@@ -36378,10 +37776,10 @@
         <v>11</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1155</v>
+        <v>1216</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1156</v>
+        <v>1217</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>434</v>
@@ -36390,7 +37788,7 @@
         <v>644</v>
       </c>
       <c r="G104" s="28" t="s">
-        <v>1157</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="105" ht="15">
@@ -36398,19 +37796,19 @@
         <v>12</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1158</v>
+        <v>1219</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>1159</v>
+        <v>1220</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>434</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>1160</v>
+        <v>1221</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>1161</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="106" ht="15">
@@ -36643,10 +38041,10 @@
         <v>3</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1162</v>
+        <v>1223</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1163</v>
+        <v>1224</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>267</v>
@@ -36661,10 +38059,10 @@
         <v>4</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1128</v>
+        <v>1189</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1129</v>
+        <v>1190</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>259</v>
@@ -36673,7 +38071,7 @@
         <v>264</v>
       </c>
       <c r="G123" s="24" t="s">
-        <v>1164</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="124" ht="15">
@@ -36747,17 +38145,17 @@
         <v>9</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1165</v>
+        <v>1226</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1166</v>
+        <v>1227</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>267</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="24" t="s">
-        <v>1167</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="129" ht="16.5">
@@ -36777,7 +38175,7 @@
         <v>264</v>
       </c>
       <c r="G129" s="31" t="s">
-        <v>1168</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="130" ht="16.5">
@@ -36855,10 +38253,10 @@
         <v>15</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1169</v>
+        <v>1230</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1150</v>
+        <v>1211</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>304</v>
@@ -36873,10 +38271,10 @@
         <v>16</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1170</v>
+        <v>1231</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1151</v>
+        <v>1212</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>304</v>
@@ -36894,7 +38292,7 @@
         <v>873</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1171</v>
+        <v>1232</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>294</v>
@@ -36907,10 +38305,10 @@
         <v>18</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1149</v>
+        <v>1210</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1172</v>
+        <v>1233</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>304</v>
@@ -36919,7 +38317,7 @@
         <v>468</v>
       </c>
       <c r="G137" s="28" t="s">
-        <v>1173</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="138" ht="16.5">
@@ -36930,7 +38328,7 @@
         <v>708</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1174</v>
+        <v>1235</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>304</v>
@@ -36945,10 +38343,10 @@
         <v>20</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>1152</v>
+        <v>1213</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1153</v>
+        <v>1214</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>294</v>
@@ -36963,10 +38361,10 @@
         <v>21</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1155</v>
+        <v>1216</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1156</v>
+        <v>1217</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>294</v>
@@ -36981,10 +38379,10 @@
         <v>22</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1158</v>
+        <v>1219</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1159</v>
+        <v>1220</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>294</v>
@@ -36999,10 +38397,10 @@
         <v>23</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1175</v>
+        <v>1236</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1176</v>
+        <v>1237</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>294</v>
@@ -37017,10 +38415,10 @@
         <v>24</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1177</v>
+        <v>1238</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1178</v>
+        <v>1239</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>294</v>
@@ -37035,10 +38433,10 @@
         <v>25</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1179</v>
+        <v>1240</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1180</v>
+        <v>1241</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>294</v>
@@ -37053,17 +38451,17 @@
         <v>26</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1181</v>
+        <v>1242</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1182</v>
+        <v>1243</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>263</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="14" t="s">
-        <v>1183</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="146" ht="16.5">
@@ -37071,10 +38469,10 @@
         <v>27</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>1184</v>
+        <v>1245</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1185</v>
+        <v>1246</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>311</v>
@@ -37087,10 +38485,10 @@
         <v>28</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>1186</v>
+        <v>1247</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1187</v>
+        <v>1248</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>311</v>
@@ -37103,10 +38501,10 @@
         <v>29</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1188</v>
+        <v>1249</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1189</v>
+        <v>1250</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>263</v>
@@ -37128,7 +38526,7 @@
         <v>263</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1190</v>
+        <v>1251</v>
       </c>
       <c r="G149" s="28"/>
     </row>
@@ -37294,7 +38692,7 @@
         <v>251</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>1191</v>
+        <v>1252</v>
       </c>
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
@@ -37347,7 +38745,7 @@
         <v>860</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>1192</v>
+        <v>1253</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>259</v>
@@ -37362,10 +38760,10 @@
         <v>3</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1121</v>
+        <v>1182</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>1109</v>
+        <v>1170</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>259</v>
@@ -37380,10 +38778,10 @@
         <v>4</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1122</v>
+        <v>1183</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>1111</v>
+        <v>1172</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>263</v>
@@ -37396,10 +38794,10 @@
         <v>5</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>1123</v>
+        <v>1184</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>1124</v>
+        <v>1185</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>267</v>
@@ -37412,10 +38810,10 @@
         <v>6</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1114</v>
+        <v>1175</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1115</v>
+        <v>1176</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>273</v>
@@ -37428,10 +38826,10 @@
         <v>7</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1125</v>
+        <v>1186</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>1126</v>
+        <v>1187</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -37442,10 +38840,10 @@
         <v>8</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>1138</v>
+        <v>1199</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1139</v>
+        <v>1200</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>270</v>
@@ -37458,10 +38856,10 @@
         <v>9</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>1140</v>
+        <v>1201</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>1141</v>
+        <v>1202</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>294</v>
@@ -37490,10 +38888,10 @@
         <v>11</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>1142</v>
+        <v>1203</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>1143</v>
+        <v>1204</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>294</v>
@@ -37506,10 +38904,10 @@
         <v>12</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>1144</v>
+        <v>1205</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>1145</v>
+        <v>1206</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>294</v>
@@ -37522,10 +38920,10 @@
         <v>13</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>1175</v>
+        <v>1236</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>1176</v>
+        <v>1237</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>304</v>
@@ -37540,10 +38938,10 @@
         <v>14</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>1177</v>
+        <v>1238</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1178</v>
+        <v>1239</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>304</v>
@@ -37558,10 +38956,10 @@
         <v>15</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1179</v>
+        <v>1240</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>1180</v>
+        <v>1241</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>304</v>
@@ -37733,7 +39131,7 @@
         <v>251</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>1193</v>
+        <v>1254</v>
       </c>
       <c r="D192" s="10"/>
       <c r="E192" s="10"/>
@@ -37786,7 +39184,7 @@
         <v>860</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>1194</v>
+        <v>1255</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>259</v>
@@ -37804,7 +39202,7 @@
         <v>519</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>1195</v>
+        <v>1256</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>259</v>
@@ -37819,10 +39217,10 @@
         <v>4</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1112</v>
+        <v>1173</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>1113</v>
+        <v>1174</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>270</v>
@@ -37831,7 +39229,7 @@
         <v>264</v>
       </c>
       <c r="G197" s="14" t="s">
-        <v>1196</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="198" ht="16.5">
@@ -37839,10 +39237,10 @@
         <v>5</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1117</v>
+        <v>1178</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>1118</v>
+        <v>1179</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>273</v>
@@ -37851,7 +39249,7 @@
         <v>264</v>
       </c>
       <c r="G198" s="14" t="s">
-        <v>1119</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="199" ht="16.5">
@@ -37859,10 +39257,10 @@
         <v>6</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>1197</v>
+        <v>1258</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>1198</v>
+        <v>1259</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>304</v>
@@ -38066,10 +39464,10 @@
         <v>1</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>1199</v>
+        <v>1260</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>1194</v>
+        <v>1255</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>259</v>
@@ -38084,10 +39482,10 @@
         <v>2</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>1200</v>
+        <v>1261</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1201</v>
+        <v>1262</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>263</v>
@@ -38100,17 +39498,17 @@
         <v>3</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>1202</v>
+        <v>1263</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>1203</v>
+        <v>1264</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>267</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" s="14" t="s">
-        <v>1204</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="219" ht="33">
@@ -38118,17 +39516,17 @@
         <v>4</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>1205</v>
+        <v>1266</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>1206</v>
+        <v>1267</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>263</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="28" t="s">
-        <v>1207</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="220" ht="16.5">
@@ -38136,10 +39534,10 @@
         <v>5</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1128</v>
+        <v>1189</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>1129</v>
+        <v>1190</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>259</v>
@@ -38148,7 +39546,7 @@
         <v>264</v>
       </c>
       <c r="G220" s="24" t="s">
-        <v>1164</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="221" ht="16.5">
@@ -38166,7 +39564,7 @@
       </c>
       <c r="F221" s="2"/>
       <c r="G221" s="31" t="s">
-        <v>1208</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="222" ht="16.5">
@@ -38216,7 +39614,7 @@
       </c>
       <c r="F224" s="2"/>
       <c r="G224" s="31" t="s">
-        <v>1209</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="225" ht="16.5">
@@ -38266,7 +39664,7 @@
       </c>
       <c r="F227" s="2"/>
       <c r="G227" s="31" t="s">
-        <v>1210</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="228" ht="16.5">
@@ -38316,7 +39714,7 @@
       </c>
       <c r="F230" s="2"/>
       <c r="G230" s="31" t="s">
-        <v>1211</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="231" ht="16.5">
@@ -38366,7 +39764,7 @@
       </c>
       <c r="F233" s="2"/>
       <c r="G233" s="31" t="s">
-        <v>1212</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="234" ht="16.5">
@@ -38438,17 +39836,17 @@
         <v>23</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1149</v>
+        <v>1210</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>1213</v>
+        <v>1274</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>294</v>
       </c>
       <c r="F238" s="2"/>
       <c r="G238" s="31" t="s">
-        <v>1214</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="239" ht="16.5">
@@ -38472,10 +39870,10 @@
         <v>25</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>1215</v>
+        <v>1276</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>1216</v>
+        <v>1277</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>294</v>
@@ -38488,10 +39886,10 @@
         <v>26</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>1155</v>
+        <v>1216</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>1156</v>
+        <v>1217</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>294</v>
@@ -38504,10 +39902,10 @@
         <v>27</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1158</v>
+        <v>1219</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>1159</v>
+        <v>1220</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>294</v>
@@ -38520,10 +39918,10 @@
         <v>28</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>1175</v>
+        <v>1236</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>1176</v>
+        <v>1237</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>294</v>
@@ -38536,10 +39934,10 @@
         <v>29</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1177</v>
+        <v>1238</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>1178</v>
+        <v>1239</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>294</v>
@@ -38552,10 +39950,10 @@
         <v>30</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1179</v>
+        <v>1240</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>1180</v>
+        <v>1241</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>294</v>
@@ -38568,10 +39966,10 @@
         <v>31</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>1181</v>
+        <v>1242</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>1182</v>
+        <v>1243</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>263</v>
@@ -38584,10 +39982,10 @@
         <v>32</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>1186</v>
+        <v>1247</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>1187</v>
+        <v>1248</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>311</v>
@@ -38600,10 +39998,10 @@
         <v>33</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>1188</v>
+        <v>1249</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>1189</v>
+        <v>1250</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>263</v>
@@ -38625,7 +40023,7 @@
         <v>263</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>1190</v>
+        <v>1251</v>
       </c>
       <c r="G249" s="24"/>
     </row>
@@ -38779,7 +40177,7 @@
         <v>250</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>1217</v>
+        <v>1278</v>
       </c>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
@@ -38791,7 +40189,7 @@
         <v>251</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>1218</v>
+        <v>1279</v>
       </c>
       <c r="D262" s="10"/>
       <c r="E262" s="10"/>
@@ -38841,10 +40239,10 @@
         <v>2</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>1199</v>
+        <v>1260</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>1219</v>
+        <v>1280</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>259</v>
@@ -38859,10 +40257,10 @@
         <v>3</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>1121</v>
+        <v>1182</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>1109</v>
+        <v>1170</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>259</v>
@@ -38877,10 +40275,10 @@
         <v>4</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>1122</v>
+        <v>1183</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>1111</v>
+        <v>1172</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>263</v>
@@ -38893,10 +40291,10 @@
         <v>5</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>1123</v>
+        <v>1184</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>1124</v>
+        <v>1185</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>267</v>
@@ -38909,10 +40307,10 @@
         <v>6</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>1114</v>
+        <v>1175</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>1115</v>
+        <v>1176</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>273</v>
@@ -38925,10 +40323,10 @@
         <v>7</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>1125</v>
+        <v>1186</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>1126</v>
+        <v>1187</v>
       </c>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
@@ -38939,10 +40337,10 @@
         <v>8</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>1138</v>
+        <v>1199</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>1139</v>
+        <v>1200</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>270</v>
@@ -38955,10 +40353,10 @@
         <v>9</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1140</v>
+        <v>1201</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>1141</v>
+        <v>1202</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>294</v>
@@ -38987,10 +40385,10 @@
         <v>11</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>1142</v>
+        <v>1203</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>1143</v>
+        <v>1204</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>294</v>
@@ -39003,10 +40401,10 @@
         <v>12</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1144</v>
+        <v>1205</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>1145</v>
+        <v>1206</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>294</v>
@@ -39019,10 +40417,10 @@
         <v>13</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1175</v>
+        <v>1236</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>1176</v>
+        <v>1237</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>294</v>
@@ -39037,10 +40435,10 @@
         <v>14</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>1177</v>
+        <v>1238</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>1178</v>
+        <v>1239</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>294</v>
@@ -39055,10 +40453,10 @@
         <v>15</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>1179</v>
+        <v>1240</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>1180</v>
+        <v>1241</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>294</v>
@@ -39218,7 +40616,7 @@
         <v>250</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>1220</v>
+        <v>1281</v>
       </c>
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
@@ -39230,7 +40628,7 @@
         <v>251</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>1221</v>
+        <v>1282</v>
       </c>
       <c r="D292" s="10"/>
       <c r="E292" s="10"/>
@@ -39298,10 +40696,10 @@
         <v>3</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>1222</v>
+        <v>1283</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>1163</v>
+        <v>1224</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>267</v>
@@ -39316,10 +40714,10 @@
         <v>4</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>1128</v>
+        <v>1189</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>1129</v>
+        <v>1190</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>259</v>
@@ -39328,7 +40726,7 @@
         <v>264</v>
       </c>
       <c r="G297" s="24" t="s">
-        <v>1164</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="298" ht="16.5">
@@ -39396,7 +40794,7 @@
       </c>
       <c r="F301" s="2"/>
       <c r="G301" s="24" t="s">
-        <v>1223</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="302" ht="16.5">
@@ -39416,7 +40814,7 @@
         <v>264</v>
       </c>
       <c r="G302" s="31" t="s">
-        <v>1168</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="303" ht="16.5">
@@ -39494,10 +40892,10 @@
         <v>15</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>1169</v>
+        <v>1230</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>1150</v>
+        <v>1211</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>294</v>
@@ -39512,10 +40910,10 @@
         <v>16</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>1170</v>
+        <v>1231</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>1151</v>
+        <v>1212</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>294</v>
@@ -39530,10 +40928,10 @@
         <v>17</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>1224</v>
+        <v>1285</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>1225</v>
+        <v>1286</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>294</v>
@@ -39546,10 +40944,10 @@
         <v>18</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>1149</v>
+        <v>1210</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>1172</v>
+        <v>1233</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>294</v>
@@ -39558,7 +40956,7 @@
         <v>468</v>
       </c>
       <c r="G310" s="28" t="s">
-        <v>1173</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="311" ht="16.5">
@@ -39569,7 +40967,7 @@
         <v>708</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>1174</v>
+        <v>1235</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>294</v>
@@ -39584,10 +40982,10 @@
         <v>20</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>1152</v>
+        <v>1213</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>1153</v>
+        <v>1214</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>294</v>
@@ -39602,10 +41000,10 @@
         <v>21</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>1155</v>
+        <v>1216</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>1156</v>
+        <v>1217</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>294</v>
@@ -39620,10 +41018,10 @@
         <v>22</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>1158</v>
+        <v>1219</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>1159</v>
+        <v>1220</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>294</v>
@@ -39638,10 +41036,10 @@
         <v>23</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>1175</v>
+        <v>1236</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>1176</v>
+        <v>1237</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>294</v>
@@ -39656,10 +41054,10 @@
         <v>24</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>1177</v>
+        <v>1238</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>1178</v>
+        <v>1239</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>294</v>
@@ -39674,10 +41072,10 @@
         <v>25</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>1179</v>
+        <v>1240</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>1180</v>
+        <v>1241</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>294</v>
@@ -39692,17 +41090,17 @@
         <v>26</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>1181</v>
+        <v>1242</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>1182</v>
+        <v>1243</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>263</v>
       </c>
       <c r="F318" s="2"/>
       <c r="G318" s="14" t="s">
-        <v>1183</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="319" ht="16.5">
@@ -39710,10 +41108,10 @@
         <v>27</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>1226</v>
+        <v>1287</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>1227</v>
+        <v>1288</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>311</v>
@@ -39726,10 +41124,10 @@
         <v>28</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>1186</v>
+        <v>1247</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>1187</v>
+        <v>1248</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>311</v>
@@ -39742,10 +41140,10 @@
         <v>29</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>1188</v>
+        <v>1249</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>1189</v>
+        <v>1250</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>263</v>
@@ -39767,7 +41165,7 @@
         <v>263</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>1190</v>
+        <v>1251</v>
       </c>
       <c r="G322" s="28"/>
     </row>
@@ -39921,7 +41319,7 @@
         <v>250</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>1228</v>
+        <v>1289</v>
       </c>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
@@ -39933,7 +41331,7 @@
         <v>251</v>
       </c>
       <c r="C336" s="9" t="s">
-        <v>1229</v>
+        <v>1290</v>
       </c>
       <c r="D336" s="10"/>
       <c r="E336" s="10"/>
@@ -39986,7 +41384,7 @@
         <v>943</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>1230</v>
+        <v>1291</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>259</v>
@@ -40001,10 +41399,10 @@
         <v>3</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>1121</v>
+        <v>1182</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>1109</v>
+        <v>1170</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>259</v>
@@ -40019,10 +41417,10 @@
         <v>4</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>1122</v>
+        <v>1183</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>1111</v>
+        <v>1172</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>263</v>
@@ -40035,10 +41433,10 @@
         <v>5</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>1123</v>
+        <v>1184</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>1124</v>
+        <v>1185</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>267</v>
@@ -40051,10 +41449,10 @@
         <v>6</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>1114</v>
+        <v>1175</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>1115</v>
+        <v>1176</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>273</v>
@@ -40067,10 +41465,10 @@
         <v>7</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>1125</v>
+        <v>1186</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>1126</v>
+        <v>1187</v>
       </c>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
@@ -40081,10 +41479,10 @@
         <v>8</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>1138</v>
+        <v>1199</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>1139</v>
+        <v>1200</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>270</v>
@@ -40097,10 +41495,10 @@
         <v>9</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>1140</v>
+        <v>1201</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>1141</v>
+        <v>1202</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>294</v>
@@ -40129,10 +41527,10 @@
         <v>11</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>1142</v>
+        <v>1203</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>1143</v>
+        <v>1204</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>294</v>
@@ -40145,10 +41543,10 @@
         <v>12</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>1144</v>
+        <v>1205</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>1145</v>
+        <v>1206</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>294</v>
@@ -40161,10 +41559,10 @@
         <v>13</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>1175</v>
+        <v>1236</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>1176</v>
+        <v>1237</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>304</v>
@@ -40179,10 +41577,10 @@
         <v>14</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>1177</v>
+        <v>1238</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>1178</v>
+        <v>1239</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>304</v>
@@ -40197,10 +41595,10 @@
         <v>15</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>1179</v>
+        <v>1240</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>1180</v>
+        <v>1241</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>304</v>
@@ -40465,7 +41863,7 @@
         <v>479</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1231</v>
+        <v>1292</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>259</v>
@@ -40483,7 +41881,7 @@
         <v>481</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1232</v>
+        <v>1293</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>263</v>
@@ -40501,7 +41899,7 @@
         <v>483</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1233</v>
+        <v>1294</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>267</v>
@@ -40516,19 +41914,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1234</v>
+        <v>1295</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1235</v>
+        <v>1296</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>287</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1236</v>
+        <v>1297</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>1237</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="9" ht="15">
@@ -40536,17 +41934,17 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1238</v>
+        <v>1299</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1239</v>
+        <v>1300</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>277</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="14" t="s">
-        <v>1240</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="10" ht="15">
@@ -40554,17 +41952,17 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1241</v>
+        <v>1302</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1242</v>
+        <v>1303</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>304</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="14" t="s">
-        <v>1243</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="11" ht="15">
@@ -40761,10 +42159,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1244</v>
+        <v>1305</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1245</v>
+        <v>1306</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>259</v>
@@ -40779,10 +42177,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1246</v>
+        <v>1307</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1232</v>
+        <v>1293</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>263</v>
@@ -40795,10 +42193,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1247</v>
+        <v>1308</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1233</v>
+        <v>1294</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>267</v>
@@ -40813,10 +42211,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1248</v>
+        <v>1309</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1041</v>
+        <v>1102</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>267</v>
@@ -40829,10 +42227,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1249</v>
+        <v>1310</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1250</v>
+        <v>1311</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>267</v>
@@ -40848,7 +42246,7 @@
         <v>479</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1231</v>
+        <v>1292</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>259</v>
@@ -40866,7 +42264,7 @@
         <v>481</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1251</v>
+        <v>1312</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>273</v>
@@ -40882,7 +42280,7 @@
         <v>483</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1252</v>
+        <v>1313</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>267</v>
@@ -40895,19 +42293,19 @@
         <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1234</v>
+        <v>1295</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1235</v>
+        <v>1296</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>287</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1236</v>
+        <v>1297</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>1237</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="35" ht="15">
@@ -40927,7 +42325,7 @@
         <v>629</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>1253</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="36" ht="15">
@@ -40935,10 +42333,10 @@
         <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1254</v>
+        <v>1315</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1255</v>
+        <v>1316</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>304</v>
@@ -40947,7 +42345,7 @@
         <v>468</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>1256</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="37" ht="15">
@@ -40955,17 +42353,17 @@
         <v>11</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1238</v>
+        <v>1299</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1239</v>
+        <v>1300</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>277</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="14" t="s">
-        <v>1240</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="38" ht="15">
@@ -40973,17 +42371,17 @@
         <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1257</v>
+        <v>1318</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1258</v>
+        <v>1319</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>304</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="14" t="s">
-        <v>1259</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="39" ht="15">
@@ -40991,17 +42389,17 @@
         <v>13</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1260</v>
+        <v>1321</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1261</v>
+        <v>1322</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>311</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="14" t="s">
-        <v>1262</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="40" ht="15">
@@ -41018,10 +42416,10 @@
         <v>273</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1263</v>
+        <v>1324</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>1264</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="41" ht="15">

--- a/doc/设计文档/数据库设计/数据库设计.xlsx
+++ b/doc/设计文档/数据库设计/数据库设计.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="1493">
   <si>
     <t>序号</t>
   </si>
@@ -3415,6 +3415,12 @@
   </si>
   <si>
     <t>盘点单编号</t>
+  </si>
+  <si>
+    <t>TAKING_NAME</t>
+  </si>
+  <si>
+    <t>盘点单名称</t>
   </si>
   <si>
     <t>TAKING_DATE</t>
@@ -4534,7 +4540,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -5300,21 +5306,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -5479,7 +5470,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5747,7 +5738,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="58" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="59" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5756,7 +5747,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="61" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="62" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5764,28 +5755,25 @@
     <xf fontId="2" fillId="0" borderId="63" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="64" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="2" fillId="0" borderId="56" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="64" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="65" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="66" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf fontId="0" fillId="0" borderId="66" numFmtId="0" xfId="0" applyBorder="1">
+      <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="67" numFmtId="0" xfId="0" applyBorder="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="68" numFmtId="0" xfId="0" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="69" numFmtId="0" xfId="0" applyBorder="1">
+    <xf fontId="0" fillId="0" borderId="68" numFmtId="0" xfId="0" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5794,11 +5782,11 @@
     <xf fontId="2" fillId="0" borderId="56" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="70" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="69" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="71" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="70" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="40" numFmtId="0" xfId="0" applyBorder="1"/>
@@ -7890,7 +7878,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{003A0072-0087-4ED8-9C63-00C6007D00CF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008A00C4-00BA-4603-BB23-009500F900BA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>"系统管理（SYS）,业务设置（BS）,预算管理（BUD）,项目管理（PROJ）,采购管理（PUR）,库存管理（INV）,合同管理（CONT）,报表管理（RPT）,接口管理（ITF）"</xm:f>
           </x14:formula1>
@@ -8016,10 +8004,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>275</v>
@@ -8032,10 +8020,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>309</v>
@@ -8048,10 +8036,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>292</v>
@@ -8064,10 +8052,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>282</v>
@@ -8080,17 +8068,17 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>292</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="14" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="13" ht="15">
@@ -8273,7 +8261,7 @@
         <v>256</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -8305,10 +8293,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>264</v>
@@ -8324,7 +8312,7 @@
         <v>676</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>264</v>
@@ -8337,10 +8325,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>309</v>
@@ -8353,17 +8341,17 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>282</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="14" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="33" ht="15">
@@ -8371,10 +8359,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>278</v>
@@ -8387,10 +8375,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>272</v>
@@ -8403,10 +8391,10 @@
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>309</v>
@@ -8419,17 +8407,17 @@
         <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>282</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="14" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="37" ht="15">
@@ -8437,17 +8425,17 @@
         <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>278</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="14" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="38" ht="15">
@@ -8455,17 +8443,17 @@
         <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>278</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="14" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="39" ht="15">
@@ -8473,10 +8461,10 @@
         <v>11</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>309</v>
@@ -8489,10 +8477,10 @@
         <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>309</v>
@@ -8505,10 +8493,10 @@
         <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>309</v>
@@ -8521,17 +8509,17 @@
         <v>14</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>292</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="30" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="43" ht="15">
@@ -8539,17 +8527,17 @@
         <v>15</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>282</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="14" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="44" ht="15">
@@ -8714,7 +8702,7 @@
         <v>256</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
@@ -8746,7 +8734,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>633</v>
@@ -8778,17 +8766,17 @@
         <v>3</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>282</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="14" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="62" ht="15">
@@ -8796,10 +8784,10 @@
         <v>4</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>309</v>
@@ -8810,10 +8798,10 @@
     <row r="63" ht="15">
       <c r="B63" s="13"/>
       <c r="C63" s="2" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>278</v>
@@ -8826,10 +8814,10 @@
         <v>5</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>309</v>
@@ -8842,10 +8830,10 @@
         <v>6</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>278</v>
@@ -9046,10 +9034,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="73" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>264</v>
@@ -9058,14 +9046,14 @@
       <c r="G80" s="14"/>
     </row>
     <row r="81" ht="15">
-      <c r="B81" s="108">
+      <c r="B81" s="107">
         <v>2</v>
       </c>
       <c r="C81" s="73" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="D81" s="68" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>278</v>
@@ -9074,38 +9062,38 @@
         <v>269</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="82" ht="15">
-      <c r="B82" s="108">
+      <c r="B82" s="107">
         <v>3</v>
       </c>
       <c r="C82" s="73" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="D82" s="68" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>278</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="83" ht="15">
-      <c r="B83" s="108">
+      <c r="B83" s="107">
         <v>4</v>
       </c>
       <c r="C83" s="73" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="D83" s="68" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>272</v>
@@ -9118,13 +9106,13 @@
         <v>5</v>
       </c>
       <c r="C84" s="73" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>269</v>
@@ -9136,10 +9124,10 @@
         <v>6</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>264</v>
@@ -9148,14 +9136,14 @@
       <c r="G85" s="14"/>
     </row>
     <row r="86" ht="15">
-      <c r="B86" s="108">
+      <c r="B86" s="107">
         <v>7</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>278</v>
@@ -9168,10 +9156,10 @@
         <v>8</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>278</v>
@@ -9180,14 +9168,14 @@
       <c r="G87" s="14"/>
     </row>
     <row r="88" ht="15">
-      <c r="B88" s="108">
+      <c r="B88" s="107">
         <v>9</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>264</v>
@@ -9198,14 +9186,14 @@
       <c r="G88" s="14"/>
     </row>
     <row r="89" ht="15">
-      <c r="B89" s="108">
+      <c r="B89" s="107">
         <v>10</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>278</v>
@@ -9214,14 +9202,14 @@
       <c r="G89" s="14"/>
     </row>
     <row r="90" ht="15">
-      <c r="B90" s="108">
+      <c r="B90" s="107">
         <v>11</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>278</v>
@@ -9234,10 +9222,10 @@
         <v>12</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>316</v>
@@ -9246,14 +9234,14 @@
       <c r="G91" s="14"/>
     </row>
     <row r="92" ht="15">
-      <c r="B92" s="108">
+      <c r="B92" s="107">
         <v>13</v>
       </c>
       <c r="C92" s="66" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>272</v>
@@ -9262,10 +9250,10 @@
       <c r="G92" s="14"/>
     </row>
     <row r="93" ht="15">
-      <c r="B93" s="108">
+      <c r="B93" s="107">
         <v>14</v>
       </c>
-      <c r="C93" s="109" t="s">
+      <c r="C93" s="108" t="s">
         <v>521</v>
       </c>
       <c r="D93" s="68" t="s">
@@ -9275,30 +9263,30 @@
         <v>278</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="94" ht="15">
-      <c r="B94" s="108">
+      <c r="B94" s="107">
         <v>15</v>
       </c>
-      <c r="C94" s="109" t="s">
-        <v>1467</v>
+      <c r="C94" s="108" t="s">
+        <v>1469</v>
       </c>
       <c r="D94" s="68" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>292</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="95" ht="15">
@@ -9334,7 +9322,7 @@
       <c r="G96" s="14"/>
     </row>
     <row r="97" ht="15">
-      <c r="B97" s="108">
+      <c r="B97" s="107">
         <v>18</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -9366,7 +9354,7 @@
       <c r="G98" s="14"/>
     </row>
     <row r="99" ht="15">
-      <c r="B99" s="108">
+      <c r="B99" s="107">
         <v>20</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -9382,7 +9370,7 @@
       <c r="G99" s="14"/>
     </row>
     <row r="100" ht="15">
-      <c r="B100" s="108">
+      <c r="B100" s="107">
         <v>21</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -9398,7 +9386,7 @@
       <c r="G100" s="14"/>
     </row>
     <row r="101" ht="15">
-      <c r="B101" s="108">
+      <c r="B101" s="107">
         <v>22</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -9430,7 +9418,7 @@
       <c r="G102" s="14"/>
     </row>
     <row r="103" ht="15">
-      <c r="B103" s="108">
+      <c r="B103" s="107">
         <v>24</v>
       </c>
       <c r="C103" s="16" t="s">
@@ -9450,7 +9438,7 @@
         <v>255</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -9462,7 +9450,7 @@
         <v>256</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
@@ -9494,10 +9482,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>264</v>
@@ -9510,10 +9498,10 @@
         <v>2</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>278</v>
@@ -9528,10 +9516,10 @@
         <v>3</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>278</v>
@@ -9547,7 +9535,7 @@
         <v>328</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>309</v>
@@ -9560,17 +9548,17 @@
         <v>5</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>278</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="14" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="114" ht="15">
@@ -9742,7 +9730,7 @@
         <v>255</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
@@ -9754,7 +9742,7 @@
         <v>256</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="D127" s="10"/>
       <c r="E127" s="10"/>
@@ -9789,7 +9777,7 @@
         <v>1074</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>264</v>
@@ -9802,10 +9790,10 @@
         <v>2</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>264</v>
@@ -9820,10 +9808,10 @@
         <v>3</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>278</v>
@@ -9836,10 +9824,10 @@
         <v>4</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>278</v>
@@ -9852,10 +9840,10 @@
         <v>5</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>264</v>
@@ -9868,10 +9856,10 @@
         <v>6</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>278</v>
@@ -9886,10 +9874,10 @@
         <v>7</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>278</v>
@@ -9902,10 +9890,10 @@
         <v>8</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>278</v>
@@ -9921,7 +9909,7 @@
         <v>328</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>309</v>
@@ -24159,7 +24147,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A874" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A840" zoomScale="100" workbookViewId="0">
       <selection activeCell="E493" activeCellId="0" sqref="E493"/>
     </sheetView>
   </sheetViews>
@@ -37200,88 +37188,86 @@
       <c r="B860" s="87">
         <v>3</v>
       </c>
-      <c r="C860" s="89" t="s">
+      <c r="C860" s="66" t="s">
         <v>1131</v>
       </c>
-      <c r="D860" s="89" t="s">
+      <c r="D860" s="66" t="s">
         <v>1132</v>
       </c>
-      <c r="E860" s="89" t="s">
+      <c r="E860" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="F860" s="2"/>
+      <c r="G860" s="88"/>
+    </row>
+    <row r="861" ht="15">
+      <c r="B861" s="87">
+        <v>4</v>
+      </c>
+      <c r="C861" s="89" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D861" s="89" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E861" s="89" t="s">
         <v>316</v>
       </c>
-      <c r="F860" s="2" t="s">
+      <c r="F861" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G860" s="88"/>
-    </row>
-    <row r="861" ht="15">
-      <c r="B861" s="90">
-        <v>4</v>
-      </c>
-      <c r="C861" s="67" t="s">
+      <c r="G861" s="88"/>
+    </row>
+    <row r="862" ht="15">
+      <c r="B862" s="87">
+        <v>5</v>
+      </c>
+      <c r="C862" s="67" t="s">
         <v>716</v>
       </c>
-      <c r="D861" s="67" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E861" s="67" t="s">
-        <v>278</v>
-      </c>
-      <c r="F861" s="91"/>
-      <c r="G861" s="88"/>
-    </row>
-    <row r="862" ht="15">
-      <c r="B862" s="90">
-        <v>5</v>
-      </c>
-      <c r="C862" s="67" t="s">
-        <v>718</v>
-      </c>
       <c r="D862" s="67" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="E862" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="F862" s="91"/>
+        <v>278</v>
+      </c>
+      <c r="F862" s="90"/>
       <c r="G862" s="88"/>
     </row>
     <row r="863" ht="15">
       <c r="B863" s="87">
         <v>6</v>
       </c>
-      <c r="C863" s="92" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D863" s="93" t="s">
+      <c r="C863" s="67" t="s">
+        <v>718</v>
+      </c>
+      <c r="D863" s="67" t="s">
         <v>1136</v>
       </c>
-      <c r="E863" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="F863" s="68" t="s">
-        <v>269</v>
-      </c>
-      <c r="G863" s="88" t="s">
-        <v>1137</v>
-      </c>
+      <c r="E863" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="F863" s="90"/>
+      <c r="G863" s="88"/>
     </row>
     <row r="864" ht="15">
       <c r="B864" s="87">
         <v>7</v>
       </c>
-      <c r="C864" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="D864" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="E864" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F864" s="2"/>
-      <c r="G864" s="94" t="s">
+      <c r="C864" s="91" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D864" s="92" t="s">
         <v>1138</v>
+      </c>
+      <c r="E864" s="92" t="s">
+        <v>278</v>
+      </c>
+      <c r="F864" s="68" t="s">
+        <v>269</v>
+      </c>
+      <c r="G864" s="88" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="865" ht="15">
@@ -37289,111 +37275,113 @@
         <v>8</v>
       </c>
       <c r="C865" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D865" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E865" s="2" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F865" s="2"/>
-      <c r="G865" s="95"/>
+      <c r="G865" s="93" t="s">
+        <v>1140</v>
+      </c>
     </row>
     <row r="866" ht="15">
       <c r="B866" s="87">
         <v>9</v>
       </c>
       <c r="C866" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D866" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E866" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F866" s="2"/>
-      <c r="G866" s="96"/>
+      <c r="G866" s="94"/>
     </row>
     <row r="867" ht="15">
       <c r="B867" s="87">
         <v>10</v>
       </c>
-      <c r="C867" s="77" t="s">
-        <v>521</v>
-      </c>
-      <c r="D867" s="77" t="s">
-        <v>522</v>
-      </c>
-      <c r="E867" s="77" t="s">
-        <v>278</v>
-      </c>
-      <c r="F867" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="G867" s="88"/>
+      <c r="C867" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="D867" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="E867" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F867" s="2"/>
+      <c r="G867" s="95"/>
     </row>
     <row r="868" ht="15">
       <c r="B868" s="87">
         <v>11</v>
       </c>
-      <c r="C868" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D868" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E868" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F868" s="2"/>
-      <c r="G868" s="97"/>
+      <c r="C868" s="77" t="s">
+        <v>521</v>
+      </c>
+      <c r="D868" s="77" t="s">
+        <v>522</v>
+      </c>
+      <c r="E868" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="F868" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="G868" s="88"/>
     </row>
     <row r="869" ht="15">
       <c r="B869" s="87">
         <v>12</v>
       </c>
       <c r="C869" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D869" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E869" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F869" s="2"/>
+      <c r="G869" s="96"/>
+    </row>
+    <row r="870" ht="15">
+      <c r="B870" s="87">
+        <v>13</v>
+      </c>
+      <c r="C870" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D869" s="2" t="s">
+      <c r="D870" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E869" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F869" s="2"/>
-      <c r="G869" s="88"/>
-    </row>
-    <row r="870" ht="15">
-      <c r="B870" s="90">
-        <v>13</v>
-      </c>
-      <c r="C870" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D870" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="E870" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F870" s="2"/>
       <c r="G870" s="88"/>
     </row>
     <row r="871" ht="15">
-      <c r="B871" s="90">
+      <c r="B871" s="87">
         <v>14</v>
       </c>
       <c r="C871" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D871" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E871" s="2" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="F871" s="2"/>
       <c r="G871" s="88"/>
@@ -37403,10 +37391,10 @@
         <v>15</v>
       </c>
       <c r="C872" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D872" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E872" s="2" t="s">
         <v>309</v>
@@ -37419,13 +37407,13 @@
         <v>16</v>
       </c>
       <c r="C873" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D873" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E873" s="2" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="F873" s="2"/>
       <c r="G873" s="88"/>
@@ -37435,13 +37423,13 @@
         <v>17</v>
       </c>
       <c r="C874" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D874" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E874" s="2" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="F874" s="2"/>
       <c r="G874" s="88"/>
@@ -37451,13 +37439,13 @@
         <v>18</v>
       </c>
       <c r="C875" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D875" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E875" s="2" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="F875" s="2"/>
       <c r="G875" s="88"/>
@@ -37466,168 +37454,166 @@
       <c r="B876" s="87">
         <v>19</v>
       </c>
-      <c r="C876" s="98" t="s">
+      <c r="C876" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D876" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E876" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F876" s="2"/>
+      <c r="G876" s="88"/>
+    </row>
+    <row r="877" ht="15">
+      <c r="B877" s="87">
+        <v>20</v>
+      </c>
+      <c r="C877" s="97" t="s">
         <v>319</v>
       </c>
-      <c r="D876" s="98" t="s">
+      <c r="D877" s="97" t="s">
         <v>320</v>
       </c>
-      <c r="E876" s="98" t="s">
+      <c r="E877" s="97" t="s">
         <v>316</v>
       </c>
-      <c r="F876" s="98"/>
-      <c r="G876" s="99"/>
-    </row>
-    <row r="877" ht="14.25">
-      <c r="B877" s="100"/>
-      <c r="C877" s="101"/>
-      <c r="D877" s="101"/>
-      <c r="E877" s="101"/>
-      <c r="F877" s="101"/>
-      <c r="G877" s="101"/>
+      <c r="F877" s="97"/>
+      <c r="G877" s="98"/>
     </row>
     <row r="878" ht="14.25">
-      <c r="B878" s="102"/>
-      <c r="C878" s="102"/>
-      <c r="D878" s="102"/>
-      <c r="E878" s="102"/>
-      <c r="F878" s="102"/>
-      <c r="G878" s="102"/>
+      <c r="B878" s="99"/>
+      <c r="C878" s="100"/>
+      <c r="D878" s="100"/>
+      <c r="E878" s="100"/>
+      <c r="F878" s="100"/>
+      <c r="G878" s="100"/>
     </row>
     <row r="879" ht="14.25">
-      <c r="B879" s="103"/>
-      <c r="C879" s="103"/>
-      <c r="D879" s="103"/>
-      <c r="E879" s="103"/>
-      <c r="F879" s="103"/>
-      <c r="G879" s="103"/>
-    </row>
-    <row r="880" ht="15">
-      <c r="B880" s="80" t="s">
+      <c r="B879" s="101"/>
+      <c r="C879" s="101"/>
+      <c r="D879" s="101"/>
+      <c r="E879" s="101"/>
+      <c r="F879" s="101"/>
+      <c r="G879" s="101"/>
+    </row>
+    <row r="880" ht="14.25">
+      <c r="B880" s="102"/>
+      <c r="C880" s="102"/>
+      <c r="D880" s="102"/>
+      <c r="E880" s="102"/>
+      <c r="F880" s="102"/>
+      <c r="G880" s="102"/>
+    </row>
+    <row r="881" ht="15">
+      <c r="B881" s="80" t="s">
         <v>255</v>
       </c>
-      <c r="C880" s="81" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D880" s="82"/>
-      <c r="E880" s="82"/>
-      <c r="F880" s="82"/>
-      <c r="G880" s="83"/>
-    </row>
-    <row r="881" ht="15">
-      <c r="B881" s="84" t="s">
-        <v>256</v>
-      </c>
-      <c r="C881" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D881" s="10"/>
-      <c r="E881" s="10"/>
-      <c r="F881" s="10"/>
-      <c r="G881" s="85"/>
+      <c r="C881" s="81" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D881" s="82"/>
+      <c r="E881" s="82"/>
+      <c r="F881" s="82"/>
+      <c r="G881" s="83"/>
     </row>
     <row r="882" ht="15">
       <c r="B882" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="C882" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D882" s="10"/>
+      <c r="E882" s="10"/>
+      <c r="F882" s="10"/>
+      <c r="G882" s="85"/>
+    </row>
+    <row r="883" ht="15">
+      <c r="B883" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="C882" s="1" t="s">
+      <c r="C883" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D882" s="1" t="s">
+      <c r="D883" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E882" s="1" t="s">
+      <c r="E883" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F882" s="1" t="s">
+      <c r="F883" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G882" s="86" t="s">
+      <c r="G883" s="86" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="883" ht="15">
-      <c r="B883" s="87">
-        <v>1</v>
-      </c>
-      <c r="C883" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="D883" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="E883" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F883" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G883" s="88"/>
     </row>
     <row r="884" ht="15">
       <c r="B884" s="87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C884" s="2" t="s">
-        <v>1127</v>
+        <v>524</v>
       </c>
       <c r="D884" s="2" t="s">
-        <v>1128</v>
+        <v>525</v>
       </c>
       <c r="E884" s="2" t="s">
         <v>264</v>
       </c>
       <c r="F884" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G884" s="88"/>
     </row>
-    <row r="885" ht="15.75">
+    <row r="885" ht="15">
       <c r="B885" s="87">
-        <v>3</v>
-      </c>
-      <c r="C885" s="104" t="s">
-        <v>928</v>
+        <v>2</v>
+      </c>
+      <c r="C885" s="2" t="s">
+        <v>1127</v>
       </c>
       <c r="D885" s="2" t="s">
-        <v>955</v>
+        <v>1128</v>
       </c>
       <c r="E885" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F885" s="2"/>
+      <c r="F885" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="G885" s="88"/>
     </row>
-    <row r="886" ht="15">
+    <row r="886" ht="15.75">
       <c r="B886" s="87">
-        <v>4</v>
-      </c>
-      <c r="C886" s="2" t="s">
-        <v>262</v>
+        <v>3</v>
+      </c>
+      <c r="C886" s="103" t="s">
+        <v>928</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>505</v>
+        <v>955</v>
       </c>
       <c r="E886" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F886" s="2" t="s">
-        <v>269</v>
-      </c>
+      <c r="F886" s="2"/>
       <c r="G886" s="88"/>
     </row>
     <row r="887" ht="15">
       <c r="B887" s="87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C887" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D887" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E887" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F887" s="2" t="s">
         <v>269</v>
@@ -37636,345 +37622,347 @@
     </row>
     <row r="888" ht="15">
       <c r="B888" s="87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C888" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D888" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E888" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F888" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="F888" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="G888" s="88"/>
     </row>
     <row r="889" ht="15">
       <c r="B889" s="87">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C889" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D889" s="2" t="s">
-        <v>274</v>
+        <v>509</v>
       </c>
       <c r="E889" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F889" s="2"/>
       <c r="G889" s="88"/>
     </row>
     <row r="890" ht="15">
       <c r="B890" s="87">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C890" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D890" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E890" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F890" s="2"/>
       <c r="G890" s="88"/>
     </row>
     <row r="891" ht="15">
       <c r="B891" s="87">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C891" s="2" t="s">
-        <v>1141</v>
+        <v>276</v>
       </c>
       <c r="D891" s="2" t="s">
-        <v>420</v>
+        <v>277</v>
       </c>
       <c r="E891" s="2" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F891" s="2"/>
       <c r="G891" s="88"/>
     </row>
     <row r="892" ht="15">
       <c r="B892" s="87">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C892" s="2" t="s">
-        <v>470</v>
+        <v>1143</v>
       </c>
       <c r="D892" s="2" t="s">
-        <v>471</v>
+        <v>420</v>
       </c>
       <c r="E892" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F892" s="2" t="s">
-        <v>1142</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="F892" s="2"/>
       <c r="G892" s="88"/>
     </row>
     <row r="893" ht="15">
       <c r="B893" s="87">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C893" s="2" t="s">
-        <v>1143</v>
+        <v>470</v>
       </c>
       <c r="D893" s="2" t="s">
-        <v>1144</v>
+        <v>471</v>
       </c>
       <c r="E893" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F893" s="2"/>
+      <c r="F893" s="2" t="s">
+        <v>1144</v>
+      </c>
       <c r="G893" s="88"/>
     </row>
     <row r="894" ht="15">
       <c r="B894" s="87">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C894" s="2" t="s">
-        <v>821</v>
+        <v>1145</v>
       </c>
       <c r="D894" s="2" t="s">
-        <v>822</v>
+        <v>1146</v>
       </c>
       <c r="E894" s="2" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="F894" s="2"/>
-      <c r="G894" s="94" t="s">
-        <v>897</v>
-      </c>
+      <c r="G894" s="88"/>
     </row>
     <row r="895" ht="15">
       <c r="B895" s="87">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C895" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D895" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E895" s="2" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F895" s="2"/>
-      <c r="G895" s="95"/>
+      <c r="G895" s="93" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="896" ht="15">
       <c r="B896" s="87">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C896" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D896" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E896" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F896" s="2"/>
-      <c r="G896" s="96"/>
+      <c r="G896" s="94"/>
     </row>
     <row r="897" ht="14.25">
       <c r="B897" s="87">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C897" s="2" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="D897" s="2" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E897" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F897" s="2"/>
-      <c r="G897" s="94" t="s">
-        <v>898</v>
-      </c>
+      <c r="G897" s="95"/>
     </row>
     <row r="898" ht="14.25">
       <c r="B898" s="87">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C898" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D898" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E898" s="2" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F898" s="2"/>
-      <c r="G898" s="95"/>
+      <c r="G898" s="93" t="s">
+        <v>898</v>
+      </c>
     </row>
     <row r="899" ht="14.25">
       <c r="B899" s="87">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C899" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D899" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E899" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F899" s="2"/>
-      <c r="G899" s="96"/>
+      <c r="G899" s="94"/>
     </row>
     <row r="900" ht="14.25">
       <c r="B900" s="87">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C900" s="2" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="D900" s="2" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="E900" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F900" s="2"/>
-      <c r="G900" s="94" t="s">
-        <v>899</v>
-      </c>
+      <c r="G900" s="95"/>
     </row>
     <row r="901" ht="14.25">
       <c r="B901" s="87">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C901" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D901" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E901" s="2" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F901" s="2"/>
-      <c r="G901" s="95"/>
+      <c r="G901" s="93" t="s">
+        <v>899</v>
+      </c>
     </row>
     <row r="902" ht="14.25">
       <c r="B902" s="87">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C902" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D902" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E902" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F902" s="2"/>
-      <c r="G902" s="96"/>
+      <c r="G902" s="94"/>
     </row>
     <row r="903" ht="14.25">
       <c r="B903" s="87">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C903" s="2" t="s">
-        <v>1145</v>
+        <v>847</v>
       </c>
       <c r="D903" s="2" t="s">
-        <v>1146</v>
+        <v>848</v>
       </c>
       <c r="E903" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F903" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="G903" s="105" t="s">
-        <v>1148</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="F903" s="2"/>
+      <c r="G903" s="95"/>
     </row>
     <row r="904" ht="14.25">
       <c r="B904" s="87">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C904" s="2" t="s">
-        <v>302</v>
+        <v>1147</v>
       </c>
       <c r="D904" s="2" t="s">
-        <v>4</v>
+        <v>1148</v>
       </c>
       <c r="E904" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F904" s="2"/>
-      <c r="G904" s="97"/>
+        <v>268</v>
+      </c>
+      <c r="F904" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G904" s="104" t="s">
+        <v>1150</v>
+      </c>
     </row>
     <row r="905" ht="14.25">
       <c r="B905" s="87">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C905" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D905" s="2" t="s">
-        <v>304</v>
+        <v>4</v>
       </c>
       <c r="E905" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F905" s="2"/>
-      <c r="G905" s="88"/>
+      <c r="G905" s="96"/>
     </row>
     <row r="906" ht="14.25">
       <c r="B906" s="87">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C906" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D906" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E906" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F906" s="2"/>
       <c r="G906" s="88"/>
     </row>
     <row r="907" ht="14.25">
       <c r="B907" s="87">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C907" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D907" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E907" s="2" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="F907" s="2"/>
       <c r="G907" s="88"/>
     </row>
     <row r="908" ht="14.25">
       <c r="B908" s="87">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C908" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D908" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E908" s="2" t="s">
         <v>309</v>
@@ -37984,69 +37972,84 @@
     </row>
     <row r="909" ht="14.25">
       <c r="B909" s="87">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C909" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D909" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E909" s="2" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="F909" s="2"/>
       <c r="G909" s="88"/>
     </row>
     <row r="910" ht="14.25">
       <c r="B910" s="87">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C910" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D910" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E910" s="2" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="F910" s="2"/>
       <c r="G910" s="88"/>
     </row>
     <row r="911" ht="14.25">
       <c r="B911" s="87">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C911" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D911" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E911" s="2" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="F911" s="2"/>
       <c r="G911" s="88"/>
     </row>
     <row r="912" ht="14.25">
-      <c r="B912" s="106">
+      <c r="B912" s="87">
+        <v>30</v>
+      </c>
+      <c r="C912" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D912" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E912" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F912" s="2"/>
+      <c r="G912" s="88"/>
+    </row>
+    <row r="913" ht="14.25">
+      <c r="B913" s="105">
         <v>31</v>
       </c>
-      <c r="C912" s="98" t="s">
+      <c r="C913" s="97" t="s">
         <v>319</v>
       </c>
-      <c r="D912" s="98" t="s">
+      <c r="D913" s="97" t="s">
         <v>320</v>
       </c>
-      <c r="E912" s="98" t="s">
+      <c r="E913" s="97" t="s">
         <v>316</v>
       </c>
-      <c r="F912" s="98"/>
-      <c r="G912" s="99"/>
-    </row>
-    <row r="913" ht="14.25"/>
+      <c r="F913" s="97"/>
+      <c r="G913" s="98"/>
+    </row>
     <row r="914" ht="14.25"/>
   </sheetData>
   <mergeCells count="120">
@@ -38164,12 +38167,12 @@
     <mergeCell ref="C832:G832"/>
     <mergeCell ref="C855:G855"/>
     <mergeCell ref="C856:G856"/>
-    <mergeCell ref="G864:G866"/>
-    <mergeCell ref="C880:G880"/>
+    <mergeCell ref="G865:G867"/>
     <mergeCell ref="C881:G881"/>
-    <mergeCell ref="G894:G896"/>
-    <mergeCell ref="G897:G899"/>
-    <mergeCell ref="G900:G902"/>
+    <mergeCell ref="C882:G882"/>
+    <mergeCell ref="G895:G897"/>
+    <mergeCell ref="G898:G900"/>
+    <mergeCell ref="G901:G903"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -38212,7 +38215,7 @@
         <v>256</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -38256,7 +38259,7 @@
         <v>265</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="7" ht="16.5">
@@ -38300,10 +38303,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>272</v>
@@ -38316,7 +38319,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>274</v>
@@ -38332,10 +38335,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>264</v>
@@ -38350,10 +38353,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>278</v>
@@ -38366,10 +38369,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>272</v>
@@ -38382,7 +38385,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>451</v>
@@ -38398,7 +38401,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>452</v>
@@ -38414,7 +38417,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>453</v>
@@ -38433,16 +38436,16 @@
         <v>521</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>278</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="18" ht="16.5">
@@ -38607,7 +38610,7 @@
         <v>256</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -38639,10 +38642,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>264</v>
@@ -38657,10 +38660,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>268</v>
@@ -38675,10 +38678,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>272</v>
@@ -38894,7 +38897,7 @@
         <v>255</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -38938,10 +38941,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>264</v>
@@ -38956,10 +38959,10 @@
         <v>2</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>268</v>
@@ -38974,10 +38977,10 @@
         <v>3</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>272</v>
@@ -38992,10 +38995,10 @@
         <v>4</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>278</v>
@@ -39004,7 +39007,7 @@
         <v>269</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="58" ht="16.5">
@@ -39012,17 +39015,17 @@
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>275</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="14" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="59" ht="16.5">
@@ -39030,17 +39033,17 @@
         <v>6</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>272</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="14" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="60" ht="16.5">
@@ -39211,7 +39214,7 @@
         <v>255</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -39223,7 +39226,7 @@
         <v>256</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
@@ -39255,10 +39258,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>264</v>
@@ -39273,10 +39276,10 @@
         <v>2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>268</v>
@@ -39291,10 +39294,10 @@
         <v>3</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>272</v>
@@ -39359,10 +39362,10 @@
         <v>7</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>272</v>
@@ -39375,7 +39378,7 @@
         <v>8</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>274</v>
@@ -39391,10 +39394,10 @@
         <v>9</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>264</v>
@@ -39407,10 +39410,10 @@
         <v>10</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>316</v>
@@ -39423,10 +39426,10 @@
         <v>11</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>316</v>
@@ -39439,10 +39442,10 @@
         <v>12</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>316</v>
@@ -39455,17 +39458,17 @@
         <v>13</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>278</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="14" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="88" ht="15">
@@ -39473,10 +39476,10 @@
         <v>14</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>278</v>
@@ -39489,10 +39492,10 @@
         <v>15</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>278</v>
@@ -39515,7 +39518,7 @@
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="14" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="91" ht="15">
@@ -39668,7 +39671,7 @@
         <v>255</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -39680,7 +39683,7 @@
         <v>256</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
@@ -39730,10 +39733,10 @@
         <v>2</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>264</v>
@@ -39746,17 +39749,17 @@
         <v>3</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>264</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="14" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="108" ht="15">
@@ -39764,10 +39767,10 @@
         <v>4</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>268</v>
@@ -39782,10 +39785,10 @@
         <v>5</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>272</v>
@@ -39800,17 +39803,17 @@
         <v>6</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>278</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="14" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="111" ht="15">
@@ -39818,10 +39821,10 @@
         <v>7</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>275</v>
@@ -39834,10 +39837,10 @@
         <v>8</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>272</v>
@@ -39850,10 +39853,10 @@
         <v>9</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>275</v>
@@ -39866,17 +39869,17 @@
         <v>10</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>272</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="14" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="115" ht="15">
@@ -39884,10 +39887,10 @@
         <v>11</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>275</v>
@@ -40094,7 +40097,7 @@
         <v>256</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -40126,10 +40129,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>264</v>
@@ -40144,10 +40147,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>268</v>
@@ -40162,10 +40165,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>275</v>
@@ -40180,10 +40183,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>278</v>
@@ -40192,7 +40195,7 @@
         <v>269</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="11" ht="16.5">
@@ -40200,10 +40203,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>278</v>
@@ -40212,7 +40215,7 @@
         <v>269</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="12" ht="16.5">
@@ -40377,7 +40380,7 @@
         <v>256</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -40409,10 +40412,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>264</v>
@@ -40427,10 +40430,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>268</v>
@@ -40445,10 +40448,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>272</v>
@@ -40463,10 +40466,10 @@
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>278</v>
@@ -40475,7 +40478,7 @@
         <v>269</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="32" ht="16.5">
@@ -40483,10 +40486,10 @@
         <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -40654,7 +40657,7 @@
         <v>256</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -40686,10 +40689,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>264</v>
@@ -40704,10 +40707,10 @@
         <v>2</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>268</v>
@@ -40722,10 +40725,10 @@
         <v>3</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>272</v>
@@ -40740,10 +40743,10 @@
         <v>4</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>272</v>
@@ -40752,7 +40755,7 @@
         <v>269</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="52" ht="16.5">
@@ -40935,7 +40938,7 @@
         <v>256</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
@@ -40970,7 +40973,7 @@
         <v>462</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>264</v>
@@ -40985,10 +40988,10 @@
         <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>264</v>
@@ -41003,10 +41006,10 @@
         <v>3</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>264</v>
@@ -41021,10 +41024,10 @@
         <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>268</v>
@@ -41037,10 +41040,10 @@
         <v>5</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>272</v>
@@ -41053,10 +41056,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>278</v>
@@ -41067,10 +41070,10 @@
     <row r="73" ht="15">
       <c r="B73" s="13"/>
       <c r="C73" s="2" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -41081,10 +41084,10 @@
         <v>7</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>275</v>
@@ -41097,10 +41100,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>299</v>
@@ -41129,10 +41132,10 @@
         <v>10</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>299</v>
@@ -41145,10 +41148,10 @@
         <v>11</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>299</v>
@@ -41164,14 +41167,14 @@
         <v>618</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>272</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="28" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="80" ht="15">
@@ -41336,7 +41339,7 @@
         <v>256</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
@@ -41371,7 +41374,7 @@
         <v>462</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>264</v>
@@ -41386,10 +41389,10 @@
         <v>2</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>264</v>
@@ -41492,10 +41495,10 @@
         <v>8</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>309</v>
@@ -41513,7 +41516,7 @@
         <v>713</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>309</v>
@@ -41528,10 +41531,10 @@
         <v>10</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>439</v>
@@ -41540,7 +41543,7 @@
         <v>649</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="104" ht="15">
@@ -41548,10 +41551,10 @@
         <v>11</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>439</v>
@@ -41560,7 +41563,7 @@
         <v>649</v>
       </c>
       <c r="G104" s="28" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="105" ht="15">
@@ -41568,19 +41571,19 @@
         <v>12</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>439</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="106" ht="15">
@@ -41813,10 +41816,10 @@
         <v>3</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>272</v>
@@ -41831,10 +41834,10 @@
         <v>4</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>264</v>
@@ -41843,7 +41846,7 @@
         <v>269</v>
       </c>
       <c r="G123" s="24" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="124" ht="15">
@@ -41917,17 +41920,17 @@
         <v>9</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>272</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="24" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="129" ht="16.5">
@@ -41947,7 +41950,7 @@
         <v>269</v>
       </c>
       <c r="G129" s="33" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="130" ht="16.5">
@@ -42025,10 +42028,10 @@
         <v>15</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>309</v>
@@ -42043,10 +42046,10 @@
         <v>16</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>309</v>
@@ -42064,7 +42067,7 @@
         <v>894</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>299</v>
@@ -42077,10 +42080,10 @@
         <v>18</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>309</v>
@@ -42089,7 +42092,7 @@
         <v>473</v>
       </c>
       <c r="G137" s="28" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="138" ht="16.5">
@@ -42100,7 +42103,7 @@
         <v>713</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>309</v>
@@ -42115,10 +42118,10 @@
         <v>20</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>299</v>
@@ -42133,10 +42136,10 @@
         <v>21</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>299</v>
@@ -42151,10 +42154,10 @@
         <v>22</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>299</v>
@@ -42169,10 +42172,10 @@
         <v>23</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>299</v>
@@ -42187,10 +42190,10 @@
         <v>24</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>299</v>
@@ -42205,10 +42208,10 @@
         <v>25</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>299</v>
@@ -42223,17 +42226,17 @@
         <v>26</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>268</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="14" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="146" ht="16.5">
@@ -42241,10 +42244,10 @@
         <v>27</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>316</v>
@@ -42257,10 +42260,10 @@
         <v>28</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>316</v>
@@ -42273,10 +42276,10 @@
         <v>29</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>268</v>
@@ -42298,7 +42301,7 @@
         <v>268</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="G149" s="28"/>
     </row>
@@ -42464,7 +42467,7 @@
         <v>256</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
@@ -42517,7 +42520,7 @@
         <v>881</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>264</v>
@@ -42532,10 +42535,10 @@
         <v>3</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>264</v>
@@ -42550,10 +42553,10 @@
         <v>4</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>268</v>
@@ -42566,10 +42569,10 @@
         <v>5</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>272</v>
@@ -42582,10 +42585,10 @@
         <v>6</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>278</v>
@@ -42598,10 +42601,10 @@
         <v>7</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -42612,10 +42615,10 @@
         <v>8</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>275</v>
@@ -42628,10 +42631,10 @@
         <v>9</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>299</v>
@@ -42660,10 +42663,10 @@
         <v>11</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>299</v>
@@ -42676,10 +42679,10 @@
         <v>12</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>299</v>
@@ -42692,10 +42695,10 @@
         <v>13</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>309</v>
@@ -42710,10 +42713,10 @@
         <v>14</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>309</v>
@@ -42728,10 +42731,10 @@
         <v>15</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>309</v>
@@ -42903,7 +42906,7 @@
         <v>256</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="D192" s="10"/>
       <c r="E192" s="10"/>
@@ -42956,7 +42959,7 @@
         <v>881</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>264</v>
@@ -42974,7 +42977,7 @@
         <v>524</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>264</v>
@@ -42989,10 +42992,10 @@
         <v>4</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>275</v>
@@ -43001,7 +43004,7 @@
         <v>269</v>
       </c>
       <c r="G197" s="14" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="198" ht="16.5">
@@ -43009,10 +43012,10 @@
         <v>5</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>278</v>
@@ -43021,7 +43024,7 @@
         <v>269</v>
       </c>
       <c r="G198" s="14" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="199" ht="16.5">
@@ -43029,10 +43032,10 @@
         <v>6</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>309</v>
@@ -43236,10 +43239,10 @@
         <v>1</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>264</v>
@@ -43254,10 +43257,10 @@
         <v>2</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>268</v>
@@ -43270,17 +43273,17 @@
         <v>3</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>272</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" s="14" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="219" ht="33">
@@ -43288,17 +43291,17 @@
         <v>4</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>268</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="28" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="220" ht="16.5">
@@ -43306,10 +43309,10 @@
         <v>5</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>264</v>
@@ -43318,7 +43321,7 @@
         <v>269</v>
       </c>
       <c r="G220" s="24" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="221" ht="16.5">
@@ -43336,7 +43339,7 @@
       </c>
       <c r="F221" s="2"/>
       <c r="G221" s="33" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="222" ht="16.5">
@@ -43386,7 +43389,7 @@
       </c>
       <c r="F224" s="2"/>
       <c r="G224" s="33" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="225" ht="16.5">
@@ -43436,7 +43439,7 @@
       </c>
       <c r="F227" s="2"/>
       <c r="G227" s="33" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="228" ht="16.5">
@@ -43486,7 +43489,7 @@
       </c>
       <c r="F230" s="2"/>
       <c r="G230" s="33" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="231" ht="16.5">
@@ -43536,7 +43539,7 @@
       </c>
       <c r="F233" s="2"/>
       <c r="G233" s="33" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="234" ht="16.5">
@@ -43608,17 +43611,17 @@
         <v>23</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>299</v>
       </c>
       <c r="F238" s="2"/>
       <c r="G238" s="33" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="239" ht="16.5">
@@ -43642,10 +43645,10 @@
         <v>25</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>299</v>
@@ -43658,10 +43661,10 @@
         <v>26</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>299</v>
@@ -43674,10 +43677,10 @@
         <v>27</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>299</v>
@@ -43690,10 +43693,10 @@
         <v>28</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>299</v>
@@ -43706,10 +43709,10 @@
         <v>29</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>299</v>
@@ -43722,10 +43725,10 @@
         <v>30</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>299</v>
@@ -43738,10 +43741,10 @@
         <v>31</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>268</v>
@@ -43754,10 +43757,10 @@
         <v>32</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>316</v>
@@ -43770,10 +43773,10 @@
         <v>33</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>268</v>
@@ -43795,7 +43798,7 @@
         <v>268</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="G249" s="24"/>
     </row>
@@ -43941,7 +43944,7 @@
         <v>316</v>
       </c>
       <c r="F258" s="16"/>
-      <c r="G258" s="107"/>
+      <c r="G258" s="106"/>
     </row>
     <row r="260" ht="14.25"/>
     <row r="261" ht="16.5">
@@ -43949,7 +43952,7 @@
         <v>255</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
@@ -43961,7 +43964,7 @@
         <v>256</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="D262" s="10"/>
       <c r="E262" s="10"/>
@@ -44011,10 +44014,10 @@
         <v>2</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>264</v>
@@ -44029,10 +44032,10 @@
         <v>3</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>264</v>
@@ -44047,10 +44050,10 @@
         <v>4</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>268</v>
@@ -44063,10 +44066,10 @@
         <v>5</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>272</v>
@@ -44079,10 +44082,10 @@
         <v>6</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>278</v>
@@ -44095,10 +44098,10 @@
         <v>7</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
@@ -44109,10 +44112,10 @@
         <v>8</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>275</v>
@@ -44125,10 +44128,10 @@
         <v>9</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>299</v>
@@ -44157,10 +44160,10 @@
         <v>11</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>299</v>
@@ -44173,10 +44176,10 @@
         <v>12</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>299</v>
@@ -44189,10 +44192,10 @@
         <v>13</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>299</v>
@@ -44207,10 +44210,10 @@
         <v>14</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>299</v>
@@ -44225,10 +44228,10 @@
         <v>15</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>299</v>
@@ -44388,7 +44391,7 @@
         <v>255</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
@@ -44400,7 +44403,7 @@
         <v>256</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="D292" s="10"/>
       <c r="E292" s="10"/>
@@ -44468,10 +44471,10 @@
         <v>3</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>272</v>
@@ -44486,10 +44489,10 @@
         <v>4</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>264</v>
@@ -44498,7 +44501,7 @@
         <v>269</v>
       </c>
       <c r="G297" s="24" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="298" ht="16.5">
@@ -44566,7 +44569,7 @@
       </c>
       <c r="F301" s="2"/>
       <c r="G301" s="24" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="302" ht="16.5">
@@ -44586,7 +44589,7 @@
         <v>269</v>
       </c>
       <c r="G302" s="33" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="303" ht="16.5">
@@ -44664,10 +44667,10 @@
         <v>15</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>299</v>
@@ -44682,10 +44685,10 @@
         <v>16</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>299</v>
@@ -44700,10 +44703,10 @@
         <v>17</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>299</v>
@@ -44716,10 +44719,10 @@
         <v>18</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>299</v>
@@ -44728,7 +44731,7 @@
         <v>473</v>
       </c>
       <c r="G310" s="28" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="311" ht="16.5">
@@ -44739,7 +44742,7 @@
         <v>713</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>299</v>
@@ -44754,10 +44757,10 @@
         <v>20</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>299</v>
@@ -44772,10 +44775,10 @@
         <v>21</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>299</v>
@@ -44790,10 +44793,10 @@
         <v>22</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>299</v>
@@ -44808,10 +44811,10 @@
         <v>23</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>299</v>
@@ -44826,10 +44829,10 @@
         <v>24</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>299</v>
@@ -44844,10 +44847,10 @@
         <v>25</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>299</v>
@@ -44862,17 +44865,17 @@
         <v>26</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>268</v>
       </c>
       <c r="F318" s="2"/>
       <c r="G318" s="14" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="319" ht="16.5">
@@ -44880,10 +44883,10 @@
         <v>27</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>316</v>
@@ -44896,10 +44899,10 @@
         <v>28</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>316</v>
@@ -44912,10 +44915,10 @@
         <v>29</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>268</v>
@@ -44937,7 +44940,7 @@
         <v>268</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="G322" s="28"/>
     </row>
@@ -45091,7 +45094,7 @@
         <v>255</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
@@ -45103,7 +45106,7 @@
         <v>256</v>
       </c>
       <c r="C336" s="9" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="D336" s="10"/>
       <c r="E336" s="10"/>
@@ -45156,7 +45159,7 @@
         <v>964</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>264</v>
@@ -45171,10 +45174,10 @@
         <v>3</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>264</v>
@@ -45189,10 +45192,10 @@
         <v>4</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>268</v>
@@ -45205,10 +45208,10 @@
         <v>5</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>272</v>
@@ -45221,10 +45224,10 @@
         <v>6</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>278</v>
@@ -45237,10 +45240,10 @@
         <v>7</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
@@ -45251,10 +45254,10 @@
         <v>8</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>275</v>
@@ -45267,10 +45270,10 @@
         <v>9</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>299</v>
@@ -45299,10 +45302,10 @@
         <v>11</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>299</v>
@@ -45315,10 +45318,10 @@
         <v>12</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>299</v>
@@ -45331,10 +45334,10 @@
         <v>13</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>309</v>
@@ -45349,10 +45352,10 @@
         <v>14</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>309</v>
@@ -45367,10 +45370,10 @@
         <v>15</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>309</v>
@@ -45635,7 +45638,7 @@
         <v>484</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>264</v>
@@ -45653,7 +45656,7 @@
         <v>486</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>268</v>
@@ -45671,7 +45674,7 @@
         <v>488</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>272</v>
@@ -45686,19 +45689,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>292</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="9" ht="15">
@@ -45706,17 +45709,17 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>282</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="14" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="10" ht="15">
@@ -45724,17 +45727,17 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>309</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="14" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="11" ht="15">
@@ -45931,10 +45934,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>264</v>
@@ -45949,10 +45952,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>268</v>
@@ -45965,10 +45968,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>272</v>
@@ -45983,10 +45986,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>272</v>
@@ -45999,10 +46002,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>272</v>
@@ -46018,7 +46021,7 @@
         <v>484</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>264</v>
@@ -46036,7 +46039,7 @@
         <v>486</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>278</v>
@@ -46052,7 +46055,7 @@
         <v>488</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>272</v>
@@ -46065,19 +46068,19 @@
         <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>292</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="35" ht="15">
@@ -46097,7 +46100,7 @@
         <v>634</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="36" ht="15">
@@ -46105,10 +46108,10 @@
         <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>309</v>
@@ -46117,7 +46120,7 @@
         <v>473</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="37" ht="15">
@@ -46125,17 +46128,17 @@
         <v>11</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>282</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="14" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="38" ht="15">
@@ -46143,17 +46146,17 @@
         <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>309</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="14" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="39" ht="15">
@@ -46161,17 +46164,17 @@
         <v>13</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>316</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="14" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="40" ht="15">
@@ -46188,10 +46191,10 @@
         <v>278</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="41" ht="15">

--- a/doc/设计文档/数据库设计/数据库设计.xlsx
+++ b/doc/设计文档/数据库设计/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="25600" windowHeight="12080" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表清单" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9104" uniqueCount="1629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9533" uniqueCount="1641">
   <si>
     <t>序号</t>
   </si>
@@ -3576,6 +3576,42 @@
   </si>
   <si>
     <t>结果ID</t>
+  </si>
+  <si>
+    <t>WM_OUTSOURCE_ISSUE</t>
+  </si>
+  <si>
+    <t>外协领料头表</t>
+  </si>
+  <si>
+    <t>外协工单ID</t>
+  </si>
+  <si>
+    <t>外协工单编号</t>
+  </si>
+  <si>
+    <t>供应商简称</t>
+  </si>
+  <si>
+    <t>WM_OUTSOURCE_ISSUE_LINE</t>
+  </si>
+  <si>
+    <t>外协领料单行表</t>
+  </si>
+  <si>
+    <t>WM_OUTSOURCE_RECPT</t>
+  </si>
+  <si>
+    <t>外协入库单表</t>
+  </si>
+  <si>
+    <t>对应的外协工单</t>
+  </si>
+  <si>
+    <t>WM_OUTSOURCE_RECPT_LINE</t>
+  </si>
+  <si>
+    <t>外协入库单行表</t>
   </si>
   <si>
     <t>机械设备表</t>
@@ -6451,7 +6487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6733,6 +6769,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8737,10 +8779,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>1467</v>
+        <v>1479</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>1468</v>
+        <v>1480</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>277</v>
@@ -8753,10 +8795,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>1469</v>
+        <v>1481</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>1470</v>
+        <v>1482</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>311</v>
@@ -8769,10 +8811,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>1471</v>
+        <v>1483</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>1472</v>
+        <v>1484</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>294</v>
@@ -8785,10 +8827,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>1473</v>
+        <v>1485</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>1474</v>
+        <v>1486</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>284</v>
@@ -8801,17 +8843,17 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>1475</v>
+        <v>1487</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>1476</v>
+        <v>1488</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>294</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13" t="s">
-        <v>1477</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="13" ht="14.5" spans="2:7">
@@ -8994,7 +9036,7 @@
         <v>258</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1478</v>
+        <v>1490</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -9026,10 +9068,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>1479</v>
+        <v>1491</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>1480</v>
+        <v>1492</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>266</v>
@@ -9045,7 +9087,7 @@
         <v>664</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>1481</v>
+        <v>1493</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>266</v>
@@ -9058,10 +9100,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>1482</v>
+        <v>1494</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>1483</v>
+        <v>1495</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>311</v>
@@ -9074,17 +9116,17 @@
         <v>4</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>1484</v>
+        <v>1496</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>1485</v>
+        <v>1497</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>284</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="13" t="s">
-        <v>1486</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="33" ht="14.5" spans="2:7">
@@ -9092,10 +9134,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>1487</v>
+        <v>1499</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>1488</v>
+        <v>1500</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>280</v>
@@ -9108,10 +9150,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>1489</v>
+        <v>1501</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>1490</v>
+        <v>1502</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>274</v>
@@ -9124,10 +9166,10 @@
         <v>7</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>1491</v>
+        <v>1503</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>1492</v>
+        <v>1504</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>311</v>
@@ -9140,17 +9182,17 @@
         <v>8</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>1493</v>
+        <v>1505</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>1494</v>
+        <v>1506</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>284</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="13" t="s">
-        <v>1495</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="37" ht="14.5" spans="2:7">
@@ -9158,17 +9200,17 @@
         <v>9</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>1496</v>
+        <v>1508</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>1497</v>
+        <v>1509</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="13" t="s">
-        <v>1498</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="38" ht="14.5" spans="2:7">
@@ -9176,17 +9218,17 @@
         <v>10</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>1499</v>
+        <v>1511</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>1500</v>
+        <v>1512</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="13" t="s">
-        <v>1501</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="39" ht="14.5" spans="2:7">
@@ -9194,10 +9236,10 @@
         <v>11</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>1502</v>
+        <v>1514</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>1503</v>
+        <v>1515</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>311</v>
@@ -9210,10 +9252,10 @@
         <v>12</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>1504</v>
+        <v>1516</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>1505</v>
+        <v>1517</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>311</v>
@@ -9226,10 +9268,10 @@
         <v>13</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>1506</v>
+        <v>1518</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>1507</v>
+        <v>1519</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>311</v>
@@ -9242,17 +9284,17 @@
         <v>14</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>1508</v>
+        <v>1520</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>1509</v>
+        <v>1521</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>294</v>
       </c>
       <c r="F42" s="12"/>
-      <c r="G42" s="106" t="s">
-        <v>1510</v>
+      <c r="G42" s="108" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="43" ht="14.5" spans="2:7">
@@ -9260,17 +9302,17 @@
         <v>15</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>1511</v>
+        <v>1523</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>1512</v>
+        <v>1524</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>284</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="13" t="s">
-        <v>1513</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="44" ht="14.5" spans="2:7">
@@ -9435,7 +9477,7 @@
         <v>258</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1514</v>
+        <v>1526</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -9467,7 +9509,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>1515</v>
+        <v>1527</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>620</v>
@@ -9499,17 +9541,17 @@
         <v>3</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>1516</v>
+        <v>1528</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>1517</v>
+        <v>1529</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>284</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="13" t="s">
-        <v>1518</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="62" ht="14.5" spans="2:7">
@@ -9517,10 +9559,10 @@
         <v>4</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>1519</v>
+        <v>1531</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>1520</v>
+        <v>1532</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>311</v>
@@ -9531,10 +9573,10 @@
     <row r="63" ht="14.5" spans="2:7">
       <c r="B63" s="11"/>
       <c r="C63" s="12" t="s">
-        <v>1521</v>
+        <v>1533</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>1522</v>
+        <v>1534</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>280</v>
@@ -9547,10 +9589,10 @@
         <v>5</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>1523</v>
+        <v>1535</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>1524</v>
+        <v>1536</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>311</v>
@@ -9563,10 +9605,10 @@
         <v>6</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>1525</v>
+        <v>1537</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>1526</v>
+        <v>1538</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>280</v>
@@ -9768,10 +9810,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>1527</v>
+        <v>1539</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>1528</v>
+        <v>1540</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>266</v>
@@ -9784,10 +9826,10 @@
         <v>2</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>1529</v>
+        <v>1541</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>1530</v>
+        <v>1542</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>280</v>
@@ -9796,7 +9838,7 @@
         <v>271</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>1531</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="82" ht="14.5" spans="2:7">
@@ -9804,19 +9846,19 @@
         <v>3</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>1532</v>
+        <v>1544</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>1533</v>
+        <v>1545</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>1534</v>
+        <v>1546</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>1535</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="83" ht="14.5" spans="2:7">
@@ -9824,10 +9866,10 @@
         <v>4</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>1536</v>
+        <v>1548</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>1537</v>
+        <v>1549</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>274</v>
@@ -9840,13 +9882,13 @@
         <v>5</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>1538</v>
+        <v>1550</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>1217</v>
+        <v>1229</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>1539</v>
+        <v>1551</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>271</v>
@@ -9858,10 +9900,10 @@
         <v>6</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>1540</v>
+        <v>1552</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>1541</v>
+        <v>1553</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>266</v>
@@ -9874,10 +9916,10 @@
         <v>7</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>1542</v>
+        <v>1554</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>1543</v>
+        <v>1555</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>280</v>
@@ -9890,10 +9932,10 @@
         <v>8</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>1544</v>
+        <v>1556</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>1545</v>
+        <v>1557</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>280</v>
@@ -9906,10 +9948,10 @@
         <v>9</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>1546</v>
+        <v>1558</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>1547</v>
+        <v>1559</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>266</v>
@@ -9924,10 +9966,10 @@
         <v>10</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>1548</v>
+        <v>1560</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>1549</v>
+        <v>1561</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>280</v>
@@ -9940,10 +9982,10 @@
         <v>11</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>1550</v>
+        <v>1562</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>1551</v>
+        <v>1563</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>280</v>
@@ -9956,10 +9998,10 @@
         <v>12</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>1552</v>
+        <v>1564</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>1553</v>
+        <v>1565</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>318</v>
@@ -9972,10 +10014,10 @@
         <v>13</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>1554</v>
+        <v>1566</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>1555</v>
+        <v>1567</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>274</v>
@@ -9997,10 +10039,10 @@
         <v>280</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>1556</v>
+        <v>1568</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>1557</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="94" ht="14.5" spans="2:7">
@@ -10008,19 +10050,19 @@
         <v>15</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>1558</v>
+        <v>1570</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>1559</v>
+        <v>1571</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>294</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>1560</v>
+        <v>1572</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>1561</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="95" ht="14.5" spans="2:7">
@@ -10173,7 +10215,7 @@
         <v>257</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1562</v>
+        <v>1574</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -10185,7 +10227,7 @@
         <v>258</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>1563</v>
+        <v>1575</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -10217,10 +10259,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>1564</v>
+        <v>1576</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>1565</v>
+        <v>1577</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>266</v>
@@ -10233,10 +10275,10 @@
         <v>2</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>1566</v>
+        <v>1578</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>1567</v>
+        <v>1579</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>280</v>
@@ -10251,10 +10293,10 @@
         <v>3</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>1568</v>
+        <v>1580</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>1569</v>
+        <v>1581</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>280</v>
@@ -10270,7 +10312,7 @@
         <v>330</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>311</v>
@@ -10283,17 +10325,17 @@
         <v>5</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>1571</v>
+        <v>1583</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>1572</v>
+        <v>1584</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F113" s="12"/>
       <c r="G113" s="13" t="s">
-        <v>1573</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="114" ht="14.5" spans="2:7">
@@ -10464,7 +10506,7 @@
         <v>257</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1574</v>
+        <v>1586</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -10476,7 +10518,7 @@
         <v>258</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>1575</v>
+        <v>1587</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -10511,7 +10553,7 @@
         <v>1102</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>1528</v>
+        <v>1540</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>266</v>
@@ -10524,10 +10566,10 @@
         <v>2</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>1576</v>
+        <v>1588</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>1577</v>
+        <v>1589</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>266</v>
@@ -10542,10 +10584,10 @@
         <v>3</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>1578</v>
+        <v>1590</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>1579</v>
+        <v>1591</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>280</v>
@@ -10558,10 +10600,10 @@
         <v>4</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>1580</v>
+        <v>1592</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>1581</v>
+        <v>1593</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>280</v>
@@ -10574,10 +10616,10 @@
         <v>5</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>1564</v>
+        <v>1576</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>1565</v>
+        <v>1577</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>266</v>
@@ -10590,10 +10632,10 @@
         <v>6</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>1566</v>
+        <v>1578</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>1567</v>
+        <v>1579</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>280</v>
@@ -10608,10 +10650,10 @@
         <v>7</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>1568</v>
+        <v>1580</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>1569</v>
+        <v>1581</v>
       </c>
       <c r="E135" s="12" t="s">
         <v>280</v>
@@ -10624,10 +10666,10 @@
         <v>8</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>1571</v>
+        <v>1583</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>1572</v>
+        <v>1584</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>280</v>
@@ -10643,7 +10685,7 @@
         <v>330</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>311</v>
@@ -10837,7 +10879,7 @@
         <v>257</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1582</v>
+        <v>1594</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -10881,10 +10923,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>1583</v>
+        <v>1595</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>1584</v>
+        <v>1596</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>266</v>
@@ -10897,19 +10939,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>1585</v>
+        <v>1597</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>1586</v>
+        <v>1598</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1587</v>
+        <v>1599</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>1588</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="7" ht="14.5" spans="2:7">
@@ -10917,10 +10959,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>1589</v>
+        <v>1601</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>1590</v>
+        <v>1602</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>274</v>
@@ -10935,10 +10977,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>1450</v>
+        <v>1462</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>1187</v>
+        <v>1199</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>280</v>
@@ -10951,10 +10993,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>1591</v>
+        <v>1603</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>1592</v>
+        <v>1604</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>280</v>
@@ -10967,19 +11009,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>1593</v>
+        <v>1605</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>1594</v>
+        <v>1606</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>1595</v>
+        <v>1607</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>1596</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="11" ht="14.5" spans="2:7">
@@ -10987,10 +11029,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>1597</v>
+        <v>1609</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>1598</v>
+        <v>1610</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>274</v>
@@ -11003,10 +11045,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>1599</v>
+        <v>1611</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>1600</v>
+        <v>1612</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>280</v>
@@ -11019,16 +11061,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>1601</v>
+        <v>1613</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>1602</v>
+        <v>1614</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1603</v>
+        <v>1615</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1604</v>
+        <v>1616</v>
       </c>
       <c r="G13" s="13"/>
     </row>
@@ -11037,13 +11079,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>1605</v>
+        <v>1617</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>1606</v>
+        <v>1618</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1607</v>
+        <v>1619</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13"/>
@@ -11053,10 +11095,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>1608</v>
+        <v>1620</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>1609</v>
+        <v>1621</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>280</v>
@@ -11069,13 +11111,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>1610</v>
+        <v>1622</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>1611</v>
+        <v>1623</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1603</v>
+        <v>1615</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13"/>
@@ -11088,7 +11130,7 @@
         <v>292</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>1612</v>
+        <v>1624</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>294</v>
@@ -11106,14 +11148,14 @@
         <v>535</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>1613</v>
+        <v>1625</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>1614</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="19" ht="14.5" spans="2:7">
@@ -11266,7 +11308,7 @@
         <v>257</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1615</v>
+        <v>1627</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -11278,7 +11320,7 @@
         <v>258</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1616</v>
+        <v>1628</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -11310,10 +11352,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>1324</v>
+        <v>1336</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>1617</v>
+        <v>1629</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>266</v>
@@ -11326,10 +11368,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>1326</v>
+        <v>1338</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>1618</v>
+        <v>1630</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>280</v>
@@ -11344,10 +11386,10 @@
         <v>3</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>1328</v>
+        <v>1340</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>1619</v>
+        <v>1631</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>274</v>
@@ -11362,13 +11404,13 @@
         <v>4</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>1620</v>
+        <v>1632</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>1621</v>
+        <v>1633</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>1622</v>
+        <v>1634</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="13"/>
@@ -11378,10 +11420,10 @@
         <v>5</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>1623</v>
+        <v>1635</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>1624</v>
+        <v>1636</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>280</v>
@@ -11390,7 +11432,7 @@
         <v>271</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>1625</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="39" ht="14.5" spans="2:7">
@@ -11398,10 +11440,10 @@
         <v>6</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>1626</v>
+        <v>1638</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>1627</v>
+        <v>1639</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>294</v>
@@ -11410,7 +11452,7 @@
         <v>882</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>1628</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="40" ht="14.5" spans="2:7">
@@ -11421,7 +11463,7 @@
         <v>292</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>1612</v>
+        <v>1624</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>294</v>
@@ -15677,8 +15719,8 @@
   <sheetPr/>
   <dimension ref="B2:G570"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -15993,7 +16035,7 @@
         <v>266</v>
       </c>
       <c r="F20" s="12"/>
-      <c r="G20" s="99" t="s">
+      <c r="G20" s="101" t="s">
         <v>524</v>
       </c>
     </row>
@@ -16011,7 +16053,7 @@
         <v>270</v>
       </c>
       <c r="F21" s="12"/>
-      <c r="G21" s="100"/>
+      <c r="G21" s="102"/>
     </row>
     <row r="22" ht="14.5" spans="2:7">
       <c r="B22" s="11">
@@ -17019,6 +17061,7 @@
       <c r="F88" s="15"/>
       <c r="G88" s="16"/>
     </row>
+    <row r="94" ht="14.75"/>
     <row r="95" ht="14.5" spans="2:7">
       <c r="B95" s="1" t="s">
         <v>257</v>
@@ -17383,7 +17426,7 @@
       <c r="F115" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="G115" s="101" t="s">
+      <c r="G115" s="103" t="s">
         <v>561</v>
       </c>
     </row>
@@ -17401,7 +17444,7 @@
         <v>517</v>
       </c>
       <c r="F116" s="12"/>
-      <c r="G116" s="102"/>
+      <c r="G116" s="104"/>
     </row>
     <row r="117" ht="14.5" spans="2:7">
       <c r="B117" s="11">
@@ -17417,7 +17460,7 @@
         <v>517</v>
       </c>
       <c r="F117" s="12"/>
-      <c r="G117" s="103"/>
+      <c r="G117" s="105"/>
     </row>
     <row r="118" ht="14.5" spans="2:7">
       <c r="B118" s="11">
@@ -17485,7 +17528,7 @@
       <c r="F121" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="G121" s="104" t="s">
+      <c r="G121" s="106" t="s">
         <v>564</v>
       </c>
     </row>
@@ -17505,7 +17548,7 @@
       <c r="F122" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="G122" s="104" t="s">
+      <c r="G122" s="106" t="s">
         <v>568</v>
       </c>
     </row>
@@ -17523,7 +17566,7 @@
         <v>318</v>
       </c>
       <c r="F123" s="12"/>
-      <c r="G123" s="104"/>
+      <c r="G123" s="106"/>
     </row>
     <row r="124" ht="14.5" spans="2:7">
       <c r="B124" s="11">
@@ -17541,7 +17584,7 @@
       <c r="F124" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="G124" s="104"/>
+      <c r="G124" s="106"/>
     </row>
     <row r="125" ht="14.5" spans="2:7">
       <c r="B125" s="11">
@@ -18073,7 +18116,7 @@
       <c r="F162" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="G162" s="99" t="s">
+      <c r="G162" s="101" t="s">
         <v>590</v>
       </c>
     </row>
@@ -18093,7 +18136,7 @@
       <c r="F163" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="G163" s="100"/>
+      <c r="G163" s="102"/>
     </row>
     <row r="164" ht="14.5" spans="2:7">
       <c r="B164" s="11">
@@ -18111,7 +18154,7 @@
       <c r="F164" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="G164" s="100"/>
+      <c r="G164" s="102"/>
     </row>
     <row r="165" ht="14.5" spans="2:7">
       <c r="B165" s="11">
@@ -22857,7 +22900,7 @@
       <c r="F483" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="G483" s="106" t="s">
+      <c r="G483" s="108" t="s">
         <v>766</v>
       </c>
     </row>
@@ -22895,7 +22938,7 @@
         <v>277</v>
       </c>
       <c r="F485" s="12"/>
-      <c r="G485" s="105"/>
+      <c r="G485" s="107"/>
     </row>
     <row r="486" ht="14.5" spans="2:7">
       <c r="B486" s="11">
@@ -23226,7 +23269,7 @@
         <v>277</v>
       </c>
       <c r="F507" s="12"/>
-      <c r="G507" s="105"/>
+      <c r="G507" s="107"/>
     </row>
     <row r="508" ht="14.5" spans="2:7">
       <c r="B508" s="11">
@@ -23709,7 +23752,7 @@
         <v>277</v>
       </c>
       <c r="F539" s="12"/>
-      <c r="G539" s="105"/>
+      <c r="G539" s="107"/>
     </row>
     <row r="540" ht="14.5" spans="2:7">
       <c r="B540" s="11">
@@ -24056,7 +24099,7 @@
         <v>277</v>
       </c>
       <c r="F562" s="12"/>
-      <c r="G562" s="105"/>
+      <c r="G562" s="107"/>
     </row>
     <row r="563" ht="14.5" spans="2:7">
       <c r="B563" s="11">
@@ -26377,10 +26420,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G955"/>
+  <dimension ref="B1:G1097"/>
   <sheetViews>
-    <sheetView topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="F571" sqref="F571"/>
+    <sheetView tabSelected="1" topLeftCell="A957" workbookViewId="0">
+      <selection activeCell="D971" sqref="D971"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -40923,8 +40966,2145 @@
       <c r="G954" s="92"/>
     </row>
     <row r="955" ht="14.75"/>
+    <row r="959" ht="14.75"/>
+    <row r="960" ht="14.5" spans="2:7">
+      <c r="B960" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C960" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D960" s="3"/>
+      <c r="E960" s="3"/>
+      <c r="F960" s="3"/>
+      <c r="G960" s="4"/>
+    </row>
+    <row r="961" ht="14.5" spans="2:7">
+      <c r="B961" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C961" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D961" s="7"/>
+      <c r="E961" s="7"/>
+      <c r="F961" s="7"/>
+      <c r="G961" s="8"/>
+    </row>
+    <row r="962" ht="14.5" spans="2:7">
+      <c r="B962" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C962" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D962" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E962" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F962" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G962" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="963" ht="14.5" spans="2:7">
+      <c r="B963" s="11">
+        <v>1</v>
+      </c>
+      <c r="C963" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="D963" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="E963" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F963" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G963" s="13"/>
+    </row>
+    <row r="964" ht="14.5" spans="2:7">
+      <c r="B964" s="11">
+        <v>2</v>
+      </c>
+      <c r="C964" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="D964" s="12" t="s">
+        <v>931</v>
+      </c>
+      <c r="E964" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F964" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G964" s="13"/>
+    </row>
+    <row r="965" ht="14.5" spans="2:7">
+      <c r="B965" s="11">
+        <v>3</v>
+      </c>
+      <c r="C965" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="D965" s="12" t="s">
+        <v>933</v>
+      </c>
+      <c r="E965" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F965" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G965" s="13"/>
+    </row>
+    <row r="966" ht="14.5" spans="2:7">
+      <c r="B966" s="11">
+        <v>4</v>
+      </c>
+      <c r="C966" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D966" s="12" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E966" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F966" s="12"/>
+      <c r="G966" s="27" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="967" ht="14.5" spans="2:7">
+      <c r="B967" s="11">
+        <v>5</v>
+      </c>
+      <c r="C967" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D967" s="12" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E967" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F967" s="12"/>
+      <c r="G967" s="28"/>
+    </row>
+    <row r="968" ht="14.5" spans="2:7">
+      <c r="B968" s="11">
+        <v>6</v>
+      </c>
+      <c r="C968" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D968" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E968" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F968" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G968" s="28"/>
+    </row>
+    <row r="969" ht="14.5" spans="2:7">
+      <c r="B969" s="11">
+        <v>7</v>
+      </c>
+      <c r="C969" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D969" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E969" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F969" s="12"/>
+      <c r="G969" s="28"/>
+    </row>
+    <row r="970" ht="14.5" spans="2:7">
+      <c r="B970" s="11">
+        <v>8</v>
+      </c>
+      <c r="C970" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D970" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E970" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F970" s="12"/>
+      <c r="G970" s="28"/>
+    </row>
+    <row r="971" ht="14.5" spans="2:7">
+      <c r="B971" s="11">
+        <v>9</v>
+      </c>
+      <c r="C971" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D971" s="12" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E971" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F971" s="12"/>
+      <c r="G971" s="23"/>
+    </row>
+    <row r="972" ht="14.5" spans="2:7">
+      <c r="B972" s="11">
+        <v>11</v>
+      </c>
+      <c r="C972" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="D972" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="E972" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F972" s="12"/>
+      <c r="G972" s="27" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="973" ht="14.5" spans="2:7">
+      <c r="B973" s="11">
+        <v>12</v>
+      </c>
+      <c r="C973" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="D973" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="E973" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F973" s="12"/>
+      <c r="G973" s="28"/>
+    </row>
+    <row r="974" ht="14.5" spans="2:7">
+      <c r="B974" s="11">
+        <v>13</v>
+      </c>
+      <c r="C974" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="D974" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="E974" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F974" s="12"/>
+      <c r="G974" s="28"/>
+    </row>
+    <row r="975" ht="14.5" spans="2:7">
+      <c r="B975" s="11">
+        <v>14</v>
+      </c>
+      <c r="C975" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="D975" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="E975" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F975" s="12"/>
+      <c r="G975" s="28"/>
+    </row>
+    <row r="976" ht="14.5" spans="2:7">
+      <c r="B976" s="11">
+        <v>15</v>
+      </c>
+      <c r="C976" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="D976" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E976" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F976" s="12"/>
+      <c r="G976" s="28"/>
+    </row>
+    <row r="977" ht="14.5" spans="2:7">
+      <c r="B977" s="11">
+        <v>16</v>
+      </c>
+      <c r="C977" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="D977" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="E977" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F977" s="12"/>
+      <c r="G977" s="28"/>
+    </row>
+    <row r="978" ht="14.5" spans="2:7">
+      <c r="B978" s="11">
+        <v>17</v>
+      </c>
+      <c r="C978" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="D978" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="E978" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F978" s="12"/>
+      <c r="G978" s="28"/>
+    </row>
+    <row r="979" ht="14.5" spans="2:7">
+      <c r="B979" s="11">
+        <v>18</v>
+      </c>
+      <c r="C979" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="D979" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="E979" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F979" s="12"/>
+      <c r="G979" s="28"/>
+    </row>
+    <row r="980" ht="14.5" spans="2:7">
+      <c r="B980" s="11">
+        <v>19</v>
+      </c>
+      <c r="C980" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="D980" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="E980" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F980" s="12"/>
+      <c r="G980" s="23"/>
+    </row>
+    <row r="981" ht="14.5" spans="2:7">
+      <c r="B981" s="11">
+        <v>20</v>
+      </c>
+      <c r="C981" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="D981" s="12" t="s">
+        <v>938</v>
+      </c>
+      <c r="E981" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F981" s="12"/>
+      <c r="G981" s="13"/>
+    </row>
+    <row r="982" ht="14.5" spans="2:7">
+      <c r="B982" s="11">
+        <v>21</v>
+      </c>
+      <c r="C982" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="D982" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="E982" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F982" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="G982" s="13"/>
+    </row>
+    <row r="983" ht="14.5" spans="2:7">
+      <c r="B983" s="11">
+        <v>22</v>
+      </c>
+      <c r="C983" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D983" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E983" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F983" s="12"/>
+      <c r="G983" s="32"/>
+    </row>
+    <row r="984" ht="14.5" spans="2:7">
+      <c r="B984" s="11">
+        <v>23</v>
+      </c>
+      <c r="C984" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D984" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E984" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F984" s="12"/>
+      <c r="G984" s="13"/>
+    </row>
+    <row r="985" ht="14.5" spans="2:7">
+      <c r="B985" s="11">
+        <v>24</v>
+      </c>
+      <c r="C985" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D985" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E985" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F985" s="12"/>
+      <c r="G985" s="13"/>
+    </row>
+    <row r="986" ht="14.5" spans="2:7">
+      <c r="B986" s="11">
+        <v>25</v>
+      </c>
+      <c r="C986" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D986" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E986" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F986" s="12"/>
+      <c r="G986" s="13"/>
+    </row>
+    <row r="987" ht="14.5" spans="2:7">
+      <c r="B987" s="11">
+        <v>26</v>
+      </c>
+      <c r="C987" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D987" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="E987" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F987" s="12"/>
+      <c r="G987" s="13"/>
+    </row>
+    <row r="988" ht="14.5" spans="2:7">
+      <c r="B988" s="11">
+        <v>27</v>
+      </c>
+      <c r="C988" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D988" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E988" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F988" s="12"/>
+      <c r="G988" s="13"/>
+    </row>
+    <row r="989" ht="14.5" spans="2:7">
+      <c r="B989" s="11">
+        <v>28</v>
+      </c>
+      <c r="C989" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D989" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="E989" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F989" s="12"/>
+      <c r="G989" s="13"/>
+    </row>
+    <row r="990" ht="14.5" spans="2:7">
+      <c r="B990" s="11">
+        <v>29</v>
+      </c>
+      <c r="C990" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D990" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E990" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F990" s="12"/>
+      <c r="G990" s="13"/>
+    </row>
+    <row r="991" ht="15.25" spans="2:7">
+      <c r="B991" s="17">
+        <v>30</v>
+      </c>
+      <c r="C991" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D991" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="E991" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F991" s="15"/>
+      <c r="G991" s="16"/>
+    </row>
+    <row r="994" ht="14.75"/>
+    <row r="995" ht="14.5" spans="2:7">
+      <c r="B995" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C995" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D995" s="3"/>
+      <c r="E995" s="3"/>
+      <c r="F995" s="3"/>
+      <c r="G995" s="4"/>
+    </row>
+    <row r="996" ht="14.5" spans="2:7">
+      <c r="B996" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C996" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D996" s="7"/>
+      <c r="E996" s="7"/>
+      <c r="F996" s="7"/>
+      <c r="G996" s="8"/>
+    </row>
+    <row r="997" ht="14.5" spans="2:7">
+      <c r="B997" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C997" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D997" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E997" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F997" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G997" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="998" ht="14.5" spans="2:7">
+      <c r="B998" s="11">
+        <v>1</v>
+      </c>
+      <c r="C998" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="D998" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="E998" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F998" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G998" s="13"/>
+    </row>
+    <row r="999" ht="14.5" spans="2:7">
+      <c r="B999" s="11">
+        <v>2</v>
+      </c>
+      <c r="C999" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="D999" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="E999" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F999" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G999" s="13"/>
+    </row>
+    <row r="1000" ht="14.5" spans="2:7">
+      <c r="B1000" s="11">
+        <v>3</v>
+      </c>
+      <c r="C1000" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1000" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1000" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1000" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1000" s="13"/>
+    </row>
+    <row r="1001" ht="14.5" spans="2:7">
+      <c r="B1001" s="11">
+        <v>4</v>
+      </c>
+      <c r="C1001" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1001" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1001" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1001" s="12"/>
+      <c r="G1001" s="13"/>
+    </row>
+    <row r="1002" ht="14.5" spans="2:7">
+      <c r="B1002" s="11">
+        <v>5</v>
+      </c>
+      <c r="C1002" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1002" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1002" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1002" s="12"/>
+      <c r="G1002" s="13"/>
+    </row>
+    <row r="1003" ht="14.5" spans="2:7">
+      <c r="B1003" s="11">
+        <v>6</v>
+      </c>
+      <c r="C1003" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1003" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1003" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1003" s="12"/>
+      <c r="G1003" s="13"/>
+    </row>
+    <row r="1004" ht="14.5" spans="2:7">
+      <c r="B1004" s="11">
+        <v>7</v>
+      </c>
+      <c r="C1004" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1004" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1004" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1004" s="12"/>
+      <c r="G1004" s="13"/>
+    </row>
+    <row r="1005" ht="14.5" spans="2:7">
+      <c r="B1005" s="11">
+        <v>8</v>
+      </c>
+      <c r="C1005" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="D1005" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="E1005" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1005" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1005" s="13"/>
+    </row>
+    <row r="1006" ht="14.5" spans="2:7">
+      <c r="B1006" s="11">
+        <v>9</v>
+      </c>
+      <c r="C1006" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1006" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="E1006" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1006" s="12"/>
+      <c r="G1006" s="26"/>
+    </row>
+    <row r="1007" ht="14.5" spans="2:7">
+      <c r="B1007" s="11">
+        <v>10</v>
+      </c>
+      <c r="C1007" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="D1007" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="E1007" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1007" s="12"/>
+      <c r="G1007" s="27" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="1008" ht="14.5" spans="2:7">
+      <c r="B1008" s="11">
+        <v>11</v>
+      </c>
+      <c r="C1008" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1008" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="E1008" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1008" s="12"/>
+      <c r="G1008" s="28"/>
+    </row>
+    <row r="1009" ht="14.5" spans="2:7">
+      <c r="B1009" s="11">
+        <v>12</v>
+      </c>
+      <c r="C1009" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1009" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="E1009" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1009" s="12"/>
+      <c r="G1009" s="23"/>
+    </row>
+    <row r="1010" ht="14.5" spans="2:7">
+      <c r="B1010" s="11">
+        <v>13</v>
+      </c>
+      <c r="C1010" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="D1010" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="E1010" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1010" s="12"/>
+      <c r="G1010" s="27" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="1011" ht="14.5" spans="2:7">
+      <c r="B1011" s="11">
+        <v>14</v>
+      </c>
+      <c r="C1011" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="D1011" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E1011" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1011" s="12"/>
+      <c r="G1011" s="28"/>
+    </row>
+    <row r="1012" ht="14.5" spans="2:7">
+      <c r="B1012" s="11">
+        <v>15</v>
+      </c>
+      <c r="C1012" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="D1012" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="E1012" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1012" s="12"/>
+      <c r="G1012" s="23"/>
+    </row>
+    <row r="1013" ht="14.5" spans="2:7">
+      <c r="B1013" s="11">
+        <v>16</v>
+      </c>
+      <c r="C1013" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="D1013" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="E1013" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1013" s="12"/>
+      <c r="G1013" s="27" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="1014" ht="14.5" spans="2:7">
+      <c r="B1014" s="11">
+        <v>17</v>
+      </c>
+      <c r="C1014" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="D1014" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="E1014" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1014" s="12"/>
+      <c r="G1014" s="28"/>
+    </row>
+    <row r="1015" ht="14.5" spans="2:7">
+      <c r="B1015" s="11">
+        <v>18</v>
+      </c>
+      <c r="C1015" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="D1015" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="E1015" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1015" s="12"/>
+      <c r="G1015" s="23"/>
+    </row>
+    <row r="1016" ht="14.5" spans="2:7">
+      <c r="B1016" s="11">
+        <v>20</v>
+      </c>
+      <c r="C1016" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1016" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1016" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1016" s="12"/>
+      <c r="G1016" s="32"/>
+    </row>
+    <row r="1017" ht="14.5" spans="2:7">
+      <c r="B1017" s="11">
+        <v>21</v>
+      </c>
+      <c r="C1017" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1017" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1017" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1017" s="12"/>
+      <c r="G1017" s="13"/>
+    </row>
+    <row r="1018" ht="14.5" spans="2:7">
+      <c r="B1018" s="11">
+        <v>22</v>
+      </c>
+      <c r="C1018" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1018" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1018" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1018" s="12"/>
+      <c r="G1018" s="13"/>
+    </row>
+    <row r="1019" ht="14.5" spans="2:7">
+      <c r="B1019" s="11">
+        <v>23</v>
+      </c>
+      <c r="C1019" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1019" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1019" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1019" s="12"/>
+      <c r="G1019" s="13"/>
+    </row>
+    <row r="1020" ht="14.5" spans="2:7">
+      <c r="B1020" s="11">
+        <v>24</v>
+      </c>
+      <c r="C1020" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1020" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1020" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1020" s="12"/>
+      <c r="G1020" s="13"/>
+    </row>
+    <row r="1021" ht="14.5" spans="2:7">
+      <c r="B1021" s="11">
+        <v>25</v>
+      </c>
+      <c r="C1021" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1021" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1021" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1021" s="12"/>
+      <c r="G1021" s="13"/>
+    </row>
+    <row r="1022" ht="14.5" spans="2:7">
+      <c r="B1022" s="11">
+        <v>26</v>
+      </c>
+      <c r="C1022" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1022" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1022" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1022" s="12"/>
+      <c r="G1022" s="13"/>
+    </row>
+    <row r="1023" ht="14.5" spans="2:7">
+      <c r="B1023" s="11">
+        <v>27</v>
+      </c>
+      <c r="C1023" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1023" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1023" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1023" s="12"/>
+      <c r="G1023" s="13"/>
+    </row>
+    <row r="1024" ht="15.25" spans="2:7">
+      <c r="B1024" s="17">
+        <v>28</v>
+      </c>
+      <c r="C1024" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1024" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1024" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1024" s="15"/>
+      <c r="G1024" s="16"/>
+    </row>
+    <row r="1027" ht="14.75"/>
+    <row r="1028" ht="14.5" spans="2:7">
+      <c r="B1028" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1028" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D1028" s="3"/>
+      <c r="E1028" s="3"/>
+      <c r="F1028" s="3"/>
+      <c r="G1028" s="4"/>
+    </row>
+    <row r="1029" ht="14.5" spans="2:7">
+      <c r="B1029" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1029" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D1029" s="7"/>
+      <c r="E1029" s="7"/>
+      <c r="F1029" s="7"/>
+      <c r="G1029" s="8"/>
+    </row>
+    <row r="1030" ht="14.5" spans="2:7">
+      <c r="B1030" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1030" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1030" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1030" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1030" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1030" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1031" ht="14.5" spans="2:7">
+      <c r="B1031" s="11">
+        <v>1</v>
+      </c>
+      <c r="C1031" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="D1031" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="E1031" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1031" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1031" s="13"/>
+    </row>
+    <row r="1032" ht="14.5" spans="2:7">
+      <c r="B1032" s="11">
+        <v>2</v>
+      </c>
+      <c r="C1032" s="12" t="s">
+        <v>898</v>
+      </c>
+      <c r="D1032" s="12" t="s">
+        <v>899</v>
+      </c>
+      <c r="E1032" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1032" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1032" s="13"/>
+    </row>
+    <row r="1033" ht="14.5" spans="2:7">
+      <c r="B1033" s="11">
+        <v>3</v>
+      </c>
+      <c r="C1033" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1033" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1033" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1033" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1033" s="13"/>
+    </row>
+    <row r="1034" ht="14.5" spans="2:7">
+      <c r="B1034" s="11">
+        <v>4</v>
+      </c>
+      <c r="C1034" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="D1034" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="E1034" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1034" s="12"/>
+      <c r="G1034" s="13" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1035" ht="14.5" spans="2:7">
+      <c r="B1035" s="11">
+        <v>5</v>
+      </c>
+      <c r="C1035" s="12" t="s">
+        <v>905</v>
+      </c>
+      <c r="D1035" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="E1035" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1035" s="12"/>
+      <c r="G1035" s="13"/>
+    </row>
+    <row r="1036" ht="14.5" spans="2:7">
+      <c r="B1036" s="11">
+        <v>6</v>
+      </c>
+      <c r="C1036" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1036" s="12" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E1036" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1036" s="12"/>
+      <c r="G1036" s="99" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1037" ht="14.5" spans="2:7">
+      <c r="B1037" s="11">
+        <v>7</v>
+      </c>
+      <c r="C1037" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1037" s="12" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E1037" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1037" s="12"/>
+      <c r="G1037" s="100"/>
+    </row>
+    <row r="1038" ht="14.5" spans="2:7">
+      <c r="B1038" s="11">
+        <v>8</v>
+      </c>
+      <c r="C1038" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1038" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1038" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1038" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1038" s="27" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="1039" ht="14.5" spans="2:7">
+      <c r="B1039" s="11">
+        <v>9</v>
+      </c>
+      <c r="C1039" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1039" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1039" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1039" s="12"/>
+      <c r="G1039" s="28"/>
+    </row>
+    <row r="1040" ht="14.5" spans="2:7">
+      <c r="B1040" s="11">
+        <v>10</v>
+      </c>
+      <c r="C1040" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1040" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1040" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1040" s="12"/>
+      <c r="G1040" s="28"/>
+    </row>
+    <row r="1041" ht="14.5" spans="2:7">
+      <c r="B1041" s="11">
+        <v>11</v>
+      </c>
+      <c r="C1041" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1041" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1041" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1041" s="12"/>
+      <c r="G1041" s="23"/>
+    </row>
+    <row r="1042" ht="14.5" spans="2:7">
+      <c r="B1042" s="11">
+        <v>12</v>
+      </c>
+      <c r="C1042" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="D1042" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="E1042" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1042" s="12"/>
+      <c r="G1042" s="27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="1043" ht="14.5" spans="2:7">
+      <c r="B1043" s="11">
+        <v>13</v>
+      </c>
+      <c r="C1043" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1043" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="E1043" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1043" s="12"/>
+      <c r="G1043" s="28"/>
+    </row>
+    <row r="1044" ht="14.5" spans="2:7">
+      <c r="B1044" s="11">
+        <v>14</v>
+      </c>
+      <c r="C1044" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1044" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="E1044" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1044" s="12"/>
+      <c r="G1044" s="23"/>
+    </row>
+    <row r="1045" ht="14.5" spans="2:7">
+      <c r="B1045" s="11">
+        <v>15</v>
+      </c>
+      <c r="C1045" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="D1045" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="E1045" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1045" s="12"/>
+      <c r="G1045" s="27" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="1046" ht="14.5" spans="2:7">
+      <c r="B1046" s="11">
+        <v>16</v>
+      </c>
+      <c r="C1046" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="D1046" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E1046" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1046" s="12"/>
+      <c r="G1046" s="28"/>
+    </row>
+    <row r="1047" ht="14.5" spans="2:7">
+      <c r="B1047" s="11">
+        <v>17</v>
+      </c>
+      <c r="C1047" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="D1047" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="E1047" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1047" s="12"/>
+      <c r="G1047" s="23"/>
+    </row>
+    <row r="1048" ht="14.5" spans="2:7">
+      <c r="B1048" s="11">
+        <v>18</v>
+      </c>
+      <c r="C1048" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="D1048" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="E1048" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1048" s="12"/>
+      <c r="G1048" s="27" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="1049" ht="14.5" spans="2:7">
+      <c r="B1049" s="11">
+        <v>19</v>
+      </c>
+      <c r="C1049" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="D1049" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="E1049" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1049" s="12"/>
+      <c r="G1049" s="28"/>
+    </row>
+    <row r="1050" ht="14.5" spans="2:7">
+      <c r="B1050" s="11">
+        <v>20</v>
+      </c>
+      <c r="C1050" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="D1050" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="E1050" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1050" s="12"/>
+      <c r="G1050" s="23"/>
+    </row>
+    <row r="1051" ht="14.5" spans="2:7">
+      <c r="B1051" s="11">
+        <v>21</v>
+      </c>
+      <c r="C1051" s="12" t="s">
+        <v>914</v>
+      </c>
+      <c r="D1051" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="E1051" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1051" s="12"/>
+      <c r="G1051" s="13"/>
+    </row>
+    <row r="1052" ht="14.5" spans="2:7">
+      <c r="B1052" s="11">
+        <v>22</v>
+      </c>
+      <c r="C1052" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="D1052" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1052" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1052" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="G1052" s="13"/>
+    </row>
+    <row r="1053" ht="14.5" spans="2:7">
+      <c r="B1053" s="11">
+        <v>23</v>
+      </c>
+      <c r="C1053" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1053" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1053" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1053" s="12"/>
+      <c r="G1053" s="32"/>
+    </row>
+    <row r="1054" ht="14.5" spans="2:7">
+      <c r="B1054" s="11">
+        <v>24</v>
+      </c>
+      <c r="C1054" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1054" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1054" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1054" s="12"/>
+      <c r="G1054" s="13"/>
+    </row>
+    <row r="1055" ht="14.5" spans="2:7">
+      <c r="B1055" s="11">
+        <v>25</v>
+      </c>
+      <c r="C1055" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1055" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1055" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1055" s="12"/>
+      <c r="G1055" s="13"/>
+    </row>
+    <row r="1056" ht="14.5" spans="2:7">
+      <c r="B1056" s="11">
+        <v>26</v>
+      </c>
+      <c r="C1056" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1056" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1056" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1056" s="12"/>
+      <c r="G1056" s="13"/>
+    </row>
+    <row r="1057" ht="14.5" spans="2:7">
+      <c r="B1057" s="11">
+        <v>27</v>
+      </c>
+      <c r="C1057" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1057" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1057" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1057" s="12"/>
+      <c r="G1057" s="13"/>
+    </row>
+    <row r="1058" ht="14.5" spans="2:7">
+      <c r="B1058" s="11">
+        <v>28</v>
+      </c>
+      <c r="C1058" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1058" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1058" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1058" s="12"/>
+      <c r="G1058" s="13"/>
+    </row>
+    <row r="1059" ht="14.5" spans="2:7">
+      <c r="B1059" s="11">
+        <v>29</v>
+      </c>
+      <c r="C1059" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1059" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1059" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1059" s="12"/>
+      <c r="G1059" s="13"/>
+    </row>
+    <row r="1060" ht="14.5" spans="2:7">
+      <c r="B1060" s="11">
+        <v>30</v>
+      </c>
+      <c r="C1060" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1060" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1060" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1060" s="12"/>
+      <c r="G1060" s="13"/>
+    </row>
+    <row r="1061" ht="15.25" spans="2:7">
+      <c r="B1061" s="11">
+        <v>31</v>
+      </c>
+      <c r="C1061" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1061" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1061" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1061" s="15"/>
+      <c r="G1061" s="16"/>
+    </row>
+    <row r="1064" ht="14.5" spans="2:7">
+      <c r="B1064" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1064" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D1064" s="3"/>
+      <c r="E1064" s="3"/>
+      <c r="F1064" s="3"/>
+      <c r="G1064" s="4"/>
+    </row>
+    <row r="1065" ht="14.5" spans="2:7">
+      <c r="B1065" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1065" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D1065" s="7"/>
+      <c r="E1065" s="7"/>
+      <c r="F1065" s="7"/>
+      <c r="G1065" s="8"/>
+    </row>
+    <row r="1066" ht="14.5" spans="2:7">
+      <c r="B1066" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1066" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1066" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1066" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1066" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1066" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1067" ht="14.5" spans="2:7">
+      <c r="B1067" s="11">
+        <v>1</v>
+      </c>
+      <c r="C1067" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1067" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="E1067" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1067" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1067" s="13"/>
+    </row>
+    <row r="1068" ht="14.5" spans="2:7">
+      <c r="B1068" s="11">
+        <v>2</v>
+      </c>
+      <c r="C1068" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="D1068" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="E1068" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1068" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1068" s="13"/>
+    </row>
+    <row r="1069" ht="14.5" spans="2:7">
+      <c r="B1069" s="11">
+        <v>3</v>
+      </c>
+      <c r="C1069" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1069" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1069" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1069" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1069" s="13"/>
+    </row>
+    <row r="1070" ht="14.5" spans="2:7">
+      <c r="B1070" s="11">
+        <v>4</v>
+      </c>
+      <c r="C1070" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1070" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1070" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1070" s="12"/>
+      <c r="G1070" s="13"/>
+    </row>
+    <row r="1071" ht="14.5" spans="2:7">
+      <c r="B1071" s="11">
+        <v>5</v>
+      </c>
+      <c r="C1071" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1071" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1071" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1071" s="12"/>
+      <c r="G1071" s="13"/>
+    </row>
+    <row r="1072" ht="14.5" spans="2:7">
+      <c r="B1072" s="11">
+        <v>6</v>
+      </c>
+      <c r="C1072" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1072" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1072" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1072" s="12"/>
+      <c r="G1072" s="13"/>
+    </row>
+    <row r="1073" ht="14.5" spans="2:7">
+      <c r="B1073" s="11">
+        <v>7</v>
+      </c>
+      <c r="C1073" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1073" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1073" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1073" s="12"/>
+      <c r="G1073" s="13"/>
+    </row>
+    <row r="1074" ht="14.5" spans="2:7">
+      <c r="B1074" s="11">
+        <v>8</v>
+      </c>
+      <c r="C1074" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="D1074" s="12" t="s">
+        <v>918</v>
+      </c>
+      <c r="E1074" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1074" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1074" s="13"/>
+    </row>
+    <row r="1075" ht="14.5" spans="2:7">
+      <c r="B1075" s="11">
+        <v>9</v>
+      </c>
+      <c r="C1075" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1075" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="E1075" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1075" s="12"/>
+      <c r="G1075" s="26" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1076" ht="14.5" spans="2:7">
+      <c r="B1076" s="11">
+        <v>10</v>
+      </c>
+      <c r="C1076" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="D1076" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="E1076" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1076" s="12"/>
+      <c r="G1076" s="27" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="1077" ht="14.5" spans="2:7">
+      <c r="B1077" s="11">
+        <v>11</v>
+      </c>
+      <c r="C1077" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1077" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="E1077" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1077" s="12"/>
+      <c r="G1077" s="28"/>
+    </row>
+    <row r="1078" ht="14.5" spans="2:7">
+      <c r="B1078" s="11">
+        <v>12</v>
+      </c>
+      <c r="C1078" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1078" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="E1078" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1078" s="12"/>
+      <c r="G1078" s="23"/>
+    </row>
+    <row r="1079" ht="14.5" spans="2:7">
+      <c r="B1079" s="11">
+        <v>13</v>
+      </c>
+      <c r="C1079" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="D1079" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="E1079" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1079" s="12"/>
+      <c r="G1079" s="27" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="1080" ht="14.5" spans="2:7">
+      <c r="B1080" s="11">
+        <v>14</v>
+      </c>
+      <c r="C1080" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="D1080" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E1080" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1080" s="12"/>
+      <c r="G1080" s="28"/>
+    </row>
+    <row r="1081" ht="14.5" spans="2:7">
+      <c r="B1081" s="11">
+        <v>15</v>
+      </c>
+      <c r="C1081" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="D1081" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="E1081" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1081" s="12"/>
+      <c r="G1081" s="23"/>
+    </row>
+    <row r="1082" ht="14.5" spans="2:7">
+      <c r="B1082" s="11">
+        <v>16</v>
+      </c>
+      <c r="C1082" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="D1082" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="E1082" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1082" s="12"/>
+      <c r="G1082" s="27" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="1083" ht="14.5" spans="2:7">
+      <c r="B1083" s="11">
+        <v>17</v>
+      </c>
+      <c r="C1083" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="D1083" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="E1083" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1083" s="12"/>
+      <c r="G1083" s="28"/>
+    </row>
+    <row r="1084" ht="14.5" spans="2:7">
+      <c r="B1084" s="11">
+        <v>18</v>
+      </c>
+      <c r="C1084" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="D1084" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="E1084" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1084" s="12"/>
+      <c r="G1084" s="23"/>
+    </row>
+    <row r="1085" ht="14.5" spans="2:7">
+      <c r="B1085" s="11">
+        <v>19</v>
+      </c>
+      <c r="C1085" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="D1085" s="12" t="s">
+        <v>924</v>
+      </c>
+      <c r="E1085" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1085" s="12"/>
+      <c r="G1085" s="23"/>
+    </row>
+    <row r="1086" ht="14.5" spans="2:7">
+      <c r="B1086" s="11">
+        <v>20</v>
+      </c>
+      <c r="C1086" s="12" t="s">
+        <v>925</v>
+      </c>
+      <c r="D1086" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="E1086" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="F1086" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="G1086" s="23"/>
+    </row>
+    <row r="1087" ht="14.5" spans="2:7">
+      <c r="B1087" s="11">
+        <v>21</v>
+      </c>
+      <c r="C1087" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="D1087" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="E1087" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1087" s="12"/>
+      <c r="G1087" s="13" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1088" ht="14.5" spans="2:7">
+      <c r="B1088" s="11">
+        <v>22</v>
+      </c>
+      <c r="C1088" s="12" t="s">
+        <v>905</v>
+      </c>
+      <c r="D1088" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="E1088" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1088" s="12"/>
+      <c r="G1088" s="13"/>
+    </row>
+    <row r="1089" ht="14.5" spans="2:7">
+      <c r="B1089" s="11">
+        <v>23</v>
+      </c>
+      <c r="C1089" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1089" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1089" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1089" s="12"/>
+      <c r="G1089" s="32"/>
+    </row>
+    <row r="1090" ht="14.5" spans="2:7">
+      <c r="B1090" s="11">
+        <v>24</v>
+      </c>
+      <c r="C1090" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1090" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1090" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1090" s="12"/>
+      <c r="G1090" s="13"/>
+    </row>
+    <row r="1091" ht="14.5" spans="2:7">
+      <c r="B1091" s="11">
+        <v>25</v>
+      </c>
+      <c r="C1091" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1091" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1091" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1091" s="12"/>
+      <c r="G1091" s="13"/>
+    </row>
+    <row r="1092" ht="14.5" spans="2:7">
+      <c r="B1092" s="11">
+        <v>26</v>
+      </c>
+      <c r="C1092" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1092" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1092" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1092" s="12"/>
+      <c r="G1092" s="13"/>
+    </row>
+    <row r="1093" ht="14.5" spans="2:7">
+      <c r="B1093" s="11">
+        <v>27</v>
+      </c>
+      <c r="C1093" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1093" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1093" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1093" s="12"/>
+      <c r="G1093" s="13"/>
+    </row>
+    <row r="1094" ht="14.5" spans="2:7">
+      <c r="B1094" s="11">
+        <v>28</v>
+      </c>
+      <c r="C1094" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1094" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1094" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1094" s="12"/>
+      <c r="G1094" s="13"/>
+    </row>
+    <row r="1095" ht="14.5" spans="2:7">
+      <c r="B1095" s="11">
+        <v>29</v>
+      </c>
+      <c r="C1095" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1095" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1095" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1095" s="12"/>
+      <c r="G1095" s="13"/>
+    </row>
+    <row r="1096" ht="14.5" spans="2:7">
+      <c r="B1096" s="11">
+        <v>30</v>
+      </c>
+      <c r="C1096" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1096" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1096" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1096" s="12"/>
+      <c r="G1096" s="13"/>
+    </row>
+    <row r="1097" ht="15.25" spans="2:7">
+      <c r="B1097" s="11">
+        <v>31</v>
+      </c>
+      <c r="C1097" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1097" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1097" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1097" s="15"/>
+      <c r="G1097" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="125">
+  <mergeCells count="146">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C23:G23"/>
@@ -40984,6 +43164,14 @@
     <mergeCell ref="C888:G888"/>
     <mergeCell ref="C922:G922"/>
     <mergeCell ref="C923:G923"/>
+    <mergeCell ref="C960:G960"/>
+    <mergeCell ref="C961:G961"/>
+    <mergeCell ref="C995:G995"/>
+    <mergeCell ref="C996:G996"/>
+    <mergeCell ref="C1028:G1028"/>
+    <mergeCell ref="C1029:G1029"/>
+    <mergeCell ref="C1064:G1064"/>
+    <mergeCell ref="C1065:G1065"/>
     <mergeCell ref="G117:G120"/>
     <mergeCell ref="G121:G123"/>
     <mergeCell ref="G124:G126"/>
@@ -41050,6 +43238,19 @@
     <mergeCell ref="G936:G938"/>
     <mergeCell ref="G939:G941"/>
     <mergeCell ref="G942:G944"/>
+    <mergeCell ref="G966:G971"/>
+    <mergeCell ref="G972:G980"/>
+    <mergeCell ref="G1007:G1009"/>
+    <mergeCell ref="G1010:G1012"/>
+    <mergeCell ref="G1013:G1015"/>
+    <mergeCell ref="G1036:G1037"/>
+    <mergeCell ref="G1038:G1041"/>
+    <mergeCell ref="G1042:G1044"/>
+    <mergeCell ref="G1045:G1047"/>
+    <mergeCell ref="G1048:G1050"/>
+    <mergeCell ref="G1076:G1078"/>
+    <mergeCell ref="G1079:G1081"/>
+    <mergeCell ref="G1082:G1084"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
@@ -41093,7 +43294,7 @@
         <v>258</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1184</v>
+        <v>1196</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -41137,7 +43338,7 @@
         <v>267</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>1185</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="7" ht="14.5" spans="2:7">
@@ -41181,10 +43382,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>1186</v>
+        <v>1198</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>1187</v>
+        <v>1199</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>274</v>
@@ -41197,7 +43398,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>1188</v>
+        <v>1200</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>276</v>
@@ -41213,10 +43414,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>1189</v>
+        <v>1201</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>1190</v>
+        <v>1202</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>266</v>
@@ -41231,10 +43432,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>1191</v>
+        <v>1203</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>1192</v>
+        <v>1204</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>280</v>
@@ -41247,10 +43448,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>1193</v>
+        <v>1205</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>1194</v>
+        <v>1206</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>274</v>
@@ -41263,7 +43464,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>1195</v>
+        <v>1207</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>453</v>
@@ -41279,7 +43480,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>1196</v>
+        <v>1208</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>454</v>
@@ -41295,7 +43496,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>1197</v>
+        <v>1209</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>455</v>
@@ -41314,16 +43515,16 @@
         <v>535</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>1198</v>
+        <v>1210</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1199</v>
+        <v>1211</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="18" ht="14.5" spans="2:7">
@@ -41488,7 +43689,7 @@
         <v>258</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -41520,10 +43721,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="12" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>1202</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>1190</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>266</v>
@@ -41538,10 +43739,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>1192</v>
+        <v>1204</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>270</v>
@@ -41556,10 +43757,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>1194</v>
+        <v>1206</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>274</v>
@@ -41775,7 +43976,7 @@
         <v>257</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1205</v>
+        <v>1217</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -41819,10 +44020,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>1206</v>
+        <v>1218</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>1207</v>
+        <v>1219</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>266</v>
@@ -41837,10 +44038,10 @@
         <v>2</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>1208</v>
+        <v>1220</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>1209</v>
+        <v>1221</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>270</v>
@@ -41855,10 +44056,10 @@
         <v>3</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>1210</v>
+        <v>1222</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>1211</v>
+        <v>1223</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>274</v>
@@ -41873,10 +44074,10 @@
         <v>4</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>1212</v>
+        <v>1224</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>1213</v>
+        <v>1225</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>280</v>
@@ -41885,7 +44086,7 @@
         <v>271</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>1214</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="58" ht="14.5" spans="2:7">
@@ -41893,17 +44094,17 @@
         <v>5</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>1215</v>
+        <v>1227</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>1216</v>
+        <v>1228</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>277</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="13" t="s">
-        <v>1217</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="59" ht="14.5" spans="2:7">
@@ -41911,17 +44112,17 @@
         <v>6</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>1218</v>
+        <v>1230</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>1219</v>
+        <v>1231</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>274</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="13" t="s">
-        <v>1219</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="60" ht="14.5" spans="2:7">
@@ -42092,7 +44293,7 @@
         <v>257</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>1220</v>
+        <v>1232</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -42104,7 +44305,7 @@
         <v>258</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1221</v>
+        <v>1233</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -42136,10 +44337,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>1222</v>
+        <v>1234</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>1223</v>
+        <v>1235</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>266</v>
@@ -42154,10 +44355,10 @@
         <v>2</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>1224</v>
+        <v>1236</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>1225</v>
+        <v>1237</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>270</v>
@@ -42172,10 +44373,10 @@
         <v>3</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>1226</v>
+        <v>1238</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>1227</v>
+        <v>1239</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>274</v>
@@ -42240,10 +44441,10 @@
         <v>7</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>1186</v>
+        <v>1198</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>1187</v>
+        <v>1199</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>274</v>
@@ -42256,7 +44457,7 @@
         <v>8</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>1188</v>
+        <v>1200</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>276</v>
@@ -42272,10 +44473,10 @@
         <v>9</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>1189</v>
+        <v>1201</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>1190</v>
+        <v>1202</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>266</v>
@@ -42288,10 +44489,10 @@
         <v>10</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>1228</v>
+        <v>1240</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>1229</v>
+        <v>1241</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>318</v>
@@ -42307,7 +44508,7 @@
         <v>533</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>1230</v>
+        <v>1242</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>318</v>
@@ -42320,10 +44521,10 @@
         <v>12</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>1231</v>
+        <v>1243</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>1232</v>
+        <v>1244</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>318</v>
@@ -42336,17 +44537,17 @@
         <v>13</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>1233</v>
+        <v>1245</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>1234</v>
+        <v>1246</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="13" t="s">
-        <v>1235</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="88" ht="14.5" spans="2:7">
@@ -42354,10 +44555,10 @@
         <v>14</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>1236</v>
+        <v>1248</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>1237</v>
+        <v>1249</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>280</v>
@@ -42370,10 +44571,10 @@
         <v>15</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>1238</v>
+        <v>1250</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>1239</v>
+        <v>1251</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>280</v>
@@ -42396,7 +44597,7 @@
       </c>
       <c r="F90" s="12"/>
       <c r="G90" s="13" t="s">
-        <v>1240</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="91" ht="14.5" spans="2:7">
@@ -42549,7 +44750,7 @@
         <v>257</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1241</v>
+        <v>1253</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -42561,7 +44762,7 @@
         <v>258</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>1242</v>
+        <v>1254</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -42611,10 +44812,10 @@
         <v>2</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>1222</v>
+        <v>1234</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>1223</v>
+        <v>1235</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>266</v>
@@ -42627,17 +44828,17 @@
         <v>3</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>1206</v>
+        <v>1218</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>1207</v>
+        <v>1219</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>266</v>
       </c>
       <c r="F107" s="12"/>
       <c r="G107" s="13" t="s">
-        <v>1243</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="108" ht="14.5" spans="2:7">
@@ -42645,10 +44846,10 @@
         <v>4</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>1208</v>
+        <v>1220</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>1209</v>
+        <v>1221</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>270</v>
@@ -42663,10 +44864,10 @@
         <v>5</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>1210</v>
+        <v>1222</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>1211</v>
+        <v>1223</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>274</v>
@@ -42681,17 +44882,17 @@
         <v>6</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>1212</v>
+        <v>1224</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>1213</v>
+        <v>1225</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="13" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="111" ht="14.5" spans="2:7">
@@ -42699,10 +44900,10 @@
         <v>7</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>1215</v>
+        <v>1227</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>1216</v>
+        <v>1228</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>277</v>
@@ -42715,10 +44916,10 @@
         <v>8</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>1218</v>
+        <v>1230</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>1219</v>
+        <v>1231</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>274</v>
@@ -42731,10 +44932,10 @@
         <v>9</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>1245</v>
+        <v>1257</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>1246</v>
+        <v>1258</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>277</v>
@@ -42747,17 +44948,17 @@
         <v>10</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>1247</v>
+        <v>1259</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>1248</v>
+        <v>1260</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>274</v>
       </c>
       <c r="F114" s="12"/>
       <c r="G114" s="13" t="s">
-        <v>1249</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="115" ht="14.5" spans="2:7">
@@ -42765,10 +44966,10 @@
         <v>11</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>1250</v>
+        <v>1262</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>1251</v>
+        <v>1263</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>277</v>
@@ -42926,7 +45127,7 @@
         <v>257</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1252</v>
+        <v>1264</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -42938,7 +45139,7 @@
         <v>258</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>1253</v>
+        <v>1265</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
@@ -43024,10 +45225,10 @@
         <v>4</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>1254</v>
+        <v>1266</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>1255</v>
+        <v>1267</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>280</v>
@@ -43036,7 +45237,7 @@
         <v>271</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>1214</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="135" ht="14.5" spans="2:7">
@@ -43047,7 +45248,7 @@
         <v>808</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>1256</v>
+        <v>1268</v>
       </c>
       <c r="E135" s="12" t="s">
         <v>277</v>
@@ -43063,7 +45264,7 @@
         <v>810</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>1257</v>
+        <v>1269</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>274</v>
@@ -43076,10 +45277,10 @@
         <v>7</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>1258</v>
+        <v>1270</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>1259</v>
+        <v>1271</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>280</v>
@@ -43088,7 +45289,7 @@
         <v>271</v>
       </c>
       <c r="G137" s="27" t="s">
-        <v>1260</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="138" ht="14.5" spans="2:7">
@@ -43096,10 +45297,10 @@
         <v>8</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>1261</v>
+        <v>1273</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>1262</v>
+        <v>1274</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>311</v>
@@ -43122,7 +45323,7 @@
       </c>
       <c r="F139" s="12"/>
       <c r="G139" s="13" t="s">
-        <v>1263</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="140" ht="14.5" spans="2:7">
@@ -43275,7 +45476,7 @@
         <v>257</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>1264</v>
+        <v>1276</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -43287,7 +45488,7 @@
         <v>258</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>1253</v>
+        <v>1265</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -43407,10 +45608,10 @@
         <v>6</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>1186</v>
+        <v>1198</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>1187</v>
+        <v>1199</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>274</v>
@@ -43423,7 +45624,7 @@
         <v>7</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>1188</v>
+        <v>1200</v>
       </c>
       <c r="D161" s="12" t="s">
         <v>276</v>
@@ -43584,7 +45785,7 @@
         <v>257</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>1265</v>
+        <v>1277</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -43664,10 +45865,10 @@
         <v>3</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>1206</v>
+        <v>1218</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>1207</v>
+        <v>1219</v>
       </c>
       <c r="E178" s="12" t="s">
         <v>266</v>
@@ -43680,10 +45881,10 @@
         <v>4</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>1208</v>
+        <v>1220</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>1209</v>
+        <v>1221</v>
       </c>
       <c r="E179" s="12" t="s">
         <v>270</v>
@@ -43698,10 +45899,10 @@
         <v>5</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>1210</v>
+        <v>1222</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>1211</v>
+        <v>1223</v>
       </c>
       <c r="E180" s="12" t="s">
         <v>274</v>
@@ -43716,10 +45917,10 @@
         <v>6</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>1212</v>
+        <v>1224</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>1213</v>
+        <v>1225</v>
       </c>
       <c r="E181" s="12" t="s">
         <v>280</v>
@@ -43732,10 +45933,10 @@
         <v>7</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>1215</v>
+        <v>1227</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>1216</v>
+        <v>1228</v>
       </c>
       <c r="E182" s="12" t="s">
         <v>277</v>
@@ -43748,10 +45949,10 @@
         <v>8</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>1218</v>
+        <v>1230</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>1219</v>
+        <v>1231</v>
       </c>
       <c r="E183" s="12" t="s">
         <v>274</v>
@@ -43909,7 +46110,7 @@
         <v>257</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>1266</v>
+        <v>1278</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -43921,7 +46122,7 @@
         <v>258</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>1267</v>
+        <v>1279</v>
       </c>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -44019,10 +46220,10 @@
         <v>5</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>1254</v>
+        <v>1266</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>1255</v>
+        <v>1267</v>
       </c>
       <c r="E206" s="12" t="s">
         <v>280</v>
@@ -44087,10 +46288,10 @@
         <v>9</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>1186</v>
+        <v>1198</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>1187</v>
+        <v>1199</v>
       </c>
       <c r="E210" s="12" t="s">
         <v>274</v>
@@ -44103,7 +46304,7 @@
         <v>10</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>1188</v>
+        <v>1200</v>
       </c>
       <c r="D211" s="12" t="s">
         <v>276</v>
@@ -44119,10 +46320,10 @@
         <v>11</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>1268</v>
+        <v>1280</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>1269</v>
+        <v>1281</v>
       </c>
       <c r="E212" s="12" t="s">
         <v>318</v>
@@ -44149,7 +46350,7 @@
         <v>720</v>
       </c>
       <c r="G213" s="13" t="s">
-        <v>1263</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="214" ht="14.5" spans="2:7">
@@ -44302,7 +46503,7 @@
         <v>257</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>1270</v>
+        <v>1282</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -44314,7 +46515,7 @@
         <v>258</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>1271</v>
+        <v>1283</v>
       </c>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -44382,10 +46583,10 @@
         <v>3</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>1206</v>
+        <v>1218</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>1207</v>
+        <v>1219</v>
       </c>
       <c r="E230" s="12" t="s">
         <v>266</v>
@@ -44400,10 +46601,10 @@
         <v>4</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>1208</v>
+        <v>1220</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>1209</v>
+        <v>1221</v>
       </c>
       <c r="E231" s="12" t="s">
         <v>270</v>
@@ -44418,10 +46619,10 @@
         <v>5</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>1210</v>
+        <v>1222</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>1211</v>
+        <v>1223</v>
       </c>
       <c r="E232" s="12" t="s">
         <v>274</v>
@@ -44436,10 +46637,10 @@
         <v>6</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>1212</v>
+        <v>1224</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>1213</v>
+        <v>1225</v>
       </c>
       <c r="E233" s="12" t="s">
         <v>280</v>
@@ -44452,10 +46653,10 @@
         <v>7</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>1215</v>
+        <v>1227</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>1216</v>
+        <v>1228</v>
       </c>
       <c r="E234" s="12" t="s">
         <v>277</v>
@@ -44468,10 +46669,10 @@
         <v>8</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>1218</v>
+        <v>1230</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>1219</v>
+        <v>1231</v>
       </c>
       <c r="E235" s="12" t="s">
         <v>274</v>
@@ -44484,17 +46685,17 @@
         <v>9</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>1272</v>
+        <v>1284</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>1273</v>
+        <v>1285</v>
       </c>
       <c r="E236" t="s">
         <v>280</v>
       </c>
       <c r="F236" s="30"/>
       <c r="G236" s="31" t="s">
-        <v>1274</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="237" ht="14.5" spans="2:7">
@@ -44502,10 +46703,10 @@
         <v>10</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>1275</v>
+        <v>1287</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>1276</v>
+        <v>1288</v>
       </c>
       <c r="E237" s="12" t="s">
         <v>277</v>
@@ -44647,7 +46848,7 @@
         <v>257</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>1277</v>
+        <v>1289</v>
       </c>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -44659,7 +46860,7 @@
         <v>258</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>1278</v>
+        <v>1290</v>
       </c>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -44757,10 +46958,10 @@
         <v>5</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>1254</v>
+        <v>1266</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>1255</v>
+        <v>1267</v>
       </c>
       <c r="E256" s="12" t="s">
         <v>280</v>
@@ -44825,10 +47026,10 @@
         <v>9</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>1186</v>
+        <v>1198</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>1187</v>
+        <v>1199</v>
       </c>
       <c r="E260" s="12" t="s">
         <v>274</v>
@@ -44841,7 +47042,7 @@
         <v>10</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>1188</v>
+        <v>1200</v>
       </c>
       <c r="D261" s="12" t="s">
         <v>276</v>
@@ -44857,10 +47058,10 @@
         <v>11</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>1279</v>
+        <v>1291</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>1280</v>
+        <v>1292</v>
       </c>
       <c r="E262" s="12" t="s">
         <v>318</v>
@@ -44887,7 +47088,7 @@
         <v>720</v>
       </c>
       <c r="G263" s="13" t="s">
-        <v>1263</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="264" ht="14.5" spans="2:7">
@@ -45040,7 +47241,7 @@
         <v>257</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1281</v>
+        <v>1293</v>
       </c>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -45052,7 +47253,7 @@
         <v>258</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>1282</v>
+        <v>1294</v>
       </c>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -45120,10 +47321,10 @@
         <v>3</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>1206</v>
+        <v>1218</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>1207</v>
+        <v>1219</v>
       </c>
       <c r="E280" s="12" t="s">
         <v>266</v>
@@ -45138,10 +47339,10 @@
         <v>4</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>1208</v>
+        <v>1220</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>1209</v>
+        <v>1221</v>
       </c>
       <c r="E281" s="12" t="s">
         <v>270</v>
@@ -45156,10 +47357,10 @@
         <v>5</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>1210</v>
+        <v>1222</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>1211</v>
+        <v>1223</v>
       </c>
       <c r="E282" s="12" t="s">
         <v>274</v>
@@ -45174,10 +47375,10 @@
         <v>6</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>1212</v>
+        <v>1224</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>1213</v>
+        <v>1225</v>
       </c>
       <c r="E283" s="12" t="s">
         <v>280</v>
@@ -45190,10 +47391,10 @@
         <v>7</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>1215</v>
+        <v>1227</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>1216</v>
+        <v>1228</v>
       </c>
       <c r="E284" s="12" t="s">
         <v>277</v>
@@ -45206,10 +47407,10 @@
         <v>8</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>1218</v>
+        <v>1230</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>1219</v>
+        <v>1231</v>
       </c>
       <c r="E285" s="12" t="s">
         <v>274</v>
@@ -45222,17 +47423,17 @@
         <v>9</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>1283</v>
+        <v>1295</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
       <c r="E286" t="s">
         <v>280</v>
       </c>
       <c r="F286" s="30"/>
       <c r="G286" s="31" t="s">
-        <v>1274</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="287" ht="14.5" spans="2:7">
@@ -45240,10 +47441,10 @@
         <v>10</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>1285</v>
+        <v>1297</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>1276</v>
+        <v>1288</v>
       </c>
       <c r="E287" s="12" t="s">
         <v>277</v>
@@ -45385,7 +47586,7 @@
         <v>257</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>1286</v>
+        <v>1298</v>
       </c>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -45397,7 +47598,7 @@
         <v>258</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>1287</v>
+        <v>1299</v>
       </c>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
@@ -45499,10 +47700,10 @@
         <v>5</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>1186</v>
+        <v>1198</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>1187</v>
+        <v>1199</v>
       </c>
       <c r="E307" s="12" t="s">
         <v>274</v>
@@ -45515,7 +47716,7 @@
         <v>6</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>1188</v>
+        <v>1200</v>
       </c>
       <c r="D308" s="12" t="s">
         <v>276</v>
@@ -45531,19 +47732,19 @@
         <v>7</v>
       </c>
       <c r="C309" s="12" t="s">
-        <v>1288</v>
+        <v>1300</v>
       </c>
       <c r="D309" s="12" t="s">
-        <v>1289</v>
+        <v>1301</v>
       </c>
       <c r="E309" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F309" s="30" t="s">
-        <v>1290</v>
+        <v>1302</v>
       </c>
       <c r="G309" s="26" t="s">
-        <v>1291</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="310" ht="14.5" spans="2:7">
@@ -45551,10 +47752,10 @@
         <v>8</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>1292</v>
+        <v>1304</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>1293</v>
+        <v>1305</v>
       </c>
       <c r="E310" t="s">
         <v>318</v>
@@ -45569,10 +47770,10 @@
         <v>9</v>
       </c>
       <c r="C311" s="12" t="s">
-        <v>1294</v>
+        <v>1306</v>
       </c>
       <c r="D311" s="12" t="s">
-        <v>1295</v>
+        <v>1307</v>
       </c>
       <c r="E311" s="12" t="s">
         <v>280</v>
@@ -45581,7 +47782,7 @@
         <v>271</v>
       </c>
       <c r="G311" s="26" t="s">
-        <v>1296</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="312" ht="14.5" spans="2:7">
@@ -45605,13 +47806,13 @@
         <v>11</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>1297</v>
+        <v>1309</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>1298</v>
+        <v>1310</v>
       </c>
       <c r="E313" s="12" t="s">
-        <v>1299</v>
+        <v>1311</v>
       </c>
       <c r="F313" s="30"/>
       <c r="G313" s="26"/>
@@ -45621,17 +47822,17 @@
         <v>12</v>
       </c>
       <c r="C314" s="12" t="s">
-        <v>1300</v>
+        <v>1312</v>
       </c>
       <c r="D314" s="12" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
       <c r="E314" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F314" s="30"/>
       <c r="G314" s="26" t="s">
-        <v>1302</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="315" ht="14.5" spans="2:7">
@@ -45849,7 +48050,7 @@
         <v>258</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1303</v>
+        <v>1315</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -45881,10 +48082,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>1304</v>
+        <v>1316</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>1305</v>
+        <v>1317</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>266</v>
@@ -45899,10 +48100,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>1306</v>
+        <v>1318</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>270</v>
@@ -45917,10 +48118,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>1308</v>
+        <v>1320</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>1309</v>
+        <v>1321</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>277</v>
@@ -45935,10 +48136,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>1310</v>
+        <v>1322</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>1311</v>
+        <v>1323</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>280</v>
@@ -45947,7 +48148,7 @@
         <v>271</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>1312</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="11" ht="14.5" spans="2:7">
@@ -45955,10 +48156,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>1313</v>
+        <v>1325</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>1314</v>
+        <v>1326</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>280</v>
@@ -45967,7 +48168,7 @@
         <v>271</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>1315</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="12" ht="14.5" spans="2:7">
@@ -46132,7 +48333,7 @@
         <v>258</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1316</v>
+        <v>1328</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -46164,10 +48365,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="12" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>1317</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>1305</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>266</v>
@@ -46182,10 +48383,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>270</v>
@@ -46200,10 +48401,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>1319</v>
+        <v>1331</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>1320</v>
+        <v>1332</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>274</v>
@@ -46218,10 +48419,10 @@
         <v>4</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>1310</v>
+        <v>1322</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>1311</v>
+        <v>1323</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>280</v>
@@ -46230,7 +48431,7 @@
         <v>271</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>1312</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="32" ht="14.5" spans="2:7">
@@ -46238,10 +48439,10 @@
         <v>5</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>1321</v>
+        <v>1333</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -46409,7 +48610,7 @@
         <v>258</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>1323</v>
+        <v>1335</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -46441,10 +48642,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>1324</v>
+        <v>1336</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>1325</v>
+        <v>1337</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>266</v>
@@ -46459,10 +48660,10 @@
         <v>2</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>1326</v>
+        <v>1338</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>1327</v>
+        <v>1339</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>270</v>
@@ -46477,10 +48678,10 @@
         <v>3</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>1328</v>
+        <v>1340</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>1329</v>
+        <v>1341</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>274</v>
@@ -46495,10 +48696,10 @@
         <v>4</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>1330</v>
+        <v>1342</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>1331</v>
+        <v>1343</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>274</v>
@@ -46507,7 +48708,7 @@
         <v>271</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>1332</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="52" ht="14.5" spans="2:7">
@@ -46690,7 +48891,7 @@
         <v>258</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -46725,7 +48926,7 @@
         <v>464</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>1325</v>
+        <v>1337</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>266</v>
@@ -46740,10 +48941,10 @@
         <v>2</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>1324</v>
+        <v>1336</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>1325</v>
+        <v>1337</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>266</v>
@@ -46758,10 +48959,10 @@
         <v>3</v>
       </c>
       <c r="C69" s="12" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D69" s="12" t="s">
         <v>1317</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>1305</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>266</v>
@@ -46776,10 +48977,10 @@
         <v>4</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>270</v>
@@ -46792,10 +48993,10 @@
         <v>5</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>1319</v>
+        <v>1331</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>1320</v>
+        <v>1332</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>274</v>
@@ -46808,10 +49009,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>1310</v>
+        <v>1322</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>1311</v>
+        <v>1323</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>280</v>
@@ -46822,10 +49023,10 @@
     <row r="73" ht="14.5" spans="2:7">
       <c r="B73" s="11"/>
       <c r="C73" s="12" t="s">
-        <v>1321</v>
+        <v>1333</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
@@ -46836,10 +49037,10 @@
         <v>7</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>1334</v>
+        <v>1346</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>1335</v>
+        <v>1347</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>277</v>
@@ -46852,10 +49053,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>1336</v>
+        <v>1348</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>1337</v>
+        <v>1349</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>301</v>
@@ -46884,10 +49085,10 @@
         <v>10</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>1338</v>
+        <v>1350</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>1339</v>
+        <v>1351</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>301</v>
@@ -46900,10 +49101,10 @@
         <v>11</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>1340</v>
+        <v>1352</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>1341</v>
+        <v>1353</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>301</v>
@@ -46919,14 +49120,14 @@
         <v>605</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>1342</v>
+        <v>1354</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>274</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="25" t="s">
-        <v>1343</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="80" ht="14.5" spans="2:7">
@@ -47091,7 +49292,7 @@
         <v>258</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -47126,7 +49327,7 @@
         <v>464</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>1325</v>
+        <v>1337</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>266</v>
@@ -47141,10 +49342,10 @@
         <v>2</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>1324</v>
+        <v>1336</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>1325</v>
+        <v>1337</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>266</v>
@@ -47247,10 +49448,10 @@
         <v>8</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>1345</v>
+        <v>1357</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>311</v>
@@ -47268,7 +49469,7 @@
         <v>703</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>1347</v>
+        <v>1359</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>311</v>
@@ -47283,10 +49484,10 @@
         <v>10</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>1349</v>
+        <v>1361</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>441</v>
@@ -47295,7 +49496,7 @@
         <v>636</v>
       </c>
       <c r="G103" s="25" t="s">
-        <v>1350</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="104" ht="14.5" spans="2:7">
@@ -47303,10 +49504,10 @@
         <v>11</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>1352</v>
+        <v>1364</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>441</v>
@@ -47315,7 +49516,7 @@
         <v>636</v>
       </c>
       <c r="G104" s="25" t="s">
-        <v>1353</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="105" ht="14.5" spans="2:7">
@@ -47323,19 +49524,19 @@
         <v>12</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>1354</v>
+        <v>1366</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>1355</v>
+        <v>1367</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>441</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>1356</v>
+        <v>1368</v>
       </c>
       <c r="G105" s="25" t="s">
-        <v>1357</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="106" ht="14.5" spans="2:7">
@@ -47568,10 +49769,10 @@
         <v>3</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>1358</v>
+        <v>1370</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>1359</v>
+        <v>1371</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>274</v>
@@ -47586,10 +49787,10 @@
         <v>4</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>1324</v>
+        <v>1336</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>1325</v>
+        <v>1337</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>266</v>
@@ -47598,7 +49799,7 @@
         <v>271</v>
       </c>
       <c r="G123" s="26" t="s">
-        <v>1360</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="124" ht="14.5" spans="2:7">
@@ -47609,14 +49810,14 @@
         <v>722</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>1361</v>
+        <v>1373</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>266</v>
       </c>
       <c r="F124" s="12"/>
       <c r="G124" s="27" t="s">
-        <v>1362</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="125" ht="14.5" spans="2:7">
@@ -47627,7 +49828,7 @@
         <v>727</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>1363</v>
+        <v>1375</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>280</v>
@@ -47643,7 +49844,7 @@
         <v>725</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>1364</v>
+        <v>1376</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>280</v>
@@ -47659,7 +49860,7 @@
         <v>731</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>1365</v>
+        <v>1377</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>266</v>
@@ -47738,17 +49939,17 @@
         <v>13</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>1366</v>
+        <v>1378</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>1367</v>
+        <v>1379</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>274</v>
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="26" t="s">
-        <v>1368</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="133" ht="14.5" spans="2:7">
@@ -47768,7 +49969,7 @@
         <v>271</v>
       </c>
       <c r="G133" s="27" t="s">
-        <v>1369</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="134" ht="14.5" spans="2:7">
@@ -47846,10 +50047,10 @@
         <v>19</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>1370</v>
+        <v>1382</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>311</v>
@@ -47864,10 +50065,10 @@
         <v>20</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>1371</v>
+        <v>1383</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>1347</v>
+        <v>1359</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>311</v>
@@ -47885,7 +50086,7 @@
         <v>917</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>1372</v>
+        <v>1384</v>
       </c>
       <c r="E140" s="12" t="s">
         <v>301</v>
@@ -47898,10 +50099,10 @@
         <v>22</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>1345</v>
+        <v>1357</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>1373</v>
+        <v>1385</v>
       </c>
       <c r="E141" s="12" t="s">
         <v>301</v>
@@ -47910,7 +50111,7 @@
         <v>475</v>
       </c>
       <c r="G141" s="25" t="s">
-        <v>1374</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="142" ht="14.5" spans="2:7">
@@ -47918,10 +50119,10 @@
         <v>23</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>1375</v>
+        <v>1387</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>1376</v>
+        <v>1388</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>301</v>
@@ -47937,7 +50138,7 @@
         <v>703</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>1377</v>
+        <v>1389</v>
       </c>
       <c r="E143" s="12" t="s">
         <v>301</v>
@@ -47952,10 +50153,10 @@
         <v>25</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>1349</v>
+        <v>1361</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>301</v>
@@ -47970,10 +50171,10 @@
         <v>26</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>1352</v>
+        <v>1364</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>301</v>
@@ -47988,10 +50189,10 @@
         <v>27</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>1354</v>
+        <v>1366</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>1355</v>
+        <v>1367</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>301</v>
@@ -48006,10 +50207,10 @@
         <v>28</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>1378</v>
+        <v>1390</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>1379</v>
+        <v>1391</v>
       </c>
       <c r="E147" s="12" t="s">
         <v>301</v>
@@ -48024,10 +50225,10 @@
         <v>29</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>1380</v>
+        <v>1392</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>1381</v>
+        <v>1393</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>301</v>
@@ -48042,10 +50243,10 @@
         <v>30</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>1382</v>
+        <v>1394</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
       <c r="E149" s="12" t="s">
         <v>301</v>
@@ -48060,17 +50261,17 @@
         <v>31</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>1275</v>
+        <v>1287</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>1384</v>
+        <v>1396</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>270</v>
       </c>
       <c r="F150" s="12"/>
       <c r="G150" s="13" t="s">
-        <v>1385</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="151" ht="14.5" spans="2:7">
@@ -48078,10 +50279,10 @@
         <v>32</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>1386</v>
+        <v>1398</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>1387</v>
+        <v>1399</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>318</v>
@@ -48094,10 +50295,10 @@
         <v>33</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>1388</v>
+        <v>1400</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>1389</v>
+        <v>1401</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>318</v>
@@ -48110,10 +50311,10 @@
         <v>34</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>1390</v>
+        <v>1402</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>1391</v>
+        <v>1403</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>270</v>
@@ -48135,7 +50336,7 @@
         <v>270</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>1392</v>
+        <v>1404</v>
       </c>
       <c r="G154" s="25"/>
     </row>
@@ -48301,7 +50502,7 @@
         <v>258</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>1393</v>
+        <v>1405</v>
       </c>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -48354,7 +50555,7 @@
         <v>902</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>1394</v>
+        <v>1406</v>
       </c>
       <c r="E171" s="12" t="s">
         <v>266</v>
@@ -48369,10 +50570,10 @@
         <v>3</v>
       </c>
       <c r="C172" s="12" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D172" s="12" t="s">
         <v>1317</v>
-      </c>
-      <c r="D172" s="12" t="s">
-        <v>1305</v>
       </c>
       <c r="E172" s="12" t="s">
         <v>266</v>
@@ -48387,10 +50588,10 @@
         <v>4</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="E173" s="12" t="s">
         <v>270</v>
@@ -48403,10 +50604,10 @@
         <v>5</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>1319</v>
+        <v>1331</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>1320</v>
+        <v>1332</v>
       </c>
       <c r="E174" s="12" t="s">
         <v>274</v>
@@ -48419,10 +50620,10 @@
         <v>6</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>1310</v>
+        <v>1322</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>1311</v>
+        <v>1323</v>
       </c>
       <c r="E175" s="12" t="s">
         <v>280</v>
@@ -48435,10 +50636,10 @@
         <v>7</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>1321</v>
+        <v>1333</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="E176" s="12"/>
       <c r="F176" s="12"/>
@@ -48449,10 +50650,10 @@
         <v>8</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>1334</v>
+        <v>1346</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>1335</v>
+        <v>1347</v>
       </c>
       <c r="E177" s="12" t="s">
         <v>277</v>
@@ -48465,10 +50666,10 @@
         <v>9</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>1336</v>
+        <v>1348</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>1337</v>
+        <v>1349</v>
       </c>
       <c r="E178" s="12" t="s">
         <v>301</v>
@@ -48497,10 +50698,10 @@
         <v>11</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>1338</v>
+        <v>1350</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>1339</v>
+        <v>1351</v>
       </c>
       <c r="E180" s="12" t="s">
         <v>301</v>
@@ -48513,10 +50714,10 @@
         <v>12</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>1340</v>
+        <v>1352</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>1341</v>
+        <v>1353</v>
       </c>
       <c r="E181" s="12" t="s">
         <v>301</v>
@@ -48529,10 +50730,10 @@
         <v>13</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>1378</v>
+        <v>1390</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>1379</v>
+        <v>1391</v>
       </c>
       <c r="E182" s="12" t="s">
         <v>311</v>
@@ -48547,10 +50748,10 @@
         <v>14</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>1380</v>
+        <v>1392</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>1381</v>
+        <v>1393</v>
       </c>
       <c r="E183" s="12" t="s">
         <v>311</v>
@@ -48565,10 +50766,10 @@
         <v>15</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>1382</v>
+        <v>1394</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
       <c r="E184" s="12" t="s">
         <v>311</v>
@@ -48740,7 +50941,7 @@
         <v>258</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>1395</v>
+        <v>1407</v>
       </c>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -48793,7 +50994,7 @@
         <v>902</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>1396</v>
+        <v>1408</v>
       </c>
       <c r="E200" s="12" t="s">
         <v>266</v>
@@ -48811,7 +51012,7 @@
         <v>539</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>1397</v>
+        <v>1409</v>
       </c>
       <c r="E201" s="12" t="s">
         <v>266</v>
@@ -48826,10 +51027,10 @@
         <v>4</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>1308</v>
+        <v>1320</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>1309</v>
+        <v>1321</v>
       </c>
       <c r="E202" s="12" t="s">
         <v>277</v>
@@ -48838,7 +51039,7 @@
         <v>271</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>1398</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="203" ht="14.5" spans="2:7">
@@ -48846,10 +51047,10 @@
         <v>5</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>1313</v>
+        <v>1325</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>1314</v>
+        <v>1326</v>
       </c>
       <c r="E203" s="12" t="s">
         <v>280</v>
@@ -48858,7 +51059,7 @@
         <v>271</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>1315</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="204" ht="14.5" spans="2:7">
@@ -48866,10 +51067,10 @@
         <v>6</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>1399</v>
+        <v>1411</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>1400</v>
+        <v>1412</v>
       </c>
       <c r="E204" s="12" t="s">
         <v>311</v>
@@ -49073,10 +51274,10 @@
         <v>1</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>1401</v>
+        <v>1413</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>1396</v>
+        <v>1408</v>
       </c>
       <c r="E221" s="12" t="s">
         <v>266</v>
@@ -49091,10 +51292,10 @@
         <v>2</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>1402</v>
+        <v>1414</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>1403</v>
+        <v>1415</v>
       </c>
       <c r="E222" s="12" t="s">
         <v>270</v>
@@ -49107,17 +51308,17 @@
         <v>3</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>1404</v>
+        <v>1416</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>1405</v>
+        <v>1417</v>
       </c>
       <c r="E223" s="12" t="s">
         <v>274</v>
       </c>
       <c r="F223" s="12"/>
       <c r="G223" s="13" t="s">
-        <v>1406</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="224" ht="29" spans="2:7">
@@ -49125,17 +51326,17 @@
         <v>4</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>1407</v>
+        <v>1419</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>1408</v>
+        <v>1420</v>
       </c>
       <c r="E224" s="12" t="s">
         <v>270</v>
       </c>
       <c r="F224" s="12"/>
       <c r="G224" s="25" t="s">
-        <v>1409</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="225" ht="14.5" spans="2:7">
@@ -49143,10 +51344,10 @@
         <v>5</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>1324</v>
+        <v>1336</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>1325</v>
+        <v>1337</v>
       </c>
       <c r="E225" s="12" t="s">
         <v>266</v>
@@ -49155,7 +51356,7 @@
         <v>271</v>
       </c>
       <c r="G225" s="26" t="s">
-        <v>1360</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="226" ht="14.5" spans="2:7">
@@ -49166,14 +51367,14 @@
         <v>722</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>1361</v>
+        <v>1373</v>
       </c>
       <c r="E226" s="12" t="s">
         <v>266</v>
       </c>
       <c r="F226" s="12"/>
       <c r="G226" s="27" t="s">
-        <v>1410</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="227" ht="14.5" spans="2:7">
@@ -49184,7 +51385,7 @@
         <v>727</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>1363</v>
+        <v>1375</v>
       </c>
       <c r="E227" s="12" t="s">
         <v>280</v>
@@ -49200,7 +51401,7 @@
         <v>725</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>1364</v>
+        <v>1376</v>
       </c>
       <c r="E228" s="12" t="s">
         <v>280</v>
@@ -49216,7 +51417,7 @@
         <v>731</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>1365</v>
+        <v>1377</v>
       </c>
       <c r="E229" s="12" t="s">
         <v>266</v>
@@ -49239,7 +51440,7 @@
       </c>
       <c r="F230" s="12"/>
       <c r="G230" s="27" t="s">
-        <v>1411</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="231" ht="14.5" spans="2:7">
@@ -49289,7 +51490,7 @@
       </c>
       <c r="F233" s="12"/>
       <c r="G233" s="27" t="s">
-        <v>1412</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="234" ht="14.5" spans="2:7">
@@ -49339,7 +51540,7 @@
       </c>
       <c r="F236" s="12"/>
       <c r="G236" s="27" t="s">
-        <v>1413</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="237" ht="14.5" spans="2:7">
@@ -49389,7 +51590,7 @@
       </c>
       <c r="F239" s="12"/>
       <c r="G239" s="27" t="s">
-        <v>1414</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="240" ht="14.5" spans="2:7">
@@ -49439,7 +51640,7 @@
       </c>
       <c r="F242" s="12"/>
       <c r="G242" s="27" t="s">
-        <v>1415</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="243" ht="14.5" spans="2:7">
@@ -49511,17 +51712,17 @@
         <v>27</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>1345</v>
+        <v>1357</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>1416</v>
+        <v>1428</v>
       </c>
       <c r="E247" s="12" t="s">
         <v>301</v>
       </c>
       <c r="F247" s="12"/>
       <c r="G247" s="27" t="s">
-        <v>1417</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="248" ht="14.5" spans="2:7">
@@ -49545,10 +51746,10 @@
         <v>29</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>1375</v>
+        <v>1387</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>1376</v>
+        <v>1388</v>
       </c>
       <c r="E249" s="12" t="s">
         <v>301</v>
@@ -49561,10 +51762,10 @@
         <v>30</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>1352</v>
+        <v>1364</v>
       </c>
       <c r="E250" s="12" t="s">
         <v>301</v>
@@ -49577,10 +51778,10 @@
         <v>31</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>1354</v>
+        <v>1366</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>1355</v>
+        <v>1367</v>
       </c>
       <c r="E251" s="12" t="s">
         <v>301</v>
@@ -49593,10 +51794,10 @@
         <v>32</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>1378</v>
+        <v>1390</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>1379</v>
+        <v>1391</v>
       </c>
       <c r="E252" s="12" t="s">
         <v>301</v>
@@ -49609,10 +51810,10 @@
         <v>33</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>1380</v>
+        <v>1392</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>1381</v>
+        <v>1393</v>
       </c>
       <c r="E253" s="12" t="s">
         <v>301</v>
@@ -49625,10 +51826,10 @@
         <v>34</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>1382</v>
+        <v>1394</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
       <c r="E254" s="12" t="s">
         <v>301</v>
@@ -49641,10 +51842,10 @@
         <v>35</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>1275</v>
+        <v>1287</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>1384</v>
+        <v>1396</v>
       </c>
       <c r="E255" s="12" t="s">
         <v>270</v>
@@ -49657,10 +51858,10 @@
         <v>36</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>1388</v>
+        <v>1400</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>1389</v>
+        <v>1401</v>
       </c>
       <c r="E256" s="12" t="s">
         <v>318</v>
@@ -49673,10 +51874,10 @@
         <v>37</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>1390</v>
+        <v>1402</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>1391</v>
+        <v>1403</v>
       </c>
       <c r="E257" s="12" t="s">
         <v>270</v>
@@ -49698,7 +51899,7 @@
         <v>270</v>
       </c>
       <c r="F258" s="12" t="s">
-        <v>1392</v>
+        <v>1404</v>
       </c>
       <c r="G258" s="26"/>
     </row>
@@ -49852,7 +52053,7 @@
         <v>257</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>1418</v>
+        <v>1430</v>
       </c>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -49864,7 +52065,7 @@
         <v>258</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>1419</v>
+        <v>1431</v>
       </c>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -49914,10 +52115,10 @@
         <v>2</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>1401</v>
+        <v>1413</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>1420</v>
+        <v>1432</v>
       </c>
       <c r="E274" s="12" t="s">
         <v>266</v>
@@ -49932,10 +52133,10 @@
         <v>3</v>
       </c>
       <c r="C275" s="12" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D275" s="12" t="s">
         <v>1317</v>
-      </c>
-      <c r="D275" s="12" t="s">
-        <v>1305</v>
       </c>
       <c r="E275" s="12" t="s">
         <v>266</v>
@@ -49950,10 +52151,10 @@
         <v>4</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="E276" s="12" t="s">
         <v>270</v>
@@ -49966,10 +52167,10 @@
         <v>5</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>1319</v>
+        <v>1331</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>1320</v>
+        <v>1332</v>
       </c>
       <c r="E277" s="12" t="s">
         <v>274</v>
@@ -49982,10 +52183,10 @@
         <v>6</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>1310</v>
+        <v>1322</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>1311</v>
+        <v>1323</v>
       </c>
       <c r="E278" s="12" t="s">
         <v>280</v>
@@ -49998,10 +52199,10 @@
         <v>7</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>1321</v>
+        <v>1333</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="E279" s="12"/>
       <c r="F279" s="12"/>
@@ -50012,10 +52213,10 @@
         <v>8</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>1334</v>
+        <v>1346</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>1335</v>
+        <v>1347</v>
       </c>
       <c r="E280" s="12" t="s">
         <v>277</v>
@@ -50028,10 +52229,10 @@
         <v>9</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>1336</v>
+        <v>1348</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>1337</v>
+        <v>1349</v>
       </c>
       <c r="E281" s="12" t="s">
         <v>301</v>
@@ -50060,10 +52261,10 @@
         <v>11</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>1338</v>
+        <v>1350</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>1339</v>
+        <v>1351</v>
       </c>
       <c r="E283" s="12" t="s">
         <v>301</v>
@@ -50076,10 +52277,10 @@
         <v>12</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>1340</v>
+        <v>1352</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>1341</v>
+        <v>1353</v>
       </c>
       <c r="E284" s="12" t="s">
         <v>301</v>
@@ -50092,10 +52293,10 @@
         <v>13</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>1378</v>
+        <v>1390</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>1379</v>
+        <v>1391</v>
       </c>
       <c r="E285" s="12" t="s">
         <v>301</v>
@@ -50110,10 +52311,10 @@
         <v>14</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>1380</v>
+        <v>1392</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>1381</v>
+        <v>1393</v>
       </c>
       <c r="E286" s="12" t="s">
         <v>301</v>
@@ -50128,10 +52329,10 @@
         <v>15</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>1382</v>
+        <v>1394</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
       <c r="E287" s="12" t="s">
         <v>301</v>
@@ -50291,7 +52492,7 @@
         <v>257</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>1421</v>
+        <v>1433</v>
       </c>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -50303,7 +52504,7 @@
         <v>258</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>1422</v>
+        <v>1434</v>
       </c>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
@@ -50371,10 +52572,10 @@
         <v>3</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>1423</v>
+        <v>1435</v>
       </c>
       <c r="D305" s="12" t="s">
-        <v>1359</v>
+        <v>1371</v>
       </c>
       <c r="E305" s="12" t="s">
         <v>274</v>
@@ -50389,10 +52590,10 @@
         <v>4</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>1324</v>
+        <v>1336</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>1325</v>
+        <v>1337</v>
       </c>
       <c r="E306" s="12" t="s">
         <v>266</v>
@@ -50401,7 +52602,7 @@
         <v>271</v>
       </c>
       <c r="G306" s="26" t="s">
-        <v>1360</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="307" ht="14.5" spans="2:7">
@@ -50412,14 +52613,14 @@
         <v>722</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>1361</v>
+        <v>1373</v>
       </c>
       <c r="E307" s="12" t="s">
         <v>266</v>
       </c>
       <c r="F307" s="12"/>
       <c r="G307" s="27" t="s">
-        <v>1424</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="308" ht="14.5" spans="2:7">
@@ -50430,7 +52631,7 @@
         <v>727</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>1363</v>
+        <v>1375</v>
       </c>
       <c r="E308" s="12" t="s">
         <v>280</v>
@@ -50446,7 +52647,7 @@
         <v>725</v>
       </c>
       <c r="D309" s="12" t="s">
-        <v>1364</v>
+        <v>1376</v>
       </c>
       <c r="E309" s="12" t="s">
         <v>280</v>
@@ -50462,7 +52663,7 @@
         <v>731</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>1365</v>
+        <v>1377</v>
       </c>
       <c r="E310" s="12" t="s">
         <v>266</v>
@@ -50535,7 +52736,7 @@
       </c>
       <c r="F314" s="12"/>
       <c r="G314" s="26" t="s">
-        <v>1425</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="315" ht="14.5" spans="2:7">
@@ -50555,7 +52756,7 @@
         <v>271</v>
       </c>
       <c r="G315" s="27" t="s">
-        <v>1369</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="316" ht="14.5" spans="2:7">
@@ -50633,10 +52834,10 @@
         <v>18</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>1370</v>
+        <v>1382</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="E320" s="12" t="s">
         <v>301</v>
@@ -50651,10 +52852,10 @@
         <v>19</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>1371</v>
+        <v>1383</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>1347</v>
+        <v>1359</v>
       </c>
       <c r="E321" s="12" t="s">
         <v>301</v>
@@ -50669,10 +52870,10 @@
         <v>20</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>1426</v>
+        <v>1438</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>1427</v>
+        <v>1439</v>
       </c>
       <c r="E322" s="12" t="s">
         <v>301</v>
@@ -50685,10 +52886,10 @@
         <v>21</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>1345</v>
+        <v>1357</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>1373</v>
+        <v>1385</v>
       </c>
       <c r="E323" s="12" t="s">
         <v>301</v>
@@ -50697,7 +52898,7 @@
         <v>475</v>
       </c>
       <c r="G323" s="25" t="s">
-        <v>1374</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="324" ht="14.5" spans="2:7">
@@ -50708,7 +52909,7 @@
         <v>703</v>
       </c>
       <c r="D324" s="12" t="s">
-        <v>1377</v>
+        <v>1389</v>
       </c>
       <c r="E324" s="12" t="s">
         <v>301</v>
@@ -50723,10 +52924,10 @@
         <v>23</v>
       </c>
       <c r="C325" s="12" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>1349</v>
+        <v>1361</v>
       </c>
       <c r="E325" s="12" t="s">
         <v>301</v>
@@ -50741,10 +52942,10 @@
         <v>24</v>
       </c>
       <c r="C326" s="12" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="D326" s="12" t="s">
-        <v>1352</v>
+        <v>1364</v>
       </c>
       <c r="E326" s="12" t="s">
         <v>301</v>
@@ -50759,10 +52960,10 @@
         <v>25</v>
       </c>
       <c r="C327" s="12" t="s">
-        <v>1354</v>
+        <v>1366</v>
       </c>
       <c r="D327" s="12" t="s">
-        <v>1355</v>
+        <v>1367</v>
       </c>
       <c r="E327" s="12" t="s">
         <v>301</v>
@@ -50777,10 +52978,10 @@
         <v>26</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>1378</v>
+        <v>1390</v>
       </c>
       <c r="D328" s="12" t="s">
-        <v>1379</v>
+        <v>1391</v>
       </c>
       <c r="E328" s="12" t="s">
         <v>301</v>
@@ -50795,10 +52996,10 @@
         <v>27</v>
       </c>
       <c r="C329" s="12" t="s">
-        <v>1380</v>
+        <v>1392</v>
       </c>
       <c r="D329" s="12" t="s">
-        <v>1381</v>
+        <v>1393</v>
       </c>
       <c r="E329" s="12" t="s">
         <v>301</v>
@@ -50813,10 +53014,10 @@
         <v>28</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>1382</v>
+        <v>1394</v>
       </c>
       <c r="D330" s="12" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
       <c r="E330" s="12" t="s">
         <v>301</v>
@@ -50831,17 +53032,17 @@
         <v>29</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>1275</v>
+        <v>1287</v>
       </c>
       <c r="D331" s="12" t="s">
-        <v>1384</v>
+        <v>1396</v>
       </c>
       <c r="E331" s="12" t="s">
         <v>270</v>
       </c>
       <c r="F331" s="12"/>
       <c r="G331" s="13" t="s">
-        <v>1385</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="332" ht="14.5" spans="2:7">
@@ -50849,10 +53050,10 @@
         <v>30</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>1428</v>
+        <v>1440</v>
       </c>
       <c r="D332" s="12" t="s">
-        <v>1429</v>
+        <v>1441</v>
       </c>
       <c r="E332" s="12" t="s">
         <v>318</v>
@@ -50865,10 +53066,10 @@
         <v>31</v>
       </c>
       <c r="C333" s="12" t="s">
-        <v>1388</v>
+        <v>1400</v>
       </c>
       <c r="D333" s="12" t="s">
-        <v>1389</v>
+        <v>1401</v>
       </c>
       <c r="E333" s="12" t="s">
         <v>318</v>
@@ -50881,10 +53082,10 @@
         <v>32</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>1390</v>
+        <v>1402</v>
       </c>
       <c r="D334" s="12" t="s">
-        <v>1391</v>
+        <v>1403</v>
       </c>
       <c r="E334" s="12" t="s">
         <v>270</v>
@@ -50906,7 +53107,7 @@
         <v>270</v>
       </c>
       <c r="F335" s="12" t="s">
-        <v>1392</v>
+        <v>1404</v>
       </c>
       <c r="G335" s="25"/>
     </row>
@@ -51060,7 +53261,7 @@
         <v>257</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>1430</v>
+        <v>1442</v>
       </c>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -51072,7 +53273,7 @@
         <v>258</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>1431</v>
+        <v>1443</v>
       </c>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -51125,7 +53326,7 @@
         <v>990</v>
       </c>
       <c r="D352" s="12" t="s">
-        <v>1432</v>
+        <v>1444</v>
       </c>
       <c r="E352" s="12" t="s">
         <v>266</v>
@@ -51140,10 +53341,10 @@
         <v>3</v>
       </c>
       <c r="C353" s="12" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D353" s="12" t="s">
         <v>1317</v>
-      </c>
-      <c r="D353" s="12" t="s">
-        <v>1305</v>
       </c>
       <c r="E353" s="12" t="s">
         <v>266</v>
@@ -51158,10 +53359,10 @@
         <v>4</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
       <c r="D354" s="12" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="E354" s="12" t="s">
         <v>270</v>
@@ -51174,10 +53375,10 @@
         <v>5</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>1319</v>
+        <v>1331</v>
       </c>
       <c r="D355" s="12" t="s">
-        <v>1320</v>
+        <v>1332</v>
       </c>
       <c r="E355" s="12" t="s">
         <v>274</v>
@@ -51190,10 +53391,10 @@
         <v>6</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>1310</v>
+        <v>1322</v>
       </c>
       <c r="D356" s="12" t="s">
-        <v>1311</v>
+        <v>1323</v>
       </c>
       <c r="E356" s="12" t="s">
         <v>280</v>
@@ -51206,10 +53407,10 @@
         <v>7</v>
       </c>
       <c r="C357" s="12" t="s">
-        <v>1321</v>
+        <v>1333</v>
       </c>
       <c r="D357" s="12" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="E357" s="12"/>
       <c r="F357" s="12"/>
@@ -51220,10 +53421,10 @@
         <v>8</v>
       </c>
       <c r="C358" s="12" t="s">
-        <v>1334</v>
+        <v>1346</v>
       </c>
       <c r="D358" s="12" t="s">
-        <v>1335</v>
+        <v>1347</v>
       </c>
       <c r="E358" s="12" t="s">
         <v>277</v>
@@ -51236,10 +53437,10 @@
         <v>9</v>
       </c>
       <c r="C359" s="12" t="s">
-        <v>1336</v>
+        <v>1348</v>
       </c>
       <c r="D359" s="12" t="s">
-        <v>1337</v>
+        <v>1349</v>
       </c>
       <c r="E359" s="12" t="s">
         <v>301</v>
@@ -51268,10 +53469,10 @@
         <v>11</v>
       </c>
       <c r="C361" s="12" t="s">
-        <v>1338</v>
+        <v>1350</v>
       </c>
       <c r="D361" s="12" t="s">
-        <v>1339</v>
+        <v>1351</v>
       </c>
       <c r="E361" s="12" t="s">
         <v>301</v>
@@ -51284,10 +53485,10 @@
         <v>12</v>
       </c>
       <c r="C362" s="12" t="s">
-        <v>1340</v>
+        <v>1352</v>
       </c>
       <c r="D362" s="12" t="s">
-        <v>1341</v>
+        <v>1353</v>
       </c>
       <c r="E362" s="12" t="s">
         <v>301</v>
@@ -51300,10 +53501,10 @@
         <v>13</v>
       </c>
       <c r="C363" s="12" t="s">
-        <v>1378</v>
+        <v>1390</v>
       </c>
       <c r="D363" s="12" t="s">
-        <v>1379</v>
+        <v>1391</v>
       </c>
       <c r="E363" s="12" t="s">
         <v>311</v>
@@ -51318,10 +53519,10 @@
         <v>14</v>
       </c>
       <c r="C364" s="12" t="s">
-        <v>1380</v>
+        <v>1392</v>
       </c>
       <c r="D364" s="12" t="s">
-        <v>1381</v>
+        <v>1393</v>
       </c>
       <c r="E364" s="12" t="s">
         <v>311</v>
@@ -51336,10 +53537,10 @@
         <v>15</v>
       </c>
       <c r="C365" s="12" t="s">
-        <v>1382</v>
+        <v>1394</v>
       </c>
       <c r="D365" s="12" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
       <c r="E365" s="12" t="s">
         <v>311</v>
@@ -51608,7 +53809,7 @@
         <v>486</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>1433</v>
+        <v>1445</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>266</v>
@@ -51626,7 +53827,7 @@
         <v>488</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>1434</v>
+        <v>1446</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>270</v>
@@ -51644,7 +53845,7 @@
         <v>490</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>1435</v>
+        <v>1447</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>274</v>
@@ -51659,19 +53860,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>1436</v>
+        <v>1448</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>294</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1438</v>
+        <v>1450</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>1439</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="9" ht="14.5" spans="2:7">
@@ -51679,17 +53880,17 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>1440</v>
+        <v>1452</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>1441</v>
+        <v>1453</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>284</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="13" t="s">
-        <v>1442</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="10" ht="14.5" spans="2:7">
@@ -51697,17 +53898,17 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>1443</v>
+        <v>1455</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>1444</v>
+        <v>1456</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>311</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13" t="s">
-        <v>1445</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="11" ht="14.5" spans="2:7">
@@ -51904,10 +54105,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>1446</v>
+        <v>1458</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>1447</v>
+        <v>1459</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>266</v>
@@ -51922,10 +54123,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>1448</v>
+        <v>1460</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>1434</v>
+        <v>1446</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>270</v>
@@ -51938,10 +54139,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>1449</v>
+        <v>1461</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>1435</v>
+        <v>1447</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>274</v>
@@ -51956,10 +54157,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>1450</v>
+        <v>1462</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>1187</v>
+        <v>1199</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>274</v>
@@ -51972,10 +54173,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>1451</v>
+        <v>1463</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>1452</v>
+        <v>1464</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>274</v>
@@ -51991,7 +54192,7 @@
         <v>486</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>1433</v>
+        <v>1445</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>266</v>
@@ -52009,7 +54210,7 @@
         <v>488</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>1453</v>
+        <v>1465</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>280</v>
@@ -52025,7 +54226,7 @@
         <v>490</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>1454</v>
+        <v>1466</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>274</v>
@@ -52038,19 +54239,19 @@
         <v>4</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>1436</v>
+        <v>1448</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>294</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>1438</v>
+        <v>1450</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>1439</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="35" ht="14.5" spans="2:7">
@@ -52070,7 +54271,7 @@
         <v>621</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>1455</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="36" ht="14.5" spans="2:7">
@@ -52078,10 +54279,10 @@
         <v>10</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>1456</v>
+        <v>1468</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>1457</v>
+        <v>1469</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>311</v>
@@ -52090,7 +54291,7 @@
         <v>475</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>1458</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="37" ht="14.5" spans="2:7">
@@ -52098,17 +54299,17 @@
         <v>11</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>1440</v>
+        <v>1452</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>1441</v>
+        <v>1453</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>284</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="13" t="s">
-        <v>1442</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="38" ht="14.5" spans="2:7">
@@ -52116,17 +54317,17 @@
         <v>12</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>1459</v>
+        <v>1471</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>1460</v>
+        <v>1472</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>311</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="13" t="s">
-        <v>1461</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="39" ht="14.5" spans="2:7">
@@ -52134,17 +54335,17 @@
         <v>13</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>1462</v>
+        <v>1474</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>1463</v>
+        <v>1475</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>318</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="13" t="s">
-        <v>1464</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="40" ht="14.5" spans="2:7">
@@ -52161,10 +54362,10 @@
         <v>280</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>1465</v>
+        <v>1477</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>1466</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="41" ht="14.5" spans="2:7">
